--- a/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
+++ b/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\InteractiveWaterBudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED6CDEE-426E-4B5C-B516-5BCF757E79CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E6F8CC-6741-4150-AD77-3FA91804BF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="2" activeTab="4" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="2" activeTab="2" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe-Directions" sheetId="6" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Powell-Elevation-Area" sheetId="2" r:id="rId5"/>
     <sheet name="Mead-Elevation-Area" sheetId="10" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="163">
   <si>
     <t xml:space="preserve">    To Upper Basin</t>
   </si>
@@ -508,6 +505,21 @@
   <si>
     <t>Split of Lee Ferry Natural after half of Mexico obligation</t>
   </si>
+  <si>
+    <t>Account Withdrawals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Upper Basin - Consumptive Use and Headwaters losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Lower Basin - Release from Mead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mohave / Havasu Evaporation &amp; ET - Release from Mead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mexico - Release from Mead</t>
+  </si>
 </sst>
 </file>
 
@@ -569,7 +581,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,8 +615,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -711,6 +729,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -721,7 +752,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -863,6 +894,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -18227,5408 +18265,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ReadMe-Directions"/>
-      <sheetName val="Master"/>
-      <sheetName val="HydrologicScenarios"/>
-      <sheetName val="Millennium-DER"/>
-      <sheetName val="Millennium-LawOfRiver"/>
-      <sheetName val="Powell-Elevation-Area"/>
-      <sheetName val="Mead-Elevation-Area"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6">
-        <row r="5">
-          <cell r="A5">
-            <v>895</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>895.5</v>
-          </cell>
-          <cell r="B6">
-            <v>15111</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>896</v>
-          </cell>
-          <cell r="B7">
-            <v>30270</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>896.5</v>
-          </cell>
-          <cell r="B8">
-            <v>45479</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>897</v>
-          </cell>
-          <cell r="B9">
-            <v>60736</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>897.5</v>
-          </cell>
-          <cell r="B10">
-            <v>76043</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>898</v>
-          </cell>
-          <cell r="B11">
-            <v>91397.999999899999</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>898.5</v>
-          </cell>
-          <cell r="B12">
-            <v>106803</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>899</v>
-          </cell>
-          <cell r="B13">
-            <v>122257</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>899.5</v>
-          </cell>
-          <cell r="B14">
-            <v>137759</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>900</v>
-          </cell>
-          <cell r="B15">
-            <v>153311</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>900.5</v>
-          </cell>
-          <cell r="B16">
-            <v>168917</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>901</v>
-          </cell>
-          <cell r="B17">
-            <v>184584</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>901.5</v>
-          </cell>
-          <cell r="B18">
-            <v>200311</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>902</v>
-          </cell>
-          <cell r="B19">
-            <v>216098</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>902.5</v>
-          </cell>
-          <cell r="B20">
-            <v>231946</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>903</v>
-          </cell>
-          <cell r="B21">
-            <v>247854</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>903.5</v>
-          </cell>
-          <cell r="B22">
-            <v>263822</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>904</v>
-          </cell>
-          <cell r="B23">
-            <v>279851</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>904.5</v>
-          </cell>
-          <cell r="B24">
-            <v>295939</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>905</v>
-          </cell>
-          <cell r="B25">
-            <v>312088</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>905.5</v>
-          </cell>
-          <cell r="B26">
-            <v>328298</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>906</v>
-          </cell>
-          <cell r="B27">
-            <v>344568</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>906.5</v>
-          </cell>
-          <cell r="B28">
-            <v>360898</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>907</v>
-          </cell>
-          <cell r="B29">
-            <v>377288</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>907.5</v>
-          </cell>
-          <cell r="B30">
-            <v>393739</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>908</v>
-          </cell>
-          <cell r="B31">
-            <v>410250</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>908.5</v>
-          </cell>
-          <cell r="B32">
-            <v>426821</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>909</v>
-          </cell>
-          <cell r="B33">
-            <v>443452</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>909.5</v>
-          </cell>
-          <cell r="B34">
-            <v>460144</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>910</v>
-          </cell>
-          <cell r="B35">
-            <v>476896</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>910.5</v>
-          </cell>
-          <cell r="B36">
-            <v>493708</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>911</v>
-          </cell>
-          <cell r="B37">
-            <v>510579</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>911.5</v>
-          </cell>
-          <cell r="B38">
-            <v>527509</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>912</v>
-          </cell>
-          <cell r="B39">
-            <v>544497</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>912.5</v>
-          </cell>
-          <cell r="B40">
-            <v>561545</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>913</v>
-          </cell>
-          <cell r="B41">
-            <v>578651</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>913.5</v>
-          </cell>
-          <cell r="B42">
-            <v>595817</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>914</v>
-          </cell>
-          <cell r="B43">
-            <v>613041</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>914.5</v>
-          </cell>
-          <cell r="B44">
-            <v>630324</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>915</v>
-          </cell>
-          <cell r="B45">
-            <v>647667</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>915.5</v>
-          </cell>
-          <cell r="B46">
-            <v>665068</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>916</v>
-          </cell>
-          <cell r="B47">
-            <v>682528</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>916.5</v>
-          </cell>
-          <cell r="B48">
-            <v>700047</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>917</v>
-          </cell>
-          <cell r="B49">
-            <v>717625</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>917.5</v>
-          </cell>
-          <cell r="B50">
-            <v>735262</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>918</v>
-          </cell>
-          <cell r="B51">
-            <v>752958</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>918.5</v>
-          </cell>
-          <cell r="B52">
-            <v>770713</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>919</v>
-          </cell>
-          <cell r="B53">
-            <v>788526</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>919.5</v>
-          </cell>
-          <cell r="B54">
-            <v>806399</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>920</v>
-          </cell>
-          <cell r="B55">
-            <v>824331.00000200002</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>920.5</v>
-          </cell>
-          <cell r="B56">
-            <v>842319.99999799998</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>921</v>
-          </cell>
-          <cell r="B57">
-            <v>860367.00000400003</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>921.5</v>
-          </cell>
-          <cell r="B58">
-            <v>878470.99999799998</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>922</v>
-          </cell>
-          <cell r="B59">
-            <v>896630.99999799998</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>922.5</v>
-          </cell>
-          <cell r="B60">
-            <v>914849.00000100001</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>923</v>
-          </cell>
-          <cell r="B61">
-            <v>933123.00000200002</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>923.5</v>
-          </cell>
-          <cell r="B62">
-            <v>951454.99999699998</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>924</v>
-          </cell>
-          <cell r="B63">
-            <v>969843.99999599997</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>924.5</v>
-          </cell>
-          <cell r="B64">
-            <v>988290</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>925</v>
-          </cell>
-          <cell r="B65">
-            <v>1006793</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>925.5</v>
-          </cell>
-          <cell r="B66">
-            <v>1025353</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>926</v>
-          </cell>
-          <cell r="B67">
-            <v>1043970</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>926.5</v>
-          </cell>
-          <cell r="B68">
-            <v>1062644</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>927</v>
-          </cell>
-          <cell r="B69">
-            <v>1081375</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>927.5</v>
-          </cell>
-          <cell r="B70">
-            <v>1100163</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>928</v>
-          </cell>
-          <cell r="B71">
-            <v>1119008</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>928.5</v>
-          </cell>
-          <cell r="B72">
-            <v>1137910</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>929</v>
-          </cell>
-          <cell r="B73">
-            <v>1156869</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>929.5</v>
-          </cell>
-          <cell r="B74">
-            <v>1175885</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>930</v>
-          </cell>
-          <cell r="B75">
-            <v>1194958</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>930.5</v>
-          </cell>
-          <cell r="B76">
-            <v>1214089</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>931</v>
-          </cell>
-          <cell r="B77">
-            <v>1233278</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>931.5</v>
-          </cell>
-          <cell r="B78">
-            <v>1252525</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>932</v>
-          </cell>
-          <cell r="B79">
-            <v>1271830</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>932.5</v>
-          </cell>
-          <cell r="B80">
-            <v>1291193</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>933</v>
-          </cell>
-          <cell r="B81">
-            <v>1310614</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>933.5</v>
-          </cell>
-          <cell r="B82">
-            <v>1330093</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>934</v>
-          </cell>
-          <cell r="B83">
-            <v>1349630</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>934.5</v>
-          </cell>
-          <cell r="B84">
-            <v>1369226</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>935</v>
-          </cell>
-          <cell r="B85">
-            <v>1388879</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>935.5</v>
-          </cell>
-          <cell r="B86">
-            <v>1408591</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>936</v>
-          </cell>
-          <cell r="B87">
-            <v>1428360</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>936.5</v>
-          </cell>
-          <cell r="B88">
-            <v>1448188</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>937</v>
-          </cell>
-          <cell r="B89">
-            <v>1468074</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>937.5</v>
-          </cell>
-          <cell r="B90">
-            <v>1488018</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>938</v>
-          </cell>
-          <cell r="B91">
-            <v>1508019</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>938.5</v>
-          </cell>
-          <cell r="B92">
-            <v>1528079</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>939</v>
-          </cell>
-          <cell r="B93">
-            <v>1548198</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>939.5</v>
-          </cell>
-          <cell r="B94">
-            <v>1568374</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>940</v>
-          </cell>
-          <cell r="B95">
-            <v>1588608</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>940.5</v>
-          </cell>
-          <cell r="B96">
-            <v>1608900</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>941</v>
-          </cell>
-          <cell r="B97">
-            <v>1629251</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>941.5</v>
-          </cell>
-          <cell r="B98">
-            <v>1649661</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>942</v>
-          </cell>
-          <cell r="B99">
-            <v>1670130</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>942.5</v>
-          </cell>
-          <cell r="B100">
-            <v>1690656</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>943</v>
-          </cell>
-          <cell r="B101">
-            <v>1711242</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>943.5</v>
-          </cell>
-          <cell r="B102">
-            <v>1731886</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>944</v>
-          </cell>
-          <cell r="B103">
-            <v>1752588</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>944.5</v>
-          </cell>
-          <cell r="B104">
-            <v>1773349</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>945</v>
-          </cell>
-          <cell r="B105">
-            <v>1794169</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>945.5</v>
-          </cell>
-          <cell r="B106">
-            <v>1815047</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>946</v>
-          </cell>
-          <cell r="B107">
-            <v>1835984</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>946.5</v>
-          </cell>
-          <cell r="B108">
-            <v>1856979</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>947</v>
-          </cell>
-          <cell r="B109">
-            <v>1878033</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>947.5</v>
-          </cell>
-          <cell r="B110">
-            <v>1899145</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>948</v>
-          </cell>
-          <cell r="B111">
-            <v>1920316</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>948.5</v>
-          </cell>
-          <cell r="B112">
-            <v>1941545</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>949</v>
-          </cell>
-          <cell r="B113">
-            <v>1962834</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>949.5</v>
-          </cell>
-          <cell r="B114">
-            <v>1984180</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>950</v>
-          </cell>
-          <cell r="B115">
-            <v>2005585</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>950.5</v>
-          </cell>
-          <cell r="B116">
-            <v>2027052</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>951</v>
-          </cell>
-          <cell r="B117">
-            <v>2048584</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>951.5</v>
-          </cell>
-          <cell r="B118">
-            <v>2070180</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>952</v>
-          </cell>
-          <cell r="B119">
-            <v>2091842</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>952.5</v>
-          </cell>
-          <cell r="B120">
-            <v>2113568</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>953</v>
-          </cell>
-          <cell r="B121">
-            <v>2135358</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>953.5</v>
-          </cell>
-          <cell r="B122">
-            <v>2157214</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>954</v>
-          </cell>
-          <cell r="B123">
-            <v>2179135</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>954.5</v>
-          </cell>
-          <cell r="B124">
-            <v>2201120</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>955</v>
-          </cell>
-          <cell r="B125">
-            <v>2223170</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>955.5</v>
-          </cell>
-          <cell r="B126">
-            <v>2245285</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>956</v>
-          </cell>
-          <cell r="B127">
-            <v>2267464</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>956.5</v>
-          </cell>
-          <cell r="B128">
-            <v>2289709</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>957</v>
-          </cell>
-          <cell r="B129">
-            <v>2312018</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>957.5</v>
-          </cell>
-          <cell r="B130">
-            <v>2334392</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>958</v>
-          </cell>
-          <cell r="B131">
-            <v>2356831</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>958.5</v>
-          </cell>
-          <cell r="B132">
-            <v>2379335</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>959</v>
-          </cell>
-          <cell r="B133">
-            <v>2401903</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>959.5</v>
-          </cell>
-          <cell r="B134">
-            <v>2424536</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>960</v>
-          </cell>
-          <cell r="B135">
-            <v>2447235</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>960.5</v>
-          </cell>
-          <cell r="B136">
-            <v>2469995</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>961</v>
-          </cell>
-          <cell r="B137">
-            <v>2492815</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>961.5</v>
-          </cell>
-          <cell r="B138">
-            <v>2515695</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>962</v>
-          </cell>
-          <cell r="B139">
-            <v>2538634</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>962.5</v>
-          </cell>
-          <cell r="B140">
-            <v>2561633</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>963</v>
-          </cell>
-          <cell r="B141">
-            <v>2584691</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>963.5</v>
-          </cell>
-          <cell r="B142">
-            <v>2607809</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>964</v>
-          </cell>
-          <cell r="B143">
-            <v>2630987</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>964.5</v>
-          </cell>
-          <cell r="B144">
-            <v>2654225</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>965</v>
-          </cell>
-          <cell r="B145">
-            <v>2677522</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>965.5</v>
-          </cell>
-          <cell r="B146">
-            <v>2700878</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>966</v>
-          </cell>
-          <cell r="B147">
-            <v>2724295</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>966.5</v>
-          </cell>
-          <cell r="B148">
-            <v>2747771</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149">
-            <v>967</v>
-          </cell>
-          <cell r="B149">
-            <v>2771306</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150">
-            <v>967.5</v>
-          </cell>
-          <cell r="B150">
-            <v>2794901</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151">
-            <v>968</v>
-          </cell>
-          <cell r="B151">
-            <v>2818556</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152">
-            <v>968.5</v>
-          </cell>
-          <cell r="B152">
-            <v>2842271</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153">
-            <v>969</v>
-          </cell>
-          <cell r="B153">
-            <v>2866046</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154">
-            <v>969.5</v>
-          </cell>
-          <cell r="B154">
-            <v>2889878</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155">
-            <v>970</v>
-          </cell>
-          <cell r="B155">
-            <v>2913772</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156">
-            <v>970.5</v>
-          </cell>
-          <cell r="B156">
-            <v>2937729</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157">
-            <v>971</v>
-          </cell>
-          <cell r="B157">
-            <v>2961753</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158">
-            <v>971.5</v>
-          </cell>
-          <cell r="B158">
-            <v>2985843</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159">
-            <v>972</v>
-          </cell>
-          <cell r="B159">
-            <v>3010001</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160">
-            <v>972.5</v>
-          </cell>
-          <cell r="B160">
-            <v>3034226</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161">
-            <v>973</v>
-          </cell>
-          <cell r="B161">
-            <v>3058517</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162">
-            <v>973.5</v>
-          </cell>
-          <cell r="B162">
-            <v>3082876</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163">
-            <v>974</v>
-          </cell>
-          <cell r="B163">
-            <v>3107301</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164">
-            <v>974.5</v>
-          </cell>
-          <cell r="B164">
-            <v>3131794</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165">
-            <v>975</v>
-          </cell>
-          <cell r="B165">
-            <v>3156353</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166">
-            <v>975.5</v>
-          </cell>
-          <cell r="B166">
-            <v>3180979</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167">
-            <v>976</v>
-          </cell>
-          <cell r="B167">
-            <v>3205673</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168">
-            <v>976.5</v>
-          </cell>
-          <cell r="B168">
-            <v>3230433</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169">
-            <v>977</v>
-          </cell>
-          <cell r="B169">
-            <v>3255260</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170">
-            <v>977.5</v>
-          </cell>
-          <cell r="B170">
-            <v>3280154</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171">
-            <v>978</v>
-          </cell>
-          <cell r="B171">
-            <v>3305115</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172">
-            <v>978.5</v>
-          </cell>
-          <cell r="B172">
-            <v>3330143</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173">
-            <v>979</v>
-          </cell>
-          <cell r="B173">
-            <v>3355238</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174">
-            <v>979.5</v>
-          </cell>
-          <cell r="B174">
-            <v>3380401</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175">
-            <v>980</v>
-          </cell>
-          <cell r="B175">
-            <v>3405630</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176">
-            <v>980.5</v>
-          </cell>
-          <cell r="B176">
-            <v>3430929</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177">
-            <v>981</v>
-          </cell>
-          <cell r="B177">
-            <v>3456303</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178">
-            <v>981.5</v>
-          </cell>
-          <cell r="B178">
-            <v>3481753</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179">
-            <v>982</v>
-          </cell>
-          <cell r="B179">
-            <v>3507278</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180">
-            <v>982.5</v>
-          </cell>
-          <cell r="B180">
-            <v>3532877</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181">
-            <v>983</v>
-          </cell>
-          <cell r="B181">
-            <v>3558550</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182">
-            <v>983.5</v>
-          </cell>
-          <cell r="B182">
-            <v>3584299</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183">
-            <v>984</v>
-          </cell>
-          <cell r="B183">
-            <v>3610123</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184">
-            <v>984.5</v>
-          </cell>
-          <cell r="B184">
-            <v>3636021</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185">
-            <v>985</v>
-          </cell>
-          <cell r="B185">
-            <v>3661994</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186">
-            <v>985.5</v>
-          </cell>
-          <cell r="B186">
-            <v>3688042</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187">
-            <v>986</v>
-          </cell>
-          <cell r="B187">
-            <v>3714165</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188">
-            <v>986.5</v>
-          </cell>
-          <cell r="B188">
-            <v>3740363</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189">
-            <v>987</v>
-          </cell>
-          <cell r="B189">
-            <v>3766635</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190">
-            <v>987.5</v>
-          </cell>
-          <cell r="B190">
-            <v>3792982</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191">
-            <v>988</v>
-          </cell>
-          <cell r="B191">
-            <v>3819405</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192">
-            <v>988.5</v>
-          </cell>
-          <cell r="B192">
-            <v>3845902</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193">
-            <v>989</v>
-          </cell>
-          <cell r="B193">
-            <v>3872474</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194">
-            <v>989.5</v>
-          </cell>
-          <cell r="B194">
-            <v>3899120</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195">
-            <v>990</v>
-          </cell>
-          <cell r="B195">
-            <v>3925842</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196">
-            <v>990.5</v>
-          </cell>
-          <cell r="B196">
-            <v>3952636</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197">
-            <v>991</v>
-          </cell>
-          <cell r="B197">
-            <v>3979502</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198">
-            <v>991.5</v>
-          </cell>
-          <cell r="B198">
-            <v>4006440</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199">
-            <v>992</v>
-          </cell>
-          <cell r="B199">
-            <v>4033448</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200">
-            <v>992.5</v>
-          </cell>
-          <cell r="B200">
-            <v>4060528</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201">
-            <v>993</v>
-          </cell>
-          <cell r="B201">
-            <v>4087680</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202">
-            <v>993.5</v>
-          </cell>
-          <cell r="B202">
-            <v>4114903</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203">
-            <v>994</v>
-          </cell>
-          <cell r="B203">
-            <v>4142198</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204">
-            <v>994.5</v>
-          </cell>
-          <cell r="B204">
-            <v>4169563</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205">
-            <v>995</v>
-          </cell>
-          <cell r="B205">
-            <v>4197001</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206">
-            <v>995.5</v>
-          </cell>
-          <cell r="B206">
-            <v>4224510</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207">
-            <v>996</v>
-          </cell>
-          <cell r="B207">
-            <v>4252089</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208">
-            <v>996.5</v>
-          </cell>
-          <cell r="B208">
-            <v>4279741</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209">
-            <v>997</v>
-          </cell>
-          <cell r="B209">
-            <v>4307464</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210">
-            <v>997.5</v>
-          </cell>
-          <cell r="B210">
-            <v>4335258</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211">
-            <v>998</v>
-          </cell>
-          <cell r="B211">
-            <v>4363125</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212">
-            <v>998.5</v>
-          </cell>
-          <cell r="B212">
-            <v>4391061</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213">
-            <v>999</v>
-          </cell>
-          <cell r="B213">
-            <v>4419070</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214">
-            <v>999.5</v>
-          </cell>
-          <cell r="B214">
-            <v>4447150</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215">
-            <v>1000</v>
-          </cell>
-          <cell r="B215">
-            <v>4475301</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216">
-            <v>1000.5</v>
-          </cell>
-          <cell r="B216">
-            <v>4503527</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217">
-            <v>1001</v>
-          </cell>
-          <cell r="B217">
-            <v>4531830</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218">
-            <v>1001.5</v>
-          </cell>
-          <cell r="B218">
-            <v>4560212</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219">
-            <v>1002</v>
-          </cell>
-          <cell r="B219">
-            <v>4588670</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220">
-            <v>1002.5</v>
-          </cell>
-          <cell r="B220">
-            <v>4617206</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221">
-            <v>1003</v>
-          </cell>
-          <cell r="B221">
-            <v>4645820</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222">
-            <v>1003.5</v>
-          </cell>
-          <cell r="B222">
-            <v>4674511</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223">
-            <v>1004</v>
-          </cell>
-          <cell r="B223">
-            <v>4703279</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224">
-            <v>1004.5</v>
-          </cell>
-          <cell r="B224">
-            <v>4732126</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225">
-            <v>1005</v>
-          </cell>
-          <cell r="B225">
-            <v>4761049</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226">
-            <v>1005.5</v>
-          </cell>
-          <cell r="B226">
-            <v>4790050</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227">
-            <v>1006</v>
-          </cell>
-          <cell r="B227">
-            <v>4819129</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228">
-            <v>1006.5</v>
-          </cell>
-          <cell r="B228">
-            <v>4848286</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229">
-            <v>1007</v>
-          </cell>
-          <cell r="B229">
-            <v>4877519</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230">
-            <v>1007.5</v>
-          </cell>
-          <cell r="B230">
-            <v>4906831</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231">
-            <v>1008</v>
-          </cell>
-          <cell r="B231">
-            <v>4936219</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="A232">
-            <v>1008.5</v>
-          </cell>
-          <cell r="B232">
-            <v>4965686</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="A233">
-            <v>1009</v>
-          </cell>
-          <cell r="B233">
-            <v>4995230</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="A234">
-            <v>1009.5</v>
-          </cell>
-          <cell r="B234">
-            <v>5024851</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="A235">
-            <v>1010</v>
-          </cell>
-          <cell r="B235">
-            <v>5054550</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="A236">
-            <v>1010.5</v>
-          </cell>
-          <cell r="B236">
-            <v>5084326</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="A237">
-            <v>1011</v>
-          </cell>
-          <cell r="B237">
-            <v>5114179</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="A238">
-            <v>1011.5</v>
-          </cell>
-          <cell r="B238">
-            <v>5144107</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="A239">
-            <v>1012</v>
-          </cell>
-          <cell r="B239">
-            <v>5174113</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="A240">
-            <v>1012.5</v>
-          </cell>
-          <cell r="B240">
-            <v>5204194</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="A241">
-            <v>1013</v>
-          </cell>
-          <cell r="B241">
-            <v>5234353</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="A242">
-            <v>1013.5</v>
-          </cell>
-          <cell r="B242">
-            <v>5264587</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="A243">
-            <v>1014</v>
-          </cell>
-          <cell r="B243">
-            <v>5294898</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="A244">
-            <v>1014.5</v>
-          </cell>
-          <cell r="B244">
-            <v>5325286</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="A245">
-            <v>1015</v>
-          </cell>
-          <cell r="B245">
-            <v>5355750</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="A246">
-            <v>1015.5</v>
-          </cell>
-          <cell r="B246">
-            <v>5386290</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="A247">
-            <v>1016</v>
-          </cell>
-          <cell r="B247">
-            <v>5416907</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="A248">
-            <v>1016.5</v>
-          </cell>
-          <cell r="B248">
-            <v>5447600</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="A249">
-            <v>1017</v>
-          </cell>
-          <cell r="B249">
-            <v>5478370</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="A250">
-            <v>1017.5</v>
-          </cell>
-          <cell r="B250">
-            <v>5509216</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="A251">
-            <v>1018</v>
-          </cell>
-          <cell r="B251">
-            <v>5540139</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="A252">
-            <v>1018.5</v>
-          </cell>
-          <cell r="B252">
-            <v>5571138</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="A253">
-            <v>1019</v>
-          </cell>
-          <cell r="B253">
-            <v>5602213</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="A254">
-            <v>1019.5</v>
-          </cell>
-          <cell r="B254">
-            <v>5633365</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="A255">
-            <v>1020</v>
-          </cell>
-          <cell r="B255">
-            <v>5664593</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="A256">
-            <v>1020.5</v>
-          </cell>
-          <cell r="B256">
-            <v>5695898</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="A257">
-            <v>1021</v>
-          </cell>
-          <cell r="B257">
-            <v>5727281</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="A258">
-            <v>1021.5</v>
-          </cell>
-          <cell r="B258">
-            <v>5758741</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="A259">
-            <v>1022</v>
-          </cell>
-          <cell r="B259">
-            <v>5790278</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="A260">
-            <v>1022.5</v>
-          </cell>
-          <cell r="B260">
-            <v>5821892</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="A261">
-            <v>1023</v>
-          </cell>
-          <cell r="B261">
-            <v>5853583</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="A262">
-            <v>1023.5</v>
-          </cell>
-          <cell r="B262">
-            <v>5885352</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="A263">
-            <v>1024</v>
-          </cell>
-          <cell r="B263">
-            <v>5917198</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="A264">
-            <v>1024.5</v>
-          </cell>
-          <cell r="B264">
-            <v>5949121</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="A265">
-            <v>1025</v>
-          </cell>
-          <cell r="B265">
-            <v>5981122</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="A266">
-            <v>1025.5</v>
-          </cell>
-          <cell r="B266">
-            <v>6013200</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="A267">
-            <v>1026</v>
-          </cell>
-          <cell r="B267">
-            <v>6045355</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="A268">
-            <v>1026.5</v>
-          </cell>
-          <cell r="B268">
-            <v>6077587</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="A269">
-            <v>1027</v>
-          </cell>
-          <cell r="B269">
-            <v>6109897</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="A270">
-            <v>1027.5</v>
-          </cell>
-          <cell r="B270">
-            <v>6142284</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="A271">
-            <v>1028</v>
-          </cell>
-          <cell r="B271">
-            <v>6174748</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="A272">
-            <v>1028.5</v>
-          </cell>
-          <cell r="B272">
-            <v>6207289</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="A273">
-            <v>1029</v>
-          </cell>
-          <cell r="B273">
-            <v>6239908</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="A274">
-            <v>1029.5</v>
-          </cell>
-          <cell r="B274">
-            <v>6272604</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="A275">
-            <v>1030</v>
-          </cell>
-          <cell r="B275">
-            <v>6305377</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="A276">
-            <v>1030.5</v>
-          </cell>
-          <cell r="B276">
-            <v>6338229</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="A277">
-            <v>1031</v>
-          </cell>
-          <cell r="B277">
-            <v>6371161</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="A278">
-            <v>1031.5</v>
-          </cell>
-          <cell r="B278">
-            <v>6404174</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="A279">
-            <v>1032</v>
-          </cell>
-          <cell r="B279">
-            <v>6437266</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="A280">
-            <v>1032.5</v>
-          </cell>
-          <cell r="B280">
-            <v>6470439</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="A281">
-            <v>1033</v>
-          </cell>
-          <cell r="B281">
-            <v>6503693</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="A282">
-            <v>1033.5</v>
-          </cell>
-          <cell r="B282">
-            <v>6537026</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="A283">
-            <v>1034</v>
-          </cell>
-          <cell r="B283">
-            <v>6570440</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="A284">
-            <v>1034.5</v>
-          </cell>
-          <cell r="B284">
-            <v>6603934</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="A285">
-            <v>1035</v>
-          </cell>
-          <cell r="B285">
-            <v>6637508</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="A286">
-            <v>1035.5</v>
-          </cell>
-          <cell r="B286">
-            <v>6671163</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="A287">
-            <v>1036</v>
-          </cell>
-          <cell r="B287">
-            <v>6704897</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="A288">
-            <v>1036.5</v>
-          </cell>
-          <cell r="B288">
-            <v>6738713</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="A289">
-            <v>1037</v>
-          </cell>
-          <cell r="B289">
-            <v>6772608</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="A290">
-            <v>1037.5</v>
-          </cell>
-          <cell r="B290">
-            <v>6806583</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="A291">
-            <v>1038</v>
-          </cell>
-          <cell r="B291">
-            <v>6840639</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="A292">
-            <v>1038.5</v>
-          </cell>
-          <cell r="B292">
-            <v>6874775</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="A293">
-            <v>1039</v>
-          </cell>
-          <cell r="B293">
-            <v>6908992</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="A294">
-            <v>1039.5</v>
-          </cell>
-          <cell r="B294">
-            <v>6943288</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="A295">
-            <v>1040</v>
-          </cell>
-          <cell r="B295">
-            <v>6977665</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="A296">
-            <v>1040.5</v>
-          </cell>
-          <cell r="B296">
-            <v>7012124</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="A297">
-            <v>1041</v>
-          </cell>
-          <cell r="B297">
-            <v>7046668</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="A298">
-            <v>1041.5</v>
-          </cell>
-          <cell r="B298">
-            <v>7081296</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="A299">
-            <v>1042</v>
-          </cell>
-          <cell r="B299">
-            <v>7116008</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="A300">
-            <v>1042.5</v>
-          </cell>
-          <cell r="B300">
-            <v>7150804</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="A301">
-            <v>1043</v>
-          </cell>
-          <cell r="B301">
-            <v>7185685</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="A302">
-            <v>1043.5</v>
-          </cell>
-          <cell r="B302">
-            <v>7220651</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="A303">
-            <v>1044</v>
-          </cell>
-          <cell r="B303">
-            <v>7255700</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="A304">
-            <v>1044.5</v>
-          </cell>
-          <cell r="B304">
-            <v>7290834</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="A305">
-            <v>1045</v>
-          </cell>
-          <cell r="B305">
-            <v>7326052</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="A306">
-            <v>1045.5</v>
-          </cell>
-          <cell r="B306">
-            <v>7361355</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="A307">
-            <v>1046</v>
-          </cell>
-          <cell r="B307">
-            <v>7396742</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="A308">
-            <v>1046.5</v>
-          </cell>
-          <cell r="B308">
-            <v>7432213</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="A309">
-            <v>1047</v>
-          </cell>
-          <cell r="B309">
-            <v>7467768</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="A310">
-            <v>1047.5</v>
-          </cell>
-          <cell r="B310">
-            <v>7503408</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="A311">
-            <v>1048</v>
-          </cell>
-          <cell r="B311">
-            <v>7539138</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="A312">
-            <v>1048.5</v>
-          </cell>
-          <cell r="B312">
-            <v>7574938</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="A313">
-            <v>1049</v>
-          </cell>
-          <cell r="B313">
-            <v>7610838</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="A314">
-            <v>1049.5</v>
-          </cell>
-          <cell r="B314">
-            <v>7646818</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="A315">
-            <v>1050</v>
-          </cell>
-          <cell r="B315">
-            <v>7682878</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="A316">
-            <v>1050.5</v>
-          </cell>
-          <cell r="B316">
-            <v>7719018</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="A317">
-            <v>1051</v>
-          </cell>
-          <cell r="B317">
-            <v>7755258</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="A318">
-            <v>1051.5</v>
-          </cell>
-          <cell r="B318">
-            <v>7791588</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="A319">
-            <v>1052</v>
-          </cell>
-          <cell r="B319">
-            <v>7828018</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="A320">
-            <v>1052.5</v>
-          </cell>
-          <cell r="B320">
-            <v>7864528</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="A321">
-            <v>1053</v>
-          </cell>
-          <cell r="B321">
-            <v>7901128</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="A322">
-            <v>1053.5</v>
-          </cell>
-          <cell r="B322">
-            <v>7937828</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="A323">
-            <v>1054</v>
-          </cell>
-          <cell r="B323">
-            <v>7974608</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="A324">
-            <v>1054.5</v>
-          </cell>
-          <cell r="B324">
-            <v>8011488</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="A325">
-            <v>1055</v>
-          </cell>
-          <cell r="B325">
-            <v>8048458</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="A326">
-            <v>1055.5</v>
-          </cell>
-          <cell r="B326">
-            <v>8085508</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="A327">
-            <v>1056</v>
-          </cell>
-          <cell r="B327">
-            <v>8122657.9999900004</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="A328">
-            <v>1056.5</v>
-          </cell>
-          <cell r="B328">
-            <v>8159897.9999700002</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="A329">
-            <v>1057</v>
-          </cell>
-          <cell r="B329">
-            <v>8197217.9999900004</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="A330">
-            <v>1057.5</v>
-          </cell>
-          <cell r="B330">
-            <v>8234638.0000200002</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="A331">
-            <v>1058</v>
-          </cell>
-          <cell r="B331">
-            <v>8272148</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="A332">
-            <v>1058.5</v>
-          </cell>
-          <cell r="B332">
-            <v>8309748</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="A333">
-            <v>1059</v>
-          </cell>
-          <cell r="B333">
-            <v>8347438.0000400003</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="A334">
-            <v>1059.5</v>
-          </cell>
-          <cell r="B334">
-            <v>8385218.0000200002</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="A335">
-            <v>1060</v>
-          </cell>
-          <cell r="B335">
-            <v>8423088.0000299998</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="A336">
-            <v>1060.5</v>
-          </cell>
-          <cell r="B336">
-            <v>8461047.9999899995</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="A337">
-            <v>1061</v>
-          </cell>
-          <cell r="B337">
-            <v>8499097.9999700002</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="A338">
-            <v>1061.5</v>
-          </cell>
-          <cell r="B338">
-            <v>8537247.9999700002</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="A339">
-            <v>1062</v>
-          </cell>
-          <cell r="B339">
-            <v>8575478.0000100005</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="A340">
-            <v>1062.5</v>
-          </cell>
-          <cell r="B340">
-            <v>8613798</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="A341">
-            <v>1063</v>
-          </cell>
-          <cell r="B341">
-            <v>8652218</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="A342">
-            <v>1063.5</v>
-          </cell>
-          <cell r="B342">
-            <v>8690717.9999599997</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="A343">
-            <v>1064</v>
-          </cell>
-          <cell r="B343">
-            <v>8729308.0000299998</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="A344">
-            <v>1064.5</v>
-          </cell>
-          <cell r="B344">
-            <v>8767998.0000400003</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="A345">
-            <v>1065</v>
-          </cell>
-          <cell r="B345">
-            <v>8806768</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="A346">
-            <v>1065.5</v>
-          </cell>
-          <cell r="B346">
-            <v>8845637.9999800008</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="A347">
-            <v>1066</v>
-          </cell>
-          <cell r="B347">
-            <v>8884597.9999899995</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="A348">
-            <v>1066.5</v>
-          </cell>
-          <cell r="B348">
-            <v>8923637.9999599997</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="A349">
-            <v>1067</v>
-          </cell>
-          <cell r="B349">
-            <v>8962778.0000199992</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="A350">
-            <v>1067.5</v>
-          </cell>
-          <cell r="B350">
-            <v>9002008.0000299998</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="A351">
-            <v>1068</v>
-          </cell>
-          <cell r="B351">
-            <v>9041327.9999899995</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="A352">
-            <v>1068.5</v>
-          </cell>
-          <cell r="B352">
-            <v>9080737.9999800008</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="A353">
-            <v>1069</v>
-          </cell>
-          <cell r="B353">
-            <v>9120237.9999899995</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="A354">
-            <v>1069.5</v>
-          </cell>
-          <cell r="B354">
-            <v>9159828.0000299998</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="A355">
-            <v>1070</v>
-          </cell>
-          <cell r="B355">
-            <v>9199508.0000199992</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="A356">
-            <v>1070.5</v>
-          </cell>
-          <cell r="B356">
-            <v>9239267.9999700002</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="A357">
-            <v>1071</v>
-          </cell>
-          <cell r="B357">
-            <v>9279118.0000299998</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="A358">
-            <v>1071.5</v>
-          </cell>
-          <cell r="B358">
-            <v>9319047.9999700002</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="A359">
-            <v>1072</v>
-          </cell>
-          <cell r="B359">
-            <v>9359068.0000199992</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="A360">
-            <v>1072.5</v>
-          </cell>
-          <cell r="B360">
-            <v>9399178.0000199992</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="A361">
-            <v>1073</v>
-          </cell>
-          <cell r="B361">
-            <v>9439367.9999800008</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="A362">
-            <v>1073.5</v>
-          </cell>
-          <cell r="B362">
-            <v>9479647.9999599997</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="A363">
-            <v>1074</v>
-          </cell>
-          <cell r="B363">
-            <v>9520007.9999899995</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="A364">
-            <v>1074.5</v>
-          </cell>
-          <cell r="B364">
-            <v>9560447.9999899995</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="A365">
-            <v>1075</v>
-          </cell>
-          <cell r="B365">
-            <v>9600987.9999899995</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="A366">
-            <v>1075.5</v>
-          </cell>
-          <cell r="B366">
-            <v>9641597.9999700002</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="A367">
-            <v>1076</v>
-          </cell>
-          <cell r="B367">
-            <v>9682297.9999800008</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="A368">
-            <v>1076.5</v>
-          </cell>
-          <cell r="B368">
-            <v>9723088.0000199992</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="A369">
-            <v>1077</v>
-          </cell>
-          <cell r="B369">
-            <v>9763958.0000199992</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="A370">
-            <v>1077.5</v>
-          </cell>
-          <cell r="B370">
-            <v>9804917.9999700002</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="A371">
-            <v>1078</v>
-          </cell>
-          <cell r="B371">
-            <v>9845958.0000400003</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="A372">
-            <v>1078.5</v>
-          </cell>
-          <cell r="B372">
-            <v>9887087.9999700002</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="A373">
-            <v>1079</v>
-          </cell>
-          <cell r="B373">
-            <v>9928298.0000299998</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="A374">
-            <v>1079.5</v>
-          </cell>
-          <cell r="B374">
-            <v>9969598.0000400003</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="A375">
-            <v>1080</v>
-          </cell>
-          <cell r="B375">
-            <v>10010978</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="A376">
-            <v>1080.5</v>
-          </cell>
-          <cell r="B376">
-            <v>10052448</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="A377">
-            <v>1081</v>
-          </cell>
-          <cell r="B377">
-            <v>10093998</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="A378">
-            <v>1081.5</v>
-          </cell>
-          <cell r="B378">
-            <v>10135648</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="A379">
-            <v>1082</v>
-          </cell>
-          <cell r="B379">
-            <v>10177378</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="A380">
-            <v>1082.5</v>
-          </cell>
-          <cell r="B380">
-            <v>10219198</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="A381">
-            <v>1083</v>
-          </cell>
-          <cell r="B381">
-            <v>10261098</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="A382">
-            <v>1083.5</v>
-          </cell>
-          <cell r="B382">
-            <v>10303098</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="A383">
-            <v>1084</v>
-          </cell>
-          <cell r="B383">
-            <v>10345178</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="A384">
-            <v>1084.5</v>
-          </cell>
-          <cell r="B384">
-            <v>10387348</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="A385">
-            <v>1085</v>
-          </cell>
-          <cell r="B385">
-            <v>10429608</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="A386">
-            <v>1085.5</v>
-          </cell>
-          <cell r="B386">
-            <v>10471948</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="A387">
-            <v>1086</v>
-          </cell>
-          <cell r="B387">
-            <v>10514388</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="A388">
-            <v>1086.5</v>
-          </cell>
-          <cell r="B388">
-            <v>10556908</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="A389">
-            <v>1087</v>
-          </cell>
-          <cell r="B389">
-            <v>10599518</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="A390">
-            <v>1087.5</v>
-          </cell>
-          <cell r="B390">
-            <v>10642218</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="A391">
-            <v>1088</v>
-          </cell>
-          <cell r="B391">
-            <v>10684998</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="A392">
-            <v>1088.5</v>
-          </cell>
-          <cell r="B392">
-            <v>10727868</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="A393">
-            <v>1089</v>
-          </cell>
-          <cell r="B393">
-            <v>10770828</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="A394">
-            <v>1089.5</v>
-          </cell>
-          <cell r="B394">
-            <v>10813878</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="A395">
-            <v>1090</v>
-          </cell>
-          <cell r="B395">
-            <v>10857008</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="A396">
-            <v>1090.5</v>
-          </cell>
-          <cell r="B396">
-            <v>10900238</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="A397">
-            <v>1091</v>
-          </cell>
-          <cell r="B397">
-            <v>10943548</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="A398">
-            <v>1091.5</v>
-          </cell>
-          <cell r="B398">
-            <v>10986938</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="A399">
-            <v>1092</v>
-          </cell>
-          <cell r="B399">
-            <v>11030418</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="A400">
-            <v>1092.5</v>
-          </cell>
-          <cell r="B400">
-            <v>11073988</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="A401">
-            <v>1093</v>
-          </cell>
-          <cell r="B401">
-            <v>11117638</v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="A402">
-            <v>1093.5</v>
-          </cell>
-          <cell r="B402">
-            <v>11161378</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="A403">
-            <v>1094</v>
-          </cell>
-          <cell r="B403">
-            <v>11205208</v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="A404">
-            <v>1094.5</v>
-          </cell>
-          <cell r="B404">
-            <v>11249118</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="A405">
-            <v>1095</v>
-          </cell>
-          <cell r="B405">
-            <v>11293118</v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="A406">
-            <v>1095.5</v>
-          </cell>
-          <cell r="B406">
-            <v>11336955.1197</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="A407">
-            <v>1096</v>
-          </cell>
-          <cell r="B407">
-            <v>11380872.807499999</v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="A408">
-            <v>1096.5</v>
-          </cell>
-          <cell r="B408">
-            <v>11424872.4439</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="A409">
-            <v>1097</v>
-          </cell>
-          <cell r="B409">
-            <v>11468946.247500001</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="A410">
-            <v>1097.5</v>
-          </cell>
-          <cell r="B410">
-            <v>11513107.081700001</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="A411">
-            <v>1098</v>
-          </cell>
-          <cell r="B411">
-            <v>11557346.991699999</v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="A412">
-            <v>1098.5</v>
-          </cell>
-          <cell r="B412">
-            <v>11601673.657600001</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="A413">
-            <v>1099</v>
-          </cell>
-          <cell r="B413">
-            <v>11646067.2685</v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="A414">
-            <v>1099.5</v>
-          </cell>
-          <cell r="B414">
-            <v>11690576.885399999</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="A415">
-            <v>1100</v>
-          </cell>
-          <cell r="B415">
-            <v>11735176.051100001</v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="A416">
-            <v>1100.5</v>
-          </cell>
-          <cell r="B416">
-            <v>11779866.8136</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="A417">
-            <v>1101</v>
-          </cell>
-          <cell r="B417">
-            <v>11824637.101500001</v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="A418">
-            <v>1101.5</v>
-          </cell>
-          <cell r="B418">
-            <v>11869502.2729</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="A419">
-            <v>1102</v>
-          </cell>
-          <cell r="B419">
-            <v>11914439.127599999</v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="A420">
-            <v>1102.5</v>
-          </cell>
-          <cell r="B420">
-            <v>11959478.534499999</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="A421">
-            <v>1103</v>
-          </cell>
-          <cell r="B421">
-            <v>12004602.443299999</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="A422">
-            <v>1103.5</v>
-          </cell>
-          <cell r="B422">
-            <v>12049826.630100001</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="A423">
-            <v>1104</v>
-          </cell>
-          <cell r="B423">
-            <v>12095140.259</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="A424">
-            <v>1104.5</v>
-          </cell>
-          <cell r="B424">
-            <v>12140560.319599999</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="A425">
-            <v>1105</v>
-          </cell>
-          <cell r="B425">
-            <v>12186069.168</v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="A426">
-            <v>1105.5</v>
-          </cell>
-          <cell r="B426">
-            <v>12231691.055400001</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="A427">
-            <v>1106</v>
-          </cell>
-          <cell r="B427">
-            <v>12277410.0627</v>
-          </cell>
-        </row>
-        <row r="428">
-          <cell r="A428">
-            <v>1106.5</v>
-          </cell>
-          <cell r="B428">
-            <v>12323247.800799999</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="A429">
-            <v>1107</v>
-          </cell>
-          <cell r="B429">
-            <v>12369192.2433</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="A430">
-            <v>1107.5</v>
-          </cell>
-          <cell r="B430">
-            <v>12415245.856000001</v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="A431">
-            <v>1108</v>
-          </cell>
-          <cell r="B431">
-            <v>12461401.661499999</v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="A432">
-            <v>1108.5</v>
-          </cell>
-          <cell r="B432">
-            <v>12507673.6086</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="A433">
-            <v>1109</v>
-          </cell>
-          <cell r="B433">
-            <v>12554079.816299999</v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="A434">
-            <v>1109.5</v>
-          </cell>
-          <cell r="B434">
-            <v>12600613.938300001</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="A435">
-            <v>1110</v>
-          </cell>
-          <cell r="B435">
-            <v>12647247.2783</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="A436">
-            <v>1110.5</v>
-          </cell>
-          <cell r="B436">
-            <v>12694010.344699999</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="A437">
-            <v>1111</v>
-          </cell>
-          <cell r="B437">
-            <v>12740876.285800001</v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="A438">
-            <v>1111.5</v>
-          </cell>
-          <cell r="B438">
-            <v>12787856.3157</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="A439">
-            <v>1112</v>
-          </cell>
-          <cell r="B439">
-            <v>12834932.789000001</v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="A440">
-            <v>1112.5</v>
-          </cell>
-          <cell r="B440">
-            <v>12882121.668400001</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="A441">
-            <v>1113</v>
-          </cell>
-          <cell r="B441">
-            <v>12929400.759400001</v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="A442">
-            <v>1113.5</v>
-          </cell>
-          <cell r="B442">
-            <v>12976786.5714</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="A443">
-            <v>1114</v>
-          </cell>
-          <cell r="B443">
-            <v>13024254.897399999</v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="A444">
-            <v>1114.5</v>
-          </cell>
-          <cell r="B444">
-            <v>13071819.6612</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="A445">
-            <v>1115</v>
-          </cell>
-          <cell r="B445">
-            <v>13119488.208699999</v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="A446">
-            <v>1115.5</v>
-          </cell>
-          <cell r="B446">
-            <v>13167265.487299999</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="A447">
-            <v>1116</v>
-          </cell>
-          <cell r="B447">
-            <v>13215135.3925</v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="A448">
-            <v>1116.5</v>
-          </cell>
-          <cell r="B448">
-            <v>13263113.8442</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="A449">
-            <v>1117</v>
-          </cell>
-          <cell r="B449">
-            <v>13311186.671800001</v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="A450">
-            <v>1117.5</v>
-          </cell>
-          <cell r="B450">
-            <v>13359355.630100001</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="A451">
-            <v>1118</v>
-          </cell>
-          <cell r="B451">
-            <v>13407594.2182</v>
-          </cell>
-        </row>
-        <row r="452">
-          <cell r="A452">
-            <v>1118.5</v>
-          </cell>
-          <cell r="B452">
-            <v>13455931.7601</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="A453">
-            <v>1119</v>
-          </cell>
-          <cell r="B453">
-            <v>13504347.202199999</v>
-          </cell>
-        </row>
-        <row r="454">
-          <cell r="A454">
-            <v>1119.5</v>
-          </cell>
-          <cell r="B454">
-            <v>13552852.0615</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="A455">
-            <v>1120</v>
-          </cell>
-          <cell r="B455">
-            <v>13601435.3455</v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="A456">
-            <v>1120.5</v>
-          </cell>
-          <cell r="B456">
-            <v>13650107.556600001</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="A457">
-            <v>1121</v>
-          </cell>
-          <cell r="B457">
-            <v>13698851.756100001</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="A458">
-            <v>1121.5</v>
-          </cell>
-          <cell r="B458">
-            <v>13747698.8181</v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="A459">
-            <v>1122</v>
-          </cell>
-          <cell r="B459">
-            <v>13796635.7687</v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="A460">
-            <v>1122.5</v>
-          </cell>
-          <cell r="B460">
-            <v>13845676.006899999</v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="A461">
-            <v>1123</v>
-          </cell>
-          <cell r="B461">
-            <v>13894813.1592</v>
-          </cell>
-        </row>
-        <row r="462">
-          <cell r="A462">
-            <v>1123.5</v>
-          </cell>
-          <cell r="B462">
-            <v>13944059.6885</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="A463">
-            <v>1124</v>
-          </cell>
-          <cell r="B463">
-            <v>13993404.4922</v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="A464">
-            <v>1124.5</v>
-          </cell>
-          <cell r="B464">
-            <v>14042853.475</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="A465">
-            <v>1125</v>
-          </cell>
-          <cell r="B465">
-            <v>14092429.2477</v>
-          </cell>
-        </row>
-        <row r="466">
-          <cell r="A466">
-            <v>1125.5</v>
-          </cell>
-          <cell r="B466">
-            <v>14142122.008400001</v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="A467">
-            <v>1126</v>
-          </cell>
-          <cell r="B467">
-            <v>14191920.524700001</v>
-          </cell>
-        </row>
-        <row r="468">
-          <cell r="A468">
-            <v>1126.5</v>
-          </cell>
-          <cell r="B468">
-            <v>14241840.7448</v>
-          </cell>
-        </row>
-        <row r="469">
-          <cell r="A469">
-            <v>1127</v>
-          </cell>
-          <cell r="B469">
-            <v>14291876.409399999</v>
-          </cell>
-        </row>
-        <row r="470">
-          <cell r="A470">
-            <v>1127.5</v>
-          </cell>
-          <cell r="B470">
-            <v>14342013.776000001</v>
-          </cell>
-        </row>
-        <row r="471">
-          <cell r="A471">
-            <v>1128</v>
-          </cell>
-          <cell r="B471">
-            <v>14392260.851199999</v>
-          </cell>
-        </row>
-        <row r="472">
-          <cell r="A472">
-            <v>1128.5</v>
-          </cell>
-          <cell r="B472">
-            <v>14442623.555199999</v>
-          </cell>
-        </row>
-        <row r="473">
-          <cell r="A473">
-            <v>1129</v>
-          </cell>
-          <cell r="B473">
-            <v>14493095.249700001</v>
-          </cell>
-        </row>
-        <row r="474">
-          <cell r="A474">
-            <v>1129.5</v>
-          </cell>
-          <cell r="B474">
-            <v>14543676.0746</v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="A475">
-            <v>1130</v>
-          </cell>
-          <cell r="B475">
-            <v>14594353.5141</v>
-          </cell>
-        </row>
-        <row r="476">
-          <cell r="A476">
-            <v>1130.5</v>
-          </cell>
-          <cell r="B476">
-            <v>14645137.2698</v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="A477">
-            <v>1131</v>
-          </cell>
-          <cell r="B477">
-            <v>14696039.588</v>
-          </cell>
-        </row>
-        <row r="478">
-          <cell r="A478">
-            <v>1131.5</v>
-          </cell>
-          <cell r="B478">
-            <v>14747053.1205</v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="A479">
-            <v>1132</v>
-          </cell>
-          <cell r="B479">
-            <v>14798163.2633</v>
-          </cell>
-        </row>
-        <row r="480">
-          <cell r="A480">
-            <v>1132.5</v>
-          </cell>
-          <cell r="B480">
-            <v>14849388.4966</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="A481">
-            <v>1133</v>
-          </cell>
-          <cell r="B481">
-            <v>14900711.0277</v>
-          </cell>
-        </row>
-        <row r="482">
-          <cell r="A482">
-            <v>1133.5</v>
-          </cell>
-          <cell r="B482">
-            <v>14952154.560699999</v>
-          </cell>
-        </row>
-        <row r="483">
-          <cell r="A483">
-            <v>1134</v>
-          </cell>
-          <cell r="B483">
-            <v>15003688.792300001</v>
-          </cell>
-        </row>
-        <row r="484">
-          <cell r="A484">
-            <v>1134.5</v>
-          </cell>
-          <cell r="B484">
-            <v>15055351.329500001</v>
-          </cell>
-        </row>
-        <row r="485">
-          <cell r="A485">
-            <v>1135</v>
-          </cell>
-          <cell r="B485">
-            <v>15107118.9739</v>
-          </cell>
-        </row>
-        <row r="486">
-          <cell r="A486">
-            <v>1135.5</v>
-          </cell>
-          <cell r="B486">
-            <v>15159012.9738</v>
-          </cell>
-        </row>
-        <row r="487">
-          <cell r="A487">
-            <v>1136</v>
-          </cell>
-          <cell r="B487">
-            <v>15211315.5726</v>
-          </cell>
-        </row>
-        <row r="488">
-          <cell r="A488">
-            <v>1136.5</v>
-          </cell>
-          <cell r="B488">
-            <v>15263817.568299999</v>
-          </cell>
-        </row>
-        <row r="489">
-          <cell r="A489">
-            <v>1137</v>
-          </cell>
-          <cell r="B489">
-            <v>15316471.2952</v>
-          </cell>
-        </row>
-        <row r="490">
-          <cell r="A490">
-            <v>1137.5</v>
-          </cell>
-          <cell r="B490">
-            <v>15369288.286499999</v>
-          </cell>
-        </row>
-        <row r="491">
-          <cell r="A491">
-            <v>1138</v>
-          </cell>
-          <cell r="B491">
-            <v>15422233.171</v>
-          </cell>
-        </row>
-        <row r="492">
-          <cell r="A492">
-            <v>1138.5</v>
-          </cell>
-          <cell r="B492">
-            <v>15475338.099099999</v>
-          </cell>
-        </row>
-        <row r="493">
-          <cell r="A493">
-            <v>1139</v>
-          </cell>
-          <cell r="B493">
-            <v>15528574.404899999</v>
-          </cell>
-        </row>
-        <row r="494">
-          <cell r="A494">
-            <v>1139.5</v>
-          </cell>
-          <cell r="B494">
-            <v>15581958.2837</v>
-          </cell>
-        </row>
-        <row r="495">
-          <cell r="A495">
-            <v>1140</v>
-          </cell>
-          <cell r="B495">
-            <v>15635449.398700001</v>
-          </cell>
-        </row>
-        <row r="496">
-          <cell r="A496">
-            <v>1140.5</v>
-          </cell>
-          <cell r="B496">
-            <v>15689102.627</v>
-          </cell>
-        </row>
-        <row r="497">
-          <cell r="A497">
-            <v>1141</v>
-          </cell>
-          <cell r="B497">
-            <v>15742879.3814</v>
-          </cell>
-        </row>
-        <row r="498">
-          <cell r="A498">
-            <v>1141.5</v>
-          </cell>
-          <cell r="B498">
-            <v>15796788.639699999</v>
-          </cell>
-        </row>
-        <row r="499">
-          <cell r="A499">
-            <v>1142</v>
-          </cell>
-          <cell r="B499">
-            <v>15850807.860400001</v>
-          </cell>
-        </row>
-        <row r="500">
-          <cell r="A500">
-            <v>1142.5</v>
-          </cell>
-          <cell r="B500">
-            <v>15904969.400800001</v>
-          </cell>
-        </row>
-        <row r="501">
-          <cell r="A501">
-            <v>1143</v>
-          </cell>
-          <cell r="B501">
-            <v>15959245.869200001</v>
-          </cell>
-        </row>
-        <row r="502">
-          <cell r="A502">
-            <v>1143.5</v>
-          </cell>
-          <cell r="B502">
-            <v>16013645.587300001</v>
-          </cell>
-        </row>
-        <row r="503">
-          <cell r="A503">
-            <v>1144</v>
-          </cell>
-          <cell r="B503">
-            <v>16068161.4319</v>
-          </cell>
-        </row>
-        <row r="504">
-          <cell r="A504">
-            <v>1144.5</v>
-          </cell>
-          <cell r="B504">
-            <v>16122822.008300001</v>
-          </cell>
-        </row>
-        <row r="505">
-          <cell r="A505">
-            <v>1145</v>
-          </cell>
-          <cell r="B505">
-            <v>16177600.8697</v>
-          </cell>
-        </row>
-        <row r="506">
-          <cell r="A506">
-            <v>1145.5</v>
-          </cell>
-          <cell r="B506">
-            <v>16232520.5802</v>
-          </cell>
-        </row>
-        <row r="507">
-          <cell r="A507">
-            <v>1146</v>
-          </cell>
-          <cell r="B507">
-            <v>16287557.66</v>
-          </cell>
-        </row>
-        <row r="508">
-          <cell r="A508">
-            <v>1146.5</v>
-          </cell>
-          <cell r="B508">
-            <v>16342736.1664</v>
-          </cell>
-        </row>
-        <row r="509">
-          <cell r="A509">
-            <v>1147</v>
-          </cell>
-          <cell r="B509">
-            <v>16398050.2093</v>
-          </cell>
-        </row>
-        <row r="510">
-          <cell r="A510">
-            <v>1147.5</v>
-          </cell>
-          <cell r="B510">
-            <v>16453505.4476</v>
-          </cell>
-        </row>
-        <row r="511">
-          <cell r="A511">
-            <v>1148</v>
-          </cell>
-          <cell r="B511">
-            <v>16509077.2315</v>
-          </cell>
-        </row>
-        <row r="512">
-          <cell r="A512">
-            <v>1148.5</v>
-          </cell>
-          <cell r="B512">
-            <v>16564795.915999999</v>
-          </cell>
-        </row>
-        <row r="513">
-          <cell r="A513">
-            <v>1149</v>
-          </cell>
-          <cell r="B513">
-            <v>16620634.951099999</v>
-          </cell>
-        </row>
-        <row r="514">
-          <cell r="A514">
-            <v>1149.5</v>
-          </cell>
-          <cell r="B514">
-            <v>16676615.5473</v>
-          </cell>
-        </row>
-        <row r="515">
-          <cell r="A515">
-            <v>1150</v>
-          </cell>
-          <cell r="B515">
-            <v>16732705.187899999</v>
-          </cell>
-        </row>
-        <row r="516">
-          <cell r="A516">
-            <v>1150.5</v>
-          </cell>
-          <cell r="B516">
-            <v>16788954.337099999</v>
-          </cell>
-        </row>
-        <row r="517">
-          <cell r="A517">
-            <v>1151</v>
-          </cell>
-          <cell r="B517">
-            <v>16845331.890900001</v>
-          </cell>
-        </row>
-        <row r="518">
-          <cell r="A518">
-            <v>1151.5</v>
-          </cell>
-          <cell r="B518">
-            <v>16901855.936000001</v>
-          </cell>
-        </row>
-        <row r="519">
-          <cell r="A519">
-            <v>1152</v>
-          </cell>
-          <cell r="B519">
-            <v>16958547.835000001</v>
-          </cell>
-        </row>
-        <row r="520">
-          <cell r="A520">
-            <v>1152.5</v>
-          </cell>
-          <cell r="B520">
-            <v>17015394.7454</v>
-          </cell>
-        </row>
-        <row r="521">
-          <cell r="A521">
-            <v>1153</v>
-          </cell>
-          <cell r="B521">
-            <v>17072358.413199998</v>
-          </cell>
-        </row>
-        <row r="522">
-          <cell r="A522">
-            <v>1153.5</v>
-          </cell>
-          <cell r="B522">
-            <v>17129472.741700001</v>
-          </cell>
-        </row>
-        <row r="523">
-          <cell r="A523">
-            <v>1154</v>
-          </cell>
-          <cell r="B523">
-            <v>17186706.5317</v>
-          </cell>
-        </row>
-        <row r="524">
-          <cell r="A524">
-            <v>1154.5</v>
-          </cell>
-          <cell r="B524">
-            <v>17244078.8737</v>
-          </cell>
-        </row>
-        <row r="525">
-          <cell r="A525">
-            <v>1155</v>
-          </cell>
-          <cell r="B525">
-            <v>17301581.601100001</v>
-          </cell>
-        </row>
-        <row r="526">
-          <cell r="A526">
-            <v>1155.5</v>
-          </cell>
-          <cell r="B526">
-            <v>17359218.671500001</v>
-          </cell>
-        </row>
-        <row r="527">
-          <cell r="A527">
-            <v>1156</v>
-          </cell>
-          <cell r="B527">
-            <v>17416961.400400002</v>
-          </cell>
-        </row>
-        <row r="528">
-          <cell r="A528">
-            <v>1156.5</v>
-          </cell>
-          <cell r="B528">
-            <v>17474858.093600001</v>
-          </cell>
-        </row>
-        <row r="529">
-          <cell r="A529">
-            <v>1157</v>
-          </cell>
-          <cell r="B529">
-            <v>17532876.9881</v>
-          </cell>
-        </row>
-        <row r="530">
-          <cell r="A530">
-            <v>1157.5</v>
-          </cell>
-          <cell r="B530">
-            <v>17591045.054099999</v>
-          </cell>
-        </row>
-        <row r="531">
-          <cell r="A531">
-            <v>1158</v>
-          </cell>
-          <cell r="B531">
-            <v>17649368.798999999</v>
-          </cell>
-        </row>
-        <row r="532">
-          <cell r="A532">
-            <v>1158.5</v>
-          </cell>
-          <cell r="B532">
-            <v>17707859.773699999</v>
-          </cell>
-        </row>
-        <row r="533">
-          <cell r="A533">
-            <v>1159</v>
-          </cell>
-          <cell r="B533">
-            <v>17766478.315499999</v>
-          </cell>
-        </row>
-        <row r="534">
-          <cell r="A534">
-            <v>1159.5</v>
-          </cell>
-          <cell r="B534">
-            <v>17825242.887699999</v>
-          </cell>
-        </row>
-        <row r="535">
-          <cell r="A535">
-            <v>1160</v>
-          </cell>
-          <cell r="B535">
-            <v>17884154.129500002</v>
-          </cell>
-        </row>
-        <row r="536">
-          <cell r="A536">
-            <v>1160.5</v>
-          </cell>
-          <cell r="B536">
-            <v>17943222.914500002</v>
-          </cell>
-        </row>
-        <row r="537">
-          <cell r="A537">
-            <v>1161</v>
-          </cell>
-          <cell r="B537">
-            <v>18002431.845800001</v>
-          </cell>
-        </row>
-        <row r="538">
-          <cell r="A538">
-            <v>1161.5</v>
-          </cell>
-          <cell r="B538">
-            <v>18061799.8462</v>
-          </cell>
-        </row>
-        <row r="539">
-          <cell r="A539">
-            <v>1162</v>
-          </cell>
-          <cell r="B539">
-            <v>18121306.956900001</v>
-          </cell>
-        </row>
-        <row r="540">
-          <cell r="A540">
-            <v>1162.5</v>
-          </cell>
-          <cell r="B540">
-            <v>18180962.6822</v>
-          </cell>
-        </row>
-        <row r="541">
-          <cell r="A541">
-            <v>1163</v>
-          </cell>
-          <cell r="B541">
-            <v>18240770.931000002</v>
-          </cell>
-        </row>
-        <row r="542">
-          <cell r="A542">
-            <v>1163.5</v>
-          </cell>
-          <cell r="B542">
-            <v>18300740.141600002</v>
-          </cell>
-        </row>
-        <row r="543">
-          <cell r="A543">
-            <v>1164</v>
-          </cell>
-          <cell r="B543">
-            <v>18360848.994399998</v>
-          </cell>
-        </row>
-        <row r="544">
-          <cell r="A544">
-            <v>1164.5</v>
-          </cell>
-          <cell r="B544">
-            <v>18421137.7005</v>
-          </cell>
-        </row>
-        <row r="545">
-          <cell r="A545">
-            <v>1165</v>
-          </cell>
-          <cell r="B545">
-            <v>18481577.945099998</v>
-          </cell>
-        </row>
-        <row r="546">
-          <cell r="A546">
-            <v>1165.5</v>
-          </cell>
-          <cell r="B546">
-            <v>18542191.956799999</v>
-          </cell>
-        </row>
-        <row r="547">
-          <cell r="A547">
-            <v>1166</v>
-          </cell>
-          <cell r="B547">
-            <v>18602971.719900001</v>
-          </cell>
-        </row>
-        <row r="548">
-          <cell r="A548">
-            <v>1166.5</v>
-          </cell>
-          <cell r="B548">
-            <v>18663947.105799999</v>
-          </cell>
-        </row>
-        <row r="549">
-          <cell r="A549">
-            <v>1167</v>
-          </cell>
-          <cell r="B549">
-            <v>18725078.323600002</v>
-          </cell>
-        </row>
-        <row r="550">
-          <cell r="A550">
-            <v>1167.5</v>
-          </cell>
-          <cell r="B550">
-            <v>18786395.090300001</v>
-          </cell>
-        </row>
-        <row r="551">
-          <cell r="A551">
-            <v>1168</v>
-          </cell>
-          <cell r="B551">
-            <v>18847874.487199999</v>
-          </cell>
-        </row>
-        <row r="552">
-          <cell r="A552">
-            <v>1168.5</v>
-          </cell>
-          <cell r="B552">
-            <v>18909540.416200001</v>
-          </cell>
-        </row>
-        <row r="553">
-          <cell r="A553">
-            <v>1169</v>
-          </cell>
-          <cell r="B553">
-            <v>18971359.9056</v>
-          </cell>
-        </row>
-        <row r="554">
-          <cell r="A554">
-            <v>1169.5</v>
-          </cell>
-          <cell r="B554">
-            <v>19033395.601599999</v>
-          </cell>
-        </row>
-        <row r="555">
-          <cell r="A555">
-            <v>1170</v>
-          </cell>
-          <cell r="B555">
-            <v>19095622.029899999</v>
-          </cell>
-        </row>
-        <row r="556">
-          <cell r="A556">
-            <v>1170.5</v>
-          </cell>
-          <cell r="B556">
-            <v>19158042.7236</v>
-          </cell>
-        </row>
-        <row r="557">
-          <cell r="A557">
-            <v>1171</v>
-          </cell>
-          <cell r="B557">
-            <v>19220628.809900001</v>
-          </cell>
-        </row>
-        <row r="558">
-          <cell r="A558">
-            <v>1171.5</v>
-          </cell>
-          <cell r="B558">
-            <v>19283415.179699998</v>
-          </cell>
-        </row>
-        <row r="559">
-          <cell r="A559">
-            <v>1172</v>
-          </cell>
-          <cell r="B559">
-            <v>19346370.1734</v>
-          </cell>
-        </row>
-        <row r="560">
-          <cell r="A560">
-            <v>1172.5</v>
-          </cell>
-          <cell r="B560">
-            <v>19409537.088100001</v>
-          </cell>
-        </row>
-        <row r="561">
-          <cell r="A561">
-            <v>1173</v>
-          </cell>
-          <cell r="B561">
-            <v>19472881.442699999</v>
-          </cell>
-        </row>
-        <row r="562">
-          <cell r="A562">
-            <v>1173.5</v>
-          </cell>
-          <cell r="B562">
-            <v>19536423.464000002</v>
-          </cell>
-        </row>
-        <row r="563">
-          <cell r="A563">
-            <v>1174</v>
-          </cell>
-          <cell r="B563">
-            <v>19600143.501499999</v>
-          </cell>
-        </row>
-        <row r="564">
-          <cell r="A564">
-            <v>1174.5</v>
-          </cell>
-          <cell r="B564">
-            <v>19664064.9881</v>
-          </cell>
-        </row>
-        <row r="565">
-          <cell r="A565">
-            <v>1175</v>
-          </cell>
-          <cell r="B565">
-            <v>19728171.063000001</v>
-          </cell>
-        </row>
-        <row r="566">
-          <cell r="A566">
-            <v>1175.5</v>
-          </cell>
-          <cell r="B566">
-            <v>19792458.720100001</v>
-          </cell>
-        </row>
-        <row r="567">
-          <cell r="A567">
-            <v>1176</v>
-          </cell>
-          <cell r="B567">
-            <v>19856928.153200001</v>
-          </cell>
-        </row>
-        <row r="568">
-          <cell r="A568">
-            <v>1176.5</v>
-          </cell>
-          <cell r="B568">
-            <v>19921586.787099998</v>
-          </cell>
-        </row>
-        <row r="569">
-          <cell r="A569">
-            <v>1177</v>
-          </cell>
-          <cell r="B569">
-            <v>19986408.4531</v>
-          </cell>
-        </row>
-        <row r="570">
-          <cell r="A570">
-            <v>1177.5</v>
-          </cell>
-          <cell r="B570">
-            <v>20051404.169799998</v>
-          </cell>
-        </row>
-        <row r="571">
-          <cell r="A571">
-            <v>1178</v>
-          </cell>
-          <cell r="B571">
-            <v>20116552.044399999</v>
-          </cell>
-        </row>
-        <row r="572">
-          <cell r="A572">
-            <v>1178.5</v>
-          </cell>
-          <cell r="B572">
-            <v>20181862.099199999</v>
-          </cell>
-        </row>
-        <row r="573">
-          <cell r="A573">
-            <v>1179</v>
-          </cell>
-          <cell r="B573">
-            <v>20247345.6039</v>
-          </cell>
-        </row>
-        <row r="574">
-          <cell r="A574">
-            <v>1179.5</v>
-          </cell>
-          <cell r="B574">
-            <v>20313002.2443</v>
-          </cell>
-        </row>
-        <row r="575">
-          <cell r="A575">
-            <v>1180</v>
-          </cell>
-          <cell r="B575">
-            <v>20378809.302000001</v>
-          </cell>
-        </row>
-        <row r="576">
-          <cell r="A576">
-            <v>1180.5</v>
-          </cell>
-          <cell r="B576">
-            <v>20444779.695900001</v>
-          </cell>
-        </row>
-        <row r="577">
-          <cell r="A577">
-            <v>1181</v>
-          </cell>
-          <cell r="B577">
-            <v>20510893.336100001</v>
-          </cell>
-        </row>
-        <row r="578">
-          <cell r="A578">
-            <v>1181.5</v>
-          </cell>
-          <cell r="B578">
-            <v>20577156.063000001</v>
-          </cell>
-        </row>
-        <row r="579">
-          <cell r="A579">
-            <v>1182</v>
-          </cell>
-          <cell r="B579">
-            <v>20643603.706599999</v>
-          </cell>
-        </row>
-        <row r="580">
-          <cell r="A580">
-            <v>1182.5</v>
-          </cell>
-          <cell r="B580">
-            <v>20710222.403999999</v>
-          </cell>
-        </row>
-        <row r="581">
-          <cell r="A581">
-            <v>1183</v>
-          </cell>
-          <cell r="B581">
-            <v>20776987.057700001</v>
-          </cell>
-        </row>
-        <row r="582">
-          <cell r="A582">
-            <v>1183.5</v>
-          </cell>
-          <cell r="B582">
-            <v>20843911.985599998</v>
-          </cell>
-        </row>
-        <row r="583">
-          <cell r="A583">
-            <v>1184</v>
-          </cell>
-          <cell r="B583">
-            <v>20910985.065200001</v>
-          </cell>
-        </row>
-        <row r="584">
-          <cell r="A584">
-            <v>1184.5</v>
-          </cell>
-          <cell r="B584">
-            <v>20978218.539700001</v>
-          </cell>
-        </row>
-        <row r="585">
-          <cell r="A585">
-            <v>1185</v>
-          </cell>
-          <cell r="B585">
-            <v>21045591.480099998</v>
-          </cell>
-        </row>
-        <row r="586">
-          <cell r="A586">
-            <v>1185.5</v>
-          </cell>
-          <cell r="B586">
-            <v>21113142.578400001</v>
-          </cell>
-        </row>
-        <row r="587">
-          <cell r="A587">
-            <v>1186</v>
-          </cell>
-          <cell r="B587">
-            <v>21180851.024500001</v>
-          </cell>
-        </row>
-        <row r="588">
-          <cell r="A588">
-            <v>1186.5</v>
-          </cell>
-          <cell r="B588">
-            <v>21248730.337099999</v>
-          </cell>
-        </row>
-        <row r="589">
-          <cell r="A589">
-            <v>1187</v>
-          </cell>
-          <cell r="B589">
-            <v>21316767.159000002</v>
-          </cell>
-        </row>
-        <row r="590">
-          <cell r="A590">
-            <v>1187.5</v>
-          </cell>
-          <cell r="B590">
-            <v>21384972.4652</v>
-          </cell>
-        </row>
-        <row r="591">
-          <cell r="A591">
-            <v>1188</v>
-          </cell>
-          <cell r="B591">
-            <v>21453331.086800002</v>
-          </cell>
-        </row>
-        <row r="592">
-          <cell r="A592">
-            <v>1188.5</v>
-          </cell>
-          <cell r="B592">
-            <v>21521871.173099998</v>
-          </cell>
-        </row>
-        <row r="593">
-          <cell r="A593">
-            <v>1189</v>
-          </cell>
-          <cell r="B593">
-            <v>21590568.3706</v>
-          </cell>
-        </row>
-        <row r="594">
-          <cell r="A594">
-            <v>1189.5</v>
-          </cell>
-          <cell r="B594">
-            <v>21659432.8059</v>
-          </cell>
-        </row>
-        <row r="595">
-          <cell r="A595">
-            <v>1190</v>
-          </cell>
-          <cell r="B595">
-            <v>21728468.618099999</v>
-          </cell>
-        </row>
-        <row r="596">
-          <cell r="A596">
-            <v>1190.5</v>
-          </cell>
-          <cell r="B596">
-            <v>21797669.268300001</v>
-          </cell>
-        </row>
-        <row r="597">
-          <cell r="A597">
-            <v>1191</v>
-          </cell>
-          <cell r="B597">
-            <v>21867021.7597</v>
-          </cell>
-        </row>
-        <row r="598">
-          <cell r="A598">
-            <v>1191.5</v>
-          </cell>
-          <cell r="B598">
-            <v>21936522.5242</v>
-          </cell>
-        </row>
-        <row r="599">
-          <cell r="A599">
-            <v>1192</v>
-          </cell>
-          <cell r="B599">
-            <v>22006193.914700001</v>
-          </cell>
-        </row>
-        <row r="600">
-          <cell r="A600">
-            <v>1192.5</v>
-          </cell>
-          <cell r="B600">
-            <v>22076036.441199999</v>
-          </cell>
-        </row>
-        <row r="601">
-          <cell r="A601">
-            <v>1193</v>
-          </cell>
-          <cell r="B601">
-            <v>22146040.282200001</v>
-          </cell>
-        </row>
-        <row r="602">
-          <cell r="A602">
-            <v>1193.5</v>
-          </cell>
-          <cell r="B602">
-            <v>22216214.886500001</v>
-          </cell>
-        </row>
-        <row r="603">
-          <cell r="A603">
-            <v>1194</v>
-          </cell>
-          <cell r="B603">
-            <v>22286551.899700001</v>
-          </cell>
-        </row>
-        <row r="604">
-          <cell r="A604">
-            <v>1194.5</v>
-          </cell>
-          <cell r="B604">
-            <v>22357051.8761</v>
-          </cell>
-        </row>
-        <row r="605">
-          <cell r="A605">
-            <v>1195</v>
-          </cell>
-          <cell r="B605">
-            <v>22427735.826299999</v>
-          </cell>
-        </row>
-        <row r="606">
-          <cell r="A606">
-            <v>1195.5</v>
-          </cell>
-          <cell r="B606">
-            <v>22498597.8607</v>
-          </cell>
-        </row>
-        <row r="607">
-          <cell r="A607">
-            <v>1196</v>
-          </cell>
-          <cell r="B607">
-            <v>22569624.080400001</v>
-          </cell>
-        </row>
-        <row r="608">
-          <cell r="A608">
-            <v>1196.5</v>
-          </cell>
-          <cell r="B608">
-            <v>22640816.464000002</v>
-          </cell>
-        </row>
-        <row r="609">
-          <cell r="A609">
-            <v>1197</v>
-          </cell>
-          <cell r="B609">
-            <v>22712165.759799998</v>
-          </cell>
-        </row>
-        <row r="610">
-          <cell r="A610">
-            <v>1197.5</v>
-          </cell>
-          <cell r="B610">
-            <v>22783668.333299998</v>
-          </cell>
-        </row>
-        <row r="611">
-          <cell r="A611">
-            <v>1198</v>
-          </cell>
-          <cell r="B611">
-            <v>22855346.373500001</v>
-          </cell>
-        </row>
-        <row r="612">
-          <cell r="A612">
-            <v>1198.5</v>
-          </cell>
-          <cell r="B612">
-            <v>22927195.683400001</v>
-          </cell>
-        </row>
-        <row r="613">
-          <cell r="A613">
-            <v>1199</v>
-          </cell>
-          <cell r="B613">
-            <v>22999205.030299999</v>
-          </cell>
-        </row>
-        <row r="614">
-          <cell r="A614">
-            <v>1199.5</v>
-          </cell>
-          <cell r="B614">
-            <v>23071381.2962</v>
-          </cell>
-        </row>
-        <row r="615">
-          <cell r="A615">
-            <v>1200</v>
-          </cell>
-          <cell r="B615">
-            <v>23143713.5704</v>
-          </cell>
-        </row>
-        <row r="616">
-          <cell r="A616">
-            <v>1200.5</v>
-          </cell>
-          <cell r="B616">
-            <v>23216210.3752</v>
-          </cell>
-        </row>
-        <row r="617">
-          <cell r="A617">
-            <v>1201</v>
-          </cell>
-          <cell r="B617">
-            <v>23288848.8968</v>
-          </cell>
-        </row>
-        <row r="618">
-          <cell r="A618">
-            <v>1201.5</v>
-          </cell>
-          <cell r="B618">
-            <v>23361678.5308</v>
-          </cell>
-        </row>
-        <row r="619">
-          <cell r="A619">
-            <v>1202</v>
-          </cell>
-          <cell r="B619">
-            <v>23434687.9553</v>
-          </cell>
-        </row>
-        <row r="620">
-          <cell r="A620">
-            <v>1202.5</v>
-          </cell>
-          <cell r="B620">
-            <v>23507875.030699998</v>
-          </cell>
-        </row>
-        <row r="621">
-          <cell r="A621">
-            <v>1203</v>
-          </cell>
-          <cell r="B621">
-            <v>23581326.434599999</v>
-          </cell>
-        </row>
-        <row r="622">
-          <cell r="A622">
-            <v>1203.5</v>
-          </cell>
-          <cell r="B622">
-            <v>23654986.152100001</v>
-          </cell>
-        </row>
-        <row r="623">
-          <cell r="A623">
-            <v>1204</v>
-          </cell>
-          <cell r="B623">
-            <v>23728794.510699999</v>
-          </cell>
-        </row>
-        <row r="624">
-          <cell r="A624">
-            <v>1204.5</v>
-          </cell>
-          <cell r="B624">
-            <v>23802788.094300002</v>
-          </cell>
-        </row>
-        <row r="625">
-          <cell r="A625">
-            <v>1205</v>
-          </cell>
-          <cell r="B625">
-            <v>23876949.508499999</v>
-          </cell>
-        </row>
-        <row r="626">
-          <cell r="A626">
-            <v>1205.5</v>
-          </cell>
-          <cell r="B626">
-            <v>23951313.9736</v>
-          </cell>
-        </row>
-        <row r="627">
-          <cell r="A627">
-            <v>1206</v>
-          </cell>
-          <cell r="B627">
-            <v>24025868.873</v>
-          </cell>
-        </row>
-        <row r="628">
-          <cell r="A628">
-            <v>1206.5</v>
-          </cell>
-          <cell r="B628">
-            <v>24100601.711599998</v>
-          </cell>
-        </row>
-        <row r="629">
-          <cell r="A629">
-            <v>1207</v>
-          </cell>
-          <cell r="B629">
-            <v>24175487.388900001</v>
-          </cell>
-        </row>
-        <row r="630">
-          <cell r="A630">
-            <v>1207.5</v>
-          </cell>
-          <cell r="B630">
-            <v>24250561.023800001</v>
-          </cell>
-        </row>
-        <row r="631">
-          <cell r="A631">
-            <v>1208</v>
-          </cell>
-          <cell r="B631">
-            <v>24325795.0973</v>
-          </cell>
-        </row>
-        <row r="632">
-          <cell r="A632">
-            <v>1208.5</v>
-          </cell>
-          <cell r="B632">
-            <v>24401198.677999999</v>
-          </cell>
-        </row>
-        <row r="633">
-          <cell r="A633">
-            <v>1209</v>
-          </cell>
-          <cell r="B633">
-            <v>24476760.188999999</v>
-          </cell>
-        </row>
-        <row r="634">
-          <cell r="A634">
-            <v>1209.5</v>
-          </cell>
-          <cell r="B634">
-            <v>24552489.7267</v>
-          </cell>
-        </row>
-        <row r="635">
-          <cell r="A635">
-            <v>1210</v>
-          </cell>
-          <cell r="B635">
-            <v>24628375.120900001</v>
-          </cell>
-        </row>
-        <row r="636">
-          <cell r="A636">
-            <v>1210.5</v>
-          </cell>
-          <cell r="B636">
-            <v>24704411.035300002</v>
-          </cell>
-        </row>
-        <row r="637">
-          <cell r="A637">
-            <v>1211</v>
-          </cell>
-          <cell r="B637">
-            <v>24780617.3303</v>
-          </cell>
-        </row>
-        <row r="638">
-          <cell r="A638">
-            <v>1211.5</v>
-          </cell>
-          <cell r="B638">
-            <v>24856985.701299999</v>
-          </cell>
-        </row>
-        <row r="639">
-          <cell r="A639">
-            <v>1212</v>
-          </cell>
-          <cell r="B639">
-            <v>24933504.313099999</v>
-          </cell>
-        </row>
-        <row r="640">
-          <cell r="A640">
-            <v>1212.5</v>
-          </cell>
-          <cell r="B640">
-            <v>25010178.227000002</v>
-          </cell>
-        </row>
-        <row r="641">
-          <cell r="A641">
-            <v>1213</v>
-          </cell>
-          <cell r="B641">
-            <v>25086998.123799998</v>
-          </cell>
-        </row>
-        <row r="642">
-          <cell r="A642">
-            <v>1213.5</v>
-          </cell>
-          <cell r="B642">
-            <v>25163954.092500001</v>
-          </cell>
-        </row>
-        <row r="643">
-          <cell r="A643">
-            <v>1214</v>
-          </cell>
-          <cell r="B643">
-            <v>25241070.289900001</v>
-          </cell>
-        </row>
-        <row r="644">
-          <cell r="A644">
-            <v>1214.5</v>
-          </cell>
-          <cell r="B644">
-            <v>25318337.044500001</v>
-          </cell>
-        </row>
-        <row r="645">
-          <cell r="A645">
-            <v>1215</v>
-          </cell>
-          <cell r="B645">
-            <v>25395747.1699</v>
-          </cell>
-        </row>
-        <row r="646">
-          <cell r="A646">
-            <v>1215.5</v>
-          </cell>
-          <cell r="B646">
-            <v>25473302.182500001</v>
-          </cell>
-        </row>
-        <row r="647">
-          <cell r="A647">
-            <v>1216</v>
-          </cell>
-          <cell r="B647">
-            <v>25550991.9003</v>
-          </cell>
-        </row>
-        <row r="648">
-          <cell r="A648">
-            <v>1216.5</v>
-          </cell>
-          <cell r="B648">
-            <v>25628819.463599999</v>
-          </cell>
-        </row>
-        <row r="649">
-          <cell r="A649">
-            <v>1217</v>
-          </cell>
-          <cell r="B649">
-            <v>25706763.5984</v>
-          </cell>
-        </row>
-        <row r="650">
-          <cell r="A650">
-            <v>1217.5</v>
-          </cell>
-          <cell r="B650">
-            <v>25784860.274900001</v>
-          </cell>
-        </row>
-        <row r="651">
-          <cell r="A651">
-            <v>1218</v>
-          </cell>
-          <cell r="B651">
-            <v>25863089.953400001</v>
-          </cell>
-        </row>
-        <row r="652">
-          <cell r="A652">
-            <v>1218.5</v>
-          </cell>
-          <cell r="B652">
-            <v>25941458.096799999</v>
-          </cell>
-        </row>
-        <row r="653">
-          <cell r="A653">
-            <v>1219</v>
-          </cell>
-          <cell r="B653">
-            <v>26019960.1525</v>
-          </cell>
-        </row>
-        <row r="654">
-          <cell r="A654">
-            <v>1219.5</v>
-          </cell>
-          <cell r="B654">
-            <v>26098601.137400001</v>
-          </cell>
-        </row>
-        <row r="655">
-          <cell r="A655">
-            <v>1220</v>
-          </cell>
-          <cell r="B655">
-            <v>26177361.3303</v>
-          </cell>
-        </row>
-        <row r="656">
-          <cell r="A656">
-            <v>1220.5</v>
-          </cell>
-          <cell r="B656">
-            <v>26256279.734900001</v>
-          </cell>
-        </row>
-        <row r="657">
-          <cell r="A657">
-            <v>1221</v>
-          </cell>
-          <cell r="B657">
-            <v>26335338.448899999</v>
-          </cell>
-        </row>
-        <row r="658">
-          <cell r="A658">
-            <v>1221.5</v>
-          </cell>
-          <cell r="B658">
-            <v>26414542.661400001</v>
-          </cell>
-        </row>
-        <row r="659">
-          <cell r="A659">
-            <v>1222</v>
-          </cell>
-          <cell r="B659">
-            <v>26493891.876200002</v>
-          </cell>
-        </row>
-        <row r="660">
-          <cell r="A660">
-            <v>1222.5</v>
-          </cell>
-          <cell r="B660">
-            <v>26573396.6897</v>
-          </cell>
-        </row>
-        <row r="661">
-          <cell r="A661">
-            <v>1223</v>
-          </cell>
-          <cell r="B661">
-            <v>26653037.7258</v>
-          </cell>
-        </row>
-        <row r="662">
-          <cell r="A662">
-            <v>1223.5</v>
-          </cell>
-          <cell r="B662">
-            <v>26732851.6098</v>
-          </cell>
-        </row>
-        <row r="663">
-          <cell r="A663">
-            <v>1224</v>
-          </cell>
-          <cell r="B663">
-            <v>26812815.841800001</v>
-          </cell>
-        </row>
-        <row r="664">
-          <cell r="A664">
-            <v>1224.5</v>
-          </cell>
-          <cell r="B664">
-            <v>26892930.1094</v>
-          </cell>
-        </row>
-        <row r="665">
-          <cell r="A665">
-            <v>1225</v>
-          </cell>
-          <cell r="B665">
-            <v>26973186.650800001</v>
-          </cell>
-        </row>
-        <row r="666">
-          <cell r="A666">
-            <v>1225.5</v>
-          </cell>
-          <cell r="B666">
-            <v>27053585.979600001</v>
-          </cell>
-        </row>
-        <row r="667">
-          <cell r="A667">
-            <v>1226</v>
-          </cell>
-          <cell r="B667">
-            <v>27134123.5506</v>
-          </cell>
-        </row>
-        <row r="668">
-          <cell r="A668">
-            <v>1226.5</v>
-          </cell>
-          <cell r="B668">
-            <v>27214787.504500002</v>
-          </cell>
-        </row>
-        <row r="669">
-          <cell r="A669">
-            <v>1227</v>
-          </cell>
-          <cell r="B669">
-            <v>27295605.9036</v>
-          </cell>
-        </row>
-        <row r="670">
-          <cell r="A670">
-            <v>1227.5</v>
-          </cell>
-          <cell r="B670">
-            <v>27376565.713599999</v>
-          </cell>
-        </row>
-        <row r="671">
-          <cell r="A671">
-            <v>1228</v>
-          </cell>
-          <cell r="B671">
-            <v>27457664.4102</v>
-          </cell>
-        </row>
-        <row r="672">
-          <cell r="A672">
-            <v>1228.5</v>
-          </cell>
-          <cell r="B672">
-            <v>27538908.649500001</v>
-          </cell>
-        </row>
-        <row r="673">
-          <cell r="A673">
-            <v>1229</v>
-          </cell>
-          <cell r="B673">
-            <v>27620294.123799998</v>
-          </cell>
-        </row>
-        <row r="674">
-          <cell r="A674">
-            <v>1229.5</v>
-          </cell>
-          <cell r="B674">
-            <v>27701810.300500002</v>
-          </cell>
-        </row>
-        <row r="675">
-          <cell r="A675">
-            <v>1230</v>
-          </cell>
-          <cell r="B675">
-            <v>27783488.287099998</v>
-          </cell>
-        </row>
-        <row r="676">
-          <cell r="A676">
-            <v>1250</v>
-          </cell>
-          <cell r="B676">
-            <v>30809525</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -25602,7 +20238,6 @@
         <v>1025</v>
       </c>
       <c r="O51" s="42">
-        <f>VLOOKUP(N51,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>5.981122</v>
       </c>
       <c r="P51" s="43">
@@ -25634,7 +20269,6 @@
         <v>1030</v>
       </c>
       <c r="O52" s="42">
-        <f>VLOOKUP(N52,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>6.305377</v>
       </c>
       <c r="P52" s="43">
@@ -25666,7 +20300,6 @@
         <v>1035</v>
       </c>
       <c r="O53" s="42">
-        <f>VLOOKUP(N53,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>6.6375080000000004</v>
       </c>
       <c r="P53" s="43">
@@ -25728,7 +20361,6 @@
         <v>1040</v>
       </c>
       <c r="O54" s="42">
-        <f>VLOOKUP(N54,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>6.977665</v>
       </c>
       <c r="P54" s="43">
@@ -25790,7 +20422,6 @@
         <v>1045</v>
       </c>
       <c r="O55" s="42">
-        <f>VLOOKUP(N55,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>7.3260519999999998</v>
       </c>
       <c r="P55" s="43">
@@ -25852,7 +20483,6 @@
         <v>1050</v>
       </c>
       <c r="O56" s="42">
-        <f>VLOOKUP(N56,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>7.6828779999999997</v>
       </c>
       <c r="P56" s="43">
@@ -25915,7 +20545,6 @@
         <v>1075</v>
       </c>
       <c r="O57" s="42">
-        <f>VLOOKUP(N57,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>9.6009879999900001</v>
       </c>
       <c r="P57" s="43">
@@ -25934,7 +20563,6 @@
         <v>1090</v>
       </c>
       <c r="O58" s="42">
-        <f>VLOOKUP(N58,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>10.857008</v>
       </c>
       <c r="P58" s="43">
@@ -26059,8 +20687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525616F-FCF2-4465-9405-C17989B2BC95}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26240,43 +20868,43 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="61" t="s">
         <v>119</v>
       </c>
     </row>
@@ -26285,34 +20913,34 @@
         <v>46</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="12">
+      <c r="C22" s="59">
         <v>12.4</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="59">
         <v>12.4</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="59">
         <v>12.4</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="59">
         <v>12.4</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="59">
         <v>12.4</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="59">
         <v>12.4</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="59">
         <v>12.4</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="59">
         <v>12.4</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="59">
         <v>12.4</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="59">
         <v>12.4</v>
       </c>
     </row>
@@ -26373,39 +21001,39 @@
       </c>
       <c r="D24" s="15">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>20.311102320000032</v>
+        <v>19.611102320000029</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" ref="E24:L24" si="1">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>19.543416560000004</v>
+        <v>18.165689929499429</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="1"/>
-        <v>18.881075920000583</v>
+        <v>16.849171526499429</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="1"/>
-        <v>18.239783049001161</v>
+        <v>15.576945668900006</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="1"/>
-        <v>17.617192334000563</v>
+        <v>14.347347288900004</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="1"/>
-        <v>17.013303775001734</v>
+        <v>13.158549261398832</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="1"/>
-        <v>16.430590891502305</v>
+        <v>12.009916988898837</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="1"/>
-        <v>15.866580164001135</v>
+        <v>10.90093064580001</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="1"/>
-        <v>15.570754118901737</v>
+        <v>10.080001617800583</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -26418,39 +21046,39 @@
       </c>
       <c r="D25" s="15">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>10.617257133649304</v>
+        <v>9.9172571336493043</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" ref="E25:L25" si="2">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>10.244166960771796</v>
+        <v>8.8724778448049761</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="2"/>
-        <v>9.8808212519075109</v>
+        <v>7.8665292196506416</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="2"/>
-        <v>9.529328614229355</v>
+        <v>6.9013680836462248</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="2"/>
-        <v>9.1884418168334978</v>
+        <v>5.9762825461095703</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="2"/>
-        <v>8.8581421877139412</v>
+        <v>5.0906332730784181</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="2"/>
-        <v>8.5396979187139177</v>
+        <v>4.2444339699557885</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="2"/>
-        <v>8.2317980461111926</v>
+        <v>3.4378625798936513</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="2"/>
-        <v>7.934152133837177</v>
+        <v>2.6709081252854068</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -26467,35 +21095,35 @@
       </c>
       <c r="E26" s="15">
         <f t="shared" ref="E26:L27" si="3">IF(E23&lt;&gt;"",D55,"")</f>
-        <v>9.2992495992282098</v>
+        <v>9.2932120846944546</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="3"/>
-        <v>9.0002546680930742</v>
+        <v>8.9826423068487884</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="3"/>
-        <v>8.7104544347718047</v>
+        <v>8.6755775852537802</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="3"/>
-        <v>8.4287505171670638</v>
+        <v>8.3710647427904341</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="3"/>
-        <v>8.1551615872877932</v>
+        <v>8.067915988320415</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="3"/>
-        <v>7.8908929727883894</v>
+        <v>7.7654830189430477</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="3"/>
-        <v>7.6347821178899427</v>
+        <v>7.4630680659063593</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="3"/>
-        <v>7.6366019850645603</v>
+        <v>7.4090934925151775</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -26554,7 +21182,7 @@
         <v>132</v>
       </c>
       <c r="B29" s="37">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="C29" s="15">
         <f>C25</f>
@@ -26562,39 +21190,39 @@
       </c>
       <c r="D29" s="15">
         <f t="shared" ref="D29:L30" si="4">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>11.171106276000019</v>
+        <v>9.8055511600000145</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="4"/>
-        <v>10.748879108000002</v>
+        <v>9.0828449647497145</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="4"/>
-        <v>10.384591756000322</v>
+        <v>8.4245857632497145</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="4"/>
-        <v>10.031880676950639</v>
+        <v>7.7884728344500029</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="4"/>
-        <v>9.6894557837003106</v>
+        <v>7.1736736444500018</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="4"/>
-        <v>9.3573170762509541</v>
+        <v>6.5792746306994161</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="4"/>
-        <v>9.0368249903262683</v>
+        <v>6.0049584944494185</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>8.7266190902006251</v>
+        <v>5.4504653229000048</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="4"/>
-        <v>8.5639147653959569</v>
+        <v>5.0400008089002917</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -26603,7 +21231,7 @@
       </c>
       <c r="B30" s="37">
         <f>1-B29</f>
-        <v>0.44999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="C30" s="15">
         <f>C26</f>
@@ -26611,39 +21239,39 @@
       </c>
       <c r="D30" s="15">
         <f t="shared" si="4"/>
-        <v>9.1399960440000125</v>
+        <v>9.8055511600000145</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="4"/>
-        <v>8.7945374520000019</v>
+        <v>9.0828449647497145</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="4"/>
-        <v>8.4964841640002611</v>
+        <v>8.4245857632497145</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="4"/>
-        <v>8.2079023720505226</v>
+        <v>7.7884728344500029</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="4"/>
-        <v>7.9277365503002528</v>
+        <v>7.1736736444500018</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="4"/>
-        <v>7.6559866987507794</v>
+        <v>6.5792746306994161</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="4"/>
-        <v>7.393765901176037</v>
+        <v>6.0049584944494185</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>7.1399610738005101</v>
+        <v>5.4504653229000048</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="4"/>
-        <v>7.0068393535057814</v>
+        <v>5.0400008089002917</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -26657,39 +21285,39 @@
       </c>
       <c r="D31" s="15">
         <f>IF(D$22&lt;&gt;"",VLOOKUP(D25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>1.000685760000027</v>
+        <v>0.97841239050060014</v>
       </c>
       <c r="E31" s="15">
         <f>IF(E$22&lt;&gt;"",VLOOKUP(E25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.979340639999427</v>
+        <v>0.93351840300000011</v>
       </c>
       <c r="F31" s="15">
         <f>IF(F$22&lt;&gt;"",VLOOKUP(F25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.95829287099942695</v>
+        <v>0.88922585759942696</v>
       </c>
       <c r="G31" s="15">
         <f>IF(G$22&lt;&gt;"",VLOOKUP(G25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.93959071500059999</v>
+        <v>0.84659837999999998</v>
       </c>
       <c r="H31" s="15">
         <f>IF(H$22&lt;&gt;"",VLOOKUP(H25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.92088855899882704</v>
+        <v>0.80579802750117302</v>
       </c>
       <c r="I31" s="15">
         <f>IF(I$22&lt;&gt;"",VLOOKUP(I25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.89971288349942702</v>
+        <v>0.76563227249999999</v>
       </c>
       <c r="J31" s="15">
         <f>IF(J$22&lt;&gt;"",VLOOKUP(J25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.88101072750117304</v>
+        <v>0.72598634309882693</v>
       </c>
       <c r="K31" s="15">
         <f>IF(K$22&lt;&gt;"",VLOOKUP(K25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.86282604509939997</v>
+        <v>0.68792902799942701</v>
       </c>
       <c r="L31" s="15">
         <f>IF(L$22&lt;&gt;"",VLOOKUP(L25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.85276989509997292</v>
+        <v>0.65641652999882705</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -26703,39 +21331,39 @@
       </c>
       <c r="D32" s="15">
         <f t="shared" ref="D32:L34" si="5">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.52309017287750759</v>
+        <v>0.49477928884432704</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="5"/>
-        <v>0.51334570886428643</v>
+        <v>0.4559486251543356</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="5"/>
-        <v>0.50149263767815555</v>
+        <v>0.41516113600441773</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="5"/>
-        <v>0.49088679739585783</v>
+        <v>0.37508553753665302</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="5"/>
-        <v>0.48029962911955648</v>
+        <v>0.33564927303115372</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="5"/>
-        <v>0.46844426900002378</v>
+        <v>0.29619930312263082</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="5"/>
-        <v>0.45789987260272513</v>
+        <v>0.25657139006213614</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="5"/>
-        <v>0.44764591227401562</v>
+        <v>0.21695445460824475</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="5"/>
-        <v>0.43453297324027018</v>
+        <v>0.1739313454523102</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -26749,39 +21377,39 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" si="5"/>
-        <v>0.47759558712251932</v>
+        <v>0.48363310165627327</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="5"/>
-        <v>0.46599493113514073</v>
+        <v>0.47756977784566457</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="5"/>
-        <v>0.45680023332127151</v>
+        <v>0.47406472159500923</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="5"/>
-        <v>0.44870391760474199</v>
+        <v>0.4715128424633469</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="5"/>
-        <v>0.44058892987927051</v>
+        <v>0.47014875447001936</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="5"/>
-        <v>0.43126861449940324</v>
+        <v>0.46943296937736922</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="5"/>
-        <v>0.42311085489844796</v>
+        <v>0.46941495303669073</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="5"/>
-        <v>0.41518013282538441</v>
+        <v>0.47097457339118232</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="5"/>
-        <v>0.41823692185970274</v>
+        <v>0.4824851845465169</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -27111,39 +21739,39 @@
       </c>
       <c r="D45" s="15">
         <f t="shared" ref="D45:L45" si="10">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>14.244166960771796</v>
+        <v>13.572477844804977</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="10"/>
-        <v>13.880821251907511</v>
+        <v>12.566529219650642</v>
       </c>
       <c r="F45" s="15">
         <f t="shared" si="10"/>
-        <v>13.529328614229355</v>
+        <v>11.601368083646225</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="10"/>
-        <v>13.188441816833498</v>
+        <v>10.676282546109571</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="10"/>
-        <v>12.858142187713941</v>
+        <v>9.7906332730784182</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="10"/>
-        <v>12.539697918713918</v>
+        <v>8.9444339699557887</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="10"/>
-        <v>12.231798046111193</v>
+        <v>8.1378625798936515</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="10"/>
-        <v>11.934152133837177</v>
+        <v>7.370908125285407</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="10"/>
-        <v>11.649619160596908</v>
+        <v>6.6469767798330972</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -27156,39 +21784,39 @@
       </c>
       <c r="D46" s="15">
         <f t="shared" ref="D46:L46" si="11">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>16.76624959922821</v>
+        <v>16.760212084694455</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="11"/>
-        <v>16.383254668093073</v>
+        <v>16.365642306848788</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="11"/>
-        <v>16.093454434771804</v>
+        <v>16.058577585253779</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="11"/>
-        <v>15.811750517167063</v>
+        <v>15.754064742790433</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="11"/>
-        <v>15.538161587287792</v>
+        <v>15.450915988320414</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="11"/>
-        <v>15.273892972788389</v>
+        <v>15.148483018943047</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="11"/>
-        <v>15.017782117889942</v>
+        <v>14.846068065906358</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="11"/>
-        <v>14.769601985064559</v>
+        <v>14.542093492515178</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="11"/>
-        <v>14.768365063204858</v>
+        <v>14.476608307968661</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -27238,7 +21866,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="30"/>
@@ -27254,46 +21882,46 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C49" s="26">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="D49" s="26">
         <f>C49</f>
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="E49" s="26">
         <f>D49</f>
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="F49" s="26">
         <f t="shared" ref="F49:L49" si="13">E49</f>
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="G49" s="26">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="H49" s="26">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I49" s="26">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="J49" s="26">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="K49" s="26">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="L49" s="26">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>151</v>
@@ -27301,7 +21929,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C50" s="45">
         <f>7.5-IF(C26&lt;$O$51,$P$51,IF(C26&lt;=$O$58,VLOOKUP(C26,$O$51:$P$58,2),0))</f>
@@ -27361,7 +21989,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C51" s="12">
         <f>IF(C$22&lt;&gt;"",0.6,"")</f>
@@ -27407,7 +22035,6 @@
         <v>1025</v>
       </c>
       <c r="O51" s="42">
-        <f>VLOOKUP(N51,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>5.981122</v>
       </c>
       <c r="P51" s="43">
@@ -27423,7 +22050,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C52" s="26">
         <v>1.5</v>
@@ -27468,7 +22095,6 @@
         <v>1030</v>
       </c>
       <c r="O52" s="42">
-        <f>VLOOKUP(N52,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>6.305377</v>
       </c>
       <c r="P52" s="43">
@@ -27500,7 +22126,6 @@
         <v>1035</v>
       </c>
       <c r="O53" s="42">
-        <f>VLOOKUP(N53,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>6.6375080000000004</v>
       </c>
       <c r="P53" s="43">
@@ -27520,49 +22145,48 @@
       </c>
       <c r="C54" s="15">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>10.617257133649304</v>
+        <v>9.9172571336493043</v>
       </c>
       <c r="D54" s="15">
         <f t="shared" ref="D54:L54" si="18">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>10.244166960771796</v>
+        <v>8.8724778448049761</v>
       </c>
       <c r="E54" s="15">
         <f t="shared" si="18"/>
-        <v>9.8808212519075109</v>
+        <v>7.8665292196506416</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="18"/>
-        <v>9.529328614229355</v>
+        <v>6.9013680836462248</v>
       </c>
       <c r="G54" s="15">
         <f t="shared" si="18"/>
-        <v>9.1884418168334978</v>
+        <v>5.9762825461095703</v>
       </c>
       <c r="H54" s="15">
         <f t="shared" si="18"/>
-        <v>8.8581421877139412</v>
+        <v>5.0906332730784181</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="18"/>
-        <v>8.5396979187139177</v>
+        <v>4.2444339699557885</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="18"/>
-        <v>8.2317980461111926</v>
+        <v>3.4378625798936513</v>
       </c>
       <c r="K54" s="15">
         <f t="shared" si="18"/>
-        <v>7.934152133837177</v>
+        <v>2.6709081252854068</v>
       </c>
       <c r="L54" s="15">
         <f t="shared" si="18"/>
-        <v>7.6496191605969077</v>
+        <v>1.946976779833097</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
       </c>
       <c r="O54" s="42">
-        <f>VLOOKUP(N54,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>6.977665</v>
       </c>
       <c r="P54" s="43">
@@ -27586,45 +22210,44 @@
       </c>
       <c r="D55" s="15">
         <f t="shared" ref="D55:L55" si="19">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>9.2992495992282098</v>
+        <v>9.2932120846944546</v>
       </c>
       <c r="E55" s="15">
         <f t="shared" si="19"/>
-        <v>9.0002546680930742</v>
+        <v>8.9826423068487884</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="19"/>
-        <v>8.7104544347718047</v>
+        <v>8.6755775852537802</v>
       </c>
       <c r="G55" s="15">
         <f t="shared" si="19"/>
-        <v>8.4287505171670638</v>
+        <v>8.3710647427904341</v>
       </c>
       <c r="H55" s="15">
         <f t="shared" si="19"/>
-        <v>8.1551615872877932</v>
+        <v>8.067915988320415</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="19"/>
-        <v>7.8908929727883894</v>
+        <v>7.7654830189430477</v>
       </c>
       <c r="J55" s="15">
         <f t="shared" si="19"/>
-        <v>7.6347821178899427</v>
+        <v>7.4630680659063593</v>
       </c>
       <c r="K55" s="15">
         <f t="shared" si="19"/>
-        <v>7.6366019850645603</v>
+        <v>7.4090934925151775</v>
       </c>
       <c r="L55" s="15">
         <f t="shared" si="19"/>
-        <v>7.6353650632048566</v>
+        <v>7.3436083079686609</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
       </c>
       <c r="O55" s="42">
-        <f>VLOOKUP(N55,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>7.3260519999999998</v>
       </c>
       <c r="P55" s="43">
@@ -27686,7 +22309,6 @@
         <v>1050</v>
       </c>
       <c r="O56" s="42">
-        <f>VLOOKUP(N56,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>7.6828779999999997</v>
       </c>
       <c r="P56" s="43">
@@ -27707,49 +22329,48 @@
       <c r="B57" s="1"/>
       <c r="C57" s="15">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>20.311102320000032</v>
+        <v>19.611102320000029</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" ref="D57:L57" si="21">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>19.543416560000004</v>
+        <v>18.165689929499429</v>
       </c>
       <c r="E57" s="15">
         <f t="shared" si="21"/>
-        <v>18.881075920000583</v>
+        <v>16.849171526499429</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="21"/>
-        <v>18.239783049001161</v>
+        <v>15.576945668900006</v>
       </c>
       <c r="G57" s="15">
         <f t="shared" si="21"/>
-        <v>17.617192334000563</v>
+        <v>14.347347288900004</v>
       </c>
       <c r="H57" s="15">
         <f t="shared" si="21"/>
-        <v>17.013303775001734</v>
+        <v>13.158549261398832</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="21"/>
-        <v>16.430590891502305</v>
+        <v>12.009916988898837</v>
       </c>
       <c r="J57" s="15">
         <f t="shared" si="21"/>
-        <v>15.866580164001135</v>
+        <v>10.90093064580001</v>
       </c>
       <c r="K57" s="15">
         <f t="shared" si="21"/>
-        <v>15.570754118901737</v>
+        <v>10.080001617800583</v>
       </c>
       <c r="L57" s="15">
         <f t="shared" si="21"/>
-        <v>15.284984223801764</v>
+        <v>9.2905850878017588</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
       </c>
       <c r="O57" s="42">
-        <f>VLOOKUP(N57,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>9.6009879999900001</v>
       </c>
       <c r="P57" s="43">
@@ -27768,7 +22389,6 @@
         <v>1090</v>
       </c>
       <c r="O58" s="42">
-        <f>VLOOKUP(N58,'[1]Mead-Elevation-Area'!$A$5:$B$676,2)/1000000</f>
         <v>10.857008</v>
       </c>
       <c r="P58" s="43">
@@ -29160,8 +23780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53B606B-01F6-4E7D-A974-83932AB0482C}">
   <dimension ref="A1:S689"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
+++ b/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\InteractiveWaterBudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E6F8CC-6741-4150-AD77-3FA91804BF60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF6A6F9-E39B-44D4-ADA8-CEFBA350D1D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="2" activeTab="2" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="1" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe-Directions" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="159">
   <si>
     <t xml:space="preserve">    To Upper Basin</t>
   </si>
@@ -470,21 +470,6 @@
     <t>Lower Basin Consumptive Use</t>
   </si>
   <si>
-    <t>Reservoir Releases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Upper Basin (from Powell)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Lower Basin (from Mead)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mexico (from Mead)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Mohave / Havasu Evaporation &amp; ET (from Mead)</t>
-  </si>
-  <si>
     <t>Drought Contingency Plan Helper</t>
   </si>
   <si>
@@ -519,6 +504,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mexico - Release from Mead</t>
+  </si>
+  <si>
+    <t>Account end-of-year balance (Available water - Account Withdrawals)</t>
   </si>
 </sst>
 </file>
@@ -860,6 +848,13 @@
     <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -896,13 +891,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent2" xfId="6" builtinId="33"/>
@@ -913,7 +901,317 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18603,20 +18901,20 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:12" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
@@ -18632,236 +18930,236 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="52"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="52"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>7</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>8</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
         <v>9</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>10</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
         <v>11</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
     </row>
     <row r="18" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
         <v>12</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
@@ -18919,20 +19217,20 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -18960,8 +19258,1992 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3356767-5983-45FB-80E4-1C5DE08E38A0}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" customWidth="1"/>
+    <col min="18" max="18" width="21.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="12">
+        <v>5.73</v>
+      </c>
+      <c r="C18" s="12">
+        <v>6</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="12">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="D22" s="12">
+        <v>10.5</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12">
+        <f t="shared" ref="F22:L22" si="0">G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="12">
+        <f>IF(C$22&lt;&gt;"",0.8,"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" ref="D23:L23" si="1">IF(D$22&lt;&gt;"",0.8,"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="15">
+        <f>IF(C$22&lt;&gt;"",SUM(C25:C27),"")</f>
+        <v>21.1</v>
+      </c>
+      <c r="D24" s="15">
+        <f>IF(D$22&lt;&gt;"",C57,"")</f>
+        <v>18.528102320000031</v>
+      </c>
+      <c r="E24" s="15" t="str">
+        <f t="shared" ref="E24:L24" si="2">IF(E$22&lt;&gt;"",D57,"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H24" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I24" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J24" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="15">
+        <f>IF(C$22&lt;&gt;"",$B$19,"")</f>
+        <v>11</v>
+      </c>
+      <c r="D25" s="15">
+        <f>IF(D22&lt;&gt;"",C54,"")</f>
+        <v>8.4172571336493043</v>
+      </c>
+      <c r="E25" s="15" t="str">
+        <f t="shared" ref="E25:L25" si="3">IF(E22&lt;&gt;"",D54,"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G25" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H25" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I25" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J25" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K25" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L25" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="15">
+        <f>IF(C$22&lt;&gt;"",$C$19,"")</f>
+        <v>10.1</v>
+      </c>
+      <c r="D26" s="15">
+        <f>IF(D23&lt;&gt;"",C55,"")</f>
+        <v>10.110845186350728</v>
+      </c>
+      <c r="E26" s="15" t="str">
+        <f t="shared" ref="E26:L27" si="4">IF(E23&lt;&gt;"",D55,"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G26" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H26" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I26" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J26" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="15">
+        <f>IF(C22&lt;&gt;"",0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <f>IF(D24&lt;&gt;"",C56,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F27" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G27" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="H27" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I27" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J27" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L27" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="15">
+        <f>C25</f>
+        <v>11</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:L29" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
+        <v>9.2640511600000153</v>
+      </c>
+      <c r="E29" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F29" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G29" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H29" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J29" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="37">
+        <f>1-B29</f>
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="15">
+        <f>C26</f>
+        <v>10.1</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" ref="D30:L30" si="6">IF(D23&lt;&gt;"",$B30*D$24,"")</f>
+        <v>9.2640511600000153</v>
+      </c>
+      <c r="E30" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F30" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G30" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H30" s="15" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" s="15" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J30" s="15" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="15" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" s="15" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="15">
+        <f>IF(C$22&lt;&gt;"",VLOOKUP(C29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(C30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>1.0218976799999733</v>
+      </c>
+      <c r="D31" s="15">
+        <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.94498607849939997</v>
+      </c>
+      <c r="E31" s="15" t="str">
+        <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="15" t="str">
+        <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v/>
+      </c>
+      <c r="G31" s="15" t="str">
+        <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v/>
+      </c>
+      <c r="H31" s="15" t="e">
+        <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" s="15" t="e">
+        <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J31" s="15" t="e">
+        <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="15" t="e">
+        <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" s="15" t="e">
+        <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C25/C$24,"")</f>
+        <v>0.5327428663506969</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" ref="D32:L32" si="7">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
+        <v>0.42930412802514917</v>
+      </c>
+      <c r="E32" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="F32" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G32" s="15" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="H32" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J32" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" s="15" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C26/C$24,"")</f>
+        <v>0.48915481364927621</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" ref="D33:L33" si="8">IF(D$22&lt;&gt;"",D$31*D26/D$24,"")</f>
+        <v>0.51568195047425092</v>
+      </c>
+      <c r="E33" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="F33" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="G33" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="H33" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J33" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" s="15" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C27/C$24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" ref="D34:L34" si="9">IF(D$22&lt;&gt;"",D$31*D27/D$24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F34" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G34" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="H34" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J34" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L34" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="26">
+        <f>IF(C22&lt;&gt;"",1.5,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="26">
+        <f t="shared" ref="D35:L35" si="10">IF(D22&lt;&gt;"",1.5,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F35" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G35" s="26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H35" s="26">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="J35" s="26">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="K35" s="26">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="L35" s="26">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="15">
+        <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
+        <v>9.75</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" ref="D36:L36" si="11">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
+        <v>9.75</v>
+      </c>
+      <c r="E36" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F36" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="G36" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.75</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.75</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.75</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.75</v>
+      </c>
+      <c r="L36" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="15">
+        <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
+        <v>2.25</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" ref="D37:L37" si="12">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
+        <v>2.25</v>
+      </c>
+      <c r="E37" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="F37" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G37" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="46">
+        <v>7.5</v>
+      </c>
+      <c r="C38" s="15">
+        <f>IF(C22&lt;&gt;"",IF(C36&gt;$B38,$B38,C36),"")</f>
+        <v>7.5</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" ref="D38:L38" si="13">IF(D22&lt;&gt;"",IF(D36&gt;$B38,$B38,D36),"")</f>
+        <v>7.5</v>
+      </c>
+      <c r="E38" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F38" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G38" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.75</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.75</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.75</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.75</v>
+      </c>
+      <c r="L38" s="15">
+        <f t="shared" si="13"/>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="D40" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="F40" s="26">
+        <v>1</v>
+      </c>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="32">
+        <f>350*C40</f>
+        <v>87.5</v>
+      </c>
+      <c r="D41" s="32">
+        <f>350*D40</f>
+        <v>175</v>
+      </c>
+      <c r="E41" s="32">
+        <f>350*E40</f>
+        <v>262.5</v>
+      </c>
+      <c r="F41" s="32">
+        <f>350*F40</f>
+        <v>350</v>
+      </c>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="34">
+        <f>SUM(C41:L41)</f>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="34">
+        <f>SUM(C43:L43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="15">
+        <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
+        <v>12.467257133649303</v>
+      </c>
+      <c r="D45" s="15">
+        <f t="shared" ref="D45:L45" si="14">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
+        <v>9.7379530056241546</v>
+      </c>
+      <c r="E45" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="F45" s="15" t="str">
+        <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
+        <v/>
+      </c>
+      <c r="G45" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H45" s="15" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" s="15" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J45" s="15" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K45" s="15" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L45" s="15" t="e">
+        <f t="shared" si="14"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="15">
+        <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
+        <v>17.410845186350727</v>
+      </c>
+      <c r="D46" s="15">
+        <f t="shared" ref="D46:L46" si="15">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
+        <v>17.645163235876481</v>
+      </c>
+      <c r="E46" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="F46" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G46" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H46" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J46" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L46" s="15" t="e">
+        <f t="shared" si="15"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="15">
+        <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" ref="D47:L47" si="16">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="F47" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="G47" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H47" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I47" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J47" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K47" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L47" s="15" t="e">
+        <f t="shared" si="16"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="26">
+        <f>4.3-C40</f>
+        <v>4.05</v>
+      </c>
+      <c r="D49" s="26">
+        <f>4.3-D40</f>
+        <v>3.8</v>
+      </c>
+      <c r="E49" s="26">
+        <f>4.3-E40</f>
+        <v>3.55</v>
+      </c>
+      <c r="F49" s="26">
+        <f>4.3-F40</f>
+        <v>3.3</v>
+      </c>
+      <c r="G49" s="26">
+        <v>2</v>
+      </c>
+      <c r="H49" s="26">
+        <v>2</v>
+      </c>
+      <c r="I49" s="26">
+        <v>2</v>
+      </c>
+      <c r="J49" s="26">
+        <v>2</v>
+      </c>
+      <c r="K49" s="26">
+        <v>2</v>
+      </c>
+      <c r="L49" s="26">
+        <v>2</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="45">
+        <v>6.7</v>
+      </c>
+      <c r="D50" s="45">
+        <f>C50</f>
+        <v>6.7</v>
+      </c>
+      <c r="E50" s="45">
+        <f t="shared" ref="E50:L50" si="17">D50</f>
+        <v>6.7</v>
+      </c>
+      <c r="F50" s="45">
+        <f t="shared" si="17"/>
+        <v>6.7</v>
+      </c>
+      <c r="G50" s="45">
+        <f t="shared" si="17"/>
+        <v>6.7</v>
+      </c>
+      <c r="H50" s="45">
+        <f t="shared" si="17"/>
+        <v>6.7</v>
+      </c>
+      <c r="I50" s="45">
+        <f t="shared" si="17"/>
+        <v>6.7</v>
+      </c>
+      <c r="J50" s="45">
+        <f t="shared" si="17"/>
+        <v>6.7</v>
+      </c>
+      <c r="K50" s="45">
+        <f t="shared" si="17"/>
+        <v>6.7</v>
+      </c>
+      <c r="L50" s="45">
+        <f t="shared" si="17"/>
+        <v>6.7</v>
+      </c>
+      <c r="N50" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="P50" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q50" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="12">
+        <f>IF(C$22&lt;&gt;"",0.6,"")</f>
+        <v>0.6</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" ref="D51:L51" si="18">IF(D$22&lt;&gt;"",0.6,"")</f>
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F51" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G51" s="12" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="N51" s="41">
+        <v>1025</v>
+      </c>
+      <c r="O51" s="42">
+        <v>5.981122</v>
+      </c>
+      <c r="P51" s="43">
+        <f t="shared" ref="P51:P58" si="19">R51-Q51</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q51" s="44">
+        <v>0.125</v>
+      </c>
+      <c r="R51" s="43">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="G52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="I52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="J52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="K52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="L52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="N52" s="41">
+        <v>1030</v>
+      </c>
+      <c r="O52" s="42">
+        <v>6.305377</v>
+      </c>
+      <c r="P52" s="43">
+        <f t="shared" si="19"/>
+        <v>1.117</v>
+      </c>
+      <c r="Q52" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R52" s="43">
+        <v>1.1870000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="N53" s="41">
+        <v>1035</v>
+      </c>
+      <c r="O53" s="42">
+        <v>6.6375080000000004</v>
+      </c>
+      <c r="P53" s="43">
+        <f t="shared" si="19"/>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="Q53" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R53" s="43">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="15">
+        <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
+        <v>8.4172571336493043</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
+        <v>5.9379530056241547</v>
+      </c>
+      <c r="E54" s="15" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="F54" s="15" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="G54" s="15" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="H54" s="15" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I54" s="15" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J54" s="15" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" s="15" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L54" s="15" t="e">
+        <f t="shared" si="20"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N54" s="41">
+        <v>1040</v>
+      </c>
+      <c r="O54" s="42">
+        <v>6.977665</v>
+      </c>
+      <c r="P54" s="43">
+        <f t="shared" si="19"/>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="Q54" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R54" s="43">
+        <v>1.087</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="15">
+        <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
+        <v>10.110845186350728</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" ref="D55:L55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <v>10.345163235876482</v>
+      </c>
+      <c r="E55" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="F55" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="G55" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="H55" s="15" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I55" s="15" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J55" s="15" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K55" s="15" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L55" s="15" t="e">
+        <f t="shared" si="21"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N55" s="41">
+        <v>1045</v>
+      </c>
+      <c r="O55" s="42">
+        <v>7.3260519999999998</v>
+      </c>
+      <c r="P55" s="43">
+        <f t="shared" si="19"/>
+        <v>0.96699999999999986</v>
+      </c>
+      <c r="Q55" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R55" s="43">
+        <v>1.0369999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="15">
+        <f>IF(C$22&lt;&gt;"",C47-C52,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" ref="D56:L56" si="22">IF(D$22&lt;&gt;"",D47-D52,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="F56" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="G56" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H56" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I56" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J56" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K56" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L56" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N56" s="41">
+        <v>1050</v>
+      </c>
+      <c r="O56" s="42">
+        <v>7.6828779999999997</v>
+      </c>
+      <c r="P56" s="43">
+        <f t="shared" si="19"/>
+        <v>0.71700000000000008</v>
+      </c>
+      <c r="Q56" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R56" s="43">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="15">
+        <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
+        <v>18.528102320000031</v>
+      </c>
+      <c r="D57" s="15">
+        <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+        <v>16.283116241500636</v>
+      </c>
+      <c r="E57" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="F57" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="G57" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="H57" s="15" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I57" s="15" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J57" s="15" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="K57" s="15" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L57" s="15" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N57" s="41">
+        <v>1075</v>
+      </c>
+      <c r="O57" s="42">
+        <v>9.6009879999900001</v>
+      </c>
+      <c r="P57" s="43">
+        <f t="shared" si="19"/>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="Q57" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="R57" s="43">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N58" s="41">
+        <v>1090</v>
+      </c>
+      <c r="O58" s="42">
+        <v>10.857008</v>
+      </c>
+      <c r="P58" s="43">
+        <f t="shared" si="19"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="12">
+        <f>IF(C$22&lt;&gt;"",0.2,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="D59" s="12">
+        <f t="shared" ref="D59:L59" si="24">IF(D$22&lt;&gt;"",0.2,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="E59" s="12" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="F59" s="12" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="G59" s="12" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="H59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="J59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="K59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="15">
+        <f>IF(C$22&lt;&gt;"",C50+C59,"")</f>
+        <v>6.9</v>
+      </c>
+      <c r="D60" s="15">
+        <f t="shared" ref="D60:L60" si="25">IF(D$22&lt;&gt;"",D50+D59,"")</f>
+        <v>6.9</v>
+      </c>
+      <c r="E60" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="F60" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G60" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H60" s="15">
+        <f t="shared" si="25"/>
+        <v>6.9</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="25"/>
+        <v>6.9</v>
+      </c>
+      <c r="J60" s="15">
+        <f t="shared" si="25"/>
+        <v>6.9</v>
+      </c>
+      <c r="K60" s="15">
+        <f t="shared" si="25"/>
+        <v>6.9</v>
+      </c>
+      <c r="L60" s="15">
+        <f t="shared" si="25"/>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D62" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C49:L49">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:F49">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:F49">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="greaterThan">
+      <formula>$E$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:F49">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="greaterThan">
+      <formula>$D$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="greaterThan">
+      <formula>$F$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="greaterThan">
+      <formula>$G$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
+      <formula>$H$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
+      <formula>$I$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
+      <formula>$J$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="greaterThan">
+      <formula>$K$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="greaterThan">
+      <formula>$L$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="greaterThan">
+      <formula>$C$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:L50">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="greaterThan">
+      <formula>$D$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
+      <formula>$E$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
+      <formula>$F$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="greaterThan">
+      <formula>$G$46</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
+      <formula>$G$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
+      <formula>$H$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+      <formula>$I$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+      <formula>$J$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+      <formula>$K$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+      <formula>$L$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+      <formula>$C$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+      <formula>$D$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+      <formula>$E$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+      <formula>$F$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>$G$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+      <formula>$H$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>$I$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>$J$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>$K$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>$L$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525616F-FCF2-4465-9405-C17989B2BC95}">
+  <dimension ref="A1:R62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19023,49 +21305,49 @@
       <c r="A5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -19141,43 +21423,43 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L21" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="49" t="s">
         <v>119</v>
       </c>
     </row>
@@ -19186,24 +21468,36 @@
         <v>46</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="12">
-        <v>13.4</v>
-      </c>
-      <c r="D22" s="12">
-        <v>13</v>
-      </c>
-      <c r="E22" s="12">
-        <v>12.6</v>
-      </c>
-      <c r="F22" s="12">
-        <v>10</v>
-      </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
+      <c r="C22" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="D22" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="E22" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="F22" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="G22" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="H22" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="I22" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="J22" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="K22" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="L22" s="47">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -19226,29 +21520,29 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="G23" s="12" t="str">
+      <c r="G23" s="12">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H23" s="12" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="12">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I23" s="12" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="12">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="12" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="12">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23" s="12" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="K23" s="12">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L23" s="12" t="str">
+        <v>0.8</v>
+      </c>
+      <c r="L23" s="12">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -19262,39 +21556,39 @@
       </c>
       <c r="D24" s="15">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>33.678102320000029</v>
+        <v>20.111102320000029</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" ref="E24:L24" si="1">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>45.545975380316023</v>
+        <v>19.152398230000031</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="1"/>
-        <v>56.696708477344025</v>
-      </c>
-      <c r="G24" s="15" t="str">
+        <v>18.305145995499462</v>
+      </c>
+      <c r="G24" s="15">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="H24" s="15" t="str">
+        <v>17.483102955998888</v>
+      </c>
+      <c r="H24" s="15">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I24" s="15" t="str">
+        <v>16.687176630999463</v>
+      </c>
+      <c r="I24" s="15">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" s="15" t="str">
+        <v>15.917071501000038</v>
+      </c>
+      <c r="J24" s="15">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K24" s="15" t="str">
+        <v>15.170396558498869</v>
+      </c>
+      <c r="K24" s="15">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L24" s="15" t="str">
+        <v>14.446953803498872</v>
+      </c>
+      <c r="L24" s="15">
         <f t="shared" si="1"/>
-        <v/>
+        <v>13.997460283398901</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -19307,39 +21601,39 @@
       </c>
       <c r="D25" s="15">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>15.617257133649302</v>
+        <v>10.417257133649304</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" ref="E25:L25" si="2">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>19.749521349309944</v>
+        <v>9.8535689060404223</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="2"/>
-        <v>23.384370742939733</v>
-      </c>
-      <c r="G25" s="15" t="str">
+        <v>9.3074782482881169</v>
+      </c>
+      <c r="G25" s="15">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H25" s="15" t="str">
+        <v>8.7800101818489402</v>
+      </c>
+      <c r="H25" s="15">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I25" s="15" t="str">
+        <v>8.2715387967094642</v>
+      </c>
+      <c r="I25" s="15">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J25" s="15" t="str">
+        <v>7.7818164481176071</v>
+      </c>
+      <c r="J25" s="15">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K25" s="15" t="str">
+        <v>7.3095679287866249</v>
+      </c>
+      <c r="K25" s="15">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L25" s="15" t="str">
+        <v>6.8546165233148004</v>
+      </c>
+      <c r="L25" s="15">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6.417216518429254</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -19352,39 +21646,39 @@
       </c>
       <c r="D26" s="15">
         <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v>16.560845186350726</v>
+        <v>9.6938451863507265</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" ref="E26:L27" si="3">IF(E23&lt;&gt;"",D55,"")</f>
-        <v>22.85578606790471</v>
+        <v>9.2988293239596107</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="3"/>
-        <v>28.97815440147442</v>
-      </c>
-      <c r="G26" s="15" t="str">
+        <v>8.9976677472113451</v>
+      </c>
+      <c r="G26" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H26" s="15" t="str">
+        <v>8.7030927741499475</v>
+      </c>
+      <c r="H26" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I26" s="15" t="str">
+        <v>8.4156378342899991</v>
+      </c>
+      <c r="I26" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J26" s="15" t="str">
+        <v>8.1352550528824317</v>
+      </c>
+      <c r="J26" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K26" s="15" t="str">
+        <v>7.8608286297122429</v>
+      </c>
+      <c r="K26" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L26" s="15" t="str">
+        <v>7.5923372801840703</v>
+      </c>
+      <c r="L26" s="15">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7.5802437649696461</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -19397,39 +21691,39 @@
       </c>
       <c r="D27" s="15">
         <f>IF(D24&lt;&gt;"",C56,"")</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="3"/>
-        <v>2.9406679631013724</v>
+        <v>0</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="3"/>
-        <v>4.3341833329298725</v>
-      </c>
-      <c r="G27" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H27" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I27" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J27" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K27" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L27" s="15" t="str">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -19450,40 +21744,40 @@
         <v>11</v>
       </c>
       <c r="D29" s="15">
-        <f t="shared" ref="D29:L29" si="4">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>16.839051160000015</v>
+        <f t="shared" ref="D29:L30" si="4">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
+        <v>10.055551160000014</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="4"/>
-        <v>22.772987690158011</v>
+        <v>9.5761991150000156</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="4"/>
-        <v>28.348354238672012</v>
-      </c>
-      <c r="G29" s="15" t="str">
+        <v>9.152572997749731</v>
+      </c>
+      <c r="G29" s="15">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H29" s="15" t="str">
+        <v>8.7415514779994439</v>
+      </c>
+      <c r="H29" s="15">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I29" s="15" t="str">
+        <v>8.3435883154997317</v>
+      </c>
+      <c r="I29" s="15">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J29" s="15" t="str">
+        <v>7.9585357505000189</v>
+      </c>
+      <c r="J29" s="15">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K29" s="15" t="str">
+        <v>7.5851982792494343</v>
+      </c>
+      <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L29" s="15" t="str">
+        <v>7.2234769017494358</v>
+      </c>
+      <c r="L29" s="15">
         <f t="shared" si="4"/>
-        <v/>
+        <v>6.9987301416994505</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -19499,40 +21793,40 @@
         <v>10.1</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" ref="D30:L30" si="5">IF(D23&lt;&gt;"",$B30*D$24,"")</f>
-        <v>16.839051160000015</v>
+        <f t="shared" si="4"/>
+        <v>10.055551160000014</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="5"/>
-        <v>22.772987690158011</v>
+        <f t="shared" si="4"/>
+        <v>9.5761991150000156</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="5"/>
-        <v>28.348354238672012</v>
-      </c>
-      <c r="G30" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H30" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I30" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J30" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K30" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L30" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>9.152572997749731</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="4"/>
+        <v>8.7415514779994439</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="4"/>
+        <v>8.3435883154997317</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="4"/>
+        <v>7.9585357505000189</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="4"/>
+        <v>7.5851982792494343</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="4"/>
+        <v>7.2234769017494358</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="4"/>
+        <v>6.9987301416994505</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -19541,44 +21835,44 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="15">
-        <f>IF(C$22&lt;&gt;"",VLOOKUP(C25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(C26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <f>IF(C$22&lt;&gt;"",VLOOKUP(C29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(C30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
         <v>1.0218976799999733</v>
       </c>
       <c r="D31" s="15">
-        <f>IF(D$22&lt;&gt;"",VLOOKUP(D25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>1.3321269396840001</v>
+        <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.99170409000000004</v>
       </c>
       <c r="E31" s="15">
-        <f>IF(E$22&lt;&gt;"",VLOOKUP(E25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>1.6492669029720002</v>
+        <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.96425223450057307</v>
       </c>
       <c r="F31" s="15">
-        <f>IF(F$22&lt;&gt;"",VLOOKUP(F25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>1.8762957386819998</v>
-      </c>
-      <c r="G31" s="15" t="str">
-        <f>IF(G$22&lt;&gt;"",VLOOKUP(G25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v/>
-      </c>
-      <c r="H31" s="15" t="str">
-        <f>IF(H$22&lt;&gt;"",VLOOKUP(H25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v/>
-      </c>
-      <c r="I31" s="15" t="str">
-        <f>IF(I$22&lt;&gt;"",VLOOKUP(I25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v/>
-      </c>
-      <c r="J31" s="15" t="str">
-        <f>IF(J$22&lt;&gt;"",VLOOKUP(J25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v/>
-      </c>
-      <c r="K31" s="15" t="str">
-        <f>IF(K$22&lt;&gt;"",VLOOKUP(K25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v/>
-      </c>
-      <c r="L31" s="15" t="str">
-        <f>IF(L$22&lt;&gt;"",VLOOKUP(L25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v/>
+        <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.939043039500573</v>
+      </c>
+      <c r="G31" s="15">
+        <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.91292632499942705</v>
+      </c>
+      <c r="H31" s="15">
+        <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.88710512999942703</v>
+      </c>
+      <c r="I31" s="15">
+        <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.86367494250117305</v>
+      </c>
+      <c r="J31" s="15">
+        <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.84044275499999999</v>
+      </c>
+      <c r="K31" s="15">
+        <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.816493520099973</v>
+      </c>
+      <c r="L31" s="15">
+        <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.80186540759997305</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -19591,40 +21885,40 @@
         <v>0.5327428663506969</v>
       </c>
       <c r="D32" s="15">
-        <f t="shared" ref="D32:L32" si="6">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.61773578433935772</v>
+        <f t="shared" ref="D32:L32" si="5">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
+        <v>0.51368822760888211</v>
       </c>
       <c r="E32" s="15">
-        <f t="shared" si="6"/>
-        <v>0.71515060637021322</v>
+        <f t="shared" si="5"/>
+        <v>0.49609065775230743</v>
       </c>
       <c r="F32" s="15">
-        <f t="shared" si="6"/>
-        <v>0.77387199989344491</v>
-      </c>
-      <c r="G32" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H32" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I32" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J32" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K32" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L32" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
+        <f t="shared" si="5"/>
+        <v>0.47746806643917539</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45847138513947755</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.43972234859185805</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.42224851933098323</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.40495140547182634</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.38740000488554738</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.36761982781336749</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -19637,40 +21931,40 @@
         <v>0.48915481364927621</v>
       </c>
       <c r="D33" s="15">
-        <f t="shared" ref="D33:L33" si="7">IF(D$22&lt;&gt;"",D$31*D26/D$24,"")</f>
-        <v>0.65505911844601461</v>
+        <f t="shared" ref="D33:L33" si="6">IF(D$22&lt;&gt;"",D$31*D26/D$24,"")</f>
+        <v>0.47801586239111798</v>
       </c>
       <c r="E33" s="15">
-        <f t="shared" si="7"/>
-        <v>0.8276316664302874</v>
+        <f t="shared" si="6"/>
+        <v>0.46816157674826575</v>
       </c>
       <c r="F33" s="15">
-        <f t="shared" si="7"/>
-        <v>0.95899019676040542</v>
-      </c>
-      <c r="G33" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H33" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I33" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J33" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K33" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L33" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>0.46157497306139766</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.45445493985994956</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.44738278140756899</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.44142642317018987</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.43549134952817353</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.42909351521442557</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.4342455797866055</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -19683,40 +21977,40 @@
         <v>0</v>
       </c>
       <c r="D34" s="15">
-        <f t="shared" ref="D34:L34" si="8">IF(D$22&lt;&gt;"",D$31*D27/D$24,"")</f>
-        <v>5.9332036898627677E-2</v>
+        <f t="shared" ref="D34:L34" si="7">IF(D$22&lt;&gt;"",D$31*D27/D$24,"")</f>
+        <v>0</v>
       </c>
       <c r="E34" s="15">
-        <f t="shared" si="8"/>
-        <v>0.10648463017149967</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F34" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14343354202814956</v>
-      </c>
-      <c r="G34" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="H34" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I34" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J34" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K34" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L34" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -19725,90 +22019,89 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="26">
-        <f>IF(C22&lt;&gt;"",1.5,"")</f>
         <v>1.5</v>
       </c>
       <c r="D35" s="26">
-        <f t="shared" ref="D35:L35" si="9">IF(D22&lt;&gt;"",1.5,"")</f>
+        <f>C35</f>
         <v>1.5</v>
       </c>
       <c r="E35" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="E35:L35" si="8">D35</f>
         <v>1.5</v>
       </c>
       <c r="F35" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
-      <c r="G35" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H35" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I35" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="J35" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="K35" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L35" s="26" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+      <c r="G35" s="26">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="H35" s="26">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="J35" s="26">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="K35" s="26">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="L35" s="26">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="15">
         <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>12.65</v>
+        <v>11.65</v>
       </c>
       <c r="D36" s="15">
-        <f t="shared" ref="D36:L36" si="10">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>12.25</v>
+        <f t="shared" ref="D36:L36" si="9">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
+        <v>11.65</v>
       </c>
       <c r="E36" s="15">
-        <f t="shared" si="10"/>
-        <v>11.85</v>
+        <f t="shared" si="9"/>
+        <v>11.65</v>
       </c>
       <c r="F36" s="15">
-        <f t="shared" si="10"/>
-        <v>9.25</v>
-      </c>
-      <c r="G36" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H36" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I36" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J36" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K36" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L36" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="9"/>
+        <v>11.65</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="9"/>
+        <v>11.65</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="9"/>
+        <v>11.65</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="9"/>
+        <v>11.65</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="9"/>
+        <v>11.65</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" si="9"/>
+        <v>11.65</v>
+      </c>
+      <c r="L36" s="15">
+        <f t="shared" si="9"/>
+        <v>11.65</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -19817,44 +22110,44 @@
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="15">
-        <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>5.15</v>
+        <f>IF(C21&lt;&gt;"",MAX(0,C36-C38),"")</f>
+        <v>4.1500000000000004</v>
       </c>
       <c r="D37" s="15">
-        <f t="shared" ref="D37:L37" si="11">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>4.75</v>
+        <f t="shared" ref="D37:L37" si="10">IF(D21&lt;&gt;"",MAX(0,D36-D38),"")</f>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E37" s="15">
-        <f t="shared" si="11"/>
-        <v>4.3499999999999996</v>
+        <f t="shared" si="10"/>
+        <v>4.1500000000000004</v>
       </c>
       <c r="F37" s="15">
-        <f t="shared" si="11"/>
-        <v>1.75</v>
-      </c>
-      <c r="G37" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="H37" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="I37" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J37" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K37" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L37" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="10"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="10"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="10"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="10"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="10"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="L37" s="15">
+        <f t="shared" si="10"/>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -19869,40 +22162,40 @@
         <v>7.5</v>
       </c>
       <c r="D38" s="15">
-        <f t="shared" ref="D38:L38" si="12">IF(D22&lt;&gt;"",IF(D36&gt;$B38,$B38,D36),"")</f>
+        <f t="shared" ref="D38:L38" si="11">IF(D22&lt;&gt;"",IF(D36&gt;$B38,$B38,D36),"")</f>
         <v>7.5</v>
       </c>
       <c r="E38" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
       <c r="F38" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7.5</v>
       </c>
-      <c r="G38" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H38" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I38" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J38" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K38" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L38" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="G38" s="15">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
+      </c>
+      <c r="L38" s="15">
+        <f t="shared" si="11"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
@@ -19997,43 +22290,43 @@
       </c>
       <c r="C45" s="15">
         <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>15.617257133649302</v>
+        <v>14.617257133649304</v>
       </c>
       <c r="D45" s="15">
-        <f t="shared" ref="D45:L45" si="13">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>19.749521349309944</v>
+        <f t="shared" ref="D45:L45" si="12">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
+        <v>14.053568906040422</v>
       </c>
       <c r="E45" s="15">
-        <f t="shared" si="13"/>
-        <v>23.384370742939733</v>
+        <f t="shared" si="12"/>
+        <v>13.507478248288116</v>
       </c>
       <c r="F45" s="15">
-        <f t="shared" si="13"/>
-        <v>24.360498743046289</v>
-      </c>
-      <c r="G45" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H45" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I45" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J45" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K45" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L45" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>12.980010181848941</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="12"/>
+        <v>12.471538796709464</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="12"/>
+        <v>11.981816448117607</v>
+      </c>
+      <c r="I45" s="15">
+        <f t="shared" si="12"/>
+        <v>11.509567928786625</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="12"/>
+        <v>11.054616523314801</v>
+      </c>
+      <c r="K45" s="15">
+        <f t="shared" si="12"/>
+        <v>10.617216518429254</v>
+      </c>
+      <c r="L45" s="15">
+        <f t="shared" si="12"/>
+        <v>10.199596690615888</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -20045,40 +22338,40 @@
         <v>17.160845186350727</v>
       </c>
       <c r="D46" s="15">
-        <f t="shared" ref="D46:L46" si="14">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>23.455786067904711</v>
+        <f t="shared" ref="D46:L46" si="13">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
+        <v>16.765829323959611</v>
       </c>
       <c r="E46" s="15">
-        <f t="shared" si="14"/>
-        <v>29.578154401474421</v>
+        <f t="shared" si="13"/>
+        <v>16.380667747211344</v>
       </c>
       <c r="F46" s="15">
-        <f t="shared" si="14"/>
-        <v>35.569164204714014</v>
-      </c>
-      <c r="G46" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H46" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="I46" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J46" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K46" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L46" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>16.086092774149947</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="13"/>
+        <v>15.798637834289998</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="13"/>
+        <v>15.518255052882431</v>
+      </c>
+      <c r="I46" s="15">
+        <f t="shared" si="13"/>
+        <v>15.243828629712242</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="13"/>
+        <v>14.975337280184069</v>
+      </c>
+      <c r="K46" s="15">
+        <f t="shared" si="13"/>
+        <v>14.713243764969645</v>
+      </c>
+      <c r="L46" s="15">
+        <f t="shared" si="13"/>
+        <v>14.695998185183042</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -20090,45 +22383,45 @@
         <v>1.5</v>
       </c>
       <c r="D47" s="15">
-        <f t="shared" ref="D47:L47" si="15">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
-        <v>2.9406679631013724</v>
+        <f t="shared" ref="D47:L47" si="14">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
+        <v>1.5</v>
       </c>
       <c r="E47" s="15">
-        <f t="shared" si="15"/>
-        <v>4.3341833329298725</v>
+        <f t="shared" si="14"/>
+        <v>1.5</v>
       </c>
       <c r="F47" s="15">
-        <f t="shared" si="15"/>
-        <v>5.6907497909017231</v>
-      </c>
-      <c r="G47" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H47" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I47" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="J47" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K47" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L47" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="I47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="K47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="L47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="30"/>
@@ -20144,95 +22437,154 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
+        <v>154</v>
+      </c>
+      <c r="C49" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="D49" s="26">
+        <f>C49</f>
+        <v>4.2</v>
+      </c>
+      <c r="E49" s="26">
+        <f>D49</f>
+        <v>4.2</v>
+      </c>
+      <c r="F49" s="26">
+        <f t="shared" ref="F49:L49" si="15">E49</f>
+        <v>4.2</v>
+      </c>
+      <c r="G49" s="26">
+        <f t="shared" si="15"/>
+        <v>4.2</v>
+      </c>
+      <c r="H49" s="26">
+        <f t="shared" si="15"/>
+        <v>4.2</v>
+      </c>
+      <c r="I49" s="26">
+        <f t="shared" si="15"/>
+        <v>4.2</v>
+      </c>
+      <c r="J49" s="26">
+        <f t="shared" si="15"/>
+        <v>4.2</v>
+      </c>
+      <c r="K49" s="26">
+        <f t="shared" si="15"/>
+        <v>4.2</v>
+      </c>
+      <c r="L49" s="26">
+        <f t="shared" si="15"/>
+        <v>4.2</v>
+      </c>
       <c r="N49" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="45">
+        <f>7.5-IF(C26&lt;$O$51,$P$51,IF(C26&lt;=$O$58,VLOOKUP(C26,$O$51:$P$58,2),0))</f>
+        <v>6.867</v>
+      </c>
+      <c r="D50" s="45">
+        <f t="shared" ref="D50:L50" si="16">7.5-IF(D26&lt;$O$51,$P$51,IF(D26&lt;=$O$58,VLOOKUP(D26,$O$51:$P$58,2),0))</f>
+        <v>6.867</v>
+      </c>
+      <c r="E50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="F50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="G50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="H50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="I50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="J50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="K50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.5330000000000004</v>
+      </c>
+      <c r="L50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.5330000000000004</v>
+      </c>
+      <c r="N50" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="O50" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="45"/>
-      <c r="K50" s="45"/>
-      <c r="L50" s="45"/>
-      <c r="N50" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="O50" s="39" t="s">
-        <v>153</v>
-      </c>
       <c r="P50" s="40" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Q50" s="40" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="R50" s="39" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C51" s="12">
         <f>IF(C$22&lt;&gt;"",0.6,"")</f>
         <v>0.6</v>
       </c>
       <c r="D51" s="12">
-        <f t="shared" ref="D51:L51" si="16">IF(D$22&lt;&gt;"",0.6,"")</f>
+        <f t="shared" ref="D51:L51" si="17">IF(D$22&lt;&gt;"",0.6,"")</f>
         <v>0.6</v>
       </c>
       <c r="E51" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.6</v>
       </c>
       <c r="F51" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.6</v>
       </c>
-      <c r="G51" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="H51" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I51" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="J51" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="K51" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L51" s="12" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+      <c r="G51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
       </c>
       <c r="N51" s="41">
         <v>1025</v>
@@ -20241,7 +22593,7 @@
         <v>5.981122</v>
       </c>
       <c r="P51" s="43">
-        <f t="shared" ref="P51:P58" si="17">R51-Q51</f>
+        <f t="shared" ref="P51:P58" si="18">R51-Q51</f>
         <v>1.2</v>
       </c>
       <c r="Q51" s="44">
@@ -20253,18 +22605,47 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
+        <v>157</v>
+      </c>
+      <c r="C52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="26">
+        <f>C52</f>
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="26">
+        <f>D52</f>
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="26">
+        <f t="shared" ref="F52:L52" si="19">E52</f>
+        <v>1.5</v>
+      </c>
+      <c r="G52" s="26">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="26">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="I52" s="26">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="J52" s="26">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="K52" s="26">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="L52" s="26">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
       <c r="N52" s="41">
         <v>1030</v>
       </c>
@@ -20272,7 +22653,7 @@
         <v>6.305377</v>
       </c>
       <c r="P52" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.117</v>
       </c>
       <c r="Q52" s="44">
@@ -20303,7 +22684,7 @@
         <v>6.6375080000000004</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0669999999999999</v>
       </c>
       <c r="Q53" s="44">
@@ -20319,43 +22700,43 @@
       </c>
       <c r="C54" s="15">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>15.617257133649302</v>
+        <v>10.417257133649304</v>
       </c>
       <c r="D54" s="15">
-        <f t="shared" ref="D54:L54" si="18">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>19.749521349309944</v>
+        <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
+        <v>9.8535689060404223</v>
       </c>
       <c r="E54" s="15">
-        <f t="shared" si="18"/>
-        <v>23.384370742939733</v>
+        <f t="shared" si="20"/>
+        <v>9.3074782482881169</v>
       </c>
       <c r="F54" s="15">
-        <f t="shared" si="18"/>
-        <v>24.360498743046289</v>
-      </c>
-      <c r="G54" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="H54" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="I54" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J54" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K54" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L54" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v/>
+        <f t="shared" si="20"/>
+        <v>8.7800101818489402</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="20"/>
+        <v>8.2715387967094642</v>
+      </c>
+      <c r="H54" s="15">
+        <f t="shared" si="20"/>
+        <v>7.7818164481176071</v>
+      </c>
+      <c r="I54" s="15">
+        <f t="shared" si="20"/>
+        <v>7.3095679287866249</v>
+      </c>
+      <c r="J54" s="15">
+        <f t="shared" si="20"/>
+        <v>6.8546165233148004</v>
+      </c>
+      <c r="K54" s="15">
+        <f t="shared" si="20"/>
+        <v>6.417216518429254</v>
+      </c>
+      <c r="L54" s="15">
+        <f t="shared" si="20"/>
+        <v>5.9995966906158875</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
@@ -20364,7 +22745,7 @@
         <v>6.977665</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0169999999999999</v>
       </c>
       <c r="Q54" s="44">
@@ -20380,43 +22761,43 @@
       </c>
       <c r="C55" s="15">
         <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
-        <v>16.560845186350726</v>
+        <v>9.6938451863507265</v>
       </c>
       <c r="D55" s="15">
-        <f t="shared" ref="D55:L55" si="19">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>22.85578606790471</v>
+        <f t="shared" ref="D55:L55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <v>9.2988293239596107</v>
       </c>
       <c r="E55" s="15">
-        <f t="shared" si="19"/>
-        <v>28.97815440147442</v>
+        <f t="shared" si="21"/>
+        <v>8.9976677472113451</v>
       </c>
       <c r="F55" s="15">
-        <f t="shared" si="19"/>
-        <v>34.969164204714012</v>
-      </c>
-      <c r="G55" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="H55" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I55" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="J55" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K55" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L55" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+        <f t="shared" si="21"/>
+        <v>8.7030927741499475</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="21"/>
+        <v>8.4156378342899991</v>
+      </c>
+      <c r="H55" s="15">
+        <f t="shared" si="21"/>
+        <v>8.1352550528824317</v>
+      </c>
+      <c r="I55" s="15">
+        <f t="shared" si="21"/>
+        <v>7.8608286297122429</v>
+      </c>
+      <c r="J55" s="15">
+        <f t="shared" si="21"/>
+        <v>7.5923372801840703</v>
+      </c>
+      <c r="K55" s="15">
+        <f t="shared" si="21"/>
+        <v>7.5802437649696461</v>
+      </c>
+      <c r="L55" s="15">
+        <f>IF(L$22&lt;&gt;"",L46-L50-L51,"")</f>
+        <v>7.5629981851830426</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
@@ -20425,7 +22806,7 @@
         <v>7.3260519999999998</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.96699999999999986</v>
       </c>
       <c r="Q55" s="44">
@@ -20441,43 +22822,43 @@
       </c>
       <c r="C56" s="15">
         <f>IF(C$22&lt;&gt;"",C47-C52,"")</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="D56" s="15">
-        <f t="shared" ref="D56:L56" si="20">IF(D$22&lt;&gt;"",D47-D52,"")</f>
-        <v>2.9406679631013724</v>
+        <f t="shared" ref="D56:L56" si="22">IF(D$22&lt;&gt;"",D47-D52,"")</f>
+        <v>0</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="20"/>
-        <v>4.3341833329298725</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="F56" s="15">
-        <f t="shared" si="20"/>
-        <v>5.6907497909017231</v>
-      </c>
-      <c r="G56" s="15" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="H56" s="15" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I56" s="15" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J56" s="15" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K56" s="15" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L56" s="15" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="N56" s="41">
         <v>1050</v>
@@ -20486,7 +22867,7 @@
         <v>7.6828779999999997</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.71700000000000008</v>
       </c>
       <c r="Q56" s="44">
@@ -20503,43 +22884,43 @@
       <c r="B57" s="1"/>
       <c r="C57" s="15">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>33.678102320000029</v>
+        <v>20.111102320000029</v>
       </c>
       <c r="D57" s="15">
-        <f t="shared" ref="D57:L57" si="21">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>45.545975380316023</v>
+        <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+        <v>19.152398230000031</v>
       </c>
       <c r="E57" s="15">
-        <f t="shared" si="21"/>
-        <v>56.696708477344025</v>
+        <f t="shared" si="23"/>
+        <v>18.305145995499462</v>
       </c>
       <c r="F57" s="15">
-        <f t="shared" si="21"/>
-        <v>65.020412738662017</v>
-      </c>
-      <c r="G57" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="H57" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="I57" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="J57" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="K57" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L57" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v/>
+        <f t="shared" si="23"/>
+        <v>17.483102955998888</v>
+      </c>
+      <c r="G57" s="15">
+        <f t="shared" si="23"/>
+        <v>16.687176630999463</v>
+      </c>
+      <c r="H57" s="15">
+        <f t="shared" si="23"/>
+        <v>15.917071501000038</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" si="23"/>
+        <v>15.170396558498869</v>
+      </c>
+      <c r="J57" s="15">
+        <f t="shared" si="23"/>
+        <v>14.446953803498872</v>
+      </c>
+      <c r="K57" s="15">
+        <f t="shared" si="23"/>
+        <v>13.997460283398901</v>
+      </c>
+      <c r="L57" s="15">
+        <f t="shared" si="23"/>
+        <v>13.562594875798929</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
@@ -20548,7 +22929,7 @@
         <v>9.6009879999900001</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.63300000000000001</v>
       </c>
       <c r="Q57" s="44">
@@ -20566,7 +22947,7 @@
         <v>10.857008</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.3</v>
       </c>
       <c r="Q58" s="40"/>
@@ -20583,40 +22964,40 @@
         <v>0.2</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" ref="D59:L59" si="22">IF(D$22&lt;&gt;"",0.2,"")</f>
+        <f t="shared" ref="D59:L59" si="24">IF(D$22&lt;&gt;"",0.2,"")</f>
         <v>0.2</v>
       </c>
       <c r="E59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
-      <c r="G59" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="H59" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I59" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="J59" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="K59" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L59" s="12" t="str">
-        <f t="shared" si="22"/>
-        <v/>
+      <c r="G59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="H59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="J59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="K59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
@@ -20625,1868 +23006,42 @@
       </c>
       <c r="C60" s="15">
         <f>IF(C$22&lt;&gt;"",C50+C59,"")</f>
-        <v>0.2</v>
+        <v>7.0670000000000002</v>
       </c>
       <c r="D60" s="15">
-        <f t="shared" ref="D60:L60" si="23">IF(D$22&lt;&gt;"",D50+D59,"")</f>
-        <v>0.2</v>
+        <f t="shared" ref="D60:L60" si="25">IF(D$22&lt;&gt;"",D50+D59,"")</f>
+        <v>7.0670000000000002</v>
       </c>
       <c r="E60" s="15">
-        <f t="shared" si="23"/>
-        <v>0.2</v>
+        <f t="shared" si="25"/>
+        <v>6.9829999999999997</v>
       </c>
       <c r="F60" s="15">
-        <f t="shared" si="23"/>
-        <v>0.2</v>
-      </c>
-      <c r="G60" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="H60" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="I60" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="J60" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="K60" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="L60" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D62" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C49:L49 D52:L52">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>$C$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525616F-FCF2-4465-9405-C17989B2BC95}">
-  <dimension ref="A1:R62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37.36328125" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" customWidth="1"/>
-    <col min="7" max="7" width="7.08984375" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" customWidth="1"/>
-    <col min="10" max="12" width="8.7265625" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" customWidth="1"/>
-    <col min="18" max="18" width="21.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="2"/>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="12">
-        <v>5.73</v>
-      </c>
-      <c r="C18" s="12">
-        <v>6</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="12">
-        <v>11</v>
-      </c>
-      <c r="C19" s="12">
-        <v>10.1</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="59">
-        <v>12.4</v>
-      </c>
-      <c r="D22" s="59">
-        <v>12.4</v>
-      </c>
-      <c r="E22" s="59">
-        <v>12.4</v>
-      </c>
-      <c r="F22" s="59">
-        <v>12.4</v>
-      </c>
-      <c r="G22" s="59">
-        <v>12.4</v>
-      </c>
-      <c r="H22" s="59">
-        <v>12.4</v>
-      </c>
-      <c r="I22" s="59">
-        <v>12.4</v>
-      </c>
-      <c r="J22" s="59">
-        <v>12.4</v>
-      </c>
-      <c r="K22" s="59">
-        <v>12.4</v>
-      </c>
-      <c r="L22" s="59">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="12">
-        <f>IF(C$22&lt;&gt;"",0.8,"")</f>
-        <v>0.8</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" ref="D23:L23" si="0">IF(D$22&lt;&gt;"",0.8,"")</f>
-        <v>0.8</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H23" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="I23" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="J23" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="K23" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="L23" s="12">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="15">
-        <f>IF(C$22&lt;&gt;"",SUM(C25:C27),"")</f>
-        <v>21.1</v>
-      </c>
-      <c r="D24" s="15">
-        <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>19.611102320000029</v>
-      </c>
-      <c r="E24" s="15">
-        <f t="shared" ref="E24:L24" si="1">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>18.165689929499429</v>
-      </c>
-      <c r="F24" s="15">
-        <f t="shared" si="1"/>
-        <v>16.849171526499429</v>
-      </c>
-      <c r="G24" s="15">
-        <f t="shared" si="1"/>
-        <v>15.576945668900006</v>
-      </c>
-      <c r="H24" s="15">
-        <f t="shared" si="1"/>
-        <v>14.347347288900004</v>
-      </c>
-      <c r="I24" s="15">
-        <f t="shared" si="1"/>
-        <v>13.158549261398832</v>
-      </c>
-      <c r="J24" s="15">
-        <f t="shared" si="1"/>
-        <v>12.009916988898837</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="1"/>
-        <v>10.90093064580001</v>
-      </c>
-      <c r="L24" s="15">
-        <f t="shared" si="1"/>
-        <v>10.080001617800583</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="15">
-        <f>IF(C$22&lt;&gt;"",$B$19,"")</f>
-        <v>11</v>
-      </c>
-      <c r="D25" s="15">
-        <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>9.9172571336493043</v>
-      </c>
-      <c r="E25" s="15">
-        <f t="shared" ref="E25:L25" si="2">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>8.8724778448049761</v>
-      </c>
-      <c r="F25" s="15">
-        <f t="shared" si="2"/>
-        <v>7.8665292196506416</v>
-      </c>
-      <c r="G25" s="15">
-        <f t="shared" si="2"/>
-        <v>6.9013680836462248</v>
-      </c>
-      <c r="H25" s="15">
-        <f t="shared" si="2"/>
-        <v>5.9762825461095703</v>
-      </c>
-      <c r="I25" s="15">
-        <f t="shared" si="2"/>
-        <v>5.0906332730784181</v>
-      </c>
-      <c r="J25" s="15">
-        <f t="shared" si="2"/>
-        <v>4.2444339699557885</v>
-      </c>
-      <c r="K25" s="15">
-        <f t="shared" si="2"/>
-        <v>3.4378625798936513</v>
-      </c>
-      <c r="L25" s="15">
-        <f t="shared" si="2"/>
-        <v>2.6709081252854068</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="15">
-        <f>IF(C$22&lt;&gt;"",$C$19,"")</f>
-        <v>10.1</v>
-      </c>
-      <c r="D26" s="15">
-        <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v>9.6938451863507265</v>
-      </c>
-      <c r="E26" s="15">
-        <f t="shared" ref="E26:L27" si="3">IF(E23&lt;&gt;"",D55,"")</f>
-        <v>9.2932120846944546</v>
-      </c>
-      <c r="F26" s="15">
-        <f t="shared" si="3"/>
-        <v>8.9826423068487884</v>
-      </c>
-      <c r="G26" s="15">
-        <f t="shared" si="3"/>
-        <v>8.6755775852537802</v>
-      </c>
-      <c r="H26" s="15">
-        <f t="shared" si="3"/>
-        <v>8.3710647427904341</v>
-      </c>
-      <c r="I26" s="15">
-        <f t="shared" si="3"/>
-        <v>8.067915988320415</v>
-      </c>
-      <c r="J26" s="15">
-        <f t="shared" si="3"/>
-        <v>7.7654830189430477</v>
-      </c>
-      <c r="K26" s="15">
-        <f t="shared" si="3"/>
-        <v>7.4630680659063593</v>
-      </c>
-      <c r="L26" s="15">
-        <f t="shared" si="3"/>
-        <v>7.4090934925151775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="15">
-        <f>IF(C22&lt;&gt;"",0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="15">
-        <f>IF(D24&lt;&gt;"",C56,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="C29" s="15">
-        <f>C25</f>
-        <v>11</v>
-      </c>
-      <c r="D29" s="15">
-        <f t="shared" ref="D29:L30" si="4">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>9.8055511600000145</v>
-      </c>
-      <c r="E29" s="15">
-        <f t="shared" si="4"/>
-        <v>9.0828449647497145</v>
-      </c>
-      <c r="F29" s="15">
-        <f t="shared" si="4"/>
-        <v>8.4245857632497145</v>
-      </c>
-      <c r="G29" s="15">
-        <f t="shared" si="4"/>
-        <v>7.7884728344500029</v>
-      </c>
-      <c r="H29" s="15">
-        <f t="shared" si="4"/>
-        <v>7.1736736444500018</v>
-      </c>
-      <c r="I29" s="15">
-        <f t="shared" si="4"/>
-        <v>6.5792746306994161</v>
-      </c>
-      <c r="J29" s="15">
-        <f t="shared" si="4"/>
-        <v>6.0049584944494185</v>
-      </c>
-      <c r="K29" s="15">
-        <f t="shared" si="4"/>
-        <v>5.4504653229000048</v>
-      </c>
-      <c r="L29" s="15">
-        <f t="shared" si="4"/>
-        <v>5.0400008089002917</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="37">
-        <f>1-B29</f>
-        <v>0.5</v>
-      </c>
-      <c r="C30" s="15">
-        <f>C26</f>
-        <v>10.1</v>
-      </c>
-      <c r="D30" s="15">
-        <f t="shared" si="4"/>
-        <v>9.8055511600000145</v>
-      </c>
-      <c r="E30" s="15">
-        <f t="shared" si="4"/>
-        <v>9.0828449647497145</v>
-      </c>
-      <c r="F30" s="15">
-        <f t="shared" si="4"/>
-        <v>8.4245857632497145</v>
-      </c>
-      <c r="G30" s="15">
-        <f t="shared" si="4"/>
-        <v>7.7884728344500029</v>
-      </c>
-      <c r="H30" s="15">
-        <f t="shared" si="4"/>
-        <v>7.1736736444500018</v>
-      </c>
-      <c r="I30" s="15">
-        <f t="shared" si="4"/>
-        <v>6.5792746306994161</v>
-      </c>
-      <c r="J30" s="15">
-        <f t="shared" si="4"/>
-        <v>6.0049584944494185</v>
-      </c>
-      <c r="K30" s="15">
-        <f t="shared" si="4"/>
-        <v>5.4504653229000048</v>
-      </c>
-      <c r="L30" s="15">
-        <f t="shared" si="4"/>
-        <v>5.0400008089002917</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="15">
-        <f>IF(C$22&lt;&gt;"",VLOOKUP(C25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(C26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>1.0218976799999733</v>
-      </c>
-      <c r="D31" s="15">
-        <f>IF(D$22&lt;&gt;"",VLOOKUP(D25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.97841239050060014</v>
-      </c>
-      <c r="E31" s="15">
-        <f>IF(E$22&lt;&gt;"",VLOOKUP(E25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.93351840300000011</v>
-      </c>
-      <c r="F31" s="15">
-        <f>IF(F$22&lt;&gt;"",VLOOKUP(F25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.88922585759942696</v>
-      </c>
-      <c r="G31" s="15">
-        <f>IF(G$22&lt;&gt;"",VLOOKUP(G25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84659837999999998</v>
-      </c>
-      <c r="H31" s="15">
-        <f>IF(H$22&lt;&gt;"",VLOOKUP(H25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.80579802750117302</v>
-      </c>
-      <c r="I31" s="15">
-        <f>IF(I$22&lt;&gt;"",VLOOKUP(I25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.76563227249999999</v>
-      </c>
-      <c r="J31" s="15">
-        <f>IF(J$22&lt;&gt;"",VLOOKUP(J25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.72598634309882693</v>
-      </c>
-      <c r="K31" s="15">
-        <f>IF(K$22&lt;&gt;"",VLOOKUP(K25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.68792902799942701</v>
-      </c>
-      <c r="L31" s="15">
-        <f>IF(L$22&lt;&gt;"",VLOOKUP(L25*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L26*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.65641652999882705</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="15">
-        <f>IF(C$22&lt;&gt;"",C$31*C25/C$24,"")</f>
-        <v>0.5327428663506969</v>
-      </c>
-      <c r="D32" s="15">
-        <f t="shared" ref="D32:L34" si="5">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.49477928884432704</v>
-      </c>
-      <c r="E32" s="15">
-        <f t="shared" si="5"/>
-        <v>0.4559486251543356</v>
-      </c>
-      <c r="F32" s="15">
-        <f t="shared" si="5"/>
-        <v>0.41516113600441773</v>
-      </c>
-      <c r="G32" s="15">
-        <f t="shared" si="5"/>
-        <v>0.37508553753665302</v>
-      </c>
-      <c r="H32" s="15">
-        <f t="shared" si="5"/>
-        <v>0.33564927303115372</v>
-      </c>
-      <c r="I32" s="15">
-        <f t="shared" si="5"/>
-        <v>0.29619930312263082</v>
-      </c>
-      <c r="J32" s="15">
-        <f t="shared" si="5"/>
-        <v>0.25657139006213614</v>
-      </c>
-      <c r="K32" s="15">
-        <f t="shared" si="5"/>
-        <v>0.21695445460824475</v>
-      </c>
-      <c r="L32" s="15">
-        <f t="shared" si="5"/>
-        <v>0.1739313454523102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="15">
-        <f>IF(C$22&lt;&gt;"",C$31*C26/C$24,"")</f>
-        <v>0.48915481364927621</v>
-      </c>
-      <c r="D33" s="15">
-        <f t="shared" si="5"/>
-        <v>0.48363310165627327</v>
-      </c>
-      <c r="E33" s="15">
-        <f t="shared" si="5"/>
-        <v>0.47756977784566457</v>
-      </c>
-      <c r="F33" s="15">
-        <f t="shared" si="5"/>
-        <v>0.47406472159500923</v>
-      </c>
-      <c r="G33" s="15">
-        <f t="shared" si="5"/>
-        <v>0.4715128424633469</v>
-      </c>
-      <c r="H33" s="15">
-        <f t="shared" si="5"/>
-        <v>0.47014875447001936</v>
-      </c>
-      <c r="I33" s="15">
-        <f t="shared" si="5"/>
-        <v>0.46943296937736922</v>
-      </c>
-      <c r="J33" s="15">
-        <f t="shared" si="5"/>
-        <v>0.46941495303669073</v>
-      </c>
-      <c r="K33" s="15">
-        <f t="shared" si="5"/>
-        <v>0.47097457339118232</v>
-      </c>
-      <c r="L33" s="15">
-        <f t="shared" si="5"/>
-        <v>0.4824851845465169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="15">
-        <f>IF(C$22&lt;&gt;"",C$31*C27/C$24,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="D35" s="26">
-        <f>C35</f>
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="26">
-        <f t="shared" ref="E35:L35" si="6">D35</f>
-        <v>1.5</v>
-      </c>
-      <c r="F35" s="26">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="G35" s="26">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="H35" s="26">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="26">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="J35" s="26">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="K35" s="26">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-      <c r="L35" s="26">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="15">
-        <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>11.65</v>
-      </c>
-      <c r="D36" s="15">
-        <f t="shared" ref="D36:L36" si="7">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>11.65</v>
-      </c>
-      <c r="E36" s="15">
-        <f t="shared" si="7"/>
-        <v>11.65</v>
-      </c>
-      <c r="F36" s="15">
-        <f t="shared" si="7"/>
-        <v>11.65</v>
-      </c>
-      <c r="G36" s="15">
-        <f t="shared" si="7"/>
-        <v>11.65</v>
-      </c>
-      <c r="H36" s="15">
-        <f t="shared" si="7"/>
-        <v>11.65</v>
-      </c>
-      <c r="I36" s="15">
-        <f t="shared" si="7"/>
-        <v>11.65</v>
-      </c>
-      <c r="J36" s="15">
-        <f t="shared" si="7"/>
-        <v>11.65</v>
-      </c>
-      <c r="K36" s="15">
-        <f t="shared" si="7"/>
-        <v>11.65</v>
-      </c>
-      <c r="L36" s="15">
-        <f t="shared" si="7"/>
-        <v>11.65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="15">
-        <f>IF(C21&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D37" s="15">
-        <f t="shared" ref="D37:L37" si="8">IF(D21&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="E37" s="15">
-        <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="F37" s="15">
-        <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="G37" s="15">
-        <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="H37" s="15">
-        <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I37" s="15">
-        <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="J37" s="15">
-        <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="K37" s="15">
-        <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="L37" s="15">
-        <f t="shared" si="8"/>
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="46">
-        <v>7.5</v>
-      </c>
-      <c r="C38" s="15">
-        <f>IF(C22&lt;&gt;"",IF(C36&gt;$B38,$B38,C36),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="D38" s="15">
-        <f t="shared" ref="D38:L38" si="9">IF(D22&lt;&gt;"",IF(D36&gt;$B38,$B38,D36),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="E38" s="15">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="F38" s="15">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="G38" s="15">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="H38" s="15">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="I38" s="15">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="J38" s="15">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="K38" s="15">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-      <c r="L38" s="15">
-        <f t="shared" si="9"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="34">
-        <f>SUM(C41:L41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="35"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="34">
-        <f>SUM(C43:L43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="15">
-        <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>14.617257133649304</v>
-      </c>
-      <c r="D45" s="15">
-        <f t="shared" ref="D45:L45" si="10">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>13.572477844804977</v>
-      </c>
-      <c r="E45" s="15">
-        <f t="shared" si="10"/>
-        <v>12.566529219650642</v>
-      </c>
-      <c r="F45" s="15">
-        <f t="shared" si="10"/>
-        <v>11.601368083646225</v>
-      </c>
-      <c r="G45" s="15">
-        <f t="shared" si="10"/>
-        <v>10.676282546109571</v>
-      </c>
-      <c r="H45" s="15">
-        <f t="shared" si="10"/>
-        <v>9.7906332730784182</v>
-      </c>
-      <c r="I45" s="15">
-        <f t="shared" si="10"/>
-        <v>8.9444339699557887</v>
-      </c>
-      <c r="J45" s="15">
-        <f t="shared" si="10"/>
-        <v>8.1378625798936515</v>
-      </c>
-      <c r="K45" s="15">
-        <f t="shared" si="10"/>
-        <v>7.370908125285407</v>
-      </c>
-      <c r="L45" s="15">
-        <f t="shared" si="10"/>
-        <v>6.6469767798330972</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="15">
-        <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
-        <v>17.160845186350727</v>
-      </c>
-      <c r="D46" s="15">
-        <f t="shared" ref="D46:L46" si="11">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>16.760212084694455</v>
-      </c>
-      <c r="E46" s="15">
-        <f t="shared" si="11"/>
-        <v>16.365642306848788</v>
-      </c>
-      <c r="F46" s="15">
-        <f t="shared" si="11"/>
-        <v>16.058577585253779</v>
-      </c>
-      <c r="G46" s="15">
-        <f t="shared" si="11"/>
-        <v>15.754064742790433</v>
-      </c>
-      <c r="H46" s="15">
-        <f t="shared" si="11"/>
-        <v>15.450915988320414</v>
-      </c>
-      <c r="I46" s="15">
-        <f t="shared" si="11"/>
-        <v>15.148483018943047</v>
-      </c>
-      <c r="J46" s="15">
-        <f t="shared" si="11"/>
-        <v>14.846068065906358</v>
-      </c>
-      <c r="K46" s="15">
-        <f t="shared" si="11"/>
-        <v>14.542093492515178</v>
-      </c>
-      <c r="L46" s="15">
-        <f t="shared" si="11"/>
-        <v>14.476608307968661</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="15">
-        <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
-        <v>1.5</v>
-      </c>
-      <c r="D47" s="15">
-        <f t="shared" ref="D47:L47" si="12">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
-        <v>1.5</v>
-      </c>
-      <c r="E47" s="15">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-      <c r="F47" s="15">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-      <c r="G47" s="15">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-      <c r="H47" s="15">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-      <c r="I47" s="15">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-      <c r="J47" s="15">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-      <c r="K47" s="15">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-      <c r="L47" s="15">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="26">
-        <v>4.7</v>
-      </c>
-      <c r="D49" s="26">
-        <f>C49</f>
-        <v>4.7</v>
-      </c>
-      <c r="E49" s="26">
-        <f>D49</f>
-        <v>4.7</v>
-      </c>
-      <c r="F49" s="26">
-        <f t="shared" ref="F49:L49" si="13">E49</f>
-        <v>4.7</v>
-      </c>
-      <c r="G49" s="26">
-        <f t="shared" si="13"/>
-        <v>4.7</v>
-      </c>
-      <c r="H49" s="26">
-        <f t="shared" si="13"/>
-        <v>4.7</v>
-      </c>
-      <c r="I49" s="26">
-        <f t="shared" si="13"/>
-        <v>4.7</v>
-      </c>
-      <c r="J49" s="26">
-        <f t="shared" si="13"/>
-        <v>4.7</v>
-      </c>
-      <c r="K49" s="26">
-        <f t="shared" si="13"/>
-        <v>4.7</v>
-      </c>
-      <c r="L49" s="26">
-        <f t="shared" si="13"/>
-        <v>4.7</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="45">
-        <f>7.5-IF(C26&lt;$O$51,$P$51,IF(C26&lt;=$O$58,VLOOKUP(C26,$O$51:$P$58,2),0))</f>
-        <v>6.867</v>
-      </c>
-      <c r="D50" s="45">
-        <f t="shared" ref="D50:L50" si="14">7.5-IF(D26&lt;$O$51,$P$51,IF(D26&lt;=$O$58,VLOOKUP(D26,$O$51:$P$58,2),0))</f>
-        <v>6.867</v>
-      </c>
-      <c r="E50" s="45">
-        <f t="shared" si="14"/>
-        <v>6.7829999999999995</v>
-      </c>
-      <c r="F50" s="45">
-        <f t="shared" si="14"/>
-        <v>6.7829999999999995</v>
-      </c>
-      <c r="G50" s="45">
-        <f t="shared" si="14"/>
-        <v>6.7829999999999995</v>
-      </c>
-      <c r="H50" s="45">
-        <f t="shared" si="14"/>
-        <v>6.7829999999999995</v>
-      </c>
-      <c r="I50" s="45">
-        <f t="shared" si="14"/>
-        <v>6.7829999999999995</v>
-      </c>
-      <c r="J50" s="45">
-        <f t="shared" si="14"/>
-        <v>6.7829999999999995</v>
-      </c>
-      <c r="K50" s="45">
-        <f t="shared" si="14"/>
-        <v>6.5330000000000004</v>
-      </c>
-      <c r="L50" s="45">
-        <f t="shared" si="14"/>
-        <v>6.5330000000000004</v>
-      </c>
-      <c r="N50" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="O50" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="P50" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q50" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="R50" s="39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="12">
-        <f>IF(C$22&lt;&gt;"",0.6,"")</f>
-        <v>0.6</v>
-      </c>
-      <c r="D51" s="12">
-        <f t="shared" ref="D51:L51" si="15">IF(D$22&lt;&gt;"",0.6,"")</f>
-        <v>0.6</v>
-      </c>
-      <c r="E51" s="12">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="F51" s="12">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="G51" s="12">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="H51" s="12">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="I51" s="12">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="J51" s="12">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="K51" s="12">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="L51" s="12">
-        <f t="shared" si="15"/>
-        <v>0.6</v>
-      </c>
-      <c r="N51" s="41">
-        <v>1025</v>
-      </c>
-      <c r="O51" s="42">
-        <v>5.981122</v>
-      </c>
-      <c r="P51" s="43">
-        <f t="shared" ref="P51:P58" si="16">R51-Q51</f>
-        <v>1.2</v>
-      </c>
-      <c r="Q51" s="44">
-        <v>0.125</v>
-      </c>
-      <c r="R51" s="43">
-        <v>1.325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="D52" s="26">
-        <f>C52</f>
-        <v>1.5</v>
-      </c>
-      <c r="E52" s="26">
-        <f>D52</f>
-        <v>1.5</v>
-      </c>
-      <c r="F52" s="26">
-        <f t="shared" ref="F52:L52" si="17">E52</f>
-        <v>1.5</v>
-      </c>
-      <c r="G52" s="26">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
-      </c>
-      <c r="H52" s="26">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
-      </c>
-      <c r="I52" s="26">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
-      </c>
-      <c r="J52" s="26">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
-      </c>
-      <c r="K52" s="26">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
-      </c>
-      <c r="L52" s="26">
-        <f t="shared" si="17"/>
-        <v>1.5</v>
-      </c>
-      <c r="N52" s="41">
-        <v>1030</v>
-      </c>
-      <c r="O52" s="42">
-        <v>6.305377</v>
-      </c>
-      <c r="P52" s="43">
-        <f t="shared" si="16"/>
-        <v>1.117</v>
-      </c>
-      <c r="Q52" s="44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R52" s="43">
-        <v>1.1870000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="N53" s="41">
-        <v>1035</v>
-      </c>
-      <c r="O53" s="42">
-        <v>6.6375080000000004</v>
-      </c>
-      <c r="P53" s="43">
-        <f t="shared" si="16"/>
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="Q53" s="44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R53" s="43">
-        <v>1.137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="15">
-        <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>9.9172571336493043</v>
-      </c>
-      <c r="D54" s="15">
-        <f t="shared" ref="D54:L54" si="18">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>8.8724778448049761</v>
-      </c>
-      <c r="E54" s="15">
-        <f t="shared" si="18"/>
-        <v>7.8665292196506416</v>
-      </c>
-      <c r="F54" s="15">
-        <f t="shared" si="18"/>
-        <v>6.9013680836462248</v>
-      </c>
-      <c r="G54" s="15">
-        <f t="shared" si="18"/>
-        <v>5.9762825461095703</v>
-      </c>
-      <c r="H54" s="15">
-        <f t="shared" si="18"/>
-        <v>5.0906332730784181</v>
-      </c>
-      <c r="I54" s="15">
-        <f t="shared" si="18"/>
-        <v>4.2444339699557885</v>
-      </c>
-      <c r="J54" s="15">
-        <f t="shared" si="18"/>
-        <v>3.4378625798936513</v>
-      </c>
-      <c r="K54" s="15">
-        <f t="shared" si="18"/>
-        <v>2.6709081252854068</v>
-      </c>
-      <c r="L54" s="15">
-        <f t="shared" si="18"/>
-        <v>1.946976779833097</v>
-      </c>
-      <c r="N54" s="41">
-        <v>1040</v>
-      </c>
-      <c r="O54" s="42">
-        <v>6.977665</v>
-      </c>
-      <c r="P54" s="43">
-        <f t="shared" si="16"/>
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="Q54" s="44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R54" s="43">
-        <v>1.087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="15">
-        <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
-        <v>9.6938451863507265</v>
-      </c>
-      <c r="D55" s="15">
-        <f t="shared" ref="D55:L55" si="19">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>9.2932120846944546</v>
-      </c>
-      <c r="E55" s="15">
-        <f t="shared" si="19"/>
-        <v>8.9826423068487884</v>
-      </c>
-      <c r="F55" s="15">
-        <f t="shared" si="19"/>
-        <v>8.6755775852537802</v>
-      </c>
-      <c r="G55" s="15">
-        <f t="shared" si="19"/>
-        <v>8.3710647427904341</v>
-      </c>
-      <c r="H55" s="15">
-        <f t="shared" si="19"/>
-        <v>8.067915988320415</v>
-      </c>
-      <c r="I55" s="15">
-        <f t="shared" si="19"/>
-        <v>7.7654830189430477</v>
-      </c>
-      <c r="J55" s="15">
-        <f t="shared" si="19"/>
-        <v>7.4630680659063593</v>
-      </c>
-      <c r="K55" s="15">
-        <f t="shared" si="19"/>
-        <v>7.4090934925151775</v>
-      </c>
-      <c r="L55" s="15">
-        <f t="shared" si="19"/>
-        <v>7.3436083079686609</v>
-      </c>
-      <c r="N55" s="41">
-        <v>1045</v>
-      </c>
-      <c r="O55" s="42">
-        <v>7.3260519999999998</v>
-      </c>
-      <c r="P55" s="43">
-        <f t="shared" si="16"/>
-        <v>0.96699999999999986</v>
-      </c>
-      <c r="Q55" s="44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R55" s="43">
-        <v>1.0369999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="15">
-        <f>IF(C$22&lt;&gt;"",C47-C52,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="15">
-        <f t="shared" ref="D56:L56" si="20">IF(D$22&lt;&gt;"",D47-D52,"")</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="I56" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="41">
-        <v>1050</v>
-      </c>
-      <c r="O56" s="42">
-        <v>7.6828779999999997</v>
-      </c>
-      <c r="P56" s="43">
-        <f t="shared" si="16"/>
-        <v>0.71700000000000008</v>
-      </c>
-      <c r="Q56" s="44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R56" s="43">
-        <v>0.78700000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="15">
-        <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>19.611102320000029</v>
-      </c>
-      <c r="D57" s="15">
-        <f t="shared" ref="D57:L57" si="21">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>18.165689929499429</v>
-      </c>
-      <c r="E57" s="15">
-        <f t="shared" si="21"/>
-        <v>16.849171526499429</v>
-      </c>
-      <c r="F57" s="15">
-        <f t="shared" si="21"/>
-        <v>15.576945668900006</v>
-      </c>
-      <c r="G57" s="15">
-        <f t="shared" si="21"/>
-        <v>14.347347288900004</v>
-      </c>
-      <c r="H57" s="15">
-        <f t="shared" si="21"/>
-        <v>13.158549261398832</v>
-      </c>
-      <c r="I57" s="15">
-        <f t="shared" si="21"/>
-        <v>12.009916988898837</v>
-      </c>
-      <c r="J57" s="15">
-        <f t="shared" si="21"/>
-        <v>10.90093064580001</v>
-      </c>
-      <c r="K57" s="15">
-        <f t="shared" si="21"/>
-        <v>10.080001617800583</v>
-      </c>
-      <c r="L57" s="15">
-        <f t="shared" si="21"/>
-        <v>9.2905850878017588</v>
-      </c>
-      <c r="N57" s="41">
-        <v>1075</v>
-      </c>
-      <c r="O57" s="42">
-        <v>9.6009879999900001</v>
-      </c>
-      <c r="P57" s="43">
-        <f t="shared" si="16"/>
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="Q57" s="44">
-        <v>0.05</v>
-      </c>
-      <c r="R57" s="43">
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="N58" s="41">
-        <v>1090</v>
-      </c>
-      <c r="O58" s="42">
-        <v>10.857008</v>
-      </c>
-      <c r="P58" s="43">
-        <f t="shared" si="16"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="43">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="12">
-        <f>IF(C$22&lt;&gt;"",0.2,"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="D59" s="12">
-        <f t="shared" ref="D59:L59" si="22">IF(D$22&lt;&gt;"",0.2,"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="E59" s="12">
-        <f t="shared" si="22"/>
-        <v>0.2</v>
-      </c>
-      <c r="F59" s="12">
-        <f t="shared" si="22"/>
-        <v>0.2</v>
-      </c>
-      <c r="G59" s="12">
-        <f t="shared" si="22"/>
-        <v>0.2</v>
-      </c>
-      <c r="H59" s="12">
-        <f t="shared" si="22"/>
-        <v>0.2</v>
-      </c>
-      <c r="I59" s="12">
-        <f t="shared" si="22"/>
-        <v>0.2</v>
-      </c>
-      <c r="J59" s="12">
-        <f t="shared" si="22"/>
-        <v>0.2</v>
-      </c>
-      <c r="K59" s="12">
-        <f t="shared" si="22"/>
-        <v>0.2</v>
-      </c>
-      <c r="L59" s="12">
-        <f t="shared" si="22"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="15">
-        <f>IF(C$22&lt;&gt;"",C50+C59,"")</f>
-        <v>7.0670000000000002</v>
-      </c>
-      <c r="D60" s="15">
-        <f t="shared" ref="D60:L60" si="23">IF(D$22&lt;&gt;"",D50+D59,"")</f>
-        <v>7.0670000000000002</v>
-      </c>
-      <c r="E60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
-      <c r="F60" s="15">
-        <f t="shared" si="23"/>
+      <c r="G60" s="15">
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
-      <c r="G60" s="15">
-        <f t="shared" si="23"/>
+      <c r="H60" s="15">
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
-      <c r="H60" s="15">
-        <f t="shared" si="23"/>
+      <c r="I60" s="15">
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
-      <c r="I60" s="15">
-        <f t="shared" si="23"/>
+      <c r="J60" s="15">
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
-      <c r="J60" s="15">
-        <f t="shared" si="23"/>
-        <v>6.9829999999999997</v>
-      </c>
       <c r="K60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.7330000000000005</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.7330000000000005</v>
       </c>
     </row>
@@ -22514,7 +23069,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
@@ -41043,7 +41598,7 @@
   <dimension ref="A1:M689"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B803" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B334" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="B810" sqref="B810"/>

--- a/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
+++ b/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\InteractiveWaterBudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF6A6F9-E39B-44D4-ADA8-CEFBA350D1D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349098B9-FE3C-4A1F-94F6-82DB5FB13C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="1" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="3" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe-Directions" sheetId="6" r:id="rId1"/>
     <sheet name="Master" sheetId="5" r:id="rId2"/>
-    <sheet name="Millenium-LawOfRiver" sheetId="11" r:id="rId3"/>
-    <sheet name="HydrologicScenarios" sheetId="7" r:id="rId4"/>
-    <sheet name="Powell-Elevation-Area" sheetId="2" r:id="rId5"/>
-    <sheet name="Mead-Elevation-Area" sheetId="10" r:id="rId6"/>
+    <sheet name="9.0-Trade" sheetId="12" r:id="rId3"/>
+    <sheet name="9.0-LawOfRiver" sheetId="13" r:id="rId4"/>
+    <sheet name="9.0-PlotUse" sheetId="14" r:id="rId5"/>
+    <sheet name="9.0-PlotStorage" sheetId="15" r:id="rId6"/>
+    <sheet name="Millenium-LawOfRiver" sheetId="11" r:id="rId7"/>
+    <sheet name="HydrologicScenarios" sheetId="7" r:id="rId8"/>
+    <sheet name="Powell-Elevation-Area" sheetId="2" r:id="rId9"/>
+    <sheet name="Mead-Elevation-Area" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="165">
   <si>
     <t xml:space="preserve">    To Upper Basin</t>
   </si>
@@ -344,9 +348,6 @@
     <t>Blank model template. Copy to a new sheet before using. See directions above for use.</t>
   </si>
   <si>
-    <t>Mellennium-DER</t>
-  </si>
-  <si>
     <t>HydrologicScenarios</t>
   </si>
   <si>
@@ -357,9 +358,6 @@
   </si>
   <si>
     <t>The Lake Powell storage volume-elevation-area curve data downloaded from CRSS.</t>
-  </si>
-  <si>
-    <t>A completed role play of the Millennium Drought continuing for 10 more years where David Rosenberg (DER) played all roles</t>
   </si>
   <si>
     <t>Role play again (steps #2-11) for different management decisions, hydrologic scenarios, one-time allocations of starting Lake Powell storage, allocations of natural flow, etc.</t>
@@ -507,6 +505,30 @@
   </si>
   <si>
     <t>Account end-of-year balance (Available water - Account Withdrawals)</t>
+  </si>
+  <si>
+    <t>Mellennium-LawOfRiver</t>
+  </si>
+  <si>
+    <t>A completed role play of the Millennium Drought continuing for 10 more years following the Law of the River for all political decisions</t>
+  </si>
+  <si>
+    <t>9.0-LawOfRiver</t>
+  </si>
+  <si>
+    <t>A completed role play with Lee Ferry natural flow of 9.0 maf per year for 5 years following the Law of the River for all political decisions</t>
+  </si>
+  <si>
+    <t>9.0-Trade</t>
+  </si>
+  <si>
+    <t>A completed role play with Lee Ferry natural flow of 9.0 maf per year for 5 years allowing trades between users. Trades in Years 1 and 2 earn the Upper Basin $0.75 Billion and get the Upper Basin on a path of conservation and softer landing for this severe event.</t>
+  </si>
+  <si>
+    <t>9.0-PlotUse</t>
+  </si>
+  <si>
+    <t>Compare Upper Basin consumptive use for 9.0-Trade and 9.0-LawOfRiver</t>
   </si>
 </sst>
 </file>
@@ -740,7 +762,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -855,6 +877,18 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -868,12 +902,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,12 +913,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent2" xfId="6" builtinId="33"/>
@@ -901,7 +927,777 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="110">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1259,6 +2055,986 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15853423307623427"/>
+          <c:y val="3.4745872660633781E-2"/>
+          <c:w val="0.79684905403095019"/>
+          <c:h val="0.87719197828007334"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Law of River</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9.0-LawOfRiver'!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9.0-LawOfRiver'!$C$49:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7512385116186153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-907C-421E-8B9B-AB01950ECF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With Trade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9.0-Trade'!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9.0-Trade'!$C$49:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-907C-421E-8B9B-AB01950ECF49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491654368"/>
+        <c:axId val="2019157040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491654368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019157040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2019157040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Upper Basin Consumptive Use</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t> (MAF per year)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491654368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70151866800396023"/>
+          <c:y val="6.409833240162531E-2"/>
+          <c:w val="0.20055272953469061"/>
+          <c:h val="0.12184356081636702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15853423307623427"/>
+          <c:y val="3.4745872660633781E-2"/>
+          <c:w val="0.79684905403095019"/>
+          <c:h val="0.87719197828007334"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Law of River</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9.0-LawOfRiver'!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9.0-LawOfRiver'!$C$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.017257133649303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1942915791521944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA87-41D4-ACEB-BA843F5ADD4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With Trade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9.0-Trade'!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9.0-Trade'!$C$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9172571336493043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0044422142300484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5840169164901154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73776949495207056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA87-41D4-ACEB-BA843F5ADD4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491654368"/>
+        <c:axId val="2019157040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491654368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019157040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2019157040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Begin of Year Upper Basin Account Balance (MAF )</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491654368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70151866800396023"/>
+          <c:y val="6.409833240162531E-2"/>
+          <c:w val="0.20055272953469061"/>
+          <c:h val="0.12184356081636702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -5564,7 +7340,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9892,7 +11668,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14139,7 +15915,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -18401,7 +20177,1207 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A297EC62-A5CD-4158-9592-AC76E370FCC0}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="63" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{82902265-0E0F-4DE3-8482-388886F7C2EB}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="63" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668254" cy="6289524"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6436E4C-B0BC-4464-8F03-A4D705EBFC93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668254" cy="6289524"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B1082E2-7431-4D6E-AAE8-2E9FFC955733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18482,7 +21458,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18860,9 +21836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447CC9A2-4C52-453A-A3CD-EA6E59E26162}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -18880,7 +21858,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -18901,20 +21879,20 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:12" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
+      <c r="A4" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
@@ -18930,236 +21908,236 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
+      <c r="A6" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55"/>
+      <c r="B7" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="55"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="55"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="55"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>7</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="55"/>
+      <c r="B13" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>8</v>
       </c>
-      <c r="B14" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="55"/>
+      <c r="B14" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
         <v>9</v>
       </c>
-      <c r="B15" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55"/>
+      <c r="B15" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>10</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
         <v>11</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
         <v>12</v>
       </c>
-      <c r="B18" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
+      <c r="B18" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
@@ -19189,57 +22167,76 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
+    <row r="31" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A31:L31"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B7:L7"/>
@@ -19249,6 +22246,11 @@
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19258,8 +22260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3356767-5983-45FB-80E4-1C5DE08E38A0}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19283,7 +22285,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -19322,48 +22324,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -19404,15 +22406,15 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="12">
         <v>5.73</v>
@@ -19421,7 +22423,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -19476,7 +22478,7 @@
         <v>38</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -19484,17 +22486,13 @@
         <v>46</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="12">
-        <v>10.5</v>
-      </c>
-      <c r="D22" s="12">
-        <v>10.5</v>
-      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12">
-        <f t="shared" ref="F22:L22" si="0">G22</f>
+        <f t="shared" ref="H22:L22" si="0">G22</f>
         <v>0</v>
       </c>
       <c r="I22" s="12">
@@ -19516,16 +22514,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="12">
+      <c r="C23" s="12" t="str">
         <f>IF(C$22&lt;&gt;"",0.8,"")</f>
-        <v>0.8</v>
-      </c>
-      <c r="D23" s="12">
+        <v/>
+      </c>
+      <c r="D23" s="12" t="str">
         <f t="shared" ref="D23:L23" si="1">IF(D$22&lt;&gt;"",0.8,"")</f>
-        <v>0.8</v>
+        <v/>
       </c>
       <c r="E23" s="12" t="str">
         <f t="shared" si="1"/>
@@ -19562,16 +22560,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="15">
+      <c r="C24" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",SUM(C25:C27),"")</f>
-        <v>21.1</v>
-      </c>
-      <c r="D24" s="15">
+        <v/>
+      </c>
+      <c r="D24" s="15" t="str">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>18.528102320000031</v>
+        <v/>
       </c>
       <c r="E24" s="15" t="str">
         <f t="shared" ref="E24:L24" si="2">IF(E$22&lt;&gt;"",D57,"")</f>
@@ -19608,15 +22606,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="15">
+        <v>133</v>
+      </c>
+      <c r="C25" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",$B$19,"")</f>
-        <v>11</v>
-      </c>
-      <c r="D25" s="15">
+        <v/>
+      </c>
+      <c r="D25" s="15" t="str">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>8.4172571336493043</v>
+        <v/>
       </c>
       <c r="E25" s="15" t="str">
         <f t="shared" ref="E25:L25" si="3">IF(E22&lt;&gt;"",D54,"")</f>
@@ -19653,15 +22651,15 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="15">
+        <v>134</v>
+      </c>
+      <c r="C26" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",$C$19,"")</f>
-        <v>10.1</v>
-      </c>
-      <c r="D26" s="15">
+        <v/>
+      </c>
+      <c r="D26" s="15" t="str">
         <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v>10.110845186350728</v>
+        <v/>
       </c>
       <c r="E26" s="15" t="str">
         <f t="shared" ref="E26:L27" si="4">IF(E23&lt;&gt;"",D55,"")</f>
@@ -19700,13 +22698,13 @@
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="15" t="str">
         <f>IF(C22&lt;&gt;"",0,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="15">
+        <v/>
+      </c>
+      <c r="D27" s="15" t="str">
         <f>IF(D24&lt;&gt;"",C56,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E27" s="15" t="str">
         <f t="shared" si="4"/>
@@ -19743,24 +22741,24 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="37">
         <v>0.5</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="15" t="str">
         <f>C25</f>
-        <v>11</v>
-      </c>
-      <c r="D29" s="15">
+        <v/>
+      </c>
+      <c r="D29" s="15" t="str">
         <f t="shared" ref="D29:L29" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>9.2640511600000153</v>
+        <v/>
       </c>
       <c r="E29" s="15" t="str">
         <f t="shared" si="5"/>
@@ -19797,19 +22795,19 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="37">
         <f>1-B29</f>
         <v>0.5</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="15" t="str">
         <f>C26</f>
-        <v>10.1</v>
-      </c>
-      <c r="D30" s="15">
+        <v/>
+      </c>
+      <c r="D30" s="15" t="str">
         <f t="shared" ref="D30:L30" si="6">IF(D23&lt;&gt;"",$B30*D$24,"")</f>
-        <v>9.2640511600000153</v>
+        <v/>
       </c>
       <c r="E30" s="15" t="str">
         <f t="shared" si="6"/>
@@ -19846,16 +22844,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="15">
+      <c r="C31" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",VLOOKUP(C29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(C30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>1.0218976799999733</v>
-      </c>
-      <c r="D31" s="15">
+        <v/>
+      </c>
+      <c r="D31" s="15" t="str">
         <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.94498607849939997</v>
+        <v/>
       </c>
       <c r="E31" s="15" t="str">
         <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
@@ -19892,16 +22890,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="15">
+      <c r="C32" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C$31*C25/C$24,"")</f>
-        <v>0.5327428663506969</v>
-      </c>
-      <c r="D32" s="15">
+        <v/>
+      </c>
+      <c r="D32" s="15" t="str">
         <f t="shared" ref="D32:L32" si="7">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.42930412802514917</v>
+        <v/>
       </c>
       <c r="E32" s="15" t="str">
         <f t="shared" si="7"/>
@@ -19938,16 +22936,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="15">
+      <c r="C33" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C$31*C26/C$24,"")</f>
-        <v>0.48915481364927621</v>
-      </c>
-      <c r="D33" s="15">
+        <v/>
+      </c>
+      <c r="D33" s="15" t="str">
         <f t="shared" ref="D33:L33" si="8">IF(D$22&lt;&gt;"",D$31*D26/D$24,"")</f>
-        <v>0.51568195047425092</v>
+        <v/>
       </c>
       <c r="E33" s="15" t="str">
         <f t="shared" si="8"/>
@@ -19984,16 +22982,16 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="15">
+      <c r="C34" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C$31*C27/C$24,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="15">
+        <v/>
+      </c>
+      <c r="D34" s="15" t="str">
         <f t="shared" ref="D34:L34" si="9">IF(D$22&lt;&gt;"",D$31*D27/D$24,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E34" s="15" t="str">
         <f t="shared" si="9"/>
@@ -20030,16 +23028,16 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="26">
+      <c r="C35" s="26" t="str">
         <f>IF(C22&lt;&gt;"",1.5,"")</f>
-        <v>1.5</v>
-      </c>
-      <c r="D35" s="26">
+        <v/>
+      </c>
+      <c r="D35" s="26" t="str">
         <f t="shared" ref="D35:L35" si="10">IF(D22&lt;&gt;"",1.5,"")</f>
-        <v>1.5</v>
+        <v/>
       </c>
       <c r="E35" s="26" t="str">
         <f t="shared" si="10"/>
@@ -20076,16 +23074,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="15">
+      <c r="C36" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>9.75</v>
-      </c>
-      <c r="D36" s="15">
+        <v/>
+      </c>
+      <c r="D36" s="15" t="str">
         <f t="shared" ref="D36:L36" si="11">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>9.75</v>
+        <v/>
       </c>
       <c r="E36" s="15" t="str">
         <f t="shared" si="11"/>
@@ -20125,13 +23123,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="25"/>
-      <c r="C37" s="15">
+      <c r="C37" s="15" t="str">
         <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>2.25</v>
-      </c>
-      <c r="D37" s="15">
+        <v/>
+      </c>
+      <c r="D37" s="15" t="str">
         <f t="shared" ref="D37:L37" si="12">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>2.25</v>
+        <v/>
       </c>
       <c r="E37" s="15" t="str">
         <f t="shared" si="12"/>
@@ -20173,13 +23171,13 @@
       <c r="B38" s="46">
         <v>7.5</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="15" t="str">
         <f>IF(C22&lt;&gt;"",IF(C36&gt;$B38,$B38,C36),"")</f>
-        <v>7.5</v>
-      </c>
-      <c r="D38" s="15">
+        <v/>
+      </c>
+      <c r="D38" s="15" t="str">
         <f t="shared" ref="D38:L38" si="13">IF(D22&lt;&gt;"",IF(D36&gt;$B38,$B38,D36),"")</f>
-        <v>7.5</v>
+        <v/>
       </c>
       <c r="E38" s="15" t="str">
         <f t="shared" si="13"/>
@@ -20216,27 +23214,19 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="26">
-        <v>0.25</v>
-      </c>
-      <c r="D40" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="E40" s="26">
-        <v>0.75</v>
-      </c>
-      <c r="F40" s="26">
-        <v>1</v>
-      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
       <c r="I40" s="26"/>
@@ -20246,25 +23236,13 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="32">
-        <f>350*C40</f>
-        <v>87.5</v>
-      </c>
-      <c r="D41" s="32">
-        <f>350*D40</f>
-        <v>175</v>
-      </c>
-      <c r="E41" s="32">
-        <f>350*E40</f>
-        <v>262.5</v>
-      </c>
-      <c r="F41" s="32">
-        <f>350*F40</f>
-        <v>350</v>
-      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
@@ -20273,12 +23251,12 @@
       <c r="L41" s="32"/>
       <c r="M41" s="34">
         <f>SUM(C41:L41)</f>
-        <v>875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="26"/>
@@ -20295,7 +23273,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="32"/>
@@ -20315,7 +23293,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44"/>
@@ -20324,13 +23302,13 @@
       <c r="A45" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>12.467257133649303</v>
-      </c>
-      <c r="D45" s="15">
+        <v/>
+      </c>
+      <c r="D45" s="15" t="str">
         <f t="shared" ref="D45:L45" si="14">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>9.7379530056241546</v>
+        <v/>
       </c>
       <c r="E45" s="15" t="str">
         <f t="shared" si="14"/>
@@ -20369,13 +23347,13 @@
       <c r="A46" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
-        <v>17.410845186350727</v>
-      </c>
-      <c r="D46" s="15">
+        <v/>
+      </c>
+      <c r="D46" s="15" t="str">
         <f t="shared" ref="D46:L46" si="15">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>17.645163235876481</v>
+        <v/>
       </c>
       <c r="E46" s="15" t="str">
         <f t="shared" si="15"/>
@@ -20414,13 +23392,13 @@
       <c r="A47" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
-        <v>1.5</v>
-      </c>
-      <c r="D47" s="15">
+        <v/>
+      </c>
+      <c r="D47" s="15" t="str">
         <f t="shared" ref="D47:L47" si="16">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
-        <v>1.5</v>
+        <v/>
       </c>
       <c r="E47" s="15" t="str">
         <f t="shared" si="16"/>
@@ -20457,7 +23435,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="30"/>
@@ -20473,27 +23451,13 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="26">
-        <f>4.3-C40</f>
-        <v>4.05</v>
-      </c>
-      <c r="D49" s="26">
-        <f>4.3-D40</f>
-        <v>3.8</v>
-      </c>
-      <c r="E49" s="26">
-        <f>4.3-E40</f>
-        <v>3.55</v>
-      </c>
-      <c r="F49" s="26">
-        <f>4.3-F40</f>
-        <v>3.3</v>
-      </c>
-      <c r="G49" s="26">
-        <v>2</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
       <c r="H49" s="26">
         <v>2</v>
       </c>
@@ -20510,94 +23474,65 @@
         <v>2</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="45">
-        <v>6.7</v>
-      </c>
-      <c r="D50" s="45">
-        <f>C50</f>
-        <v>6.7</v>
-      </c>
-      <c r="E50" s="45">
-        <f t="shared" ref="E50:L50" si="17">D50</f>
-        <v>6.7</v>
-      </c>
-      <c r="F50" s="45">
-        <f t="shared" si="17"/>
-        <v>6.7</v>
-      </c>
-      <c r="G50" s="45">
-        <f t="shared" si="17"/>
-        <v>6.7</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
       <c r="H50" s="45">
-        <f t="shared" si="17"/>
-        <v>6.7</v>
+        <f t="shared" ref="E50:L50" si="17">G50</f>
+        <v>0</v>
       </c>
       <c r="I50" s="45">
         <f t="shared" si="17"/>
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="J50" s="45">
         <f t="shared" si="17"/>
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="K50" s="45">
         <f t="shared" si="17"/>
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="L50" s="45">
         <f t="shared" si="17"/>
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="N50" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="P50" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="O50" s="39" t="s">
+      <c r="Q50" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="P50" s="40" t="s">
+      <c r="R50" s="39" t="s">
         <v>149</v>
-      </c>
-      <c r="Q50" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="R50" s="39" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="12">
-        <f>IF(C$22&lt;&gt;"",0.6,"")</f>
-        <v>0.6</v>
-      </c>
-      <c r="D51" s="12">
-        <f t="shared" ref="D51:L51" si="18">IF(D$22&lt;&gt;"",0.6,"")</f>
-        <v>0.6</v>
-      </c>
-      <c r="E51" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F51" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="G51" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="12">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D51:L51" si="18">IF(H$22&lt;&gt;"",0.6,"")</f>
         <v>0.6</v>
       </c>
       <c r="I51" s="12">
@@ -20635,23 +23570,13 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="D52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="E52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="F52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="G52" s="26">
-        <v>1.5</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
       <c r="H52" s="26">
         <v>1.5</v>
       </c>
@@ -20686,7 +23611,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B53" s="1"/>
       <c r="D53" s="2"/>
@@ -20719,13 +23644,13 @@
       <c r="A54" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C54" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>8.4172571336493043</v>
-      </c>
-      <c r="D54" s="15">
+        <v/>
+      </c>
+      <c r="D54" s="15" t="str">
         <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>5.9379530056241547</v>
+        <v/>
       </c>
       <c r="E54" s="15" t="str">
         <f t="shared" si="20"/>
@@ -20780,13 +23705,13 @@
       <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
-        <v>10.110845186350728</v>
-      </c>
-      <c r="D55" s="15">
+        <v/>
+      </c>
+      <c r="D55" s="15" t="str">
         <f t="shared" ref="D55:L55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>10.345163235876482</v>
+        <v/>
       </c>
       <c r="E55" s="15" t="str">
         <f t="shared" si="21"/>
@@ -20841,13 +23766,13 @@
       <c r="A56" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="15">
+      <c r="C56" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C47-C52,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="15">
+        <v/>
+      </c>
+      <c r="D56" s="15" t="str">
         <f t="shared" ref="D56:L56" si="22">IF(D$22&lt;&gt;"",D47-D52,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="E56" s="15" t="str">
         <f t="shared" si="22"/>
@@ -20900,16 +23825,16 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="15">
+      <c r="C57" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>18.528102320000031</v>
-      </c>
-      <c r="D57" s="15">
+        <v/>
+      </c>
+      <c r="D57" s="15" t="str">
         <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>16.283116241500636</v>
+        <v/>
       </c>
       <c r="E57" s="15" t="str">
         <f t="shared" si="23"/>
@@ -20978,15 +23903,15 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="12">
+        <v>142</v>
+      </c>
+      <c r="C59" s="12" t="str">
         <f>IF(C$22&lt;&gt;"",0.2,"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="D59" s="12">
+        <v/>
+      </c>
+      <c r="D59" s="12" t="str">
         <f t="shared" ref="D59:L59" si="24">IF(D$22&lt;&gt;"",0.2,"")</f>
-        <v>0.2</v>
+        <v/>
       </c>
       <c r="E59" s="12" t="str">
         <f t="shared" si="24"/>
@@ -21023,15 +23948,15 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>145</v>
-      </c>
-      <c r="C60" s="15">
+        <v>143</v>
+      </c>
+      <c r="C60" s="15" t="str">
         <f>IF(C$22&lt;&gt;"",C50+C59,"")</f>
-        <v>6.9</v>
-      </c>
-      <c r="D60" s="15">
+        <v/>
+      </c>
+      <c r="D60" s="15" t="str">
         <f t="shared" ref="D60:L60" si="25">IF(D$22&lt;&gt;"",D50+D59,"")</f>
-        <v>6.9</v>
+        <v/>
       </c>
       <c r="E60" s="15" t="str">
         <f t="shared" si="25"/>
@@ -21047,23 +23972,23 @@
       </c>
       <c r="H60" s="15">
         <f t="shared" si="25"/>
-        <v>6.9</v>
+        <v>0.2</v>
       </c>
       <c r="I60" s="15">
         <f t="shared" si="25"/>
-        <v>6.9</v>
+        <v>0.2</v>
       </c>
       <c r="J60" s="15">
         <f t="shared" si="25"/>
-        <v>6.9</v>
+        <v>0.2</v>
       </c>
       <c r="K60" s="15">
         <f t="shared" si="25"/>
-        <v>6.9</v>
+        <v>0.2</v>
       </c>
       <c r="L60" s="15">
         <f t="shared" si="25"/>
-        <v>6.9</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
@@ -21077,160 +24002,2164 @@
     <mergeCell ref="C8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="C49:L49">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="44" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="43" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="42" operator="greaterThan">
       <formula>$E$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:F49">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="41" operator="greaterThan">
       <formula>$D$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="40" operator="greaterThan">
       <formula>$F$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="39" operator="greaterThan">
       <formula>$G$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="38" operator="greaterThan">
       <formula>$H$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="37" operator="greaterThan">
       <formula>$I$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="36" operator="greaterThan">
       <formula>$J$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="35" operator="greaterThan">
       <formula>$K$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="34" operator="greaterThan">
+      <formula>$L$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:L50">
+    <cfRule type="cellIs" dxfId="97" priority="32" operator="greaterThan">
+      <formula>$D$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="92" priority="27" operator="greaterThan">
+      <formula>$H$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="cellIs" dxfId="91" priority="26" operator="greaterThan">
+      <formula>$I$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="90" priority="25" operator="greaterThan">
+      <formula>$J$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="cellIs" dxfId="89" priority="24" operator="greaterThan">
+      <formula>$K$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="cellIs" dxfId="88" priority="23" operator="greaterThan">
+      <formula>$L$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="82" priority="17" operator="greaterThan">
+      <formula>$H$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="cellIs" dxfId="81" priority="16" operator="greaterThan">
+      <formula>$I$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="80" priority="15" operator="greaterThan">
+      <formula>$J$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="cellIs" dxfId="79" priority="14" operator="greaterThan">
+      <formula>$K$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52">
+    <cfRule type="cellIs" dxfId="78" priority="13" operator="greaterThan">
+      <formula>$L$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:G50">
+    <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50:F50">
+    <cfRule type="cellIs" dxfId="76" priority="11" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50:F50">
+    <cfRule type="cellIs" dxfId="75" priority="10" operator="greaterThan">
+      <formula>$E$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:F50">
+    <cfRule type="cellIs" dxfId="74" priority="9" operator="greaterThan">
+      <formula>$D$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="73" priority="8" operator="greaterThan">
+      <formula>$F$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="72" priority="7" operator="greaterThan">
+      <formula>$G$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:G52">
+    <cfRule type="cellIs" dxfId="71" priority="6" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:F52">
+    <cfRule type="cellIs" dxfId="70" priority="5" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:F52">
+    <cfRule type="cellIs" dxfId="69" priority="4" operator="greaterThan">
+      <formula>$E$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:F52">
+    <cfRule type="cellIs" dxfId="68" priority="3" operator="greaterThan">
+      <formula>$D$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="cellIs" dxfId="67" priority="2" operator="greaterThan">
+      <formula>$F$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="greaterThan">
+      <formula>$G$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BD1F0-C024-4B0C-A52B-7568661161E6}">
+  <dimension ref="A1:R62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" customWidth="1"/>
+    <col min="18" max="18" width="21.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="12">
+        <v>5.73</v>
+      </c>
+      <c r="C18" s="12">
+        <v>6</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="12">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="12">
+        <v>9</v>
+      </c>
+      <c r="D22" s="12">
+        <f>C22</f>
+        <v>9</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:G22" si="0">D22</f>
+        <v>9</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" ref="H22:L22" si="1">G22</f>
+        <v>9</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="12">
+        <f>IF(C$22&lt;&gt;"",0.8,"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" ref="D23:L23" si="2">IF(D$22&lt;&gt;"",0.8,"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="15">
+        <f>IF(C$22&lt;&gt;"",SUM(C25:C27),"")</f>
+        <v>21.1</v>
+      </c>
+      <c r="D24" s="15">
+        <f>IF(D$22&lt;&gt;"",C57,"")</f>
+        <v>17.311102320000032</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" ref="E24:L24" si="3">IF(E$22&lt;&gt;"",D57,"")</f>
+        <v>14.336123034000025</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="3"/>
+        <v>12.355914503999429</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="3"/>
+        <v>10.938149218998831</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="3"/>
+        <v>10.067667593999406</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="3"/>
+        <v>8.2252786064993764</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="3"/>
+        <v>6.4458632384993759</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="3"/>
+        <v>4.7288440154999769</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0730837079994062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="15">
+        <f>IF(C$22&lt;&gt;"",$B$19,"")</f>
+        <v>11</v>
+      </c>
+      <c r="D25" s="15">
+        <f>IF(D22&lt;&gt;"",C54,"")</f>
+        <v>6.9172571336493043</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" ref="E25:L27" si="4">IF(E22&lt;&gt;"",D54,"")</f>
+        <v>3.0044422142300484</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="4"/>
+        <v>1.5840169164901154</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="4"/>
+        <v>0.73776949495207056</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="4"/>
+        <v>0.44032021694419621</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.83921864324572337</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="4"/>
+        <v>-2.026734389663154</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="4"/>
+        <v>-3.1037951210217347</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="4"/>
+        <v>-4.0329953964385226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="15">
+        <f>IF(C$22&lt;&gt;"",$C$19,"")</f>
+        <v>10.1</v>
+      </c>
+      <c r="D26" s="15">
+        <f>IF(D23&lt;&gt;"",C55,"")</f>
+        <v>10.393845186350726</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="4"/>
+        <v>11.331680819769977</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="4"/>
+        <v>10.771897587509313</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="4"/>
+        <v>10.20037972404676</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="4"/>
+        <v>9.6273473770552105</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="4"/>
+        <v>9.0644972497451004</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="4"/>
+        <v>8.4725976281625304</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="4"/>
+        <v>7.8326391365217116</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="4"/>
+        <v>7.1060791044379288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="15">
+        <f>IF(C22&lt;&gt;"",0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <f>IF(D24&lt;&gt;"",C56,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="15">
+        <f>C25</f>
+        <v>11</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:L30" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
+        <v>8.6555511600000159</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="5"/>
+        <v>7.1680615170000124</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="5"/>
+        <v>6.1779572519997146</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="5"/>
+        <v>5.4690746094994154</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="5"/>
+        <v>5.0338337969997031</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="5"/>
+        <v>4.1126393032496882</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="5"/>
+        <v>3.222931619249688</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="5"/>
+        <v>2.3644220077499885</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="5"/>
+        <v>1.5365418539997031</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="37">
+        <f>1-B29</f>
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="15">
+        <f>C26</f>
+        <v>10.1</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="5"/>
+        <v>8.6555511600000159</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="5"/>
+        <v>7.1680615170000124</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="5"/>
+        <v>6.1779572519997146</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="5"/>
+        <v>5.4690746094994154</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="5"/>
+        <v>5.0338337969997031</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="5"/>
+        <v>4.1126393032496882</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="5"/>
+        <v>3.222931619249688</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="5"/>
+        <v>2.3644220077499885</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="5"/>
+        <v>1.5365418539997031</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="15">
+        <f>IF(C$22&lt;&gt;"",VLOOKUP(C29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(C30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>1.0218976799999733</v>
+      </c>
+      <c r="D31" s="15">
+        <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.907979286</v>
+      </c>
+      <c r="E31" s="15">
+        <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.81320853000060001</v>
+      </c>
+      <c r="F31" s="15">
+        <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.75076528500060002</v>
+      </c>
+      <c r="G31" s="15">
+        <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.70348162499942701</v>
+      </c>
+      <c r="H31" s="15">
+        <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.67538898750002696</v>
+      </c>
+      <c r="I31" s="15">
+        <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.61241536799999996</v>
+      </c>
+      <c r="J31" s="15">
+        <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.55001922299939998</v>
+      </c>
+      <c r="K31" s="15">
+        <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.48876030750057303</v>
+      </c>
+      <c r="L31" s="15">
+        <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.42522618899942699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C25/C$24,"")</f>
+        <v>0.5327428663506969</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" ref="D32:L34" si="6">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
+        <v>0.3628149194192557</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="6"/>
+        <v>0.17042529773993298</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="6"/>
+        <v>9.6247421538044664E-2</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="6"/>
+        <v>4.7449278007874338E-2</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="6"/>
+        <v>2.9538860189919618E-2</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="6"/>
+        <v>-6.2484253582569434E-2</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.17293926864141906</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.32079972458321171</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.55805029268018802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C26/C$24,"")</f>
+        <v>0.48915481364927621</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.5451643665807443</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.64278323226066714</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.65451786346255536</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.65603234699155266</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.64585012731010738</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.67489962158256944</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.72295849164081905</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.80956003208378469</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.98327648167961512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C27/C$24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="26">
+        <f>IF(C22&lt;&gt;"",1.5,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="26">
+        <f t="shared" ref="D35:L35" si="7">IF(D22&lt;&gt;"",1.5,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="H35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="K35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="L35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="15">
+        <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
+        <v>8.25</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" ref="D36:L36" si="8">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
+        <v>8.25</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="L36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="15">
+        <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" ref="D37:L37" si="9">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
+        <v>0.75</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="L37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="46">
+        <v>7.5</v>
+      </c>
+      <c r="C38" s="15">
+        <f>IF(C22&lt;&gt;"",IF(C36&gt;$B38,$B38,C36),"")</f>
+        <v>7.5</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" ref="D38:L38" si="10">IF(D22&lt;&gt;"",IF(D36&gt;$B38,$B38,D36),"")</f>
+        <v>7.5</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="L38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="26">
+        <v>0.7</v>
+      </c>
+      <c r="D40" s="26">
+        <v>1.4</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="32">
+        <f>350*C40</f>
+        <v>244.99999999999997</v>
+      </c>
+      <c r="D41" s="32">
+        <f>350*D40</f>
+        <v>489.99999999999994</v>
+      </c>
+      <c r="E41" s="32">
+        <f t="shared" ref="E41:G41" si="11">350*E40</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="34">
+        <f>SUM(C41:L41)</f>
+        <v>734.99999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="34">
+        <f>SUM(C43:L43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="15">
+        <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
+        <v>10.517257133649304</v>
+      </c>
+      <c r="D45" s="15">
+        <f t="shared" ref="D45:L45" si="12">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
+        <v>5.9044422142300483</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="12"/>
+        <v>3.5840169164901154</v>
+      </c>
+      <c r="F45" s="15">
+        <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
+        <v>2.2377694949520706</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="12"/>
+        <v>1.4403202169441962</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="12"/>
+        <v>1.1607813567542766</v>
+      </c>
+      <c r="I45" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.6734389663153939E-2</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.1037951210217349</v>
+      </c>
+      <c r="K45" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.032995396438523</v>
+      </c>
+      <c r="L45" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.7249451037583343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="15">
+        <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
+        <v>17.860845186350726</v>
+      </c>
+      <c r="D46" s="15">
+        <f t="shared" ref="D46:L46" si="13">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
+        <v>18.798680819769977</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="13"/>
+        <v>18.238897587509314</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="13"/>
+        <v>17.667379724046761</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="13"/>
+        <v>17.094347377055211</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="13"/>
+        <v>16.531497249745101</v>
+      </c>
+      <c r="I46" s="15">
+        <f t="shared" si="13"/>
+        <v>15.939597628162531</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="13"/>
+        <v>15.299639136521712</v>
+      </c>
+      <c r="K46" s="15">
+        <f t="shared" si="13"/>
+        <v>14.573079104437928</v>
+      </c>
+      <c r="L46" s="15">
+        <f t="shared" si="13"/>
+        <v>13.672802622758313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="15">
+        <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" ref="D47:L47" si="14">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="I47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="K47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="L47" s="15">
+        <f t="shared" si="14"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="45">
+        <f>4.3-C40</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="D49" s="45">
+        <f>4.3-D40</f>
+        <v>2.9</v>
+      </c>
+      <c r="E49" s="45">
+        <v>2</v>
+      </c>
+      <c r="F49" s="45">
+        <v>1.5</v>
+      </c>
+      <c r="G49" s="45">
+        <v>1</v>
+      </c>
+      <c r="H49" s="26">
+        <v>2</v>
+      </c>
+      <c r="I49" s="26">
+        <v>2</v>
+      </c>
+      <c r="J49" s="26">
+        <v>2</v>
+      </c>
+      <c r="K49" s="26">
+        <v>2</v>
+      </c>
+      <c r="L49" s="26">
+        <v>2</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="45">
+        <f>7.5-IF(C26&lt;$O$51,$P$51,IF(C26&lt;=$O$58,VLOOKUP(C26,$O$51:$P$58,2),0))</f>
+        <v>6.867</v>
+      </c>
+      <c r="D50" s="45">
+        <f>C50</f>
+        <v>6.867</v>
+      </c>
+      <c r="E50" s="45">
+        <f t="shared" ref="E50:L50" si="15">D50</f>
+        <v>6.867</v>
+      </c>
+      <c r="F50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.867</v>
+      </c>
+      <c r="G50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.867</v>
+      </c>
+      <c r="H50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.867</v>
+      </c>
+      <c r="I50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.867</v>
+      </c>
+      <c r="J50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.867</v>
+      </c>
+      <c r="K50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.867</v>
+      </c>
+      <c r="L50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.867</v>
+      </c>
+      <c r="N50" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="P50" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q50" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="12">
+        <f>IF(C$22&lt;&gt;"",0.6,"")</f>
+        <v>0.6</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" ref="D51:L51" si="16">IF(D$22&lt;&gt;"",0.6,"")</f>
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="N51" s="41">
+        <v>1025</v>
+      </c>
+      <c r="O51" s="42">
+        <v>5.981122</v>
+      </c>
+      <c r="P51" s="43">
+        <f t="shared" ref="P51:P58" si="17">R51-Q51</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q51" s="44">
+        <v>0.125</v>
+      </c>
+      <c r="R51" s="43">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="45">
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="45">
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="45">
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="45">
+        <v>1.5</v>
+      </c>
+      <c r="G52" s="45">
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="I52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="J52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="K52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="L52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="N52" s="41">
+        <v>1030</v>
+      </c>
+      <c r="O52" s="42">
+        <v>6.305377</v>
+      </c>
+      <c r="P52" s="43">
+        <f t="shared" si="17"/>
+        <v>1.117</v>
+      </c>
+      <c r="Q52" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R52" s="43">
+        <v>1.1870000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="N53" s="41">
+        <v>1035</v>
+      </c>
+      <c r="O53" s="42">
+        <v>6.6375080000000004</v>
+      </c>
+      <c r="P53" s="43">
+        <f t="shared" si="17"/>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="Q53" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R53" s="43">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="15">
+        <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
+        <v>6.9172571336493043</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" ref="D54:L54" si="18">IF(D$22&lt;&gt;"",D45-D49,"")</f>
+        <v>3.0044422142300484</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="18"/>
+        <v>1.5840169164901154</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="18"/>
+        <v>0.73776949495207056</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="18"/>
+        <v>0.44032021694419621</v>
+      </c>
+      <c r="H54" s="15">
+        <f t="shared" si="18"/>
+        <v>-0.83921864324572337</v>
+      </c>
+      <c r="I54" s="15">
+        <f t="shared" si="18"/>
+        <v>-2.026734389663154</v>
+      </c>
+      <c r="J54" s="15">
+        <f t="shared" si="18"/>
+        <v>-3.1037951210217347</v>
+      </c>
+      <c r="K54" s="15">
+        <f t="shared" si="18"/>
+        <v>-4.0329953964385226</v>
+      </c>
+      <c r="L54" s="15">
+        <f t="shared" si="18"/>
+        <v>-4.7249451037583343</v>
+      </c>
+      <c r="N54" s="41">
+        <v>1040</v>
+      </c>
+      <c r="O54" s="42">
+        <v>6.977665</v>
+      </c>
+      <c r="P54" s="43">
+        <f t="shared" si="17"/>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="Q54" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R54" s="43">
+        <v>1.087</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="15">
+        <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
+        <v>10.393845186350726</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" ref="D55:L55" si="19">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <v>11.331680819769977</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="19"/>
+        <v>10.771897587509313</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="19"/>
+        <v>10.20037972404676</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="19"/>
+        <v>9.6273473770552105</v>
+      </c>
+      <c r="H55" s="15">
+        <f t="shared" si="19"/>
+        <v>9.0644972497451004</v>
+      </c>
+      <c r="I55" s="15">
+        <f t="shared" si="19"/>
+        <v>8.4725976281625304</v>
+      </c>
+      <c r="J55" s="15">
+        <f t="shared" si="19"/>
+        <v>7.8326391365217116</v>
+      </c>
+      <c r="K55" s="15">
+        <f t="shared" si="19"/>
+        <v>7.1060791044379288</v>
+      </c>
+      <c r="L55" s="15">
+        <f t="shared" si="19"/>
+        <v>6.2058026227583136</v>
+      </c>
+      <c r="N55" s="41">
+        <v>1045</v>
+      </c>
+      <c r="O55" s="42">
+        <v>7.3260519999999998</v>
+      </c>
+      <c r="P55" s="43">
+        <f t="shared" si="17"/>
+        <v>0.96699999999999986</v>
+      </c>
+      <c r="Q55" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R55" s="43">
+        <v>1.0369999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="15">
+        <f>IF(C$22&lt;&gt;"",C47-C52,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" ref="D56:L56" si="20">IF(D$22&lt;&gt;"",D47-D52,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="41">
+        <v>1050</v>
+      </c>
+      <c r="O56" s="42">
+        <v>7.6828779999999997</v>
+      </c>
+      <c r="P56" s="43">
+        <f t="shared" si="17"/>
+        <v>0.71700000000000008</v>
+      </c>
+      <c r="Q56" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R56" s="43">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="15">
+        <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
+        <v>17.311102320000032</v>
+      </c>
+      <c r="D57" s="15">
+        <f t="shared" ref="D57:L57" si="21">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+        <v>14.336123034000025</v>
+      </c>
+      <c r="E57" s="15">
+        <f t="shared" si="21"/>
+        <v>12.355914503999429</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="21"/>
+        <v>10.938149218998831</v>
+      </c>
+      <c r="G57" s="15">
+        <f t="shared" si="21"/>
+        <v>10.067667593999406</v>
+      </c>
+      <c r="H57" s="15">
+        <f t="shared" si="21"/>
+        <v>8.2252786064993764</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" si="21"/>
+        <v>6.4458632384993759</v>
+      </c>
+      <c r="J57" s="15">
+        <f t="shared" si="21"/>
+        <v>4.7288440154999769</v>
+      </c>
+      <c r="K57" s="15">
+        <f t="shared" si="21"/>
+        <v>3.0730837079994062</v>
+      </c>
+      <c r="L57" s="15">
+        <f t="shared" si="21"/>
+        <v>1.4808575189999793</v>
+      </c>
+      <c r="N57" s="41">
+        <v>1075</v>
+      </c>
+      <c r="O57" s="42">
+        <v>9.6009879999900001</v>
+      </c>
+      <c r="P57" s="43">
+        <f t="shared" si="17"/>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="Q57" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="R57" s="43">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N58" s="41">
+        <v>1090</v>
+      </c>
+      <c r="O58" s="42">
+        <v>10.857008</v>
+      </c>
+      <c r="P58" s="43">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="12">
+        <f>IF(C$22&lt;&gt;"",0.2,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="D59" s="12">
+        <f t="shared" ref="D59:L59" si="22">IF(D$22&lt;&gt;"",0.2,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="E59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="G59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="H59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="J59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="K59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="15">
+        <f>IF(C$22&lt;&gt;"",C50+C59,"")</f>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="D60" s="15">
+        <f t="shared" ref="D60:L60" si="23">IF(D$22&lt;&gt;"",D50+D59,"")</f>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="E60" s="15">
+        <f t="shared" si="23"/>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="23"/>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="G60" s="15">
+        <f t="shared" si="23"/>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="H60" s="15">
+        <f t="shared" si="23"/>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="23"/>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="J60" s="15">
+        <f t="shared" si="23"/>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="K60" s="15">
+        <f t="shared" si="23"/>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="L60" s="15">
+        <f t="shared" si="23"/>
+        <v>7.0670000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D62" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C49:L49">
+    <cfRule type="cellIs" dxfId="65" priority="32" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:F49">
+    <cfRule type="cellIs" dxfId="64" priority="31" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:F49">
+    <cfRule type="cellIs" dxfId="63" priority="30" operator="greaterThan">
+      <formula>$E$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:F49">
+    <cfRule type="cellIs" dxfId="62" priority="29" operator="greaterThan">
+      <formula>$D$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="61" priority="28" operator="greaterThan">
+      <formula>$F$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="60" priority="27" operator="greaterThan">
+      <formula>$G$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="59" priority="26" operator="greaterThan">
+      <formula>$H$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="58" priority="25" operator="greaterThan">
+      <formula>$I$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="cellIs" dxfId="57" priority="24" operator="greaterThan">
+      <formula>$J$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="cellIs" dxfId="56" priority="23" operator="greaterThan">
+      <formula>$K$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="cellIs" dxfId="55" priority="22" operator="greaterThan">
       <formula>$L$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="21" operator="greaterThan">
       <formula>$C$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:L50">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="20" operator="greaterThan">
       <formula>$D$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="19" operator="greaterThan">
       <formula>$E$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="greaterThan">
       <formula>$F$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="16" operator="greaterThan">
       <formula>$G$46</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="17" operator="greaterThan">
       <formula>$G$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="15" operator="greaterThan">
       <formula>$H$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="14" operator="greaterThan">
       <formula>$I$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="13" operator="greaterThan">
       <formula>$J$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="12" operator="greaterThan">
       <formula>$K$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="11" operator="greaterThan">
       <formula>$L$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="10" operator="greaterThan">
       <formula>$C$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="greaterThan">
       <formula>$D$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="8" operator="greaterThan">
       <formula>$E$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
       <formula>$F$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="6" operator="greaterThan">
       <formula>$G$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
       <formula>$H$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="greaterThan">
       <formula>$I$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
       <formula>$J$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
       <formula>$K$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="greaterThan">
       <formula>$L$47</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21238,12 +26167,1946 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E878AF-96FE-424D-B802-94EDCA32030C}">
+  <dimension ref="A1:R62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" customWidth="1"/>
+    <col min="18" max="18" width="21.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="12">
+        <v>5.73</v>
+      </c>
+      <c r="C18" s="12">
+        <v>6</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="12">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="12">
+        <v>9</v>
+      </c>
+      <c r="D22" s="12">
+        <f>C22</f>
+        <v>9</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:G22" si="0">D22</f>
+        <v>9</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" ref="H22:L22" si="1">G22</f>
+        <v>9</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="12">
+        <f>IF(C$22&lt;&gt;"",0.8,"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" ref="D23:L23" si="2">IF(D$22&lt;&gt;"",0.8,"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="15">
+        <f>IF(C$22&lt;&gt;"",SUM(C25:C27),"")</f>
+        <v>21.1</v>
+      </c>
+      <c r="D24" s="15">
+        <f>IF(D$22&lt;&gt;"",C57,"")</f>
+        <v>16.71110232000003</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" ref="E24:L24" si="3">IF(E$22&lt;&gt;"",D57,"")</f>
+        <v>12.455911190000005</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="3"/>
+        <v>8.8688760708802157</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="3"/>
+        <v>8.4017965217796444</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="3"/>
+        <v>7.9494535507790722</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="3"/>
+        <v>6.2627052151790732</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="3"/>
+        <v>4.636290714178501</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="3"/>
+        <v>3.0685236511785026</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="3"/>
+        <v>1.5609641476779306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="15">
+        <f>IF(C$22&lt;&gt;"",$B$19,"")</f>
+        <v>11</v>
+      </c>
+      <c r="D25" s="15">
+        <f>IF(D22&lt;&gt;"",C54,"")</f>
+        <v>7.017257133649303</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" ref="E25:L27" si="4">IF(E22&lt;&gt;"",D54,"")</f>
+        <v>3.1942915791521944</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="4"/>
+        <v>-1.25</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="4"/>
+        <v>-2.3915375859294228</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="4"/>
+        <v>-3.3914802182929029</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="4"/>
+        <v>-4.1722365945530484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="15">
+        <f>IF(C$22&lt;&gt;"",$C$19,"")</f>
+        <v>10.1</v>
+      </c>
+      <c r="D26" s="15">
+        <f>IF(D23&lt;&gt;"",C55,"")</f>
+        <v>9.6938451863507265</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="4"/>
+        <v>9.261619610847811</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="4"/>
+        <v>8.8688760708802157</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="4"/>
+        <v>8.4017965217796444</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="4"/>
+        <v>7.9494535507790722</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="4"/>
+        <v>7.5127052151790732</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="4"/>
+        <v>7.0278283001079238</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="4"/>
+        <v>6.4600038694714055</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="4"/>
+        <v>5.733200742230979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="15">
+        <f>IF(C22&lt;&gt;"",0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <f>IF(D24&lt;&gt;"",C56,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="15">
+        <f>C25</f>
+        <v>11</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:L30" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
+        <v>8.3555511600000152</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="5"/>
+        <v>6.2279555950000027</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="5"/>
+        <v>4.4344380354401078</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="5"/>
+        <v>4.2008982608898222</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="5"/>
+        <v>3.9747267753895361</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="5"/>
+        <v>3.1313526075895366</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="5"/>
+        <v>2.3181453570892505</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="5"/>
+        <v>1.5342618255892513</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="5"/>
+        <v>0.78048207383896528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="37">
+        <f>1-B29</f>
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="15">
+        <f>C26</f>
+        <v>10.1</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="5"/>
+        <v>8.3555511600000152</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="5"/>
+        <v>6.2279555950000027</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="5"/>
+        <v>4.4344380354401078</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="5"/>
+        <v>4.2008982608898222</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="5"/>
+        <v>3.9747267753895361</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="5"/>
+        <v>3.1313526075895366</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="5"/>
+        <v>2.3181453570892505</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="5"/>
+        <v>1.5342618255892513</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="5"/>
+        <v>0.78048207383896528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="15">
+        <f>IF(C$22&lt;&gt;"",VLOOKUP(C29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(C30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>1.0218976799999733</v>
+      </c>
+      <c r="D31" s="15">
+        <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.88819113000002703</v>
+      </c>
+      <c r="E31" s="15">
+        <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.75279660750117305</v>
+      </c>
+      <c r="F31" s="15">
+        <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.63407954910057307</v>
+      </c>
+      <c r="G31" s="15">
+        <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.61934297100057312</v>
+      </c>
+      <c r="H31" s="15">
+        <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.60374833560000007</v>
+      </c>
+      <c r="I31" s="15">
+        <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.54341450100057298</v>
+      </c>
+      <c r="J31" s="15">
+        <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.484767063</v>
+      </c>
+      <c r="K31" s="15">
+        <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.42455950350057303</v>
+      </c>
+      <c r="L31" s="15">
+        <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.36617264849940001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C25/C$24,"")</f>
+        <v>0.5327428663506969</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" ref="D32:L34" si="6">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
+        <v>0.37296555449710833</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="6"/>
+        <v>0.19305306753357929</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.10846241407057725</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.25005736763651981</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.46924362373985451</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="6"/>
+        <v>-0.97872774737733781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C26/C$24,"")</f>
+        <v>0.48915481364927621</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.51522557550291859</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.55974353996759385</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.63407954910057307</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.61934297100057312</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.60374833560000007</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.6518769150711502</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.73482443063651981</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="6"/>
+        <v>0.89380312724042754</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="6"/>
+        <v>1.3449003958767378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C27/C$24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="26">
+        <f>IF(C22&lt;&gt;"",1.5,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="26">
+        <f t="shared" ref="D35:L35" si="7">IF(D22&lt;&gt;"",1.5,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="H35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="J35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="K35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="L35" s="26">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="15">
+        <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
+        <v>8.25</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" ref="D36:L36" si="8">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
+        <v>8.25</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+      <c r="L36" s="15">
+        <f t="shared" si="8"/>
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="15">
+        <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
+        <v>0.75</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" ref="D37:L37" si="9">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
+        <v>0.75</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="L37" s="15">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="46">
+        <v>7.5</v>
+      </c>
+      <c r="C38" s="15">
+        <f>IF(C22&lt;&gt;"",IF(C36&gt;$B38,$B38,C36),"")</f>
+        <v>7.5</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" ref="D38:L38" si="10">IF(D22&lt;&gt;"",IF(D36&gt;$B38,$B38,D36),"")</f>
+        <v>7.5</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="L38" s="15">
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="34">
+        <f>SUM(C41:L41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="34">
+        <f>SUM(C43:L43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="15">
+        <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
+        <v>11.217257133649303</v>
+      </c>
+      <c r="D45" s="15">
+        <f t="shared" ref="D45:L45" si="11">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
+        <v>7.3942915791521946</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="11"/>
+        <v>3.7512385116186153</v>
+      </c>
+      <c r="F45" s="15">
+        <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
+        <v>0.75</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="I45" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.39153758592942278</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="11"/>
+        <v>-1.3914802182929029</v>
+      </c>
+      <c r="K45" s="15">
+        <f t="shared" si="11"/>
+        <v>-2.1722365945530484</v>
+      </c>
+      <c r="L45" s="15">
+        <f t="shared" si="11"/>
+        <v>-2.4435088471757105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="15">
+        <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
+        <v>17.160845186350727</v>
+      </c>
+      <c r="D46" s="15">
+        <f t="shared" ref="D46:L46" si="12">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
+        <v>16.728619610847812</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="12"/>
+        <v>16.251876070880215</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="12"/>
+        <v>15.784796521779644</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="12"/>
+        <v>15.332453550779071</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="12"/>
+        <v>14.895705215179072</v>
+      </c>
+      <c r="I46" s="15">
+        <f t="shared" si="12"/>
+        <v>14.410828300107923</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="12"/>
+        <v>13.843003869471405</v>
+      </c>
+      <c r="K46" s="15">
+        <f t="shared" si="12"/>
+        <v>13.116200742230978</v>
+      </c>
+      <c r="L46" s="15">
+        <f t="shared" si="12"/>
+        <v>11.938300346354241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="15">
+        <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" ref="D47:L47" si="13">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="I47" s="15">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="K47" s="15">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="L47" s="15">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="45">
+        <f>IF(C45&gt;4.2,4.2,C45)</f>
+        <v>4.2</v>
+      </c>
+      <c r="D49" s="45">
+        <f t="shared" ref="D49:G49" si="14">IF(D45&gt;4.2,4.2,D45)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E49" s="45">
+        <f t="shared" si="14"/>
+        <v>3.7512385116186153</v>
+      </c>
+      <c r="F49" s="45">
+        <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="G49" s="45">
+        <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="H49" s="45">
+        <v>2</v>
+      </c>
+      <c r="I49" s="45">
+        <v>2</v>
+      </c>
+      <c r="J49" s="45">
+        <v>2</v>
+      </c>
+      <c r="K49" s="45">
+        <v>2</v>
+      </c>
+      <c r="L49" s="45">
+        <v>2</v>
+      </c>
+      <c r="M49" s="63"/>
+      <c r="N49" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="45">
+        <f>7.5-IF(C26&lt;$O$51,$P$51,IF(C26&lt;=$O$58,VLOOKUP(C26,$O$51:$P$58,2),0))</f>
+        <v>6.867</v>
+      </c>
+      <c r="D50" s="45">
+        <f t="shared" ref="D50:G50" si="15">7.5-IF(D26&lt;$O$51,$P$51,IF(D26&lt;=$O$58,VLOOKUP(D26,$O$51:$P$58,2),0))</f>
+        <v>6.867</v>
+      </c>
+      <c r="E50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="F50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="G50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="H50" s="45">
+        <f t="shared" ref="E50:L50" si="16">G50</f>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="I50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="J50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="K50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="L50" s="45">
+        <f t="shared" si="16"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="N50" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="P50" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q50" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="12">
+        <f>IF(C$22&lt;&gt;"",0.6,"")</f>
+        <v>0.6</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" ref="D51:L51" si="17">IF(D$22&lt;&gt;"",0.6,"")</f>
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="17"/>
+        <v>0.6</v>
+      </c>
+      <c r="N51" s="41">
+        <v>1025</v>
+      </c>
+      <c r="O51" s="42">
+        <v>5.981122</v>
+      </c>
+      <c r="P51" s="43">
+        <f t="shared" ref="P51:P58" si="18">R51-Q51</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q51" s="44">
+        <v>0.125</v>
+      </c>
+      <c r="R51" s="43">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="G52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="I52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="J52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="K52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="L52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="N52" s="41">
+        <v>1030</v>
+      </c>
+      <c r="O52" s="42">
+        <v>6.305377</v>
+      </c>
+      <c r="P52" s="43">
+        <f t="shared" si="18"/>
+        <v>1.117</v>
+      </c>
+      <c r="Q52" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R52" s="43">
+        <v>1.1870000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="N53" s="41">
+        <v>1035</v>
+      </c>
+      <c r="O53" s="42">
+        <v>6.6375080000000004</v>
+      </c>
+      <c r="P53" s="43">
+        <f t="shared" si="18"/>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="Q53" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R53" s="43">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="15">
+        <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
+        <v>7.017257133649303</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" ref="D54:L54" si="19">IF(D$22&lt;&gt;"",D45-D49,"")</f>
+        <v>3.1942915791521944</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="15">
+        <f t="shared" si="19"/>
+        <v>-1.25</v>
+      </c>
+      <c r="I54" s="15">
+        <f t="shared" si="19"/>
+        <v>-2.3915375859294228</v>
+      </c>
+      <c r="J54" s="15">
+        <f t="shared" si="19"/>
+        <v>-3.3914802182929029</v>
+      </c>
+      <c r="K54" s="15">
+        <f t="shared" si="19"/>
+        <v>-4.1722365945530484</v>
+      </c>
+      <c r="L54" s="15">
+        <f t="shared" si="19"/>
+        <v>-4.4435088471757105</v>
+      </c>
+      <c r="N54" s="41">
+        <v>1040</v>
+      </c>
+      <c r="O54" s="42">
+        <v>6.977665</v>
+      </c>
+      <c r="P54" s="43">
+        <f t="shared" si="18"/>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="Q54" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R54" s="43">
+        <v>1.087</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="15">
+        <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
+        <v>9.6938451863507265</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" ref="D55:L55" si="20">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <v>9.261619610847811</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="20"/>
+        <v>8.8688760708802157</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="20"/>
+        <v>8.4017965217796444</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="20"/>
+        <v>7.9494535507790722</v>
+      </c>
+      <c r="H55" s="15">
+        <f t="shared" si="20"/>
+        <v>7.5127052151790732</v>
+      </c>
+      <c r="I55" s="15">
+        <f t="shared" si="20"/>
+        <v>7.0278283001079238</v>
+      </c>
+      <c r="J55" s="15">
+        <f t="shared" si="20"/>
+        <v>6.4600038694714055</v>
+      </c>
+      <c r="K55" s="15">
+        <f t="shared" si="20"/>
+        <v>5.733200742230979</v>
+      </c>
+      <c r="L55" s="15">
+        <f t="shared" si="20"/>
+        <v>4.5553003463542421</v>
+      </c>
+      <c r="N55" s="41">
+        <v>1045</v>
+      </c>
+      <c r="O55" s="42">
+        <v>7.3260519999999998</v>
+      </c>
+      <c r="P55" s="43">
+        <f t="shared" si="18"/>
+        <v>0.96699999999999986</v>
+      </c>
+      <c r="Q55" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R55" s="43">
+        <v>1.0369999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="15">
+        <f>IF(C$22&lt;&gt;"",C47-C52,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" ref="D56:L56" si="21">IF(D$22&lt;&gt;"",D47-D52,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="41">
+        <v>1050</v>
+      </c>
+      <c r="O56" s="42">
+        <v>7.6828779999999997</v>
+      </c>
+      <c r="P56" s="43">
+        <f t="shared" si="18"/>
+        <v>0.71700000000000008</v>
+      </c>
+      <c r="Q56" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R56" s="43">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="15">
+        <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
+        <v>16.71110232000003</v>
+      </c>
+      <c r="D57" s="15">
+        <f t="shared" ref="D57:L57" si="22">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+        <v>12.455911190000005</v>
+      </c>
+      <c r="E57" s="15">
+        <f t="shared" si="22"/>
+        <v>8.8688760708802157</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="22"/>
+        <v>8.4017965217796444</v>
+      </c>
+      <c r="G57" s="15">
+        <f t="shared" si="22"/>
+        <v>7.9494535507790722</v>
+      </c>
+      <c r="H57" s="15">
+        <f t="shared" si="22"/>
+        <v>6.2627052151790732</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" si="22"/>
+        <v>4.636290714178501</v>
+      </c>
+      <c r="J57" s="15">
+        <f t="shared" si="22"/>
+        <v>3.0685236511785026</v>
+      </c>
+      <c r="K57" s="15">
+        <f t="shared" si="22"/>
+        <v>1.5609641476779306</v>
+      </c>
+      <c r="L57" s="15">
+        <f t="shared" si="22"/>
+        <v>0.11179149917853159</v>
+      </c>
+      <c r="N57" s="41">
+        <v>1075</v>
+      </c>
+      <c r="O57" s="42">
+        <v>9.6009879999900001</v>
+      </c>
+      <c r="P57" s="43">
+        <f t="shared" si="18"/>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="Q57" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="R57" s="43">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N58" s="41">
+        <v>1090</v>
+      </c>
+      <c r="O58" s="42">
+        <v>10.857008</v>
+      </c>
+      <c r="P58" s="43">
+        <f t="shared" si="18"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="12">
+        <f>IF(C$22&lt;&gt;"",0.2,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="D59" s="12">
+        <f t="shared" ref="D59:L59" si="23">IF(D$22&lt;&gt;"",0.2,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="E59" s="12">
+        <f t="shared" si="23"/>
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" si="23"/>
+        <v>0.2</v>
+      </c>
+      <c r="G59" s="12">
+        <f t="shared" si="23"/>
+        <v>0.2</v>
+      </c>
+      <c r="H59" s="12">
+        <f t="shared" si="23"/>
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="12">
+        <f t="shared" si="23"/>
+        <v>0.2</v>
+      </c>
+      <c r="J59" s="12">
+        <f t="shared" si="23"/>
+        <v>0.2</v>
+      </c>
+      <c r="K59" s="12">
+        <f t="shared" si="23"/>
+        <v>0.2</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" si="23"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="15">
+        <f>IF(C$22&lt;&gt;"",C50+C59,"")</f>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="D60" s="15">
+        <f t="shared" ref="D60:L60" si="24">IF(D$22&lt;&gt;"",D50+D59,"")</f>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="E60" s="15">
+        <f t="shared" si="24"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="24"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="G60" s="15">
+        <f t="shared" si="24"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="H60" s="15">
+        <f t="shared" si="24"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="24"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="J60" s="15">
+        <f t="shared" si="24"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="K60" s="15">
+        <f t="shared" si="24"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="L60" s="15">
+        <f t="shared" si="24"/>
+        <v>6.9829999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D62" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H49:L49">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="greaterThan">
+      <formula>$H$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
+      <formula>$I$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
+      <formula>$J$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
+      <formula>$K$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="greaterThan">
+      <formula>$L$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:L50">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="greaterThan">
+      <formula>$D$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
+      <formula>$H$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
+      <formula>$I$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+      <formula>$J$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+      <formula>$K$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+      <formula>$L$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+      <formula>$C$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
+      <formula>$D$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+      <formula>$E$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
+      <formula>$F$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+      <formula>$G$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>$H$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+      <formula>$I$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>$J$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>$K$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>$L$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:G49">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525616F-FCF2-4465-9405-C17989B2BC95}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="B47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21267,7 +28130,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -21306,48 +28169,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="36"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="36"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="36"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="36"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -21388,15 +28251,15 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="12">
         <v>5.73</v>
@@ -21405,7 +28268,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -21460,7 +28323,7 @@
         <v>38</v>
       </c>
       <c r="M21" s="49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -21501,7 +28364,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="12">
@@ -21547,7 +28410,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="15">
@@ -21593,7 +28456,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C25" s="15">
         <f>IF(C$22&lt;&gt;"",$B$19,"")</f>
@@ -21638,7 +28501,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" s="15">
         <f>IF(C$22&lt;&gt;"",$C$19,"")</f>
@@ -21728,13 +28591,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B29" s="37">
         <v>0.5</v>
@@ -21782,7 +28645,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B30" s="37">
         <f>1-B29</f>
@@ -21831,7 +28694,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="15">
@@ -21877,7 +28740,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="15">
@@ -21923,7 +28786,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="15">
@@ -21969,7 +28832,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="15">
@@ -22015,7 +28878,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="26">
@@ -22060,7 +28923,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="15">
@@ -22200,13 +29063,13 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C39"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="26"/>
@@ -22222,7 +29085,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="32"/>
@@ -22242,7 +29105,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="26"/>
@@ -22259,7 +29122,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="32"/>
@@ -22279,7 +29142,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44"/>
@@ -22421,7 +29284,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="30"/>
@@ -22437,7 +29300,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C49" s="26">
         <v>4.2</v>
@@ -22479,12 +29342,12 @@
         <v>4.2</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C50" s="45">
         <f>7.5-IF(C26&lt;$O$51,$P$51,IF(C26&lt;=$O$58,VLOOKUP(C26,$O$51:$P$58,2),0))</f>
@@ -22527,24 +29390,24 @@
         <v>6.5330000000000004</v>
       </c>
       <c r="N50" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="P50" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="O50" s="39" t="s">
+      <c r="Q50" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="P50" s="40" t="s">
+      <c r="R50" s="39" t="s">
         <v>149</v>
-      </c>
-      <c r="Q50" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="R50" s="39" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C51" s="12">
         <f>IF(C$22&lt;&gt;"",0.6,"")</f>
@@ -22605,7 +29468,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C52" s="26">
         <v>1.5</v>
@@ -22764,7 +29627,7 @@
         <v>9.6938451863507265</v>
       </c>
       <c r="D55" s="15">
-        <f t="shared" ref="D55:L55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <f t="shared" ref="D55:K55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
         <v>9.2988293239596107</v>
       </c>
       <c r="E55" s="15">
@@ -22879,7 +29742,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="15">
@@ -22957,7 +29820,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C59" s="12">
         <f>IF(C$22&lt;&gt;"",0.2,"")</f>
@@ -23002,7 +29865,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C60" s="15">
         <f>IF(C$22&lt;&gt;"",C50+C59,"")</f>
@@ -23064,7 +29927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D814463D-A2C3-4926-8417-FA772A766EC1}">
   <dimension ref="A1:X21"/>
   <sheetViews>
@@ -24331,7 +31194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53B606B-01F6-4E7D-A974-83932AB0482C}">
   <dimension ref="A1:S689"/>
   <sheetViews>
@@ -41593,7 +48456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A14D89E-14EF-4823-8B43-9AC037BFB8AB}">
   <dimension ref="A1:M689"/>
   <sheetViews>
@@ -41620,7 +48483,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">

--- a/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
+++ b/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\InteractiveWaterBudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349098B9-FE3C-4A1F-94F6-82DB5FB13C60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBBD286-A63E-449D-AE57-3143B97BEF78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="3" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="166">
   <si>
     <t xml:space="preserve">    To Upper Basin</t>
   </si>
@@ -530,6 +530,9 @@
   <si>
     <t>Compare Upper Basin consumptive use for 9.0-Trade and 9.0-LawOfRiver</t>
   </si>
+  <si>
+    <t>4.9 to 6.5 feet per year for Powell, 5.5 to 6.4 feet per year from Schmidt et al (2016); 5.7 to 6.8 in Moreo (2015)</t>
+  </si>
 </sst>
 </file>
 
@@ -880,15 +883,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -902,6 +897,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,10 +914,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Accent2" xfId="6" builtinId="33"/>
@@ -927,207 +930,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="110">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -21879,20 +21682,20 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:12" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
@@ -21908,200 +21711,200 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="57"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="53"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="53"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>7</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>8</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="53"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
         <v>9</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="53"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>10</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="53"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
@@ -22219,23 +22022,28 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="B10:L10"/>
@@ -22246,11 +22054,6 @@
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22324,48 +22127,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -23487,7 +23290,7 @@
       <c r="F50" s="45"/>
       <c r="G50" s="45"/>
       <c r="H50" s="45">
-        <f t="shared" ref="E50:L50" si="17">G50</f>
+        <f t="shared" ref="H50:L50" si="17">G50</f>
         <v>0</v>
       </c>
       <c r="I50" s="45">
@@ -23532,7 +23335,7 @@
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12">
-        <f t="shared" ref="D51:L51" si="18">IF(H$22&lt;&gt;"",0.6,"")</f>
+        <f t="shared" ref="H51:L51" si="18">IF(H$22&lt;&gt;"",0.6,"")</f>
         <v>0.6</v>
       </c>
       <c r="I51" s="12">
@@ -24002,172 +23805,172 @@
     <mergeCell ref="C8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="C49:L49">
-    <cfRule type="cellIs" dxfId="109" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="44" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="cellIs" dxfId="108" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="43" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="107" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="42" operator="greaterThan">
       <formula>$E$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:F49">
-    <cfRule type="cellIs" dxfId="106" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="41" operator="greaterThan">
       <formula>$D$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="105" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="40" operator="greaterThan">
       <formula>$F$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="104" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="39" operator="greaterThan">
       <formula>$G$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="103" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="38" operator="greaterThan">
       <formula>$H$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="102" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="37" operator="greaterThan">
       <formula>$I$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="101" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="36" operator="greaterThan">
       <formula>$J$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="100" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="35" operator="greaterThan">
       <formula>$K$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="99" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="34" operator="greaterThan">
       <formula>$L$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:L50">
-    <cfRule type="cellIs" dxfId="97" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="32" operator="greaterThan">
       <formula>$D$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="92" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="27" operator="greaterThan">
       <formula>$H$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="91" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="26" operator="greaterThan">
       <formula>$I$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="90" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="25" operator="greaterThan">
       <formula>$J$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="89" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="24" operator="greaterThan">
       <formula>$K$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="88" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="greaterThan">
       <formula>$L$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="82" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="17" operator="greaterThan">
       <formula>$H$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="81" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="16" operator="greaterThan">
       <formula>$I$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="80" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="15" operator="greaterThan">
       <formula>$J$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="79" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
       <formula>$K$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="78" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
       <formula>$L$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:G50">
-    <cfRule type="cellIs" dxfId="77" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:F50">
-    <cfRule type="cellIs" dxfId="76" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:F50">
-    <cfRule type="cellIs" dxfId="75" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
       <formula>$E$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:F50">
-    <cfRule type="cellIs" dxfId="74" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
       <formula>$D$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="73" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="greaterThan">
       <formula>$F$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="72" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
       <formula>$G$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:G52">
-    <cfRule type="cellIs" dxfId="71" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:F52">
-    <cfRule type="cellIs" dxfId="70" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:F52">
-    <cfRule type="cellIs" dxfId="69" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
       <formula>$E$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:F52">
-    <cfRule type="cellIs" dxfId="68" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
       <formula>$D$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="67" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
       <formula>$F$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="66" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
       <formula>$G$45</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24243,48 +24046,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -26006,160 +25809,160 @@
     <mergeCell ref="C8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="C49:L49">
-    <cfRule type="cellIs" dxfId="65" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="cellIs" dxfId="64" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="31" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="63" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="30" operator="greaterThan">
       <formula>$E$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:F49">
-    <cfRule type="cellIs" dxfId="62" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="29" operator="greaterThan">
       <formula>$D$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="61" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="28" operator="greaterThan">
       <formula>$F$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="60" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="greaterThan">
       <formula>$G$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="59" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="26" operator="greaterThan">
       <formula>$H$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="58" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="25" operator="greaterThan">
       <formula>$I$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="57" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="greaterThan">
       <formula>$J$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="56" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="23" operator="greaterThan">
       <formula>$K$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="55" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="22" operator="greaterThan">
       <formula>$L$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="54" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="greaterThan">
       <formula>$C$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:L50">
-    <cfRule type="cellIs" dxfId="53" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="20" operator="greaterThan">
       <formula>$D$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="52" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="19" operator="greaterThan">
       <formula>$E$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="51" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="18" operator="greaterThan">
       <formula>$F$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="50" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="greaterThan">
       <formula>$G$46</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="greaterThan">
       <formula>$G$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="48" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="greaterThan">
       <formula>$H$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="47" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
       <formula>$I$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="46" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="greaterThan">
       <formula>$J$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
       <formula>$K$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
       <formula>$L$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
       <formula>$C$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="greaterThan">
       <formula>$D$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThan">
       <formula>$E$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="greaterThan">
       <formula>$F$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
       <formula>$G$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
       <formula>$H$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
       <formula>$I$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
       <formula>$J$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
       <formula>$K$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>$L$47</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26172,7 +25975,7 @@
   <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26235,48 +26038,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -26334,7 +26137,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -27413,7 +27216,7 @@
       <c r="L49" s="45">
         <v>2</v>
       </c>
-      <c r="M49" s="63"/>
+      <c r="M49" s="51"/>
       <c r="N49" s="1" t="s">
         <v>144</v>
       </c>
@@ -27443,7 +27246,7 @@
         <v>6.7829999999999995</v>
       </c>
       <c r="H50" s="45">
-        <f t="shared" ref="E50:L50" si="16">G50</f>
+        <f t="shared" ref="H50:L50" si="16">G50</f>
         <v>6.7829999999999995</v>
       </c>
       <c r="I50" s="45">
@@ -27983,37 +27786,37 @@
     <mergeCell ref="C8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="H49:L49">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="33" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
       <formula>$H$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThan">
       <formula>$I$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
       <formula>$J$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="greaterThan">
       <formula>$K$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
       <formula>$L$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:L50">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="greaterThan">
       <formula>$D$46</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28169,48 +27972,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="36"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="36"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="36"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="36"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>

--- a/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
+++ b/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\InteractiveWaterBudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBBD286-A63E-449D-AE57-3143B97BEF78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C730CF91-40C5-4824-90A6-A940BEC7D12E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="3" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
@@ -884,6 +884,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -897,12 +906,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,9 +916,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -21682,20 +21682,20 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:12" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
@@ -21711,236 +21711,236 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="55"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
     </row>
     <row r="13" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>7</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>8</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
         <v>9</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>10</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
         <v>11</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
         <v>12</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
@@ -22022,28 +22022,23 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="A31:L31"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="B10:L10"/>
@@ -22054,6 +22049,11 @@
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
+++ b/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\InteractiveWaterBudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C730CF91-40C5-4824-90A6-A940BEC7D12E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D49D96-2D8D-4C5A-B770-FFCB502E037A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" activeTab="3" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe-Directions" sheetId="6" r:id="rId1"/>
     <sheet name="Master" sheetId="5" r:id="rId2"/>
-    <sheet name="9.0-Trade" sheetId="12" r:id="rId3"/>
-    <sheet name="9.0-LawOfRiver" sheetId="13" r:id="rId4"/>
-    <sheet name="9.0-PlotUse" sheetId="14" r:id="rId5"/>
-    <sheet name="9.0-PlotStorage" sheetId="15" r:id="rId6"/>
+    <sheet name="11.0-Trade" sheetId="12" r:id="rId3"/>
+    <sheet name="11.0-LawOfRiver" sheetId="13" r:id="rId4"/>
+    <sheet name="11.0-PlotUse" sheetId="14" r:id="rId5"/>
+    <sheet name="11.0-PlotStorage" sheetId="15" r:id="rId6"/>
     <sheet name="Millenium-LawOfRiver" sheetId="11" r:id="rId7"/>
     <sheet name="HydrologicScenarios" sheetId="7" r:id="rId8"/>
     <sheet name="Powell-Elevation-Area" sheetId="2" r:id="rId9"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="168">
   <si>
     <t xml:space="preserve">    To Upper Basin</t>
   </si>
@@ -513,25 +513,31 @@
     <t>A completed role play of the Millennium Drought continuing for 10 more years following the Law of the River for all political decisions</t>
   </si>
   <si>
-    <t>9.0-LawOfRiver</t>
+    <t>4.9 to 6.5 feet per year for Powell, 5.5 to 6.4 feet per year from Schmidt et al (2016); 5.7 to 6.8 in Moreo (2015)</t>
   </si>
   <si>
-    <t>A completed role play with Lee Ferry natural flow of 9.0 maf per year for 5 years following the Law of the River for all political decisions</t>
+    <t>11.0-Trade</t>
   </si>
   <si>
-    <t>9.0-Trade</t>
+    <t>11.0-LawOfRiver</t>
   </si>
   <si>
-    <t>A completed role play with Lee Ferry natural flow of 9.0 maf per year for 5 years allowing trades between users. Trades in Years 1 and 2 earn the Upper Basin $0.75 Billion and get the Upper Basin on a path of conservation and softer landing for this severe event.</t>
+    <t>11.0-PlotUse</t>
   </si>
   <si>
-    <t>9.0-PlotUse</t>
+    <t>11.0-PlotStorage</t>
   </si>
   <si>
-    <t>Compare Upper Basin consumptive use for 9.0-Trade and 9.0-LawOfRiver</t>
+    <t>Compare Upper Basin storage account balance for 11.0-Trade and 11.0-LawOfRiver</t>
   </si>
   <si>
-    <t>4.9 to 6.5 feet per year for Powell, 5.5 to 6.4 feet per year from Schmidt et al (2016); 5.7 to 6.8 in Moreo (2015)</t>
+    <t>Compare Upper Basin consumptive use for 11.0-Trade and 11.0-LawOfRiver</t>
+  </si>
+  <si>
+    <t>A completed role play with Lee Ferry natural flow of 11.0 maf per year for 5 years following the Law of the River for all political decisions</t>
+  </si>
+  <si>
+    <t>A completed role play with Lee Ferry natural flow of 11.0 maf per year for 5 years allowing trades between users. Trades in Years 1 through 3 earn the Upper Basin $0.5 Billion and get the Upper Basin on a path of conservation and softer landing for this severe event.</t>
   </si>
 </sst>
 </file>
@@ -884,15 +890,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -906,6 +903,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -916,6 +919,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1907,7 +1913,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'9.0-LawOfRiver'!$C$21:$G$21</c:f>
+              <c:f>'11.0-LawOfRiver'!$C$21:$G$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1930,7 +1936,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9.0-LawOfRiver'!$C$49:$G$49</c:f>
+              <c:f>'11.0-LawOfRiver'!$C$49:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1941,13 +1947,13 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7512385116186153</c:v>
+                  <c:v>3.3782273122835065</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>2.4112853600768069</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75</c:v>
+                  <c:v>2.4079688711010352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,7 +1997,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'9.0-Trade'!$C$21:$G$21</c:f>
+              <c:f>'11.0-Trade'!$C$21:$G$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2014,24 +2020,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9.0-Trade'!$C$49:$G$49</c:f>
+              <c:f>'11.0-Trade'!$C$49:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.5999999999999996</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2401,7 +2407,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'9.0-LawOfRiver'!$C$21:$G$21</c:f>
+              <c:f>'11.0-LawOfRiver'!$C$21:$G$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2424,7 +2430,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9.0-LawOfRiver'!$C$25:$G$25</c:f>
+              <c:f>'11.0-LawOfRiver'!$C$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2432,16 +2438,16 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.017257133649303</c:v>
+                  <c:v>9.0172571336493021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1942915791521944</c:v>
+                  <c:v>7.1088601682676069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2485,7 +2491,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'9.0-Trade'!$C$21:$G$21</c:f>
+              <c:f>'11.0-Trade'!$C$21:$G$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2508,7 +2514,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9.0-Trade'!$C$25:$G$25</c:f>
+              <c:f>'11.0-Trade'!$C$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2516,16 +2522,16 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9172571336493043</c:v>
+                  <c:v>8.9172571336493043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0044422142300484</c:v>
+                  <c:v>7.4184595445476385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5840169164901154</c:v>
+                  <c:v>6.4827904842124324</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73776949495207056</c:v>
+                  <c:v>6.2890185479502954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21096,7 +21102,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A297EC62-A5CD-4158-9592-AC76E370FCC0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21107,7 +21113,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{82902265-0E0F-4DE3-8482-388886F7C2EB}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="63" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21118,7 +21124,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668254" cy="6289524"/>
+    <xdr:ext cx="12996612" cy="9437270"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -21151,7 +21157,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668254" cy="6289524"/>
+    <xdr:ext cx="12996612" cy="9437270"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -21639,10 +21645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447CC9A2-4C52-453A-A3CD-EA6E59E26162}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21682,20 +21688,20 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:12" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
@@ -21711,236 +21717,236 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="54"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="54"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="54"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="54"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
     </row>
     <row r="13" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>7</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>8</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
         <v>9</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="54"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>10</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="54"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
         <v>11</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
         <v>12</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="62"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
@@ -21970,76 +21976,89 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="55" t="s">
+    <row r="32" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="A32:L32"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="B10:L10"/>
     <mergeCell ref="B7:L7"/>
@@ -22049,11 +22068,6 @@
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22063,7 +22077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3356767-5983-45FB-80E4-1C5DE08E38A0}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C49" sqref="C49:G52"/>
     </sheetView>
   </sheetViews>
@@ -23982,8 +23996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BD1F0-C024-4B0C-A52B-7568661161E6}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:D49"/>
+    <sheetView topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24209,43 +24223,43 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="12">
         <f>C22</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" ref="E22:G22" si="0">D22</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H22" s="12">
         <f t="shared" ref="H22:L22" si="1">G22</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L22" s="12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -24305,39 +24319,39 @@
       </c>
       <c r="D24" s="15">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>17.311102320000032</v>
+        <v>19.111102320000029</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" ref="E24:L24" si="3">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>14.336123034000025</v>
+        <v>17.682257605000633</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="3"/>
-        <v>12.355914503999429</v>
+        <v>16.795996721501201</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="3"/>
-        <v>10.938149218998831</v>
+        <v>16.138332072001205</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="3"/>
-        <v>10.067667593999406</v>
+        <v>15.500628101901777</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="3"/>
-        <v>8.2252786064993764</v>
+        <v>15.484011271901204</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>6.4458632384993759</v>
+        <v>15.46739444190063</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="3"/>
-        <v>4.7288440154999769</v>
+        <v>15.450777611900055</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="3"/>
-        <v>3.0730837079994062</v>
+        <v>15.435417829300054</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -24350,39 +24364,39 @@
       </c>
       <c r="D25" s="15">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>6.9172571336493043</v>
+        <v>8.9172571336493043</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" ref="E25:L27" si="4">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>3.0044422142300484</v>
+        <v>7.4184595445476385</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="4"/>
-        <v>1.5840169164901154</v>
+        <v>6.4827904842124324</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="4"/>
-        <v>0.73776949495207056</v>
+        <v>6.2890185479502954</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="4"/>
-        <v>0.44032021694419621</v>
+        <v>6.0997100374240141</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="4"/>
-        <v>-0.83921864324572337</v>
+        <v>6.5153741465265966</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="4"/>
-        <v>-2.026734389663154</v>
+        <v>6.9078717247423267</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>-3.1037951210217347</v>
+        <v>7.2784255226769599</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>-4.0329953964385226</v>
+        <v>7.6287871582406748</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -24395,39 +24409,39 @@
       </c>
       <c r="D26" s="15">
         <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v>10.393845186350726</v>
+        <v>10.193845186350726</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="4"/>
-        <v>11.331680819769977</v>
+        <v>10.263798060452993</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="4"/>
-        <v>10.771897587509313</v>
+        <v>10.313206237288769</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="4"/>
-        <v>10.20037972404676</v>
+        <v>9.849313524050908</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="4"/>
-        <v>9.6273473770552105</v>
+        <v>9.4009180644777626</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="4"/>
-        <v>9.0644972497451004</v>
+        <v>8.9686371253746078</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="4"/>
-        <v>8.4725976281625304</v>
+        <v>8.5595227171583037</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>7.8326391365217116</v>
+        <v>8.1723520892230948</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>7.1060791044379288</v>
+        <v>7.8066306710593789</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -24494,39 +24508,39 @@
       </c>
       <c r="D29" s="15">
         <f t="shared" ref="D29:L30" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>8.6555511600000159</v>
+        <v>9.5555511600000145</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="5"/>
-        <v>7.1680615170000124</v>
+        <v>8.8411288025003163</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="5"/>
-        <v>6.1779572519997146</v>
+        <v>8.3979983607506004</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="5"/>
-        <v>5.4690746094994154</v>
+        <v>8.0691660360006026</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="5"/>
-        <v>5.0338337969997031</v>
+        <v>7.7503140509508883</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="5"/>
-        <v>4.1126393032496882</v>
+        <v>7.7420056359506022</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="5"/>
-        <v>3.222931619249688</v>
+        <v>7.7336972209503152</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="5"/>
-        <v>2.3644220077499885</v>
+        <v>7.7253888059500273</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="5"/>
-        <v>1.5365418539997031</v>
+        <v>7.7177089146500268</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -24543,39 +24557,39 @@
       </c>
       <c r="D30" s="15">
         <f t="shared" si="5"/>
-        <v>8.6555511600000159</v>
+        <v>9.5555511600000145</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="5"/>
-        <v>7.1680615170000124</v>
+        <v>8.8411288025003163</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="5"/>
-        <v>6.1779572519997146</v>
+        <v>8.3979983607506004</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="5"/>
-        <v>5.4690746094994154</v>
+        <v>8.0691660360006026</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="5"/>
-        <v>5.0338337969997031</v>
+        <v>7.7503140509508883</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="5"/>
-        <v>4.1126393032496882</v>
+        <v>7.7420056359506022</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="5"/>
-        <v>3.222931619249688</v>
+        <v>7.7336972209503152</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="5"/>
-        <v>2.3644220077499885</v>
+        <v>7.7253888059500273</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="5"/>
-        <v>1.5365418539997031</v>
+        <v>7.7177089146500268</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -24589,39 +24603,39 @@
       </c>
       <c r="D31" s="15">
         <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.907979286</v>
+        <v>0.96184471499940005</v>
       </c>
       <c r="E31" s="15">
         <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.81320853000060001</v>
+        <v>0.91926088349942692</v>
       </c>
       <c r="F31" s="15">
         <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.75076528500060002</v>
+        <v>0.89066464949999991</v>
       </c>
       <c r="G31" s="15">
         <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.70348162499942701</v>
+        <v>0.87070397009942702</v>
       </c>
       <c r="H31" s="15">
         <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.67538898750002696</v>
+        <v>0.84961683000057309</v>
       </c>
       <c r="I31" s="15">
         <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.61241536799999996</v>
+        <v>0.84961683000057309</v>
       </c>
       <c r="J31" s="15">
         <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.55001922299939998</v>
+        <v>0.84961683000057309</v>
       </c>
       <c r="K31" s="15">
         <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.48876030750057303</v>
+        <v>0.8483597826</v>
       </c>
       <c r="L31" s="15">
         <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.42522618899942699</v>
+        <v>0.84724978260060002</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -24635,39 +24649,39 @@
       </c>
       <c r="D32" s="15">
         <f t="shared" ref="D32:L34" si="6">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.3628149194192557</v>
+        <v>0.44879758910166673</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="6"/>
-        <v>0.17042529773993298</v>
+        <v>0.38566906033520454</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="6"/>
-        <v>9.6247421538044664E-2</v>
+        <v>0.3437719362621387</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="6"/>
-        <v>4.7449278007874338E-2</v>
+        <v>0.33930851052628203</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="6"/>
-        <v>2.9538860189919618E-2</v>
+        <v>0.334335890897417</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="6"/>
-        <v>-6.2484253582569434E-2</v>
+        <v>0.35750242178427005</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="6"/>
-        <v>-0.17293926864141906</v>
+        <v>0.37944620206536739</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="6"/>
-        <v>-0.32079972458321171</v>
+        <v>0.39963836443628564</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="6"/>
-        <v>-0.55805029268018802</v>
+        <v>0.41874397783106587</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -24681,39 +24695,39 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" si="6"/>
-        <v>0.5451643665807443</v>
+        <v>0.51304712589773338</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="6"/>
-        <v>0.64278323226066714</v>
+        <v>0.53359182316422227</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="6"/>
-        <v>0.65451786346255536</v>
+        <v>0.54689271323786126</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="6"/>
-        <v>0.65603234699155266</v>
+        <v>0.53139545957314493</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="6"/>
-        <v>0.64585012731010738</v>
+        <v>0.51528093910315609</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="6"/>
-        <v>0.67489962158256944</v>
+        <v>0.49211440821630298</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>0.72295849164081905</v>
+        <v>0.47017062793520575</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0.80956003208378469</v>
+        <v>0.44872141816371436</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="6"/>
-        <v>0.98327648167961512</v>
+        <v>0.42850580476953415</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -24815,43 +24829,43 @@
       <c r="B36" s="1"/>
       <c r="C36" s="15">
         <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" ref="D36:L36" si="8">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -24861,43 +24875,43 @@
       <c r="B37" s="25"/>
       <c r="C37" s="15">
         <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="D37" s="15">
         <f t="shared" ref="D37:L37" si="9">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -24960,12 +24974,14 @@
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="26">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D40" s="26">
-        <v>1.4</v>
-      </c>
-      <c r="E40" s="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="26">
+        <v>0.5</v>
+      </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -24981,15 +24997,15 @@
       <c r="B41" s="1"/>
       <c r="C41" s="32">
         <f>350*C40</f>
-        <v>244.99999999999997</v>
+        <v>175</v>
       </c>
       <c r="D41" s="32">
         <f>350*D40</f>
-        <v>489.99999999999994</v>
+        <v>175</v>
       </c>
       <c r="E41" s="32">
         <f t="shared" ref="E41:G41" si="11">350*E40</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F41" s="32">
         <f t="shared" si="11"/>
@@ -25006,7 +25022,7 @@
       <c r="L41" s="32"/>
       <c r="M41" s="34">
         <f>SUM(C41:L41)</f>
-        <v>734.99999999999989</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -25059,43 +25075,43 @@
       </c>
       <c r="C45" s="15">
         <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>10.517257133649304</v>
+        <v>12.717257133649303</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" ref="D45:L45" si="12">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>5.9044422142300483</v>
+        <v>10.718459544547638</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="12"/>
-        <v>3.5840169164901154</v>
+        <v>9.2827904842124322</v>
       </c>
       <c r="F45" s="15">
         <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
-        <v>2.2377694949520706</v>
+        <v>8.889018547950295</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="12"/>
-        <v>1.4403202169441962</v>
+        <v>8.6997100374240137</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="12"/>
-        <v>1.1607813567542766</v>
+        <v>8.5153741465265966</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="12"/>
-        <v>-2.6734389663153939E-2</v>
+        <v>8.9078717247423267</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="12"/>
-        <v>-1.1037951210217349</v>
+        <v>9.2784255226769599</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="12"/>
-        <v>-2.032995396438523</v>
+        <v>9.6287871582406748</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="12"/>
-        <v>-2.7249451037583343</v>
+        <v>9.9600431804096097</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -25104,43 +25120,43 @@
       </c>
       <c r="C46" s="15">
         <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
-        <v>17.860845186350726</v>
+        <v>17.660845186350727</v>
       </c>
       <c r="D46" s="15">
         <f t="shared" ref="D46:L46" si="13">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>18.798680819769977</v>
+        <v>17.730798060452994</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="13"/>
-        <v>18.238897587509314</v>
+        <v>17.78020623728877</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="13"/>
-        <v>17.667379724046761</v>
+        <v>17.316313524050909</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="13"/>
-        <v>17.094347377055211</v>
+        <v>16.867918064477763</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="13"/>
-        <v>16.531497249745101</v>
+        <v>16.435637125374608</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="13"/>
-        <v>15.939597628162531</v>
+        <v>16.026522717158304</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="13"/>
-        <v>15.299639136521712</v>
+        <v>15.639352089223095</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="13"/>
-        <v>14.573079104437928</v>
+        <v>15.273630671059379</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="13"/>
-        <v>13.672802622758313</v>
+        <v>14.928124866289846</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -25209,21 +25225,19 @@
         <v>152</v>
       </c>
       <c r="C49" s="45">
-        <f>4.3-C40</f>
-        <v>3.5999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D49" s="45">
-        <f>4.3-D40</f>
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="E49" s="45">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="F49" s="45">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="G49" s="45">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H49" s="26">
         <v>2</v>
@@ -25453,43 +25467,43 @@
       </c>
       <c r="C54" s="15">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>6.9172571336493043</v>
+        <v>8.9172571336493043</v>
       </c>
       <c r="D54" s="15">
         <f t="shared" ref="D54:L54" si="18">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>3.0044422142300484</v>
+        <v>7.4184595445476385</v>
       </c>
       <c r="E54" s="15">
         <f t="shared" si="18"/>
-        <v>1.5840169164901154</v>
+        <v>6.4827904842124324</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="18"/>
-        <v>0.73776949495207056</v>
+        <v>6.2890185479502954</v>
       </c>
       <c r="G54" s="15">
         <f t="shared" si="18"/>
-        <v>0.44032021694419621</v>
+        <v>6.0997100374240141</v>
       </c>
       <c r="H54" s="15">
         <f t="shared" si="18"/>
-        <v>-0.83921864324572337</v>
+        <v>6.5153741465265966</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="18"/>
-        <v>-2.026734389663154</v>
+        <v>6.9078717247423267</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="18"/>
-        <v>-3.1037951210217347</v>
+        <v>7.2784255226769599</v>
       </c>
       <c r="K54" s="15">
         <f t="shared" si="18"/>
-        <v>-4.0329953964385226</v>
+        <v>7.6287871582406748</v>
       </c>
       <c r="L54" s="15">
         <f t="shared" si="18"/>
-        <v>-4.7249451037583343</v>
+        <v>7.9600431804096097</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
@@ -25514,43 +25528,43 @@
       </c>
       <c r="C55" s="15">
         <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
-        <v>10.393845186350726</v>
+        <v>10.193845186350726</v>
       </c>
       <c r="D55" s="15">
         <f t="shared" ref="D55:L55" si="19">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>11.331680819769977</v>
+        <v>10.263798060452993</v>
       </c>
       <c r="E55" s="15">
         <f t="shared" si="19"/>
-        <v>10.771897587509313</v>
+        <v>10.313206237288769</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="19"/>
-        <v>10.20037972404676</v>
+        <v>9.849313524050908</v>
       </c>
       <c r="G55" s="15">
         <f t="shared" si="19"/>
-        <v>9.6273473770552105</v>
+        <v>9.4009180644777626</v>
       </c>
       <c r="H55" s="15">
         <f t="shared" si="19"/>
-        <v>9.0644972497451004</v>
+        <v>8.9686371253746078</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="19"/>
-        <v>8.4725976281625304</v>
+        <v>8.5595227171583037</v>
       </c>
       <c r="J55" s="15">
         <f t="shared" si="19"/>
-        <v>7.8326391365217116</v>
+        <v>8.1723520892230948</v>
       </c>
       <c r="K55" s="15">
         <f t="shared" si="19"/>
-        <v>7.1060791044379288</v>
+        <v>7.8066306710593789</v>
       </c>
       <c r="L55" s="15">
         <f t="shared" si="19"/>
-        <v>6.2058026227583136</v>
+        <v>7.4611248662898451</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
@@ -25637,43 +25651,43 @@
       <c r="B57" s="1"/>
       <c r="C57" s="15">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>17.311102320000032</v>
+        <v>19.111102320000029</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" ref="D57:L57" si="21">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>14.336123034000025</v>
+        <v>17.682257605000633</v>
       </c>
       <c r="E57" s="15">
         <f t="shared" si="21"/>
-        <v>12.355914503999429</v>
+        <v>16.795996721501201</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="21"/>
-        <v>10.938149218998831</v>
+        <v>16.138332072001205</v>
       </c>
       <c r="G57" s="15">
         <f t="shared" si="21"/>
-        <v>10.067667593999406</v>
+        <v>15.500628101901777</v>
       </c>
       <c r="H57" s="15">
         <f t="shared" si="21"/>
-        <v>8.2252786064993764</v>
+        <v>15.484011271901204</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="21"/>
-        <v>6.4458632384993759</v>
+        <v>15.46739444190063</v>
       </c>
       <c r="J57" s="15">
         <f t="shared" si="21"/>
-        <v>4.7288440154999769</v>
+        <v>15.450777611900055</v>
       </c>
       <c r="K57" s="15">
         <f t="shared" si="21"/>
-        <v>3.0730837079994062</v>
+        <v>15.435417829300054</v>
       </c>
       <c r="L57" s="15">
         <f t="shared" si="21"/>
-        <v>1.4808575189999793</v>
+        <v>15.421168046699455</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
@@ -25974,8 +25988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E878AF-96FE-424D-B802-94EDCA32030C}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26137,7 +26151,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -26201,43 +26215,43 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="12">
         <f>C22</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" ref="E22:G22" si="0">D22</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H22" s="12">
         <f t="shared" ref="H22:L22" si="1">G22</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K22" s="12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L22" s="12">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -26297,39 +26311,39 @@
       </c>
       <c r="D24" s="15">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>16.71110232000003</v>
+        <v>18.71110232000003</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" ref="E24:L24" si="3">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>12.455911190000005</v>
+        <v>16.392913683000028</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="3"/>
-        <v>8.8688760708802157</v>
+        <v>15.05395331571655</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="3"/>
-        <v>8.4017965217796444</v>
+        <v>14.723767238139169</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="3"/>
-        <v>7.9494535507790722</v>
+        <v>14.407226771938737</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="3"/>
-        <v>6.2627052151790732</v>
+        <v>14.508747251838164</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>4.636290714178501</v>
+        <v>14.607996684339339</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="3"/>
-        <v>3.0685236511785026</v>
+        <v>14.702710079338168</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="3"/>
-        <v>1.5609641476779306</v>
+        <v>14.795152484238169</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -26342,39 +26356,39 @@
       </c>
       <c r="D25" s="15">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>7.017257133649303</v>
+        <v>9.0172571336493021</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" ref="E25:L27" si="4">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>3.1942915791521944</v>
+        <v>7.1088601682676069</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="4"/>
-        <v>-1.25</v>
+        <v>6.5047270927738641</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="4"/>
-        <v>-2.3915375859294228</v>
+        <v>6.8881038289447343</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>-3.3914802182929029</v>
+        <v>7.2503712989619817</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>-4.1722365945530484</v>
+        <v>7.5937558729898971</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -26391,35 +26405,35 @@
       </c>
       <c r="E26" s="15">
         <f t="shared" si="4"/>
-        <v>9.261619610847811</v>
+        <v>9.2840535147324221</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="4"/>
-        <v>8.8688760708802157</v>
+        <v>8.9539533157165501</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="4"/>
-        <v>8.4017965217796444</v>
+        <v>8.6237672381391697</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="4"/>
-        <v>7.9494535507790722</v>
+        <v>8.3072267719387369</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="4"/>
-        <v>7.5127052151790732</v>
+        <v>8.0040201590643001</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="4"/>
-        <v>7.0278283001079238</v>
+        <v>7.7198928553946047</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>6.4600038694714055</v>
+        <v>7.452338780376186</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>5.733200742230979</v>
+        <v>7.2013966112482724</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -26486,39 +26500,39 @@
       </c>
       <c r="D29" s="15">
         <f t="shared" ref="D29:L30" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>8.3555511600000152</v>
+        <v>9.3555511600000152</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="5"/>
-        <v>6.2279555950000027</v>
+        <v>8.1964568415000141</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="5"/>
-        <v>4.4344380354401078</v>
+        <v>7.5269766578582749</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="5"/>
-        <v>4.2008982608898222</v>
+        <v>7.3618836190695847</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="5"/>
-        <v>3.9747267753895361</v>
+        <v>7.2036133859693683</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="5"/>
-        <v>3.1313526075895366</v>
+        <v>7.2543736259190821</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="5"/>
-        <v>2.3181453570892505</v>
+        <v>7.3039983421696695</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="5"/>
-        <v>1.5342618255892513</v>
+        <v>7.3513550396690839</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="5"/>
-        <v>0.78048207383896528</v>
+        <v>7.3975762421190847</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -26535,39 +26549,39 @@
       </c>
       <c r="D30" s="15">
         <f t="shared" si="5"/>
-        <v>8.3555511600000152</v>
+        <v>9.3555511600000152</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="5"/>
-        <v>6.2279555950000027</v>
+        <v>8.1964568415000141</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="5"/>
-        <v>4.4344380354401078</v>
+        <v>7.5269766578582749</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="5"/>
-        <v>4.2008982608898222</v>
+        <v>7.3618836190695847</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="5"/>
-        <v>3.9747267753895361</v>
+        <v>7.2036133859693683</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="5"/>
-        <v>3.1313526075895366</v>
+        <v>7.2543736259190821</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="5"/>
-        <v>2.3181453570892505</v>
+        <v>7.3039983421696695</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="5"/>
-        <v>1.5342618255892513</v>
+        <v>7.3513550396690839</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="5"/>
-        <v>0.78048207383896528</v>
+        <v>7.3975762421190847</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -26581,39 +26595,39 @@
       </c>
       <c r="D31" s="15">
         <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.88819113000002703</v>
+        <v>0.951188637</v>
       </c>
       <c r="E31" s="15">
         <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.75279660750117305</v>
+        <v>0.87773305499997312</v>
       </c>
       <c r="F31" s="15">
         <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.63407954910057307</v>
+        <v>0.83590071750057304</v>
       </c>
       <c r="G31" s="15">
         <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.61934297100057312</v>
+        <v>0.82557159509940004</v>
       </c>
       <c r="H31" s="15">
         <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.60374833560000007</v>
+        <v>0.81547952010057301</v>
       </c>
       <c r="I31" s="15">
         <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.54341450100057298</v>
+        <v>0.81775056749882702</v>
       </c>
       <c r="J31" s="15">
         <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.484767063</v>
+        <v>0.82228660500117301</v>
       </c>
       <c r="K31" s="15">
         <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.42455950350057303</v>
+        <v>0.82455759509999993</v>
       </c>
       <c r="L31" s="15">
         <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.36617264849940001</v>
+        <v>0.82783664249940003</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -26627,39 +26641,39 @@
       </c>
       <c r="D32" s="15">
         <f t="shared" ref="D32:L34" si="6">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.37296555449710833</v>
+        <v>0.458396965381695</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="6"/>
-        <v>0.19305306753357929</v>
+        <v>0.38063285598410107</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.33871463992319345</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.34203112889896525</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.34527290722613518</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="6"/>
-        <v>-0.10846241407057725</v>
+        <v>0.36662326382912958</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="6"/>
-        <v>-0.25005736763651981</v>
+        <v>0.38773252998275209</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="6"/>
-        <v>-0.46924362373985451</v>
+        <v>0.40661542597208489</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="6"/>
-        <v>-0.97872774737733781</v>
+        <v>0.42489520622063093</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -26673,39 +26687,39 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" si="6"/>
-        <v>0.51522557550291859</v>
+        <v>0.49279167161830495</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="6"/>
-        <v>0.55974353996759385</v>
+        <v>0.4971001990158721</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="6"/>
-        <v>0.63407954910057307</v>
+        <v>0.49718607757737959</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="6"/>
-        <v>0.61934297100057312</v>
+        <v>0.48354046620043478</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="6"/>
-        <v>0.60374833560000007</v>
+        <v>0.47020661287443777</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="6"/>
-        <v>0.6518769150711502</v>
+        <v>0.45112730366969739</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>0.73482443063651981</v>
+        <v>0.43455407501842092</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0.89380312724042754</v>
+        <v>0.41794216912791515</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="6"/>
-        <v>1.3449003958767378</v>
+        <v>0.40294143627876911</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -26807,43 +26821,43 @@
       <c r="B36" s="1"/>
       <c r="C36" s="15">
         <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" ref="D36:L36" si="8">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="8"/>
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -26853,43 +26867,43 @@
       <c r="B37" s="25"/>
       <c r="C37" s="15">
         <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="D37" s="15">
         <f t="shared" ref="D37:L37" si="9">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -27032,43 +27046,43 @@
       </c>
       <c r="C45" s="15">
         <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>11.217257133649303</v>
+        <v>13.217257133649303</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" ref="D45:L45" si="11">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>7.3942915791521946</v>
+        <v>11.308860168267607</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="11"/>
-        <v>3.7512385116186153</v>
+        <v>9.4782273122835061</v>
       </c>
       <c r="F45" s="15">
         <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
-        <v>0.75</v>
+        <v>8.5112853600768066</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="11"/>
-        <v>0.75</v>
+        <v>8.5079688711010348</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="11"/>
-        <v>0.75</v>
+        <v>8.5047270927738641</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="11"/>
-        <v>-0.39153758592942278</v>
+        <v>8.8881038289447343</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="11"/>
-        <v>-1.3914802182929029</v>
+        <v>9.2503712989619817</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="11"/>
-        <v>-2.1722365945530484</v>
+        <v>9.5937558729898971</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="11"/>
-        <v>-2.4435088471757105</v>
+        <v>9.918860666769266</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -27081,39 +27095,39 @@
       </c>
       <c r="D46" s="15">
         <f t="shared" ref="D46:L46" si="12">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>16.728619610847812</v>
+        <v>16.751053514732423</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="12"/>
-        <v>16.251876070880215</v>
+        <v>16.336953315716549</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="12"/>
-        <v>15.784796521779644</v>
+        <v>16.006767238139169</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="12"/>
-        <v>15.332453550779071</v>
+        <v>15.690226771938736</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="12"/>
-        <v>14.895705215179072</v>
+        <v>15.387020159064299</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="12"/>
-        <v>14.410828300107923</v>
+        <v>15.102892855394604</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="12"/>
-        <v>13.843003869471405</v>
+        <v>14.835338780376185</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="12"/>
-        <v>13.116200742230978</v>
+        <v>14.584396611248271</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="12"/>
-        <v>11.938300346354241</v>
+        <v>14.348455174969503</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -27182,24 +27196,24 @@
         <v>152</v>
       </c>
       <c r="C49" s="45">
-        <f>IF(C45&gt;4.2,4.2,C45)</f>
+        <f>IF(C45&gt;6.1+4.2,4.2,MAX(C45-6.1,0))</f>
         <v>4.2</v>
       </c>
       <c r="D49" s="45">
-        <f t="shared" ref="D49:G49" si="14">IF(D45&gt;4.2,4.2,D45)</f>
+        <f t="shared" ref="D49:G49" si="14">IF(D45&gt;6.1+4.2,4.2,MAX(D45-6.1,0))</f>
         <v>4.2</v>
       </c>
       <c r="E49" s="45">
         <f t="shared" si="14"/>
-        <v>3.7512385116186153</v>
+        <v>3.3782273122835065</v>
       </c>
       <c r="F49" s="45">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>2.4112853600768069</v>
       </c>
       <c r="G49" s="45">
         <f t="shared" si="14"/>
-        <v>0.75</v>
+        <v>2.4079688711010352</v>
       </c>
       <c r="H49" s="45">
         <v>2</v>
@@ -27430,43 +27444,43 @@
       </c>
       <c r="C54" s="15">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>7.017257133649303</v>
+        <v>9.0172571336493021</v>
       </c>
       <c r="D54" s="15">
         <f t="shared" ref="D54:L54" si="19">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>3.1942915791521944</v>
+        <v>7.1088601682676069</v>
       </c>
       <c r="E54" s="15">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="G54" s="15">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="H54" s="15">
         <f t="shared" si="19"/>
-        <v>-1.25</v>
+        <v>6.5047270927738641</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="19"/>
-        <v>-2.3915375859294228</v>
+        <v>6.8881038289447343</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="19"/>
-        <v>-3.3914802182929029</v>
+        <v>7.2503712989619817</v>
       </c>
       <c r="K54" s="15">
         <f t="shared" si="19"/>
-        <v>-4.1722365945530484</v>
+        <v>7.5937558729898971</v>
       </c>
       <c r="L54" s="15">
         <f t="shared" si="19"/>
-        <v>-4.4435088471757105</v>
+        <v>7.918860666769266</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
@@ -27495,39 +27509,39 @@
       </c>
       <c r="D55" s="15">
         <f t="shared" ref="D55:L55" si="20">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>9.261619610847811</v>
+        <v>9.2840535147324221</v>
       </c>
       <c r="E55" s="15">
         <f t="shared" si="20"/>
-        <v>8.8688760708802157</v>
+        <v>8.9539533157165501</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="20"/>
-        <v>8.4017965217796444</v>
+        <v>8.6237672381391697</v>
       </c>
       <c r="G55" s="15">
         <f t="shared" si="20"/>
-        <v>7.9494535507790722</v>
+        <v>8.3072267719387369</v>
       </c>
       <c r="H55" s="15">
         <f t="shared" si="20"/>
-        <v>7.5127052151790732</v>
+        <v>8.0040201590643001</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="20"/>
-        <v>7.0278283001079238</v>
+        <v>7.7198928553946047</v>
       </c>
       <c r="J55" s="15">
         <f t="shared" si="20"/>
-        <v>6.4600038694714055</v>
+        <v>7.452338780376186</v>
       </c>
       <c r="K55" s="15">
         <f t="shared" si="20"/>
-        <v>5.733200742230979</v>
+        <v>7.2013966112482724</v>
       </c>
       <c r="L55" s="15">
         <f t="shared" si="20"/>
-        <v>4.5553003463542421</v>
+        <v>6.9654551749695042</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
@@ -27614,43 +27628,43 @@
       <c r="B57" s="1"/>
       <c r="C57" s="15">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>16.71110232000003</v>
+        <v>18.71110232000003</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" ref="D57:L57" si="22">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>12.455911190000005</v>
+        <v>16.392913683000028</v>
       </c>
       <c r="E57" s="15">
         <f t="shared" si="22"/>
-        <v>8.8688760708802157</v>
+        <v>15.05395331571655</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="22"/>
-        <v>8.4017965217796444</v>
+        <v>14.723767238139169</v>
       </c>
       <c r="G57" s="15">
         <f t="shared" si="22"/>
-        <v>7.9494535507790722</v>
+        <v>14.407226771938737</v>
       </c>
       <c r="H57" s="15">
         <f t="shared" si="22"/>
-        <v>6.2627052151790732</v>
+        <v>14.508747251838164</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="22"/>
-        <v>4.636290714178501</v>
+        <v>14.607996684339339</v>
       </c>
       <c r="J57" s="15">
         <f t="shared" si="22"/>
-        <v>3.0685236511785026</v>
+        <v>14.702710079338168</v>
       </c>
       <c r="K57" s="15">
         <f t="shared" si="22"/>
-        <v>1.5609641476779306</v>
+        <v>14.795152484238169</v>
       </c>
       <c r="L57" s="15">
         <f t="shared" si="22"/>
-        <v>0.11179149917853159</v>
+        <v>14.88431584173877</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
@@ -27908,8 +27922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525616F-FCF2-4465-9405-C17989B2BC95}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="B47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:C50"/>
+    <sheetView topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
+++ b/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\InteractiveWaterBudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D49D96-2D8D-4C5A-B770-FFCB502E037A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431F2DB7-74B9-4E30-BDD1-0D155925CCFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="2" activeTab="4" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe-Directions" sheetId="6" r:id="rId1"/>
@@ -19,10 +19,13 @@
     <sheet name="11.0-LawOfRiver" sheetId="13" r:id="rId4"/>
     <sheet name="11.0-PlotUse" sheetId="14" r:id="rId5"/>
     <sheet name="11.0-PlotStorage" sheetId="15" r:id="rId6"/>
-    <sheet name="Millenium-LawOfRiver" sheetId="11" r:id="rId7"/>
-    <sheet name="HydrologicScenarios" sheetId="7" r:id="rId8"/>
-    <sheet name="Powell-Elevation-Area" sheetId="2" r:id="rId9"/>
-    <sheet name="Mead-Elevation-Area" sheetId="10" r:id="rId10"/>
+    <sheet name="11.0-PlotUseLB" sheetId="17" r:id="rId7"/>
+    <sheet name="11.0-PlotStorageLB" sheetId="18" r:id="rId8"/>
+    <sheet name="Millenium-LawOfRiver" sheetId="11" r:id="rId9"/>
+    <sheet name="HydrologicScenarios" sheetId="7" r:id="rId10"/>
+    <sheet name="Powell-Elevation-Area" sheetId="2" r:id="rId11"/>
+    <sheet name="Mead-Elevation-Area" sheetId="10" r:id="rId12"/>
+    <sheet name="11.0-LawOfRiverShort" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="168">
   <si>
     <t xml:space="preserve">    To Upper Basin</t>
   </si>
@@ -771,7 +774,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -890,6 +893,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -903,12 +918,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -919,9 +928,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,7 +942,237 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="113">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1947,13 +2183,13 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3782273122835065</c:v>
+                  <c:v>3.4608534728531506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4112853600768069</c:v>
+                  <c:v>2.4472257667257882</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4079688711010352</c:v>
+                  <c:v>2.4441651622382192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2025,19 +2261,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2376,8 +2612,92 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>With Trade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.0-Trade'!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.0-Trade'!$C$25:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0422571336493043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6634520548331819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7418099968023153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4602708271803406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AA87-41D4-ACEB-BA843F5ADD4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Law of River</c:v>
           </c:tx>
@@ -2438,10 +2758,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0172571336493021</c:v>
+                  <c:v>9.0422571336493043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1088601682676069</c:v>
+                  <c:v>7.1583227281020116</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.1</c:v>
@@ -2456,90 +2776,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AA87-41D4-ACEB-BA843F5ADD4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>With Trade</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'11.0-Trade'!$C$21:$G$21</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Year 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Year 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Year 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Year 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Year 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'11.0-Trade'!$C$25:$G$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9172571336493043</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4184595445476385</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4827904842124324</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2890185479502954</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA87-41D4-ACEB-BA843F5ADD4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2844,6 +3080,985 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15853423307623427"/>
+          <c:y val="3.4745872660633781E-2"/>
+          <c:w val="0.79684905403095019"/>
+          <c:h val="0.87719197828007334"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>With Trade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.0-Trade'!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.0-Trade'!$C$50:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.867</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7729-4AC8-B9BF-367EDF80CD21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Law of River</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.0-LawOfRiver'!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.0-LawOfRiver'!$C$50:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7829999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7829999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7729-4AC8-B9BF-367EDF80CD21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491654368"/>
+        <c:axId val="2019157040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491654368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019157040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2019157040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Lower Basin Consumptive Use</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t> (MAF per year)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491654368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72008504985760902"/>
+          <c:y val="0.150224906143408"/>
+          <c:w val="0.20055272953469061"/>
+          <c:h val="0.12184356081636702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15853423307623427"/>
+          <c:y val="3.4745872660633781E-2"/>
+          <c:w val="0.79684905403095019"/>
+          <c:h val="0.87719197828007334"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Law of River</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.0-LawOfRiver'!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.0-LawOfRiver'!$C$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.718845186350725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3335709548974197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0368781650462786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7384806907198929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0E6-4C02-80F9-5B2B5A578019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With Trade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'11.0-Trade'!$C$21:$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Year 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Year 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Year 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Year 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Year 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'11.0-Trade'!$C$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.218845186350725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.213990511167419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.193338646698306</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7622661278208565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0E6-4C02-80F9-5B2B5A578019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="491654368"/>
+        <c:axId val="2019157040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="491654368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2019157040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2019157040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Begin of Year Upper Basin Account Balance (MAF )</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="491654368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70151866800396023"/>
+          <c:y val="6.409833240162531E-2"/>
+          <c:w val="0.20055272953469061"/>
+          <c:h val="0.12184356081636702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -7149,7 +8364,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11477,7 +12692,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15724,7 +16939,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20027,6 +21242,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -21098,8 +22393,1051 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A297EC62-A5CD-4158-9592-AC76E370FCC0}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{82902265-0E0F-4DE3-8482-388886F7C2EB}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -21109,8 +23447,19 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{82902265-0E0F-4DE3-8482-388886F7C2EB}">
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{12A518E9-DB04-4CAC-8D89-898C7EE41E50}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8279C657-2B64-4C3C-A368-6E4ADB98E3E0}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
@@ -21187,6 +23536,72 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12996612" cy="9437270"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DF5EA6B-EBC2-4D57-819E-AE8248163BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="12996612" cy="9437270"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDAEE539-266D-4C99-91BA-061E532E7CC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21267,7 +23682,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21647,7 +24062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447CC9A2-4C52-453A-A3CD-EA6E59E26162}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -21688,20 +24103,20 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:12" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
@@ -21717,236 +24132,236 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="55"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>7</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>8</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
         <v>9</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>10</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
         <v>11</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
         <v>12</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="27"/>
@@ -22036,28 +24451,23 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="A32:L32"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="B10:L10"/>
@@ -22068,6 +24478,11 @@
     <mergeCell ref="B16:L16"/>
     <mergeCell ref="B17:L17"/>
     <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22077,7 +24492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3356767-5983-45FB-80E4-1C5DE08E38A0}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C49" sqref="C49:G52"/>
     </sheetView>
   </sheetViews>
@@ -22141,48 +24556,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -23819,172 +26234,172 @@
     <mergeCell ref="C8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="C49:L49">
-    <cfRule type="cellIs" dxfId="89" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="44" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="cellIs" dxfId="88" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="43" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="87" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="42" operator="greaterThan">
       <formula>$E$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:F49">
-    <cfRule type="cellIs" dxfId="86" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="41" operator="greaterThan">
       <formula>$D$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="85" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="40" operator="greaterThan">
       <formula>$F$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="84" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="39" operator="greaterThan">
       <formula>$G$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="83" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="38" operator="greaterThan">
       <formula>$H$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="82" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="37" operator="greaterThan">
       <formula>$I$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="81" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="36" operator="greaterThan">
       <formula>$J$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="80" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="35" operator="greaterThan">
       <formula>$K$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="79" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="34" operator="greaterThan">
       <formula>$L$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:L50">
-    <cfRule type="cellIs" dxfId="78" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="101" priority="32" operator="greaterThan">
       <formula>$D$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="77" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="27" operator="greaterThan">
       <formula>$H$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="76" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="99" priority="26" operator="greaterThan">
       <formula>$I$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="75" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="25" operator="greaterThan">
       <formula>$J$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="74" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="97" priority="24" operator="greaterThan">
       <formula>$K$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="73" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="23" operator="greaterThan">
       <formula>$L$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="72" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="95" priority="17" operator="greaterThan">
       <formula>$H$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="71" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="16" operator="greaterThan">
       <formula>$I$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="70" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="15" operator="greaterThan">
       <formula>$J$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="69" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="14" operator="greaterThan">
       <formula>$K$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="13" operator="greaterThan">
       <formula>$L$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:G50">
-    <cfRule type="cellIs" dxfId="67" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="12" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:F50">
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="11" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:F50">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="10" operator="greaterThan">
       <formula>$E$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:F50">
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="greaterThan">
       <formula>$D$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="63" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="8" operator="greaterThan">
       <formula>$F$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="85" priority="7" operator="greaterThan">
       <formula>$G$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:G52">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:F52">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="5" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:F52">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="4" operator="greaterThan">
       <formula>$E$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:F52">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="3" operator="greaterThan">
       <formula>$D$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="2" operator="greaterThan">
       <formula>$F$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="greaterThan">
       <formula>$G$45</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23996,8 +26411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BD1F0-C024-4B0C-A52B-7568661161E6}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H32" sqref="H1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24060,48 +26475,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -24319,39 +26734,39 @@
       </c>
       <c r="D24" s="15">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>19.111102320000029</v>
+        <v>19.261102320000028</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" ref="E24:L24" si="3">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>17.682257605000633</v>
+        <v>17.8774425660006</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="3"/>
-        <v>16.795996721501201</v>
+        <v>16.935148643500622</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="3"/>
-        <v>16.138332072001205</v>
+        <v>16.222536955001196</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="3"/>
-        <v>15.500628101901777</v>
+        <v>15.532489937502369</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="3"/>
-        <v>15.484011271901204</v>
+        <v>15.583530117402967</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>15.46739444190063</v>
+        <v>15.633484297302365</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="3"/>
-        <v>15.450777611900055</v>
+        <v>15.682181429801767</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="3"/>
-        <v>15.435417829300054</v>
+        <v>15.728535572202338</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -24364,39 +26779,39 @@
       </c>
       <c r="D25" s="15">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>8.9172571336493043</v>
+        <v>9.0422571336493043</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" ref="E25:L27" si="4">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>7.4184595445476385</v>
+        <v>7.6634520548331819</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="4"/>
-        <v>6.4827904842124324</v>
+        <v>6.7418099968023153</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="4"/>
-        <v>6.2890185479502954</v>
+        <v>6.4602708271803406</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="4"/>
-        <v>6.0997100374240141</v>
+        <v>6.1875989313758</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="4"/>
-        <v>6.5153741465265966</v>
+        <v>6.6332080356705205</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="4"/>
-        <v>6.9078717247423267</v>
+        <v>7.0551047884565037</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>7.2784255226769599</v>
+        <v>7.4545735699081455</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>7.6287871582406748</v>
+        <v>7.8323643052138578</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -24409,39 +26824,39 @@
       </c>
       <c r="D26" s="15">
         <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v>10.193845186350726</v>
+        <v>10.218845186350725</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="4"/>
-        <v>10.263798060452993</v>
+        <v>10.213990511167419</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="4"/>
-        <v>10.313206237288769</v>
+        <v>10.193338646698306</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="4"/>
-        <v>9.849313524050908</v>
+        <v>9.7622661278208565</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="4"/>
-        <v>9.4009180644777626</v>
+        <v>9.3448910061265682</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="4"/>
-        <v>8.9686371253746078</v>
+        <v>8.9503220817324465</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="4"/>
-        <v>8.5595227171583037</v>
+        <v>8.5783795088458614</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>8.1723520892230948</v>
+        <v>8.227607859893622</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>7.8066306710593789</v>
+        <v>7.89617126698848</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -24508,39 +26923,39 @@
       </c>
       <c r="D29" s="15">
         <f t="shared" ref="D29:L30" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>9.5555511600000145</v>
+        <v>9.6305511600000138</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="5"/>
-        <v>8.8411288025003163</v>
+        <v>8.9387212830002998</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="5"/>
-        <v>8.3979983607506004</v>
+        <v>8.4675743217503108</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="5"/>
-        <v>8.0691660360006026</v>
+        <v>8.1112684775005981</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="5"/>
-        <v>7.7503140509508883</v>
+        <v>7.7662449687511845</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="5"/>
-        <v>7.7420056359506022</v>
+        <v>7.7917650587014835</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="5"/>
-        <v>7.7336972209503152</v>
+        <v>7.8167421486511826</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="5"/>
-        <v>7.7253888059500273</v>
+        <v>7.8410907149008837</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="5"/>
-        <v>7.7177089146500268</v>
+        <v>7.8642677861011689</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -24557,39 +26972,39 @@
       </c>
       <c r="D30" s="15">
         <f t="shared" si="5"/>
-        <v>9.5555511600000145</v>
+        <v>9.6305511600000138</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="5"/>
-        <v>8.8411288025003163</v>
+        <v>8.9387212830002998</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="5"/>
-        <v>8.3979983607506004</v>
+        <v>8.4675743217503108</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="5"/>
-        <v>8.0691660360006026</v>
+        <v>8.1112684775005981</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="5"/>
-        <v>7.7503140509508883</v>
+        <v>7.7662449687511845</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="5"/>
-        <v>7.7420056359506022</v>
+        <v>7.7917650587014835</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="5"/>
-        <v>7.7336972209503152</v>
+        <v>7.8167421486511826</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="5"/>
-        <v>7.7253888059500273</v>
+        <v>7.8410907149008837</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="5"/>
-        <v>7.7177089146500268</v>
+        <v>7.8642677861011689</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -24603,39 +27018,39 @@
       </c>
       <c r="D31" s="15">
         <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.96184471499940005</v>
+        <v>0.96665975399942705</v>
       </c>
       <c r="E31" s="15">
         <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.91926088349942692</v>
+        <v>0.925293922499973</v>
       </c>
       <c r="F31" s="15">
         <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.89066464949999991</v>
+        <v>0.89561168849942696</v>
       </c>
       <c r="G31" s="15">
         <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.87070397009942702</v>
+        <v>0.87304701749882696</v>
       </c>
       <c r="H31" s="15">
         <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84961683000057309</v>
+        <v>0.85195982009939997</v>
       </c>
       <c r="I31" s="15">
         <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84961683000057309</v>
+        <v>0.85304582010059993</v>
       </c>
       <c r="J31" s="15">
         <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84961683000057309</v>
+        <v>0.85430286750060003</v>
       </c>
       <c r="K31" s="15">
         <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.8483597826</v>
+        <v>0.85664585759942702</v>
       </c>
       <c r="L31" s="15">
         <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84724978260060002</v>
+        <v>0.85664585759942702</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -24649,39 +27064,39 @@
       </c>
       <c r="D32" s="15">
         <f t="shared" ref="D32:L34" si="6">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.44879758910166673</v>
+        <v>0.45380507881612187</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="6"/>
-        <v>0.38566906033520454</v>
+        <v>0.39664205803086539</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="6"/>
-        <v>0.3437719362621387</v>
+        <v>0.35653916962197557</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="6"/>
-        <v>0.33930851052628203</v>
+        <v>0.34767189580454005</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="6"/>
-        <v>0.334335890897417</v>
+        <v>0.33939089570527925</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="6"/>
-        <v>0.35750242178427005</v>
+        <v>0.36310324721401699</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="6"/>
-        <v>0.37944620206536739</v>
+        <v>0.38553121854835831</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="6"/>
-        <v>0.39963836443628564</v>
+        <v>0.40720926469428737</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="6"/>
-        <v>0.41874397783106587</v>
+        <v>0.42658532362854812</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -24695,39 +27110,39 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" si="6"/>
-        <v>0.51304712589773338</v>
+        <v>0.51285467518330519</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="6"/>
-        <v>0.53359182316422227</v>
+        <v>0.52865186446910761</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="6"/>
-        <v>0.54689271323786126</v>
+        <v>0.53907251887745133</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="6"/>
-        <v>0.53139545957314493</v>
+        <v>0.52537512169428702</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="6"/>
-        <v>0.51528093910315609</v>
+        <v>0.51256892439412072</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="6"/>
-        <v>0.49211440821630298</v>
+        <v>0.48994257288658294</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>0.47017062793520575</v>
+        <v>0.46877164895224177</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0.44872141816371436</v>
+        <v>0.44943659290513965</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="6"/>
-        <v>0.42850580476953415</v>
+        <v>0.4300605339708789</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -24781,45 +27196,45 @@
         <v>135</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="26">
-        <f>IF(C22&lt;&gt;"",1.5,"")</f>
-        <v>1.5</v>
-      </c>
-      <c r="D35" s="26">
-        <f t="shared" ref="D35:L35" si="7">IF(D22&lt;&gt;"",1.5,"")</f>
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="26">
+      <c r="C35" s="45">
+        <f>IF(C22&lt;&gt;"",1.5-IF(C$26&lt;$O$51,$Q$51,IF(C$26&lt;=$O$58,VLOOKUP(C$26,$O$51:$Q$58,3),0)),"")</f>
+        <v>1.45</v>
+      </c>
+      <c r="D35" s="45">
+        <f t="shared" ref="D35:L35" si="7">IF(D22&lt;&gt;"",1.5-IF(D$26&lt;$O$51,$Q$51,IF(D$26&lt;=$O$58,VLOOKUP(D$26,$O$51:$Q$58,3),0)),"")</f>
+        <v>1.45</v>
+      </c>
+      <c r="E35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="F35" s="26">
+        <v>1.45</v>
+      </c>
+      <c r="F35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="G35" s="26">
+        <v>1.45</v>
+      </c>
+      <c r="G35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="H35" s="26">
+        <v>1.45</v>
+      </c>
+      <c r="H35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="I35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="J35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="J35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="K35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="K35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="L35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="L35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -24829,43 +27244,43 @@
       <c r="B36" s="1"/>
       <c r="C36" s="15">
         <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>10.25</v>
+        <v>10.275</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" ref="D36:L36" si="8">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>10.25</v>
+        <v>10.275</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.275</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.275</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.275</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -24875,43 +27290,43 @@
       <c r="B37" s="25"/>
       <c r="C37" s="15">
         <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>2.75</v>
+        <v>2.7750000000000004</v>
       </c>
       <c r="D37" s="15">
         <f t="shared" ref="D37:L37" si="9">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>2.75</v>
+        <v>2.7750000000000004</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7750000000000004</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7750000000000004</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7750000000000004</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -24977,10 +27392,10 @@
         <v>0.5</v>
       </c>
       <c r="D40" s="26">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E40" s="26">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
@@ -25001,11 +27416,11 @@
       </c>
       <c r="D41" s="32">
         <f>350*D40</f>
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="E41" s="32">
         <f t="shared" ref="E41:G41" si="11">350*E40</f>
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="F41" s="32">
         <f t="shared" si="11"/>
@@ -25022,7 +27437,7 @@
       <c r="L41" s="32"/>
       <c r="M41" s="34">
         <f>SUM(C41:L41)</f>
-        <v>525</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
@@ -25075,43 +27490,43 @@
       </c>
       <c r="C45" s="15">
         <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>12.717257133649303</v>
+        <v>12.742257133649304</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" ref="D45:L45" si="12">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>10.718459544547638</v>
+        <v>10.963452054833182</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="12"/>
-        <v>9.2827904842124322</v>
+        <v>9.6418099968023157</v>
       </c>
       <c r="F45" s="15">
         <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
-        <v>8.889018547950295</v>
+        <v>9.1602708271803408</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="12"/>
-        <v>8.6997100374240137</v>
+        <v>8.8875989313758001</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="12"/>
-        <v>8.5153741465265966</v>
+        <v>8.6332080356705205</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="12"/>
-        <v>8.9078717247423267</v>
+        <v>9.0551047884565037</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="12"/>
-        <v>9.2784255226769599</v>
+        <v>9.4545735699081455</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="12"/>
-        <v>9.6287871582406748</v>
+        <v>9.8323643052138578</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="12"/>
-        <v>9.9600431804096097</v>
+        <v>10.190778981585311</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -25120,43 +27535,43 @@
       </c>
       <c r="C46" s="15">
         <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
-        <v>17.660845186350727</v>
+        <v>17.685845186350726</v>
       </c>
       <c r="D46" s="15">
         <f t="shared" ref="D46:L46" si="13">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>17.730798060452994</v>
+        <v>17.680990511167419</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="13"/>
-        <v>17.78020623728877</v>
+        <v>17.660338646698307</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="13"/>
-        <v>17.316313524050909</v>
+        <v>17.229266127820857</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="13"/>
-        <v>16.867918064477763</v>
+        <v>16.811891006126569</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="13"/>
-        <v>16.435637125374608</v>
+        <v>16.417322081732447</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="13"/>
-        <v>16.026522717158304</v>
+        <v>16.045379508845862</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="13"/>
-        <v>15.639352089223095</v>
+        <v>15.694607859893623</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="13"/>
-        <v>15.273630671059379</v>
+        <v>15.363171266988481</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="13"/>
-        <v>14.928124866289846</v>
+        <v>15.051110733017602</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -25165,43 +27580,43 @@
       </c>
       <c r="C47" s="15">
         <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="D47" s="15">
         <f t="shared" ref="D47:L47" si="14">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="G47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="K47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="L47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -25225,19 +27640,19 @@
         <v>152</v>
       </c>
       <c r="C49" s="45">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D49" s="45">
         <v>3.3</v>
       </c>
       <c r="E49" s="45">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="F49" s="45">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G49" s="45">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H49" s="26">
         <v>2</v>
@@ -25384,34 +27799,44 @@
         <v>155</v>
       </c>
       <c r="C52" s="45">
-        <v>1.5</v>
+        <f>IF(C22&lt;&gt;"",C35,"")</f>
+        <v>1.45</v>
       </c>
       <c r="D52" s="45">
-        <v>1.5</v>
+        <f t="shared" ref="D52:L52" si="18">IF(D22&lt;&gt;"",D35,"")</f>
+        <v>1.45</v>
       </c>
       <c r="E52" s="45">
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>1.45</v>
       </c>
       <c r="F52" s="45">
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>1.45</v>
       </c>
       <c r="G52" s="45">
-        <v>1.5</v>
-      </c>
-      <c r="H52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="I52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="J52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="K52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="L52" s="26">
-        <v>1.5</v>
+        <f t="shared" si="18"/>
+        <v>1.45</v>
+      </c>
+      <c r="H52" s="45">
+        <f t="shared" si="18"/>
+        <v>1.43</v>
+      </c>
+      <c r="I52" s="45">
+        <f t="shared" si="18"/>
+        <v>1.43</v>
+      </c>
+      <c r="J52" s="45">
+        <f t="shared" si="18"/>
+        <v>1.43</v>
+      </c>
+      <c r="K52" s="45">
+        <f t="shared" si="18"/>
+        <v>1.43</v>
+      </c>
+      <c r="L52" s="45">
+        <f t="shared" si="18"/>
+        <v>1.43</v>
       </c>
       <c r="N52" s="41">
         <v>1030</v>
@@ -25467,43 +27892,43 @@
       </c>
       <c r="C54" s="15">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>8.9172571336493043</v>
+        <v>9.0422571336493043</v>
       </c>
       <c r="D54" s="15">
-        <f t="shared" ref="D54:L54" si="18">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>7.4184595445476385</v>
+        <f t="shared" ref="D54:L54" si="19">IF(D$22&lt;&gt;"",D45-D49,"")</f>
+        <v>7.6634520548331819</v>
       </c>
       <c r="E54" s="15">
-        <f t="shared" si="18"/>
-        <v>6.4827904842124324</v>
+        <f t="shared" si="19"/>
+        <v>6.7418099968023153</v>
       </c>
       <c r="F54" s="15">
-        <f t="shared" si="18"/>
-        <v>6.2890185479502954</v>
+        <f t="shared" si="19"/>
+        <v>6.4602708271803406</v>
       </c>
       <c r="G54" s="15">
-        <f t="shared" si="18"/>
-        <v>6.0997100374240141</v>
+        <f t="shared" si="19"/>
+        <v>6.1875989313758</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="18"/>
-        <v>6.5153741465265966</v>
+        <f t="shared" si="19"/>
+        <v>6.6332080356705205</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="18"/>
-        <v>6.9078717247423267</v>
+        <f t="shared" si="19"/>
+        <v>7.0551047884565037</v>
       </c>
       <c r="J54" s="15">
-        <f t="shared" si="18"/>
-        <v>7.2784255226769599</v>
+        <f t="shared" si="19"/>
+        <v>7.4545735699081455</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" si="18"/>
-        <v>7.6287871582406748</v>
+        <f t="shared" si="19"/>
+        <v>7.8323643052138578</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" si="18"/>
-        <v>7.9600431804096097</v>
+        <f t="shared" si="19"/>
+        <v>8.1907789815853107</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
@@ -25528,43 +27953,43 @@
       </c>
       <c r="C55" s="15">
         <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
-        <v>10.193845186350726</v>
+        <v>10.218845186350725</v>
       </c>
       <c r="D55" s="15">
-        <f t="shared" ref="D55:L55" si="19">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>10.263798060452993</v>
+        <f t="shared" ref="D55:L55" si="20">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <v>10.213990511167419</v>
       </c>
       <c r="E55" s="15">
-        <f t="shared" si="19"/>
-        <v>10.313206237288769</v>
+        <f t="shared" si="20"/>
+        <v>10.193338646698306</v>
       </c>
       <c r="F55" s="15">
-        <f t="shared" si="19"/>
-        <v>9.849313524050908</v>
+        <f t="shared" si="20"/>
+        <v>9.7622661278208565</v>
       </c>
       <c r="G55" s="15">
-        <f t="shared" si="19"/>
-        <v>9.4009180644777626</v>
+        <f t="shared" si="20"/>
+        <v>9.3448910061265682</v>
       </c>
       <c r="H55" s="15">
-        <f t="shared" si="19"/>
-        <v>8.9686371253746078</v>
+        <f t="shared" si="20"/>
+        <v>8.9503220817324465</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="19"/>
-        <v>8.5595227171583037</v>
+        <f t="shared" si="20"/>
+        <v>8.5783795088458614</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" si="19"/>
-        <v>8.1723520892230948</v>
+        <f t="shared" si="20"/>
+        <v>8.227607859893622</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="19"/>
-        <v>7.8066306710593789</v>
+        <f t="shared" si="20"/>
+        <v>7.89617126698848</v>
       </c>
       <c r="L55" s="15">
-        <f t="shared" si="19"/>
-        <v>7.4611248662898451</v>
+        <f t="shared" si="20"/>
+        <v>7.5841107330176012</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
@@ -25592,39 +28017,39 @@
         <v>0</v>
       </c>
       <c r="D56" s="15">
-        <f t="shared" ref="D56:L56" si="20">IF(D$22&lt;&gt;"",D47-D52,"")</f>
+        <f t="shared" ref="D56:L56" si="21">IF(D$22&lt;&gt;"",D47-D52,"")</f>
         <v>0</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F56" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="G56" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L56" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N56" s="41">
@@ -25651,43 +28076,43 @@
       <c r="B57" s="1"/>
       <c r="C57" s="15">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>19.111102320000029</v>
+        <v>19.261102320000028</v>
       </c>
       <c r="D57" s="15">
-        <f t="shared" ref="D57:L57" si="21">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>17.682257605000633</v>
+        <f t="shared" ref="D57:L57" si="22">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+        <v>17.8774425660006</v>
       </c>
       <c r="E57" s="15">
-        <f t="shared" si="21"/>
-        <v>16.795996721501201</v>
+        <f t="shared" si="22"/>
+        <v>16.935148643500622</v>
       </c>
       <c r="F57" s="15">
-        <f t="shared" si="21"/>
-        <v>16.138332072001205</v>
+        <f t="shared" si="22"/>
+        <v>16.222536955001196</v>
       </c>
       <c r="G57" s="15">
-        <f t="shared" si="21"/>
-        <v>15.500628101901777</v>
+        <f t="shared" si="22"/>
+        <v>15.532489937502369</v>
       </c>
       <c r="H57" s="15">
-        <f t="shared" si="21"/>
-        <v>15.484011271901204</v>
+        <f t="shared" si="22"/>
+        <v>15.583530117402967</v>
       </c>
       <c r="I57" s="15">
-        <f t="shared" si="21"/>
-        <v>15.46739444190063</v>
+        <f t="shared" si="22"/>
+        <v>15.633484297302365</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" si="21"/>
-        <v>15.450777611900055</v>
+        <f t="shared" si="22"/>
+        <v>15.682181429801767</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="21"/>
-        <v>15.435417829300054</v>
+        <f t="shared" si="22"/>
+        <v>15.728535572202338</v>
       </c>
       <c r="L57" s="15">
-        <f t="shared" si="21"/>
-        <v>15.421168046699455</v>
+        <f t="shared" si="22"/>
+        <v>15.774889714602912</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
@@ -25731,39 +28156,39 @@
         <v>0.2</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" ref="D59:L59" si="22">IF(D$22&lt;&gt;"",0.2,"")</f>
+        <f t="shared" ref="D59:L59" si="23">IF(D$22&lt;&gt;"",0.2,"")</f>
         <v>0.2</v>
       </c>
       <c r="E59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="I59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="L59" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
     </row>
@@ -25776,39 +28201,39 @@
         <v>7.0670000000000002</v>
       </c>
       <c r="D60" s="15">
-        <f t="shared" ref="D60:L60" si="23">IF(D$22&lt;&gt;"",D50+D59,"")</f>
+        <f t="shared" ref="D60:L60" si="24">IF(D$22&lt;&gt;"",D50+D59,"")</f>
         <v>7.0670000000000002</v>
       </c>
       <c r="E60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="F60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="G60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="I60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="J60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7.0670000000000002</v>
       </c>
     </row>
@@ -25823,161 +28248,116 @@
     <mergeCell ref="C8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="C49:L49">
-    <cfRule type="cellIs" dxfId="55" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="32" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:F49">
-    <cfRule type="cellIs" dxfId="54" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="77" priority="31" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="53" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="30" operator="greaterThan">
       <formula>$E$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:F49">
-    <cfRule type="cellIs" dxfId="52" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="29" operator="greaterThan">
       <formula>$D$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="51" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="28" operator="greaterThan">
       <formula>$F$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="50" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="27" operator="greaterThan">
       <formula>$G$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="49" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="26" operator="greaterThan">
       <formula>$H$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="48" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="25" operator="greaterThan">
       <formula>$I$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="47" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="24" operator="greaterThan">
       <formula>$J$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="46" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="23" operator="greaterThan">
       <formula>$K$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="45" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="22" operator="greaterThan">
       <formula>$L$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="44" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="21" operator="greaterThan">
       <formula>$C$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:L50">
-    <cfRule type="cellIs" dxfId="43" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThan">
       <formula>$D$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="42" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="19" operator="greaterThan">
       <formula>$E$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="41" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="18" operator="greaterThan">
       <formula>$F$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="40" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="16" operator="greaterThan">
       <formula>$G$46</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="17" operator="greaterThan">
       <formula>$G$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="38" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="15" operator="greaterThan">
       <formula>$H$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="14" operator="greaterThan">
       <formula>$I$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="13" operator="greaterThan">
       <formula>$J$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="greaterThan">
       <formula>$K$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="11" operator="greaterThan">
       <formula>$L$46</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="greaterThan">
+  <conditionalFormatting sqref="C52:L52">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="greaterThan">
       <formula>$C$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="greaterThan">
-      <formula>$D$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="31" priority="8" operator="greaterThan">
-      <formula>$E$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="greaterThan">
-      <formula>$F$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
-      <formula>$G$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
-      <formula>$H$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
-      <formula>$I$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="greaterThan">
-      <formula>$J$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="greaterThan">
-      <formula>$K$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
-      <formula>$L$47</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25988,8 +28368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E878AF-96FE-424D-B802-94EDCA32030C}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26052,48 +28432,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -26311,39 +28691,39 @@
       </c>
       <c r="D24" s="15">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>18.71110232000003</v>
+        <v>18.761102320000028</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" ref="E24:L24" si="3">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>16.392913683000028</v>
+        <v>16.491893682999432</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="3"/>
-        <v>15.05395331571655</v>
+        <v>15.136878165046278</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="3"/>
-        <v>14.723767238139169</v>
+        <v>14.838480690719893</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="3"/>
-        <v>14.407226771938737</v>
+        <v>14.552221895882846</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="3"/>
-        <v>14.508747251838164</v>
+        <v>14.719200338282249</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>14.607996684339339</v>
+        <v>14.881642743182251</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="3"/>
-        <v>14.702710079338168</v>
+        <v>15.038535110582826</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="3"/>
-        <v>14.795152484238169</v>
+        <v>15.189634393082255</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -26356,11 +28736,11 @@
       </c>
       <c r="D25" s="15">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>9.0172571336493021</v>
+        <v>9.0422571336493043</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" ref="E25:L27" si="4">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>7.1088601682676069</v>
+        <v>7.1583227281020116</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="4"/>
@@ -26376,19 +28756,19 @@
       </c>
       <c r="I25" s="15">
         <f t="shared" si="4"/>
-        <v>6.5047270927738641</v>
+        <v>6.5412633845777961</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="4"/>
-        <v>6.8881038289447343</v>
+        <v>6.9598271461039474</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>7.2503712989619817</v>
+        <v>7.3566034979989432</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>7.5937558729898971</v>
+        <v>7.7326946450337939</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -26401,39 +28781,39 @@
       </c>
       <c r="D26" s="15">
         <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v>9.6938451863507265</v>
+        <v>9.718845186350725</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="4"/>
-        <v>9.2840535147324221</v>
+        <v>9.3335709548974197</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="4"/>
-        <v>8.9539533157165501</v>
+        <v>9.0368781650462786</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="4"/>
-        <v>8.6237672381391697</v>
+        <v>8.7384806907198929</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="4"/>
-        <v>8.3072267719387369</v>
+        <v>8.4522218958828468</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="4"/>
-        <v>8.0040201590643001</v>
+        <v>8.1779369537044531</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="4"/>
-        <v>7.7198928553946047</v>
+        <v>7.9218155970783037</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>7.452338780376186</v>
+        <v>7.6819316125838828</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>7.2013966112482724</v>
+        <v>7.4569397480484607</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -26500,39 +28880,39 @@
       </c>
       <c r="D29" s="15">
         <f t="shared" ref="D29:L30" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>9.3555511600000152</v>
+        <v>9.3805511600000138</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="5"/>
-        <v>8.1964568415000141</v>
+        <v>8.2459468414997161</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="5"/>
-        <v>7.5269766578582749</v>
+        <v>7.5684390825231391</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="5"/>
-        <v>7.3618836190695847</v>
+        <v>7.4192403453599463</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="5"/>
-        <v>7.2036133859693683</v>
+        <v>7.2761109479414232</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="5"/>
-        <v>7.2543736259190821</v>
+        <v>7.3596001691411246</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="5"/>
-        <v>7.3039983421696695</v>
+        <v>7.4408213715911256</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="5"/>
-        <v>7.3513550396690839</v>
+        <v>7.519267555291413</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="5"/>
-        <v>7.3975762421190847</v>
+        <v>7.5948171965411273</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -26549,39 +28929,39 @@
       </c>
       <c r="D30" s="15">
         <f t="shared" si="5"/>
-        <v>9.3555511600000152</v>
+        <v>9.3805511600000138</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="5"/>
-        <v>8.1964568415000141</v>
+        <v>8.2459468414997161</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="5"/>
-        <v>7.5269766578582749</v>
+        <v>7.5684390825231391</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="5"/>
-        <v>7.3618836190695847</v>
+        <v>7.4192403453599463</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="5"/>
-        <v>7.2036133859693683</v>
+        <v>7.2761109479414232</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="5"/>
-        <v>7.2543736259190821</v>
+        <v>7.3596001691411246</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="5"/>
-        <v>7.3039983421696695</v>
+        <v>7.4408213715911256</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="5"/>
-        <v>7.3513550396690839</v>
+        <v>7.519267555291413</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="5"/>
-        <v>7.3975762421190847</v>
+        <v>7.5948171965411273</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -26595,39 +28975,39 @@
       </c>
       <c r="D31" s="15">
         <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.951188637</v>
+        <v>0.95220863700059999</v>
       </c>
       <c r="E31" s="15">
         <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.87773305499997312</v>
+        <v>0.88116204509999996</v>
       </c>
       <c r="F31" s="15">
         <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.83590071750057304</v>
+        <v>0.8381717076006</v>
       </c>
       <c r="G31" s="15">
         <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.82557159509940004</v>
+        <v>0.82909363259882696</v>
       </c>
       <c r="H31" s="15">
         <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.81547952010057301</v>
+        <v>0.82002155760060003</v>
       </c>
       <c r="I31" s="15">
         <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.81775056749882702</v>
+        <v>0.82455759509999993</v>
       </c>
       <c r="J31" s="15">
         <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.82228660500117301</v>
+        <v>0.83010763259942699</v>
       </c>
       <c r="K31" s="15">
         <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.82455759509999993</v>
+        <v>0.83590071750057304</v>
       </c>
       <c r="L31" s="15">
         <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.82783664249940003</v>
+        <v>0.84044275499999999</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -26641,39 +29021,39 @@
       </c>
       <c r="D32" s="15">
         <f t="shared" ref="D32:L34" si="6">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.458396965381695</v>
+        <v>0.45893440554729326</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="6"/>
-        <v>0.38063285598410107</v>
+        <v>0.38246925524886044</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="6"/>
-        <v>0.33871463992319345</v>
+        <v>0.33777423327421147</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="6"/>
-        <v>0.34203112889896525</v>
+        <v>0.34083483776178164</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="6"/>
-        <v>0.34527290722613518</v>
+        <v>0.34373661542220413</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="6"/>
-        <v>0.36662326382912958</v>
+        <v>0.36643623847384904</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="6"/>
-        <v>0.38773252998275209</v>
+        <v>0.38822364810500409</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="6"/>
-        <v>0.40661542597208489</v>
+        <v>0.40890885296514889</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="6"/>
-        <v>0.42489520622063093</v>
+        <v>0.42785013930326771</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -26687,39 +29067,39 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" si="6"/>
-        <v>0.49279167161830495</v>
+        <v>0.4932742314533069</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="6"/>
-        <v>0.4971001990158721</v>
+        <v>0.49869278985113941</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="6"/>
-        <v>0.49718607757737959</v>
+        <v>0.50039747432638848</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="6"/>
-        <v>0.48354046620043478</v>
+        <v>0.48825879483704526</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="6"/>
-        <v>0.47020661287443777</v>
+        <v>0.4762849421783959</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="6"/>
-        <v>0.45112730366969739</v>
+        <v>0.45812135662615089</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>0.43455407501842092</v>
+        <v>0.44188398449442284</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0.41794216912791515</v>
+        <v>0.42699186453542415</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="6"/>
-        <v>0.40294143627876911</v>
+        <v>0.41259261569673228</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -26773,45 +29153,45 @@
         <v>135</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="26">
-        <f>IF(C22&lt;&gt;"",1.5,"")</f>
-        <v>1.5</v>
-      </c>
-      <c r="D35" s="26">
-        <f t="shared" ref="D35:L35" si="7">IF(D22&lt;&gt;"",1.5,"")</f>
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="26">
+      <c r="C35" s="45">
+        <f>IF(C22&lt;&gt;"",1.5-IF(C$26&lt;$O$51,$Q$51,IF(C$26&lt;=$O$58,VLOOKUP(C$26,$O$51:$Q$58,3),0)),"")</f>
+        <v>1.45</v>
+      </c>
+      <c r="D35" s="45">
+        <f t="shared" ref="D35:L35" si="7">IF(D22&lt;&gt;"",1.5-IF(D$26&lt;$O$51,$Q$51,IF(D$26&lt;=$O$58,VLOOKUP(D$26,$O$51:$Q$58,3),0)),"")</f>
+        <v>1.45</v>
+      </c>
+      <c r="E35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="F35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="F35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="G35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="G35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="H35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="H35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="I35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="J35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="J35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="K35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="K35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="L35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="L35" s="45">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -26821,43 +29201,43 @@
       <c r="B36" s="1"/>
       <c r="C36" s="15">
         <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>10.25</v>
+        <v>10.275</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" ref="D36:L36" si="8">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>10.25</v>
+        <v>10.275</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="8"/>
-        <v>10.25</v>
+        <v>10.285</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -26867,43 +29247,43 @@
       <c r="B37" s="25"/>
       <c r="C37" s="15">
         <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>2.75</v>
+        <v>2.7750000000000004</v>
       </c>
       <c r="D37" s="15">
         <f t="shared" ref="D37:L37" si="9">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>2.75</v>
+        <v>2.7750000000000004</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="9"/>
-        <v>2.75</v>
+        <v>2.7850000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -27046,43 +29426,43 @@
       </c>
       <c r="C45" s="15">
         <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>13.217257133649303</v>
+        <v>13.242257133649304</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" ref="D45:L45" si="11">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>11.308860168267607</v>
+        <v>11.358322728102012</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="11"/>
-        <v>9.4782273122835061</v>
+        <v>9.5608534728531502</v>
       </c>
       <c r="F45" s="15">
         <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
-        <v>8.5112853600768066</v>
+        <v>8.5472257667257878</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="11"/>
-        <v>8.5079688711010348</v>
+        <v>8.5441651622382189</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="11"/>
-        <v>8.5047270927738641</v>
+        <v>8.5412633845777961</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="11"/>
-        <v>8.8881038289447343</v>
+        <v>8.9598271461039474</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="11"/>
-        <v>9.2503712989619817</v>
+        <v>9.3566034979989432</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="11"/>
-        <v>9.5937558729898971</v>
+        <v>9.7326946450337939</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="11"/>
-        <v>9.918860666769266</v>
+        <v>10.089844505730527</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -27091,43 +29471,43 @@
       </c>
       <c r="C46" s="15">
         <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
-        <v>17.160845186350727</v>
+        <v>17.185845186350726</v>
       </c>
       <c r="D46" s="15">
         <f t="shared" ref="D46:L46" si="12">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>16.751053514732423</v>
+        <v>16.80057095489742</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="12"/>
-        <v>16.336953315716549</v>
+        <v>16.419878165046278</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="12"/>
-        <v>16.006767238139169</v>
+        <v>16.121480690719892</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="12"/>
-        <v>15.690226771938736</v>
+        <v>15.835221895882846</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="12"/>
-        <v>15.387020159064299</v>
+        <v>15.560936953704452</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="12"/>
-        <v>15.102892855394604</v>
+        <v>15.304815597078303</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="12"/>
-        <v>14.835338780376185</v>
+        <v>15.064931612583882</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="12"/>
-        <v>14.584396611248271</v>
+        <v>14.83993974804846</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="12"/>
-        <v>14.348455174969503</v>
+        <v>14.629347132351729</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -27136,43 +29516,43 @@
       </c>
       <c r="C47" s="15">
         <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="D47" s="15">
         <f t="shared" ref="D47:L47" si="13">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="G47" s="15">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="H47" s="15">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="K47" s="15">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="L47" s="15">
         <f t="shared" si="13"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -27205,15 +29585,15 @@
       </c>
       <c r="E49" s="45">
         <f t="shared" si="14"/>
-        <v>3.3782273122835065</v>
+        <v>3.4608534728531506</v>
       </c>
       <c r="F49" s="45">
         <f t="shared" si="14"/>
-        <v>2.4112853600768069</v>
+        <v>2.4472257667257882</v>
       </c>
       <c r="G49" s="45">
         <f t="shared" si="14"/>
-        <v>2.4079688711010352</v>
+        <v>2.4441651622382192</v>
       </c>
       <c r="H49" s="45">
         <v>2</v>
@@ -27360,35 +29740,45 @@
       <c r="A52" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="D52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="E52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="F52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="G52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="H52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="I52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="J52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="K52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="L52" s="26">
-        <v>1.5</v>
+      <c r="C52" s="45">
+        <f>IF(C22&lt;&gt;"",C35,"")</f>
+        <v>1.45</v>
+      </c>
+      <c r="D52" s="45">
+        <f t="shared" ref="D52:L52" si="19">IF(D22&lt;&gt;"",D35,"")</f>
+        <v>1.45</v>
+      </c>
+      <c r="E52" s="45">
+        <f t="shared" si="19"/>
+        <v>1.43</v>
+      </c>
+      <c r="F52" s="45">
+        <f t="shared" si="19"/>
+        <v>1.43</v>
+      </c>
+      <c r="G52" s="45">
+        <f t="shared" si="19"/>
+        <v>1.43</v>
+      </c>
+      <c r="H52" s="45">
+        <f t="shared" si="19"/>
+        <v>1.43</v>
+      </c>
+      <c r="I52" s="45">
+        <f t="shared" si="19"/>
+        <v>1.43</v>
+      </c>
+      <c r="J52" s="45">
+        <f t="shared" si="19"/>
+        <v>1.43</v>
+      </c>
+      <c r="K52" s="45">
+        <f t="shared" si="19"/>
+        <v>1.43</v>
+      </c>
+      <c r="L52" s="45">
+        <f t="shared" si="19"/>
+        <v>1.43</v>
       </c>
       <c r="N52" s="41">
         <v>1030</v>
@@ -27444,43 +29834,43 @@
       </c>
       <c r="C54" s="15">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>9.0172571336493021</v>
+        <v>9.0422571336493043</v>
       </c>
       <c r="D54" s="15">
-        <f t="shared" ref="D54:L54" si="19">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>7.1088601682676069</v>
+        <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
+        <v>7.1583227281020116</v>
       </c>
       <c r="E54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.1</v>
       </c>
       <c r="F54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.1</v>
       </c>
       <c r="G54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.1</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="19"/>
-        <v>6.5047270927738641</v>
+        <f t="shared" si="20"/>
+        <v>6.5412633845777961</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="19"/>
-        <v>6.8881038289447343</v>
+        <f t="shared" si="20"/>
+        <v>6.9598271461039474</v>
       </c>
       <c r="J54" s="15">
-        <f t="shared" si="19"/>
-        <v>7.2503712989619817</v>
+        <f t="shared" si="20"/>
+        <v>7.3566034979989432</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" si="19"/>
-        <v>7.5937558729898971</v>
+        <f t="shared" si="20"/>
+        <v>7.7326946450337939</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" si="19"/>
-        <v>7.918860666769266</v>
+        <f t="shared" si="20"/>
+        <v>8.089844505730527</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
@@ -27505,43 +29895,43 @@
       </c>
       <c r="C55" s="15">
         <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
-        <v>9.6938451863507265</v>
+        <v>9.718845186350725</v>
       </c>
       <c r="D55" s="15">
-        <f t="shared" ref="D55:L55" si="20">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>9.2840535147324221</v>
+        <f t="shared" ref="D55:L55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <v>9.3335709548974197</v>
       </c>
       <c r="E55" s="15">
-        <f t="shared" si="20"/>
-        <v>8.9539533157165501</v>
+        <f t="shared" si="21"/>
+        <v>9.0368781650462786</v>
       </c>
       <c r="F55" s="15">
-        <f t="shared" si="20"/>
-        <v>8.6237672381391697</v>
+        <f t="shared" si="21"/>
+        <v>8.7384806907198929</v>
       </c>
       <c r="G55" s="15">
-        <f t="shared" si="20"/>
-        <v>8.3072267719387369</v>
+        <f t="shared" si="21"/>
+        <v>8.4522218958828468</v>
       </c>
       <c r="H55" s="15">
-        <f t="shared" si="20"/>
-        <v>8.0040201590643001</v>
+        <f t="shared" si="21"/>
+        <v>8.1779369537044531</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="20"/>
-        <v>7.7198928553946047</v>
+        <f t="shared" si="21"/>
+        <v>7.9218155970783037</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" si="20"/>
-        <v>7.452338780376186</v>
+        <f t="shared" si="21"/>
+        <v>7.6819316125838828</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="20"/>
-        <v>7.2013966112482724</v>
+        <f t="shared" si="21"/>
+        <v>7.4569397480484607</v>
       </c>
       <c r="L55" s="15">
-        <f t="shared" si="20"/>
-        <v>6.9654551749695042</v>
+        <f t="shared" si="21"/>
+        <v>7.2463471323517297</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
@@ -27569,39 +29959,39 @@
         <v>0</v>
       </c>
       <c r="D56" s="15">
-        <f t="shared" ref="D56:L56" si="21">IF(D$22&lt;&gt;"",D47-D52,"")</f>
+        <f t="shared" ref="D56:L56" si="22">IF(D$22&lt;&gt;"",D47-D52,"")</f>
         <v>0</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N56" s="41">
@@ -27628,43 +30018,43 @@
       <c r="B57" s="1"/>
       <c r="C57" s="15">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>18.71110232000003</v>
+        <v>18.761102320000028</v>
       </c>
       <c r="D57" s="15">
-        <f t="shared" ref="D57:L57" si="22">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>16.392913683000028</v>
+        <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+        <v>16.491893682999432</v>
       </c>
       <c r="E57" s="15">
-        <f t="shared" si="22"/>
-        <v>15.05395331571655</v>
+        <f t="shared" si="23"/>
+        <v>15.136878165046278</v>
       </c>
       <c r="F57" s="15">
-        <f t="shared" si="22"/>
-        <v>14.723767238139169</v>
+        <f t="shared" si="23"/>
+        <v>14.838480690719893</v>
       </c>
       <c r="G57" s="15">
-        <f t="shared" si="22"/>
-        <v>14.407226771938737</v>
+        <f t="shared" si="23"/>
+        <v>14.552221895882846</v>
       </c>
       <c r="H57" s="15">
-        <f t="shared" si="22"/>
-        <v>14.508747251838164</v>
+        <f t="shared" si="23"/>
+        <v>14.719200338282249</v>
       </c>
       <c r="I57" s="15">
-        <f t="shared" si="22"/>
-        <v>14.607996684339339</v>
+        <f t="shared" si="23"/>
+        <v>14.881642743182251</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" si="22"/>
-        <v>14.702710079338168</v>
+        <f t="shared" si="23"/>
+        <v>15.038535110582826</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="22"/>
-        <v>14.795152484238169</v>
+        <f t="shared" si="23"/>
+        <v>15.189634393082255</v>
       </c>
       <c r="L57" s="15">
-        <f t="shared" si="22"/>
-        <v>14.88431584173877</v>
+        <f t="shared" si="23"/>
+        <v>15.336191638082257</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
@@ -27708,39 +30098,39 @@
         <v>0.2</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" ref="D59:L59" si="23">IF(D$22&lt;&gt;"",0.2,"")</f>
+        <f t="shared" ref="D59:L59" si="24">IF(D$22&lt;&gt;"",0.2,"")</f>
         <v>0.2</v>
       </c>
       <c r="E59" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="I59" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
       <c r="L59" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.2</v>
       </c>
     </row>
@@ -27753,39 +30143,39 @@
         <v>7.0670000000000002</v>
       </c>
       <c r="D60" s="15">
-        <f t="shared" ref="D60:L60" si="24">IF(D$22&lt;&gt;"",D50+D59,"")</f>
+        <f t="shared" ref="D60:L60" si="25">IF(D$22&lt;&gt;"",D50+D59,"")</f>
         <v>7.0670000000000002</v>
       </c>
       <c r="E60" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="F60" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="G60" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="I60" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="J60" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="K60" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="L60" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.9829999999999997</v>
       </c>
     </row>
@@ -27800,117 +30190,72 @@
     <mergeCell ref="C8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="H49:L49">
-    <cfRule type="cellIs" dxfId="23" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="33" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="greaterThan">
       <formula>$H$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="greaterThan">
       <formula>$I$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="25" operator="greaterThan">
       <formula>$J$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="24" operator="greaterThan">
       <formula>$K$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="greaterThan">
       <formula>$L$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:L50">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="21" operator="greaterThan">
       <formula>$D$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="16" operator="greaterThan">
       <formula>$H$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="15" operator="greaterThan">
       <formula>$I$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="greaterThan">
       <formula>$J$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="greaterThan">
       <formula>$K$46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="greaterThan">
       <formula>$L$46</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="greaterThan">
+  <conditionalFormatting sqref="C52:L52">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="greaterThan">
       <formula>$C$47</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="greaterThan">
-      <formula>$D$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
-      <formula>$E$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="greaterThan">
-      <formula>$F$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
-      <formula>$G$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
-      <formula>$H$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
-      <formula>$I$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
-      <formula>$J$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>$K$47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>$L$47</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C49:G49">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27922,8 +30267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525616F-FCF2-4465-9405-C17989B2BC95}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27986,48 +30331,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="36"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="36"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="36"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="36"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -28236,39 +30581,39 @@
       </c>
       <c r="D24" s="15">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>20.111102320000029</v>
+        <v>20.161102320000026</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" ref="E24:L24" si="1">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>19.152398230000031</v>
+        <v>19.251005839999458</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="1"/>
-        <v>18.305145995499462</v>
+        <v>18.471346086000029</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="1"/>
-        <v>17.483102955998888</v>
+        <v>17.714356007500029</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="1"/>
-        <v>16.687176630999463</v>
+        <v>16.981009124001204</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="1"/>
-        <v>15.917071501000038</v>
+        <v>16.271009916001205</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="1"/>
-        <v>15.170396558498869</v>
+        <v>15.582619908400638</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="1"/>
-        <v>14.446953803498872</v>
+        <v>14.917660088301236</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="1"/>
-        <v>13.997460283398901</v>
+        <v>14.273295408301813</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -28281,39 +30626,39 @@
       </c>
       <c r="D25" s="15">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>10.417257133649304</v>
+        <v>10.442257133649303</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" ref="E25:L25" si="2">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>9.8535689060404223</v>
+        <v>9.9028919646178117</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="2"/>
-        <v>9.3074782482881169</v>
+        <v>9.3906334218714242</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="2"/>
-        <v>8.7800101818489402</v>
+        <v>8.8957190323188442</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="2"/>
-        <v>8.2715387967094642</v>
+        <v>8.4185431968321076</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="2"/>
-        <v>7.7818164481176071</v>
+        <v>7.9588448561782004</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="2"/>
-        <v>7.3095679287866249</v>
+        <v>7.5156542708912957</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="2"/>
-        <v>6.8546165233148004</v>
+        <v>7.0897454828828073</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="2"/>
-        <v>6.417216518429254</v>
+        <v>6.6796323116639114</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -28326,39 +30671,39 @@
       </c>
       <c r="D26" s="15">
         <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v>9.6938451863507265</v>
+        <v>9.718845186350725</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" ref="E26:L27" si="3">IF(E23&lt;&gt;"",D55,"")</f>
-        <v>9.2988293239596107</v>
+        <v>9.3481138753816442</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="3"/>
-        <v>8.9976677472113451</v>
+        <v>9.0807126641286047</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="3"/>
-        <v>8.7030927741499475</v>
+        <v>8.8186369751811853</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="3"/>
-        <v>8.4156378342899991</v>
+        <v>8.5624659271690966</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="3"/>
-        <v>8.1352550528824317</v>
+        <v>8.3121650598230055</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="3"/>
-        <v>7.8608286297122429</v>
+        <v>8.066965637509341</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="3"/>
-        <v>7.5923372801840703</v>
+        <v>7.8279146054184299</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="3"/>
-        <v>7.5802437649696461</v>
+        <v>7.5936630966379006</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -28425,39 +30770,39 @@
       </c>
       <c r="D29" s="15">
         <f t="shared" ref="D29:L30" si="4">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>10.055551160000014</v>
+        <v>10.080551160000013</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="4"/>
-        <v>9.5761991150000156</v>
+        <v>9.6255029199997288</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="4"/>
-        <v>9.152572997749731</v>
+        <v>9.2356730430000145</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="4"/>
-        <v>8.7415514779994439</v>
+        <v>8.8571780037500147</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="4"/>
-        <v>8.3435883154997317</v>
+        <v>8.4905045620006021</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="4"/>
-        <v>7.9585357505000189</v>
+        <v>8.1355049580006025</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="4"/>
-        <v>7.5851982792494343</v>
+        <v>7.7913099542003188</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>7.2234769017494358</v>
+        <v>7.4588300441506181</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="4"/>
-        <v>6.9987301416994505</v>
+        <v>7.1366477041509064</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -28474,39 +30819,39 @@
       </c>
       <c r="D30" s="15">
         <f t="shared" si="4"/>
-        <v>10.055551160000014</v>
+        <v>10.080551160000013</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="4"/>
-        <v>9.5761991150000156</v>
+        <v>9.6255029199997288</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="4"/>
-        <v>9.152572997749731</v>
+        <v>9.2356730430000145</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="4"/>
-        <v>8.7415514779994439</v>
+        <v>8.8571780037500147</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="4"/>
-        <v>8.3435883154997317</v>
+        <v>8.4905045620006021</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="4"/>
-        <v>7.9585357505000189</v>
+        <v>8.1355049580006025</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="4"/>
-        <v>7.5851982792494343</v>
+        <v>7.7913099542003188</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>7.2234769017494358</v>
+        <v>7.4588300441506181</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="4"/>
-        <v>6.9987301416994505</v>
+        <v>7.1366477041509064</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -28520,39 +30865,39 @@
       </c>
       <c r="D31" s="15">
         <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.99170409000000004</v>
+        <v>0.99309648000057305</v>
       </c>
       <c r="E31" s="15">
         <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.96425223450057307</v>
+        <v>0.96665975399942705</v>
       </c>
       <c r="F31" s="15">
         <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.939043039500573</v>
+        <v>0.94399007849999994</v>
       </c>
       <c r="G31" s="15">
         <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.91292632499942705</v>
+        <v>0.92034688349882698</v>
       </c>
       <c r="H31" s="15">
         <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.88710512999942703</v>
+        <v>0.89699920799999999</v>
       </c>
       <c r="I31" s="15">
         <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.86367494250117305</v>
+        <v>0.87539000760057295</v>
       </c>
       <c r="J31" s="15">
         <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84044275499999999</v>
+        <v>0.85195982009939997</v>
       </c>
       <c r="K31" s="15">
         <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.816493520099973</v>
+        <v>0.83136467999942698</v>
       </c>
       <c r="L31" s="15">
         <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.80186540759997305</v>
+        <v>0.81094348260060001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -28566,39 +30911,39 @@
       </c>
       <c r="D32" s="15">
         <f t="shared" ref="D32:L32" si="5">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.51368822760888211</v>
+        <v>0.51436516903149088</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="5"/>
-        <v>0.49609065775230743</v>
+        <v>0.49725854274638909</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="5"/>
-        <v>0.47746806643917539</v>
+        <v>0.47991438955257931</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="5"/>
-        <v>0.45847138513947755</v>
+        <v>0.46217583548673835</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="5"/>
-        <v>0.43972234859185805</v>
+        <v>0.4446983406539069</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="5"/>
-        <v>0.42224851933098323</v>
+        <v>0.42819058528690651</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="5"/>
-        <v>0.40495140547182634</v>
+        <v>0.41090878800848757</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="5"/>
-        <v>0.38740000488554738</v>
+        <v>0.39511317121889533</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="5"/>
-        <v>0.36761982781336749</v>
+        <v>0.37950621313152666</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -28612,39 +30957,39 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" ref="D33:L33" si="6">IF(D$22&lt;&gt;"",D$31*D26/D$24,"")</f>
-        <v>0.47801586239111798</v>
+        <v>0.47873131096908228</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="6"/>
-        <v>0.46816157674826575</v>
+        <v>0.46940121125303785</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="6"/>
-        <v>0.46157497306139766</v>
+        <v>0.46407568894742063</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="6"/>
-        <v>0.45445493985994956</v>
+        <v>0.45817104801208858</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="6"/>
-        <v>0.44738278140756899</v>
+        <v>0.45230086734609315</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="6"/>
-        <v>0.44142642317018987</v>
+        <v>0.44719942231366644</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>0.43549134952817353</v>
+        <v>0.44105103209091234</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0.42909351521442557</v>
+        <v>0.4362515087805317</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="6"/>
-        <v>0.4342455797866055</v>
+        <v>0.43143726946907329</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -28698,44 +31043,45 @@
         <v>135</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="D35" s="26">
-        <f>C35</f>
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="26">
-        <f t="shared" ref="E35:L35" si="8">D35</f>
-        <v>1.5</v>
-      </c>
-      <c r="F35" s="26">
+      <c r="C35" s="45">
+        <f>IF(C22&lt;&gt;"",1.5-IF(C$26&lt;$O$51,$Q$51,IF(C$26&lt;=$O$58,VLOOKUP(C$26,$O$51:$Q$58,3),0)),"")</f>
+        <v>1.45</v>
+      </c>
+      <c r="D35" s="45">
+        <f t="shared" ref="D35:L35" si="8">IF(D22&lt;&gt;"",1.5-IF(D$26&lt;$O$51,$Q$51,IF(D$26&lt;=$O$58,VLOOKUP(D$26,$O$51:$Q$58,3),0)),"")</f>
+        <v>1.45</v>
+      </c>
+      <c r="E35" s="45">
         <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="G35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="F35" s="45">
         <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="H35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="G35" s="45">
         <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="H35" s="45">
         <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="J35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="I35" s="45">
         <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="K35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="J35" s="45">
         <f t="shared" si="8"/>
-        <v>1.5</v>
-      </c>
-      <c r="L35" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="K35" s="45">
         <f t="shared" si="8"/>
-        <v>1.5</v>
+        <v>1.43</v>
+      </c>
+      <c r="L35" s="45">
+        <f t="shared" si="8"/>
+        <v>1.43</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -28745,43 +31091,43 @@
       <c r="B36" s="1"/>
       <c r="C36" s="15">
         <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>11.65</v>
+        <v>11.675000000000001</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" ref="D36:L36" si="9">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>11.65</v>
+        <v>11.675000000000001</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="9"/>
-        <v>11.65</v>
+        <v>11.685</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="9"/>
-        <v>11.65</v>
+        <v>11.685</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="9"/>
-        <v>11.65</v>
+        <v>11.685</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="9"/>
-        <v>11.65</v>
+        <v>11.685</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="9"/>
-        <v>11.65</v>
+        <v>11.685</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="9"/>
-        <v>11.65</v>
+        <v>11.685</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="9"/>
-        <v>11.65</v>
+        <v>11.685</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="9"/>
-        <v>11.65</v>
+        <v>11.685</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -28791,43 +31137,43 @@
       <c r="B37" s="25"/>
       <c r="C37" s="15">
         <f>IF(C21&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>4.1500000000000004</v>
+        <v>4.1750000000000007</v>
       </c>
       <c r="D37" s="15">
         <f t="shared" ref="D37:L37" si="10">IF(D21&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>4.1500000000000004</v>
+        <v>4.1750000000000007</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1500000000000004</v>
+        <v>4.1850000000000005</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1500000000000004</v>
+        <v>4.1850000000000005</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1500000000000004</v>
+        <v>4.1850000000000005</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1500000000000004</v>
+        <v>4.1850000000000005</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1500000000000004</v>
+        <v>4.1850000000000005</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1500000000000004</v>
+        <v>4.1850000000000005</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1500000000000004</v>
+        <v>4.1850000000000005</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1500000000000004</v>
+        <v>4.1850000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -28970,43 +31316,43 @@
       </c>
       <c r="C45" s="15">
         <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>14.617257133649304</v>
+        <v>14.642257133649304</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" ref="D45:L45" si="12">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>14.053568906040422</v>
+        <v>14.102891964617813</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="12"/>
-        <v>13.507478248288116</v>
+        <v>13.590633421871424</v>
       </c>
       <c r="F45" s="15">
         <f t="shared" si="12"/>
-        <v>12.980010181848941</v>
+        <v>13.095719032318845</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="12"/>
-        <v>12.471538796709464</v>
+        <v>12.618543196832107</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="12"/>
-        <v>11.981816448117607</v>
+        <v>12.158844856178201</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="12"/>
-        <v>11.509567928786625</v>
+        <v>11.715654270891296</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="12"/>
-        <v>11.054616523314801</v>
+        <v>11.289745482882807</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="12"/>
-        <v>10.617216518429254</v>
+        <v>10.879632311663912</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="12"/>
-        <v>10.199596690615888</v>
+        <v>10.485126098532385</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -29015,43 +31361,43 @@
       </c>
       <c r="C46" s="15">
         <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
-        <v>17.160845186350727</v>
+        <v>17.185845186350726</v>
       </c>
       <c r="D46" s="15">
         <f t="shared" ref="D46:L46" si="13">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>16.765829323959611</v>
+        <v>16.815113875381645</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="13"/>
-        <v>16.380667747211344</v>
+        <v>16.463712664128604</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="13"/>
-        <v>16.086092774149947</v>
+        <v>16.201636975181184</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="13"/>
-        <v>15.798637834289998</v>
+        <v>15.945465927169096</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="13"/>
-        <v>15.518255052882431</v>
+        <v>15.695165059823005</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="13"/>
-        <v>15.243828629712242</v>
+        <v>15.44996563750934</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="13"/>
-        <v>14.975337280184069</v>
+        <v>15.210914605418429</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="13"/>
-        <v>14.713243764969645</v>
+        <v>14.9766630966379</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="13"/>
-        <v>14.695998185183042</v>
+        <v>14.747225827168828</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -29060,43 +31406,43 @@
       </c>
       <c r="C47" s="15">
         <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="D47" s="15">
         <f t="shared" ref="D47:L47" si="14">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="G47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="H47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="K47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="L47" s="15">
         <f t="shared" si="14"/>
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -29131,7 +31477,7 @@
         <v>4.2</v>
       </c>
       <c r="F49" s="26">
-        <f t="shared" ref="F49:L49" si="15">E49</f>
+        <f t="shared" ref="F49:K49" si="15">E49</f>
         <v>4.2</v>
       </c>
       <c r="G49" s="26">
@@ -29155,8 +31501,7 @@
         <v>4.2</v>
       </c>
       <c r="L49" s="26">
-        <f t="shared" si="15"/>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>144</v>
@@ -29167,11 +31512,11 @@
         <v>153</v>
       </c>
       <c r="C50" s="45">
-        <f>7.5-IF(C26&lt;$O$51,$P$51,IF(C26&lt;=$O$58,VLOOKUP(C26,$O$51:$P$58,2),0))</f>
+        <f>7.5-IF(C$26&lt;$O$51,$P$51,IF(C$26&lt;=$O$58,VLOOKUP(C$26,$O$51:$P$58,2),0))</f>
         <v>6.867</v>
       </c>
       <c r="D50" s="45">
-        <f t="shared" ref="D50:L50" si="16">7.5-IF(D26&lt;$O$51,$P$51,IF(D26&lt;=$O$58,VLOOKUP(D26,$O$51:$P$58,2),0))</f>
+        <f t="shared" ref="D50:L50" si="16">7.5-IF(D$26&lt;$O$51,$P$51,IF(D$26&lt;=$O$58,VLOOKUP(D$26,$O$51:$P$58,2),0))</f>
         <v>6.867</v>
       </c>
       <c r="E50" s="45">
@@ -29200,7 +31545,7 @@
       </c>
       <c r="K50" s="45">
         <f t="shared" si="16"/>
-        <v>6.5330000000000004</v>
+        <v>6.7829999999999995</v>
       </c>
       <c r="L50" s="45">
         <f t="shared" si="16"/>
@@ -29287,44 +31632,45 @@
       <c r="A52" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="D52" s="26">
-        <f>C52</f>
-        <v>1.5</v>
-      </c>
-      <c r="E52" s="26">
-        <f>D52</f>
-        <v>1.5</v>
-      </c>
-      <c r="F52" s="26">
-        <f t="shared" ref="F52:L52" si="19">E52</f>
-        <v>1.5</v>
-      </c>
-      <c r="G52" s="26">
+      <c r="C52" s="45">
+        <f>C35</f>
+        <v>1.45</v>
+      </c>
+      <c r="D52" s="45">
+        <f t="shared" ref="D52:L52" si="19">D35</f>
+        <v>1.45</v>
+      </c>
+      <c r="E52" s="45">
         <f t="shared" si="19"/>
-        <v>1.5</v>
-      </c>
-      <c r="H52" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="F52" s="45">
         <f t="shared" si="19"/>
-        <v>1.5</v>
-      </c>
-      <c r="I52" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="G52" s="45">
         <f t="shared" si="19"/>
-        <v>1.5</v>
-      </c>
-      <c r="J52" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="H52" s="45">
         <f t="shared" si="19"/>
-        <v>1.5</v>
-      </c>
-      <c r="K52" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="I52" s="45">
         <f t="shared" si="19"/>
-        <v>1.5</v>
-      </c>
-      <c r="L52" s="26">
+        <v>1.43</v>
+      </c>
+      <c r="J52" s="45">
         <f t="shared" si="19"/>
-        <v>1.5</v>
+        <v>1.43</v>
+      </c>
+      <c r="K52" s="45">
+        <f t="shared" si="19"/>
+        <v>1.43</v>
+      </c>
+      <c r="L52" s="45">
+        <f t="shared" si="19"/>
+        <v>1.43</v>
       </c>
       <c r="N52" s="41">
         <v>1030</v>
@@ -29380,43 +31726,43 @@
       </c>
       <c r="C54" s="15">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>10.417257133649304</v>
+        <v>10.442257133649303</v>
       </c>
       <c r="D54" s="15">
         <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>9.8535689060404223</v>
+        <v>9.9028919646178117</v>
       </c>
       <c r="E54" s="15">
         <f t="shared" si="20"/>
-        <v>9.3074782482881169</v>
+        <v>9.3906334218714242</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="20"/>
-        <v>8.7800101818489402</v>
+        <v>8.8957190323188442</v>
       </c>
       <c r="G54" s="15">
         <f t="shared" si="20"/>
-        <v>8.2715387967094642</v>
+        <v>8.4185431968321076</v>
       </c>
       <c r="H54" s="15">
         <f t="shared" si="20"/>
-        <v>7.7818164481176071</v>
+        <v>7.9588448561782004</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="20"/>
-        <v>7.3095679287866249</v>
+        <v>7.5156542708912957</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="20"/>
-        <v>6.8546165233148004</v>
+        <v>7.0897454828828073</v>
       </c>
       <c r="K54" s="15">
         <f t="shared" si="20"/>
-        <v>6.417216518429254</v>
+        <v>6.6796323116639114</v>
       </c>
       <c r="L54" s="15">
         <f t="shared" si="20"/>
-        <v>5.9995966906158875</v>
+        <v>6.3851260985323854</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
@@ -29441,43 +31787,43 @@
       </c>
       <c r="C55" s="15">
         <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
-        <v>9.6938451863507265</v>
+        <v>9.718845186350725</v>
       </c>
       <c r="D55" s="15">
         <f t="shared" ref="D55:K55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>9.2988293239596107</v>
+        <v>9.3481138753816442</v>
       </c>
       <c r="E55" s="15">
         <f t="shared" si="21"/>
-        <v>8.9976677472113451</v>
+        <v>9.0807126641286047</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="21"/>
-        <v>8.7030927741499475</v>
+        <v>8.8186369751811853</v>
       </c>
       <c r="G55" s="15">
         <f t="shared" si="21"/>
-        <v>8.4156378342899991</v>
+        <v>8.5624659271690966</v>
       </c>
       <c r="H55" s="15">
         <f t="shared" si="21"/>
-        <v>8.1352550528824317</v>
+        <v>8.3121650598230055</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="21"/>
-        <v>7.8608286297122429</v>
+        <v>8.066965637509341</v>
       </c>
       <c r="J55" s="15">
         <f t="shared" si="21"/>
-        <v>7.5923372801840703</v>
+        <v>7.8279146054184299</v>
       </c>
       <c r="K55" s="15">
         <f t="shared" si="21"/>
-        <v>7.5802437649696461</v>
+        <v>7.5936630966379006</v>
       </c>
       <c r="L55" s="15">
         <f>IF(L$22&lt;&gt;"",L46-L50-L51,"")</f>
-        <v>7.5629981851830426</v>
+        <v>7.6142258271688288</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
@@ -29564,43 +31910,43 @@
       <c r="B57" s="1"/>
       <c r="C57" s="15">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>20.111102320000029</v>
+        <v>20.161102320000026</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>19.152398230000031</v>
+        <v>19.251005839999458</v>
       </c>
       <c r="E57" s="15">
         <f t="shared" si="23"/>
-        <v>18.305145995499462</v>
+        <v>18.471346086000029</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="23"/>
-        <v>17.483102955998888</v>
+        <v>17.714356007500029</v>
       </c>
       <c r="G57" s="15">
         <f t="shared" si="23"/>
-        <v>16.687176630999463</v>
+        <v>16.981009124001204</v>
       </c>
       <c r="H57" s="15">
         <f t="shared" si="23"/>
-        <v>15.917071501000038</v>
+        <v>16.271009916001205</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="23"/>
-        <v>15.170396558498869</v>
+        <v>15.582619908400638</v>
       </c>
       <c r="J57" s="15">
         <f t="shared" si="23"/>
-        <v>14.446953803498872</v>
+        <v>14.917660088301236</v>
       </c>
       <c r="K57" s="15">
         <f t="shared" si="23"/>
-        <v>13.997460283398901</v>
+        <v>14.273295408301813</v>
       </c>
       <c r="L57" s="15">
         <f t="shared" si="23"/>
-        <v>13.562594875798929</v>
+        <v>13.999351925701214</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
@@ -29718,7 +32064,7 @@
       </c>
       <c r="K60" s="15">
         <f t="shared" si="25"/>
-        <v>6.7330000000000005</v>
+        <v>6.9829999999999997</v>
       </c>
       <c r="L60" s="15">
         <f t="shared" si="25"/>
@@ -29735,8 +32081,8 @@
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
   </mergeCells>
-  <conditionalFormatting sqref="C49:L49 D52:L52">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="C49:L49">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="greaterThan">
       <formula>$C$45</formula>
     </cfRule>
   </conditionalFormatting>
@@ -60517,4 +62863,1938 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538A42B8-4AEA-4873-A5DD-CAD33EDD3E21}">
+  <dimension ref="A1:R62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.81640625" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="5" max="5" width="7.26953125" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" customWidth="1"/>
+    <col min="7" max="7" width="7.08984375" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" customWidth="1"/>
+    <col min="18" max="18" width="21.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
+      <c r="C9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="12">
+        <v>5.73</v>
+      </c>
+      <c r="C18" s="12">
+        <v>6</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="12">
+        <v>11</v>
+      </c>
+      <c r="C19" s="12">
+        <v>10.1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="12">
+        <v>11</v>
+      </c>
+      <c r="D22" s="12">
+        <f>C22</f>
+        <v>11</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:L22" si="0">D22</f>
+        <v>11</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="12">
+        <f>IF(C$22&lt;&gt;"",0.8,"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" ref="D23:L23" si="1">IF(D$22&lt;&gt;"",0.8,"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="15">
+        <f>IF(C$22&lt;&gt;"",SUM(C25:C27),"")</f>
+        <v>21.1</v>
+      </c>
+      <c r="D24" s="15">
+        <f>IF(D$22&lt;&gt;"",C57,"")</f>
+        <v>18.71110232000003</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" ref="E24:L24" si="2">IF(E$22&lt;&gt;"",D57,"")</f>
+        <v>16.392913683000028</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="2"/>
+        <v>15.05395331571655</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="2"/>
+        <v>14.723767238139169</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="2"/>
+        <v>14.407226771938737</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="2"/>
+        <v>14.508747251838164</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="2"/>
+        <v>14.607996684339339</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="2"/>
+        <v>14.702710079338168</v>
+      </c>
+      <c r="L24" s="15">
+        <f t="shared" si="2"/>
+        <v>14.795152484238169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="15">
+        <f>IF(C$22&lt;&gt;"",$B$19,"")</f>
+        <v>11</v>
+      </c>
+      <c r="D25" s="15">
+        <f>IF(D22&lt;&gt;"",C54,"")</f>
+        <v>9.0172571336493021</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" ref="E25:L27" si="3">IF(E22&lt;&gt;"",D54,"")</f>
+        <v>7.1088601682676069</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="3"/>
+        <v>6.1</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="3"/>
+        <v>6.1</v>
+      </c>
+      <c r="H25" s="15">
+        <f t="shared" si="3"/>
+        <v>6.1</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="3"/>
+        <v>6.5047270927738641</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="3"/>
+        <v>6.8881038289447343</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="3"/>
+        <v>7.2503712989619817</v>
+      </c>
+      <c r="L25" s="15">
+        <f t="shared" si="3"/>
+        <v>7.5937558729898971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="15">
+        <f>IF(C$22&lt;&gt;"",$C$19,"")</f>
+        <v>10.1</v>
+      </c>
+      <c r="D26" s="15">
+        <f>IF(D23&lt;&gt;"",C55,"")</f>
+        <v>9.6938451863507265</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="3"/>
+        <v>9.2840535147324221</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="3"/>
+        <v>8.9539533157165501</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="3"/>
+        <v>8.6237672381391697</v>
+      </c>
+      <c r="H26" s="15">
+        <f t="shared" si="3"/>
+        <v>8.3072267719387369</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="3"/>
+        <v>8.0040201590643001</v>
+      </c>
+      <c r="J26" s="15">
+        <f t="shared" si="3"/>
+        <v>7.7198928553946047</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="3"/>
+        <v>7.452338780376186</v>
+      </c>
+      <c r="L26" s="15">
+        <f t="shared" si="3"/>
+        <v>7.2013966112482724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="15">
+        <f>IF(C22&lt;&gt;"",0,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <f>IF(D24&lt;&gt;"",C56,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="15">
+        <f>C25</f>
+        <v>11</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:L30" si="4">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
+        <v>9.3555511600000152</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="4"/>
+        <v>8.1964568415000141</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="4"/>
+        <v>7.5269766578582749</v>
+      </c>
+      <c r="G29" s="15">
+        <f t="shared" si="4"/>
+        <v>7.3618836190695847</v>
+      </c>
+      <c r="H29" s="15">
+        <f t="shared" si="4"/>
+        <v>7.2036133859693683</v>
+      </c>
+      <c r="I29" s="15">
+        <f t="shared" si="4"/>
+        <v>7.2543736259190821</v>
+      </c>
+      <c r="J29" s="15">
+        <f t="shared" si="4"/>
+        <v>7.3039983421696695</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="4"/>
+        <v>7.3513550396690839</v>
+      </c>
+      <c r="L29" s="15">
+        <f t="shared" si="4"/>
+        <v>7.3975762421190847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="37">
+        <f>1-B29</f>
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="15">
+        <f>C26</f>
+        <v>10.1</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="4"/>
+        <v>9.3555511600000152</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="4"/>
+        <v>8.1964568415000141</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="4"/>
+        <v>7.5269766578582749</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="4"/>
+        <v>7.3618836190695847</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="4"/>
+        <v>7.2036133859693683</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="4"/>
+        <v>7.2543736259190821</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="4"/>
+        <v>7.3039983421696695</v>
+      </c>
+      <c r="K30" s="15">
+        <f t="shared" si="4"/>
+        <v>7.3513550396690839</v>
+      </c>
+      <c r="L30" s="15">
+        <f t="shared" si="4"/>
+        <v>7.3975762421190847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="15">
+        <f>IF(C$22&lt;&gt;"",VLOOKUP(C29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(C30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>1.0218976799999733</v>
+      </c>
+      <c r="D31" s="15">
+        <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.951188637</v>
+      </c>
+      <c r="E31" s="15">
+        <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.87773305499997312</v>
+      </c>
+      <c r="F31" s="15">
+        <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.83590071750057304</v>
+      </c>
+      <c r="G31" s="15">
+        <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.82557159509940004</v>
+      </c>
+      <c r="H31" s="15">
+        <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.81547952010057301</v>
+      </c>
+      <c r="I31" s="15">
+        <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.81775056749882702</v>
+      </c>
+      <c r="J31" s="15">
+        <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.82228660500117301</v>
+      </c>
+      <c r="K31" s="15">
+        <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.82455759509999993</v>
+      </c>
+      <c r="L31" s="15">
+        <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
+        <v>0.82783664249940003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C25/C$24,"")</f>
+        <v>0.5327428663506969</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" ref="D32:L34" si="5">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
+        <v>0.458396965381695</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.38063285598410107</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.33871463992319345</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.34203112889896525</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.34527290722613518</v>
+      </c>
+      <c r="I32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.36662326382912958</v>
+      </c>
+      <c r="J32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.38773252998275209</v>
+      </c>
+      <c r="K32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.40661542597208489</v>
+      </c>
+      <c r="L32" s="15">
+        <f t="shared" si="5"/>
+        <v>0.42489520622063093</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C26/C$24,"")</f>
+        <v>0.48915481364927621</v>
+      </c>
+      <c r="D33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.49279167161830495</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.4971001990158721</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.49718607757737959</v>
+      </c>
+      <c r="G33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.48354046620043478</v>
+      </c>
+      <c r="H33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.47020661287443777</v>
+      </c>
+      <c r="I33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45112730366969739</v>
+      </c>
+      <c r="J33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.43455407501842092</v>
+      </c>
+      <c r="K33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.41794216912791515</v>
+      </c>
+      <c r="L33" s="15">
+        <f t="shared" si="5"/>
+        <v>0.40294143627876911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="15">
+        <f>IF(C$22&lt;&gt;"",C$31*C27/C$24,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="26">
+        <f>IF(C22&lt;&gt;"",1.5,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="26">
+        <f t="shared" ref="D35:L35" si="6">IF(D22&lt;&gt;"",1.5,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="E35" s="26">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="26">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="G35" s="26">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="H35" s="26">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="26">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="J35" s="26">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="K35" s="26">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="L35" s="26">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="15">
+        <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
+        <v>10.25</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" ref="D36:L36" si="7">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
+        <v>10.25</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="7"/>
+        <v>10.25</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="7"/>
+        <v>10.25</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="7"/>
+        <v>10.25</v>
+      </c>
+      <c r="H36" s="15">
+        <f t="shared" si="7"/>
+        <v>10.25</v>
+      </c>
+      <c r="I36" s="15">
+        <f t="shared" si="7"/>
+        <v>10.25</v>
+      </c>
+      <c r="J36" s="15">
+        <f t="shared" si="7"/>
+        <v>10.25</v>
+      </c>
+      <c r="K36" s="15">
+        <f t="shared" si="7"/>
+        <v>10.25</v>
+      </c>
+      <c r="L36" s="15">
+        <f t="shared" si="7"/>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="25"/>
+      <c r="C37" s="15">
+        <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
+        <v>2.75</v>
+      </c>
+      <c r="D37" s="15">
+        <f t="shared" ref="D37:L37" si="8">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
+        <v>2.75</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" si="8"/>
+        <v>2.75</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="8"/>
+        <v>2.75</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="8"/>
+        <v>2.75</v>
+      </c>
+      <c r="H37" s="15">
+        <f t="shared" si="8"/>
+        <v>2.75</v>
+      </c>
+      <c r="I37" s="15">
+        <f t="shared" si="8"/>
+        <v>2.75</v>
+      </c>
+      <c r="J37" s="15">
+        <f t="shared" si="8"/>
+        <v>2.75</v>
+      </c>
+      <c r="K37" s="15">
+        <f t="shared" si="8"/>
+        <v>2.75</v>
+      </c>
+      <c r="L37" s="15">
+        <f t="shared" si="8"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="46">
+        <v>7.5</v>
+      </c>
+      <c r="C38" s="15">
+        <f>IF(C22&lt;&gt;"",IF(C36&gt;$B38,$B38,C36),"")</f>
+        <v>7.5</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" ref="D38:L38" si="9">IF(D22&lt;&gt;"",IF(D36&gt;$B38,$B38,D36),"")</f>
+        <v>7.5</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="G38" s="15">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="H38" s="15">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="I38" s="15">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="J38" s="15">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="K38" s="15">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="L38" s="15">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="34">
+        <f>SUM(C41:L41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="34">
+        <f>SUM(C43:L43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="15">
+        <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
+        <v>13.217257133649303</v>
+      </c>
+      <c r="D45" s="15">
+        <f t="shared" ref="D45:L45" si="10">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
+        <v>11.308860168267607</v>
+      </c>
+      <c r="E45" s="15">
+        <f t="shared" si="10"/>
+        <v>9.4782273122835061</v>
+      </c>
+      <c r="F45" s="15">
+        <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
+        <v>8.5112853600768066</v>
+      </c>
+      <c r="G45" s="15">
+        <f t="shared" si="10"/>
+        <v>8.5079688711010348</v>
+      </c>
+      <c r="H45" s="15">
+        <f t="shared" si="10"/>
+        <v>8.5047270927738641</v>
+      </c>
+      <c r="I45" s="15">
+        <f t="shared" si="10"/>
+        <v>8.8881038289447343</v>
+      </c>
+      <c r="J45" s="15">
+        <f t="shared" si="10"/>
+        <v>9.2503712989619817</v>
+      </c>
+      <c r="K45" s="15">
+        <f t="shared" si="10"/>
+        <v>9.5937558729898971</v>
+      </c>
+      <c r="L45" s="15">
+        <f t="shared" si="10"/>
+        <v>9.918860666769266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="15">
+        <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
+        <v>17.160845186350727</v>
+      </c>
+      <c r="D46" s="15">
+        <f t="shared" ref="D46:L46" si="11">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
+        <v>16.751053514732423</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="11"/>
+        <v>16.336953315716549</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="11"/>
+        <v>16.006767238139169</v>
+      </c>
+      <c r="G46" s="15">
+        <f t="shared" si="11"/>
+        <v>15.690226771938736</v>
+      </c>
+      <c r="H46" s="15">
+        <f t="shared" si="11"/>
+        <v>15.387020159064299</v>
+      </c>
+      <c r="I46" s="15">
+        <f t="shared" si="11"/>
+        <v>15.102892855394604</v>
+      </c>
+      <c r="J46" s="15">
+        <f t="shared" si="11"/>
+        <v>14.835338780376185</v>
+      </c>
+      <c r="K46" s="15">
+        <f t="shared" si="11"/>
+        <v>14.584396611248271</v>
+      </c>
+      <c r="L46" s="15">
+        <f t="shared" si="11"/>
+        <v>14.348455174969503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="15">
+        <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" ref="D47:L47" si="12">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
+        <v>1.5</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="I47" s="15">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="J47" s="15">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="K47" s="15">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="L47" s="15">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="45">
+        <f>IF(C45&gt;6.1+4.2,4.2,MAX(C45-6.1,0))</f>
+        <v>4.2</v>
+      </c>
+      <c r="D49" s="45">
+        <f t="shared" ref="D49:G49" si="13">IF(D45&gt;6.1+4.2,4.2,MAX(D45-6.1,0))</f>
+        <v>4.2</v>
+      </c>
+      <c r="E49" s="45">
+        <f t="shared" si="13"/>
+        <v>3.3782273122835065</v>
+      </c>
+      <c r="F49" s="45">
+        <f t="shared" si="13"/>
+        <v>2.4112853600768069</v>
+      </c>
+      <c r="G49" s="45">
+        <f t="shared" si="13"/>
+        <v>2.4079688711010352</v>
+      </c>
+      <c r="H49" s="45">
+        <v>2</v>
+      </c>
+      <c r="I49" s="45">
+        <v>2</v>
+      </c>
+      <c r="J49" s="45">
+        <v>2</v>
+      </c>
+      <c r="K49" s="45">
+        <v>2</v>
+      </c>
+      <c r="L49" s="45">
+        <v>2</v>
+      </c>
+      <c r="M49" s="51"/>
+      <c r="N49" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="45">
+        <f>7.5-IF(C26&lt;$O$51,$P$51,IF(C26&lt;=$O$58,VLOOKUP(C26,$O$51:$P$58,2),0))</f>
+        <v>6.867</v>
+      </c>
+      <c r="D50" s="45">
+        <f t="shared" ref="D50:G50" si="14">7.5-IF(D26&lt;$O$51,$P$51,IF(D26&lt;=$O$58,VLOOKUP(D26,$O$51:$P$58,2),0))</f>
+        <v>6.867</v>
+      </c>
+      <c r="E50" s="45">
+        <f t="shared" si="14"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="F50" s="45">
+        <f t="shared" si="14"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="G50" s="45">
+        <f t="shared" si="14"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="H50" s="45">
+        <f t="shared" ref="H50:L50" si="15">G50</f>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="I50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="J50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="K50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="L50" s="45">
+        <f t="shared" si="15"/>
+        <v>6.7829999999999995</v>
+      </c>
+      <c r="N50" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="O50" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="P50" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q50" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="12">
+        <f>IF(C$22&lt;&gt;"",0.6,"")</f>
+        <v>0.6</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" ref="D51:L51" si="16">IF(D$22&lt;&gt;"",0.6,"")</f>
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="G51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="I51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="K51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="L51" s="12">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="N51" s="41">
+        <v>1025</v>
+      </c>
+      <c r="O51" s="42">
+        <v>5.981122</v>
+      </c>
+      <c r="P51" s="43">
+        <f t="shared" ref="P51:P58" si="17">R51-Q51</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q51" s="44">
+        <v>0.125</v>
+      </c>
+      <c r="R51" s="43">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="D52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="F52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="G52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="H52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="I52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="J52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="K52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="L52" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="N52" s="41">
+        <v>1030</v>
+      </c>
+      <c r="O52" s="42">
+        <v>6.305377</v>
+      </c>
+      <c r="P52" s="43">
+        <f t="shared" si="17"/>
+        <v>1.117</v>
+      </c>
+      <c r="Q52" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R52" s="43">
+        <v>1.1870000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="N53" s="41">
+        <v>1035</v>
+      </c>
+      <c r="O53" s="42">
+        <v>6.6375080000000004</v>
+      </c>
+      <c r="P53" s="43">
+        <f t="shared" si="17"/>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="Q53" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R53" s="43">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="15">
+        <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
+        <v>9.0172571336493021</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" ref="D54:L54" si="18">IF(D$22&lt;&gt;"",D45-D49,"")</f>
+        <v>7.1088601682676069</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="18"/>
+        <v>6.1</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="18"/>
+        <v>6.1</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="18"/>
+        <v>6.1</v>
+      </c>
+      <c r="H54" s="15">
+        <f t="shared" si="18"/>
+        <v>6.5047270927738641</v>
+      </c>
+      <c r="I54" s="15">
+        <f t="shared" si="18"/>
+        <v>6.8881038289447343</v>
+      </c>
+      <c r="J54" s="15">
+        <f t="shared" si="18"/>
+        <v>7.2503712989619817</v>
+      </c>
+      <c r="K54" s="15">
+        <f t="shared" si="18"/>
+        <v>7.5937558729898971</v>
+      </c>
+      <c r="L54" s="15">
+        <f t="shared" si="18"/>
+        <v>7.918860666769266</v>
+      </c>
+      <c r="N54" s="41">
+        <v>1040</v>
+      </c>
+      <c r="O54" s="42">
+        <v>6.977665</v>
+      </c>
+      <c r="P54" s="43">
+        <f t="shared" si="17"/>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="Q54" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R54" s="43">
+        <v>1.087</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="15">
+        <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
+        <v>9.6938451863507265</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" ref="D55:L55" si="19">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <v>9.2840535147324221</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="19"/>
+        <v>8.9539533157165501</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="19"/>
+        <v>8.6237672381391697</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="19"/>
+        <v>8.3072267719387369</v>
+      </c>
+      <c r="H55" s="15">
+        <f t="shared" si="19"/>
+        <v>8.0040201590643001</v>
+      </c>
+      <c r="I55" s="15">
+        <f t="shared" si="19"/>
+        <v>7.7198928553946047</v>
+      </c>
+      <c r="J55" s="15">
+        <f t="shared" si="19"/>
+        <v>7.452338780376186</v>
+      </c>
+      <c r="K55" s="15">
+        <f t="shared" si="19"/>
+        <v>7.2013966112482724</v>
+      </c>
+      <c r="L55" s="15">
+        <f t="shared" si="19"/>
+        <v>6.9654551749695042</v>
+      </c>
+      <c r="N55" s="41">
+        <v>1045</v>
+      </c>
+      <c r="O55" s="42">
+        <v>7.3260519999999998</v>
+      </c>
+      <c r="P55" s="43">
+        <f t="shared" si="17"/>
+        <v>0.96699999999999986</v>
+      </c>
+      <c r="Q55" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R55" s="43">
+        <v>1.0369999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="15">
+        <f>IF(C$22&lt;&gt;"",C47-C52,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" ref="D56:L56" si="20">IF(D$22&lt;&gt;"",D47-D52,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="41">
+        <v>1050</v>
+      </c>
+      <c r="O56" s="42">
+        <v>7.6828779999999997</v>
+      </c>
+      <c r="P56" s="43">
+        <f t="shared" si="17"/>
+        <v>0.71700000000000008</v>
+      </c>
+      <c r="Q56" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="R56" s="43">
+        <v>0.78700000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="15">
+        <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
+        <v>18.71110232000003</v>
+      </c>
+      <c r="D57" s="15">
+        <f t="shared" ref="D57:L57" si="21">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+        <v>16.392913683000028</v>
+      </c>
+      <c r="E57" s="15">
+        <f t="shared" si="21"/>
+        <v>15.05395331571655</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="21"/>
+        <v>14.723767238139169</v>
+      </c>
+      <c r="G57" s="15">
+        <f t="shared" si="21"/>
+        <v>14.407226771938737</v>
+      </c>
+      <c r="H57" s="15">
+        <f t="shared" si="21"/>
+        <v>14.508747251838164</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" si="21"/>
+        <v>14.607996684339339</v>
+      </c>
+      <c r="J57" s="15">
+        <f t="shared" si="21"/>
+        <v>14.702710079338168</v>
+      </c>
+      <c r="K57" s="15">
+        <f t="shared" si="21"/>
+        <v>14.795152484238169</v>
+      </c>
+      <c r="L57" s="15">
+        <f t="shared" si="21"/>
+        <v>14.88431584173877</v>
+      </c>
+      <c r="N57" s="41">
+        <v>1075</v>
+      </c>
+      <c r="O57" s="42">
+        <v>9.6009879999900001</v>
+      </c>
+      <c r="P57" s="43">
+        <f t="shared" si="17"/>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="Q57" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="R57" s="43">
+        <v>0.68300000000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N58" s="41">
+        <v>1090</v>
+      </c>
+      <c r="O58" s="42">
+        <v>10.857008</v>
+      </c>
+      <c r="P58" s="43">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="12">
+        <f>IF(C$22&lt;&gt;"",0.2,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="D59" s="12">
+        <f t="shared" ref="D59:L59" si="22">IF(D$22&lt;&gt;"",0.2,"")</f>
+        <v>0.2</v>
+      </c>
+      <c r="E59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="G59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="H59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="I59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="J59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="K59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+      <c r="L59" s="12">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="15">
+        <f>IF(C$22&lt;&gt;"",C50+C59,"")</f>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="D60" s="15">
+        <f t="shared" ref="D60:L60" si="23">IF(D$22&lt;&gt;"",D50+D59,"")</f>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="E60" s="15">
+        <f t="shared" si="23"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="23"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="G60" s="15">
+        <f t="shared" si="23"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="H60" s="15">
+        <f t="shared" si="23"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="I60" s="15">
+        <f t="shared" si="23"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="J60" s="15">
+        <f t="shared" si="23"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="K60" s="15">
+        <f t="shared" si="23"/>
+        <v>6.9829999999999997</v>
+      </c>
+      <c r="L60" s="15">
+        <f t="shared" si="23"/>
+        <v>6.9829999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D62" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H49:L49">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+      <formula>$H$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+      <formula>$I$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+      <formula>$J$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+      <formula>$K$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+      <formula>$L$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50:L50">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+      <formula>$D$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+      <formula>$H$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+      <formula>$I$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+      <formula>$J$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+      <formula>$K$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+      <formula>$L$46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+      <formula>$C$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+      <formula>$D$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+      <formula>$E$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>$F$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+      <formula>$G$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>$H$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>$I$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>$J$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K52">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+      <formula>$K$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L52">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>$L$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:G49">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$C$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
+++ b/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\InteractiveWaterBudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C254D04-C367-4FE1-B259-69C8DCC964D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A68354B-1425-42BB-ADB3-E3B5612FF22D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="5" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe-Directions" sheetId="6" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="11.0-Trade" sheetId="12" r:id="rId3"/>
     <sheet name="11.0-LawOfRiver" sheetId="13" r:id="rId4"/>
     <sheet name="11.0-Plots" sheetId="19" r:id="rId5"/>
-    <sheet name="MilleniumRecovers-LawOfRiver" sheetId="11" r:id="rId6"/>
-    <sheet name="Mill-Plots" sheetId="20" r:id="rId7"/>
+    <sheet name="MillenniumRecovers-LawOfRiver" sheetId="11" r:id="rId6"/>
+    <sheet name="Millennium-Plots" sheetId="20" r:id="rId7"/>
     <sheet name="HydrologicScenarios" sheetId="7" r:id="rId8"/>
     <sheet name="Powell-Elevation-Area" sheetId="2" r:id="rId9"/>
     <sheet name="Mead-Elevation-Area" sheetId="10" r:id="rId10"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="174">
   <si>
     <t xml:space="preserve">    To Upper Basin</t>
   </si>
@@ -484,25 +484,13 @@
     <t>11.0-LawOfRiver</t>
   </si>
   <si>
-    <t>A completed role play with Lee Ferry natural flow of 11.0 maf per year for 5 years following the Law of the River for all political decisions</t>
-  </si>
-  <si>
-    <t>A completed role play with Lee Ferry natural flow of 11.0 maf per year for 5 years allowing trades between users. Trades in Years 1 through 3 earn the Upper Basin $0.5 Billion and get the Upper Basin on a path of conservation and softer landing for this severe event.</t>
-  </si>
-  <si>
     <t xml:space="preserve">   Starting storage (million acre feet)</t>
   </si>
   <si>
     <t>MellenniumRecovery-LawOfRiver</t>
   </si>
   <si>
-    <t>A completed role play of the Millennium Drought (12.4 maf every year natural flow at Lee Ferry) for 6 years followed by 14.4 maf every year in Years 7, 8, 9, and 10. The Law of the River is followed for all political decisions.</t>
-  </si>
-  <si>
     <t>11.0-Plots</t>
-  </si>
-  <si>
-    <t>Plots of Lower and Upper Basin Consumptive Use and Account Balances that compare results for 11.0-Trade and 11.0-LawOfRiver</t>
   </si>
   <si>
     <t>Powell Release - to store physically</t>
@@ -551,6 +539,24 @@
   </si>
   <si>
     <t>This interactive water budget allows a facilitator and representatives of the Upper Basin, Lower Basin, and Mexico to role play Lake Powell and Lake Mead management year by year. A facilitator decides the hydrology to use (see HydrologicScenarios worksheet) and reveals natural inflow to Lake Powell and intervening flows along the Grand Canyon reach between Lake Powell and Lake Mead year-by-year to the players. Each player has a water storage account in the combined Lake Powell-Lake Mead system. Each year, each player’s account is credited with a portion of that year’s natural flow. The credit depends on the political decision about how to partition natural flow among the players and subtracts the player's share of reservoir evaporation. The player’s share of reservoir evaporation is prorated by their and aggregate account balances. Each year, each player decides the volume to consumptively use (deduct from their account) and water to store/conserve (remains in the account). A player’s consumptive use must stay within their available water. Additionally, the Upper Basin player can voluntarily trade and transfer stored water to the Lower Basin player with compensation. The Mexico player can also voluntarily trade and transfer stored water to the Lower Basin player with compensation. The trades move water from one account to another; trades do not change physical storage. Finally, the interactive water budget calculates each player’s end-of-the-year account balance. The tool also applies a political decision of how to physically split and move the total storage – sum of all account balances – between Lake Powell and Lake Mead. The players then move to the next year and repeat the decision steps.</t>
+  </si>
+  <si>
+    <t>A completed role play with Lee Ferry natural flow of 11.0 maf every year for 5 years allowing trades between users. Trades in Years 1 through 3 earn the Upper Basin $0.46 Billion and get the Upper Basin on a path of conservation and softer landing for this severe event.</t>
+  </si>
+  <si>
+    <t>A completed role play with Lee Ferry natural flow of 11.0 maf every year for 5 years and all political decisions follow the existing Law of the River operations (DCP, Equalization, Curtailment)</t>
+  </si>
+  <si>
+    <t>Plots of Lower and Upper Basin Consumptive Use and Account Balances that compare results for 11.0-Trade and 11.0-LawOfRiver operations</t>
+  </si>
+  <si>
+    <t>A completed role play of the Millennium Drought (12.4 maf every year natural flow at Lee Ferry) for 6 years followed by 14.4 maf every year in Years 7, 8, 9, and 10. All political decisions follow the the existing Law of the River operations (DCPs, Equalization, Curtailment).</t>
+  </si>
+  <si>
+    <t>Mead-Elevation-Area</t>
+  </si>
+  <si>
+    <t>The Lake Mead storage volume-elevation-area curve data downloaded from CRSS.</t>
   </si>
 </sst>
 </file>
@@ -923,6 +929,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -959,8 +967,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2122,13 +2128,13 @@
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6811,10 +6817,10 @@
                   <c:v>7.6634520548331819</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7418099968023153</c:v>
+                  <c:v>6.6418099968023157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4602708271803406</c:v>
+                  <c:v>6.2648771960174221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7751,7 +7757,7 @@
                   <c:v>10.193338646698306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7622661278208565</c:v>
+                  <c:v>9.7612192784826295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8019,7 +8025,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MilleniumRecovers-LawOfRiver'!$C$21:$L$21</c:f>
+              <c:f>'MillenniumRecovers-LawOfRiver'!$C$21:$L$21</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -8057,7 +8063,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MilleniumRecovers-LawOfRiver'!$C$50:$L$50</c:f>
+              <c:f>'MillenniumRecovers-LawOfRiver'!$C$50:$L$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8134,7 +8140,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MilleniumRecovers-LawOfRiver'!$C$21:$L$21</c:f>
+              <c:f>'MillenniumRecovers-LawOfRiver'!$C$21:$L$21</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -8172,7 +8178,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MilleniumRecovers-LawOfRiver'!$C$49:$L$49</c:f>
+              <c:f>'MillenniumRecovers-LawOfRiver'!$C$49:$L$49</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8588,7 +8594,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MilleniumRecovers-LawOfRiver'!$C$21:$L$21</c:f>
+              <c:f>'MillenniumRecovers-LawOfRiver'!$C$21:$L$21</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -8626,7 +8632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MilleniumRecovers-LawOfRiver'!$C$26:$L$26</c:f>
+              <c:f>'MillenniumRecovers-LawOfRiver'!$C$26:$L$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -8703,7 +8709,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'MilleniumRecovers-LawOfRiver'!$C$21:$L$21</c:f>
+              <c:f>'MillenniumRecovers-LawOfRiver'!$C$21:$L$21</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -8741,7 +8747,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MilleniumRecovers-LawOfRiver'!$C$25:$L$25</c:f>
+              <c:f>'MillenniumRecovers-LawOfRiver'!$C$25:$L$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -25977,8 +25983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447CC9A2-4C52-453A-A3CD-EA6E59E26162}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26018,20 +26024,20 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:12" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
+      <c r="A4" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
@@ -26047,254 +26053,254 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="58"/>
+      <c r="B7" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
+      <c r="B9" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="60"/>
     </row>
     <row r="10" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="60"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
+      <c r="B11" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
+      <c r="B12" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
     </row>
     <row r="13" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>7</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
+      <c r="B13" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
     </row>
     <row r="14" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>8</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="B14" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
         <v>9</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
+      <c r="B15" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>10</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
+      <c r="B16" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
         <v>11</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
         <v>12</v>
       </c>
-      <c r="B18" s="59" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="60"/>
+      <c r="B18" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
     </row>
     <row r="19" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29">
         <v>13</v>
       </c>
-      <c r="B19" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="62"/>
+      <c r="B19" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
@@ -26327,7 +26333,7 @@
         <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -26335,23 +26341,23 @@
         <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -26370,26 +26376,34 @@
         <v>103</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
+      <c r="A32" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -38728,48 +38742,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="52"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -40662,48 +40676,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -40766,7 +40780,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="12">
         <v>11</v>
@@ -42225,7 +42239,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="15" t="str">
@@ -42233,7 +42247,7 @@
         <v/>
       </c>
       <c r="D58" s="15" t="str">
-        <f t="shared" ref="D58:M58" si="24">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
+        <f t="shared" ref="D58:L58" si="24">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
         <v/>
       </c>
       <c r="E58" s="15" t="str">
@@ -42333,43 +42347,43 @@
         <v>132</v>
       </c>
       <c r="C61" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C50+C60,"")</f>
+        <f t="shared" ref="C61:L61" si="26">IF(C$22&lt;&gt;"",C50+C60,"")</f>
         <v/>
       </c>
       <c r="D61" s="15" t="str">
-        <f>IF(D$22&lt;&gt;"",D50+D60,"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E61" s="15" t="str">
-        <f>IF(E$22&lt;&gt;"",E50+E60,"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F61" s="15" t="str">
-        <f>IF(F$22&lt;&gt;"",F50+F60,"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="G61" s="15" t="str">
-        <f>IF(G$22&lt;&gt;"",G50+G60,"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="H61" s="15">
-        <f>IF(H$22&lt;&gt;"",H50+H60,"")</f>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="I61" s="15">
-        <f>IF(I$22&lt;&gt;"",I50+I60,"")</f>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="J61" s="15">
-        <f>IF(J$22&lt;&gt;"",J50+J60,"")</f>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="K61" s="15">
-        <f>IF(K$22&lt;&gt;"",K50+K60,"")</f>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="L61" s="15">
-        <f>IF(L$22&lt;&gt;"",L50+L60,"")</f>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
     </row>
@@ -42561,8 +42575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BD1F0-C024-4B0C-A52B-7568661161E6}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:G59"/>
+    <sheetView topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42625,48 +42639,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -42729,7 +42743,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="12">
         <v>11</v>
@@ -42892,31 +42906,31 @@
       </c>
       <c r="F24" s="15">
         <f t="shared" si="3"/>
-        <v>16.935148643500622</v>
+        <v>16.835148643500624</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="3"/>
-        <v>16.222536955001196</v>
+        <v>16.026096474500051</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="3"/>
-        <v>15.532489937502369</v>
+        <v>15.24199254190065</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="3"/>
-        <v>15.583530117402967</v>
+        <v>15.303535786901246</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>15.633484297302365</v>
+        <v>15.362814041802418</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="3"/>
-        <v>15.682181429801767</v>
+        <v>15.420835249303588</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="3"/>
-        <v>15.728535572202338</v>
+        <v>15.476585466702987</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -42937,31 +42951,31 @@
       </c>
       <c r="F25" s="15">
         <f t="shared" si="4"/>
-        <v>6.7418099968023153</v>
+        <v>6.6418099968023157</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="4"/>
-        <v>6.4602708271803406</v>
+        <v>6.2648771960174221</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="4"/>
-        <v>6.1875989313758</v>
+        <v>5.9009113310257435</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="4"/>
-        <v>6.6332080356705205</v>
+        <v>6.3601427881994557</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="4"/>
-        <v>7.0551047884565037</v>
+        <v>6.7944923994879503</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>7.4545735699081455</v>
+        <v>7.2057846941326744</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>7.8323643052138578</v>
+        <v>7.5948852881101416</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -42986,27 +43000,27 @@
       </c>
       <c r="G26" s="15">
         <f t="shared" si="4"/>
-        <v>9.7622661278208565</v>
+        <v>9.7612192784826295</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="4"/>
-        <v>9.3448910061265682</v>
+        <v>9.3410812108749059</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="4"/>
-        <v>8.9503220817324465</v>
+        <v>8.9433929987017908</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="4"/>
-        <v>8.5783795088458614</v>
+        <v>8.5683216423144675</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>8.227607859893622</v>
+        <v>8.2150505551709134</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>7.89617126698848</v>
+        <v>7.8817001785928458</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -43081,31 +43095,31 @@
       </c>
       <c r="F29" s="15">
         <f t="shared" si="5"/>
-        <v>8.4675743217503108</v>
+        <v>8.4175743217503118</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="5"/>
-        <v>8.1112684775005981</v>
+        <v>8.0130482372500254</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="5"/>
-        <v>7.7662449687511845</v>
+        <v>7.6209962709503252</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="5"/>
-        <v>7.7917650587014835</v>
+        <v>7.6517678934506232</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="5"/>
-        <v>7.8167421486511826</v>
+        <v>7.6814070209012089</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="5"/>
-        <v>7.8410907149008837</v>
+        <v>7.7104176246517939</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="5"/>
-        <v>7.8642677861011689</v>
+        <v>7.7382927333514937</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -43130,31 +43144,31 @@
       </c>
       <c r="F30" s="15">
         <f t="shared" si="5"/>
-        <v>8.4675743217503108</v>
+        <v>8.4175743217503118</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="5"/>
-        <v>8.1112684775005981</v>
+        <v>8.0130482372500254</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="5"/>
-        <v>7.7662449687511845</v>
+        <v>7.6209962709503252</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="5"/>
-        <v>7.7917650587014835</v>
+        <v>7.6517678934506232</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="5"/>
-        <v>7.8167421486511826</v>
+        <v>7.6814070209012089</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="5"/>
-        <v>7.8410907149008837</v>
+        <v>7.7104176246517939</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="5"/>
-        <v>7.8642677861011689</v>
+        <v>7.7382927333514937</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -43176,31 +43190,31 @@
       </c>
       <c r="F31" s="15">
         <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.89561168849942696</v>
+        <v>0.89205216900057305</v>
       </c>
       <c r="G31" s="15">
         <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.87304701749882696</v>
+        <v>0.8671039325994</v>
       </c>
       <c r="H31" s="15">
         <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.85195982009939997</v>
+        <v>0.84145675499939998</v>
       </c>
       <c r="I31" s="15">
         <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.85304582010059993</v>
+        <v>0.84372174509882703</v>
       </c>
       <c r="J31" s="15">
         <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.85430286750060003</v>
+        <v>0.84497879249882701</v>
       </c>
       <c r="K31" s="15">
         <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.85664585759942702</v>
+        <v>0.84724978260060002</v>
       </c>
       <c r="L31" s="15">
         <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.85664585759942702</v>
+        <v>0.84961683000057309</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -43222,31 +43236,31 @@
       </c>
       <c r="F32" s="15">
         <f t="shared" si="6"/>
-        <v>0.35653916962197557</v>
+        <v>0.35193280078489469</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="6"/>
-        <v>0.34767189580454005</v>
+        <v>0.33896586499167913</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="6"/>
-        <v>0.33939089570527925</v>
+        <v>0.3257685428262872</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="6"/>
-        <v>0.36310324721401699</v>
+        <v>0.35065038871150594</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="6"/>
-        <v>0.38553121854835831</v>
+        <v>0.37370770535527542</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="6"/>
-        <v>0.40720926469428737</v>
+        <v>0.3958994060225336</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="6"/>
-        <v>0.42658532362854812</v>
+        <v>0.41693578836138268</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -43268,31 +43282,31 @@
       </c>
       <c r="F33" s="15">
         <f t="shared" si="6"/>
-        <v>0.53907251887745133</v>
+        <v>0.5401193682156783</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="6"/>
-        <v>0.52537512169428702</v>
+        <v>0.52813806760772097</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="6"/>
-        <v>0.51256892439412072</v>
+        <v>0.51568821217311267</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="6"/>
-        <v>0.48994257288658294</v>
+        <v>0.49307135638732108</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>0.46877164895224177</v>
+        <v>0.47127108714355159</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0.44943659290513965</v>
+        <v>0.45135037657806643</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="6"/>
-        <v>0.4300605339708789</v>
+        <v>0.43268104163919041</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -43652,31 +43666,31 @@
       </c>
       <c r="F45" s="15">
         <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
-        <v>9.1602708271803408</v>
+        <v>9.0648771960174219</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="12"/>
-        <v>8.8875989313758001</v>
+        <v>8.7009113310257433</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="12"/>
-        <v>8.6332080356705205</v>
+        <v>8.3601427881994557</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="12"/>
-        <v>9.0551047884565037</v>
+        <v>8.7944923994879503</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="12"/>
-        <v>9.4545735699081455</v>
+        <v>9.2057846941326744</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="12"/>
-        <v>9.8323643052138578</v>
+        <v>9.5948852881101416</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="12"/>
-        <v>10.190778981585311</v>
+        <v>9.9629494997487598</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -43697,31 +43711,31 @@
       </c>
       <c r="F46" s="15">
         <f t="shared" si="13"/>
-        <v>17.229266127820857</v>
+        <v>17.22821927848263</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="13"/>
-        <v>16.811891006126569</v>
+        <v>16.808081210874906</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="13"/>
-        <v>16.417322081732447</v>
+        <v>16.410392998701791</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="13"/>
-        <v>16.045379508845862</v>
+        <v>16.035321642314468</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="13"/>
-        <v>15.694607859893623</v>
+        <v>15.682050555170914</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="13"/>
-        <v>15.363171266988481</v>
+        <v>15.348700178592846</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="13"/>
-        <v>15.051110733017602</v>
+        <v>15.034019136953656</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -43796,13 +43810,13 @@
         <v>3.3</v>
       </c>
       <c r="E49" s="45">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F49" s="45">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G49" s="45">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H49" s="26">
         <v>2</v>
@@ -44050,35 +44064,35 @@
       </c>
       <c r="E54" s="15">
         <f t="shared" si="19"/>
-        <v>6.7418099968023153</v>
+        <v>6.6418099968023157</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="19"/>
-        <v>6.4602708271803406</v>
+        <v>6.2648771960174221</v>
       </c>
       <c r="G54" s="15">
         <f t="shared" si="19"/>
-        <v>6.1875989313758</v>
+        <v>5.9009113310257435</v>
       </c>
       <c r="H54" s="15">
         <f t="shared" si="19"/>
-        <v>6.6332080356705205</v>
+        <v>6.3601427881994557</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="19"/>
-        <v>7.0551047884565037</v>
+        <v>6.7944923994879503</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="19"/>
-        <v>7.4545735699081455</v>
+        <v>7.2057846941326744</v>
       </c>
       <c r="K54" s="15">
         <f t="shared" si="19"/>
-        <v>7.8323643052138578</v>
+        <v>7.5948852881101416</v>
       </c>
       <c r="L54" s="15">
         <f t="shared" si="19"/>
-        <v>8.1907789815853107</v>
+        <v>7.9629494997487598</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
@@ -44115,31 +44129,31 @@
       </c>
       <c r="F55" s="15">
         <f t="shared" si="20"/>
-        <v>9.7622661278208565</v>
+        <v>9.7612192784826295</v>
       </c>
       <c r="G55" s="15">
         <f t="shared" si="20"/>
-        <v>9.3448910061265682</v>
+        <v>9.3410812108749059</v>
       </c>
       <c r="H55" s="15">
         <f t="shared" si="20"/>
-        <v>8.9503220817324465</v>
+        <v>8.9433929987017908</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="20"/>
-        <v>8.5783795088458614</v>
+        <v>8.5683216423144675</v>
       </c>
       <c r="J55" s="15">
         <f t="shared" si="20"/>
-        <v>8.227607859893622</v>
+        <v>8.2150505551709134</v>
       </c>
       <c r="K55" s="15">
         <f t="shared" si="20"/>
-        <v>7.89617126698848</v>
+        <v>7.8817001785928458</v>
       </c>
       <c r="L55" s="15">
         <f t="shared" si="20"/>
-        <v>7.5841107330176012</v>
+        <v>7.5670191369536557</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
@@ -44234,35 +44248,35 @@
       </c>
       <c r="E57" s="15">
         <f t="shared" si="22"/>
-        <v>16.935148643500622</v>
+        <v>16.835148643500624</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="22"/>
-        <v>16.222536955001196</v>
+        <v>16.026096474500051</v>
       </c>
       <c r="G57" s="15">
         <f t="shared" si="22"/>
-        <v>15.532489937502369</v>
+        <v>15.24199254190065</v>
       </c>
       <c r="H57" s="15">
         <f t="shared" si="22"/>
-        <v>15.583530117402967</v>
+        <v>15.303535786901246</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="22"/>
-        <v>15.633484297302365</v>
+        <v>15.362814041802418</v>
       </c>
       <c r="J57" s="15">
         <f t="shared" si="22"/>
-        <v>15.682181429801767</v>
+        <v>15.420835249303588</v>
       </c>
       <c r="K57" s="15">
         <f t="shared" si="22"/>
-        <v>15.728535572202338</v>
+        <v>15.476585466702987</v>
       </c>
       <c r="L57" s="15">
         <f t="shared" si="22"/>
-        <v>15.774889714602912</v>
+        <v>15.529968636702415</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
@@ -44283,7 +44297,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="15">
@@ -44296,35 +44310,35 @@
       </c>
       <c r="E58" s="15">
         <f t="shared" si="23"/>
-        <v>8.174504903219125</v>
+        <v>8.1245049032191226</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="23"/>
-        <v>8.2997666746277403</v>
+        <v>8.2525932837153917</v>
       </c>
       <c r="G58" s="15">
         <f t="shared" si="23"/>
-        <v>8.2973516129448726</v>
+        <v>8.2530861013080212</v>
       </c>
       <c r="H58" s="15">
         <f t="shared" si="23"/>
-        <v>8.6350890143444232</v>
+        <v>8.6434598346734131</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="23"/>
-        <v>8.6119196628362822</v>
+        <v>8.6197104838379097</v>
       </c>
       <c r="J58" s="15">
         <f t="shared" si="23"/>
-        <v>8.5901202152019422</v>
+        <v>8.597281690894139</v>
       </c>
       <c r="K58" s="15">
         <f t="shared" si="23"/>
-        <v>8.5696136641054252</v>
+        <v>8.5762254852777673</v>
       </c>
       <c r="L58" s="15">
         <f t="shared" si="23"/>
-        <v>8.5502376051711657</v>
+        <v>8.556372626638904</v>
       </c>
       <c r="N58" s="41">
         <v>1090</v>
@@ -44398,43 +44412,43 @@
         <v>132</v>
       </c>
       <c r="C61" s="15">
-        <f>IF(C$22&lt;&gt;"",C50+C60,"")</f>
+        <f t="shared" ref="C61:L61" si="25">IF(C$22&lt;&gt;"",C50+C60,"")</f>
         <v>7.0670000000000002</v>
       </c>
       <c r="D61" s="15">
-        <f>IF(D$22&lt;&gt;"",D50+D60,"")</f>
+        <f t="shared" si="25"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="E61" s="15">
-        <f>IF(E$22&lt;&gt;"",E50+E60,"")</f>
+        <f t="shared" si="25"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="F61" s="15">
-        <f>IF(F$22&lt;&gt;"",F50+F60,"")</f>
+        <f t="shared" si="25"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="G61" s="15">
-        <f>IF(G$22&lt;&gt;"",G50+G60,"")</f>
+        <f t="shared" si="25"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="H61" s="15">
-        <f>IF(H$22&lt;&gt;"",H50+H60,"")</f>
+        <f t="shared" si="25"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="I61" s="15">
-        <f>IF(I$22&lt;&gt;"",I50+I60,"")</f>
+        <f t="shared" si="25"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="J61" s="15">
-        <f>IF(J$22&lt;&gt;"",J50+J60,"")</f>
+        <f t="shared" si="25"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="K61" s="15">
-        <f>IF(K$22&lt;&gt;"",K50+K60,"")</f>
+        <f t="shared" si="25"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="L61" s="15">
-        <f>IF(L$22&lt;&gt;"",L50+L60,"")</f>
+        <f t="shared" si="25"/>
         <v>7.0670000000000002</v>
       </c>
     </row>
@@ -44569,8 +44583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E878AF-96FE-424D-B802-94EDCA32030C}">
   <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:G59"/>
+    <sheetView topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44633,48 +44647,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -44737,7 +44751,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="12">
         <v>11</v>
@@ -46276,7 +46290,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="15">
@@ -46391,43 +46405,43 @@
         <v>132</v>
       </c>
       <c r="C61" s="15">
-        <f>IF(C$22&lt;&gt;"",C50+C60,"")</f>
+        <f t="shared" ref="C61:L61" si="26">IF(C$22&lt;&gt;"",C50+C60,"")</f>
         <v>7.0670000000000002</v>
       </c>
       <c r="D61" s="15">
-        <f>IF(D$22&lt;&gt;"",D50+D60,"")</f>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="E61" s="15">
-        <f>IF(E$22&lt;&gt;"",E50+E60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="F61" s="15">
-        <f>IF(F$22&lt;&gt;"",F50+F60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="G61" s="15">
-        <f>IF(G$22&lt;&gt;"",G50+G60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="H61" s="15">
-        <f>IF(H$22&lt;&gt;"",H50+H60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="I61" s="15">
-        <f>IF(I$22&lt;&gt;"",I50+I60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="J61" s="15">
-        <f>IF(J$22&lt;&gt;"",J50+J60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="K61" s="15">
-        <f>IF(K$22&lt;&gt;"",K50+K60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="L61" s="15">
-        <f>IF(L$22&lt;&gt;"",L50+L60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
     </row>
@@ -46526,10 +46540,10 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="7:16" ht="36" x14ac:dyDescent="0.8">
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="53" t="s">
         <v>42</v>
       </c>
     </row>
@@ -46607,58 +46621,58 @@
         <v>53</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+        <v>153</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+        <v>153</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+        <v>153</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
+        <v>153</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -46693,7 +46707,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="68"/>
@@ -46728,7 +46742,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="12">
         <v>11</v>
@@ -47206,7 +47220,7 @@
       <c r="A32" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="66">
+      <c r="B32" s="54">
         <f>+D30-C30-C23+SUM(C50:C52)+C33+C34</f>
         <v>8.5867059736492894</v>
       </c>
@@ -48274,7 +48288,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="15">
@@ -48382,43 +48396,43 @@
         <v>132</v>
       </c>
       <c r="C61" s="15">
-        <f>IF(C$22&lt;&gt;"",C50+C60,"")</f>
+        <f t="shared" ref="C61:L61" si="26">IF(C$22&lt;&gt;"",C50+C60,"")</f>
         <v>7.0670000000000002</v>
       </c>
       <c r="D61" s="15">
-        <f>IF(D$22&lt;&gt;"",D50+D60,"")</f>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="E61" s="15">
-        <f>IF(E$22&lt;&gt;"",E50+E60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="F61" s="15">
-        <f>IF(F$22&lt;&gt;"",F50+F60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="G61" s="15">
-        <f>IF(G$22&lt;&gt;"",G50+G60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="H61" s="15">
-        <f>IF(H$22&lt;&gt;"",H50+H60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="I61" s="15">
-        <f>IF(I$22&lt;&gt;"",I50+I60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="J61" s="15">
-        <f>IF(J$22&lt;&gt;"",J50+J60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="K61" s="15">
-        <f>IF(K$22&lt;&gt;"",K50+K60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.9829999999999997</v>
       </c>
       <c r="L61" s="15">
-        <f>IF(L$22&lt;&gt;"",L50+L60,"")</f>
+        <f t="shared" si="26"/>
         <v>6.7330000000000005</v>
       </c>
     </row>
@@ -48453,8 +48467,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="7:16" ht="36" x14ac:dyDescent="0.8">
-      <c r="G1" s="65"/>
-      <c r="P1" s="65"/>
+      <c r="G1" s="53"/>
+      <c r="P1" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
+++ b/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\InteractiveWaterBudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A68354B-1425-42BB-ADB3-E3B5612FF22D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5731E1FB-EF9B-4572-AC8F-A80EE9FED9DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="5" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="1" activeTab="2" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe-Directions" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="177">
   <si>
     <t xml:space="preserve">    To Upper Basin</t>
   </si>
@@ -558,6 +558,15 @@
   <si>
     <t>The Lake Mead storage volume-elevation-area curve data downloaded from CRSS.</t>
   </si>
+  <si>
+    <t>MX Cutback Minute 319</t>
+  </si>
+  <si>
+    <t>MX Binational WSCP Cutback (Minute 323)</t>
+  </si>
+  <si>
+    <t>Total Cutback (af/year)</t>
+  </si>
 </sst>
 </file>
 
@@ -807,7 +816,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -931,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -972,6 +984,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2044,13 +2069,13 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4608534728531506</c:v>
+                  <c:v>3.4234833101213358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4472257667257882</c:v>
+                  <c:v>2.4283859058039514</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4441651622382192</c:v>
+                  <c:v>2.4258385487219343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6811,16 +6836,16 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0422571336493043</c:v>
+                  <c:v>9.0322571336493027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6634520548331819</c:v>
+                  <c:v>7.6434827441332986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6418099968023157</c:v>
+                  <c:v>6.6124524678486694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2648771960174221</c:v>
+                  <c:v>6.2263917092955738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6895,10 +6920,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0422571336493043</c:v>
+                  <c:v>9.0322571336493027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1583227281020116</c:v>
+                  <c:v>7.1383410513710048</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.1</c:v>
@@ -7359,13 +7384,13 @@
                   <c:v>6.867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7829999999999995</c:v>
+                  <c:v>6.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7829999999999995</c:v>
+                  <c:v>6.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7829999999999995</c:v>
+                  <c:v>6.7830000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7664,16 +7689,16 @@
                   <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.718845186350725</c:v>
+                  <c:v>9.708845186350727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3335709548974197</c:v>
+                  <c:v>9.3135526316284274</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0368781650462786</c:v>
+                  <c:v>8.9993343277774951</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7384806907198929</c:v>
+                  <c:v>8.6837767143729412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7748,16 +7773,16 @@
                   <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.218845186350725</c:v>
+                  <c:v>10.208845186350727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.213990511167419</c:v>
+                  <c:v>10.193959821867308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.193338646698306</c:v>
+                  <c:v>10.163782175651365</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7612192784826295</c:v>
+                  <c:v>9.7221782847044604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8074,25 +8099,25 @@
                   <c:v>6.867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7829999999999995</c:v>
+                  <c:v>6.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7829999999999995</c:v>
+                  <c:v>6.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7829999999999995</c:v>
+                  <c:v>6.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7829999999999995</c:v>
+                  <c:v>6.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7829999999999995</c:v>
+                  <c:v>6.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.7829999999999995</c:v>
+                  <c:v>6.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7829999999999995</c:v>
+                  <c:v>6.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.5330000000000004</c:v>
@@ -8640,31 +8665,31 @@
                   <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.718845186350725</c:v>
+                  <c:v>9.708845186350727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.3481138753816442</c:v>
+                  <c:v>9.3281315674907948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.0807126641286047</c:v>
+                  <c:v>9.0427584674352897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8186369751811853</c:v>
+                  <c:v>8.7639290758965469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5624659271690966</c:v>
+                  <c:v>8.4915395707632033</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.3121650598230055</c:v>
+                  <c:v>8.2256982900698059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.066965637509341</c:v>
+                  <c:v>7.9654311151393475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.8483404860342372</c:v>
+                  <c:v>7.7326480822497654</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.6529385247092119</c:v>
+                  <c:v>7.5232324780640472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8755,31 +8780,31 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.442257133649303</c:v>
+                  <c:v>10.432257133649305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9028919646178117</c:v>
+                  <c:v>9.8828742725086656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3906334218714242</c:v>
+                  <c:v>9.3525876185647441</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8957190323188442</c:v>
+                  <c:v>8.8409004511034617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4185431968321076</c:v>
+                  <c:v>8.3475025922356316</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.9588448561782004</c:v>
+                  <c:v>7.8722917039284548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5156542708912966</c:v>
+                  <c:v>9.4141118988589128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.00449205836523</c:v>
+                  <c:v>10.88852812624792</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.432277863190858</c:v>
+                  <c:v>12.301550132433068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25983,7 +26008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447CC9A2-4C52-453A-A3CD-EA6E59E26162}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -26024,20 +26049,20 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:12" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
@@ -26053,254 +26078,254 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="61"/>
     </row>
     <row r="10" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="61"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
     </row>
     <row r="13" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>7</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="60" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
     </row>
     <row r="14" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>8</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
         <v>9</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>10</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
         <v>11</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
         <v>12</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
     </row>
     <row r="19" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29">
         <v>13</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
@@ -26390,20 +26415,20 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -38742,48 +38767,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="52"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -40676,48 +40701,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -42573,10 +42598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BD1F0-C024-4B0C-A52B-7568661161E6}">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42596,6 +42621,7 @@
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="17" max="17" width="10.81640625" customWidth="1"/>
     <col min="18" max="18" width="21.6328125" customWidth="1"/>
+    <col min="20" max="20" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -42639,48 +42665,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -42898,39 +42924,39 @@
       </c>
       <c r="D24" s="15">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>19.261102320000028</v>
+        <v>19.241102320000032</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" ref="E24:L24" si="3">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>17.8774425660006</v>
+        <v>17.837442566000608</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="3"/>
-        <v>16.835148643500624</v>
+        <v>16.776234643500032</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="3"/>
-        <v>16.026096474500051</v>
+        <v>15.948569994000035</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="3"/>
-        <v>15.24199254190065</v>
+        <v>15.147895051498864</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="3"/>
-        <v>15.303535786901246</v>
+        <v>15.17672334389826</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>15.362814041802418</v>
+        <v>15.203280588898261</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="3"/>
-        <v>15.420835249303588</v>
+        <v>15.229837833898259</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="3"/>
-        <v>15.476585466702987</v>
+        <v>15.255381078898859</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -42943,39 +42969,39 @@
       </c>
       <c r="D25" s="15">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>9.0422571336493043</v>
+        <v>9.0322571336493027</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" ref="E25:L27" si="4">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>7.6634520548331819</v>
+        <v>7.6434827441332986</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="4"/>
-        <v>6.6418099968023157</v>
+        <v>6.6124524678486694</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="4"/>
-        <v>6.2648771960174221</v>
+        <v>6.2263917092955738</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="4"/>
-        <v>5.9009113310257435</v>
+        <v>5.8542092218663742</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="4"/>
-        <v>6.3601427881994557</v>
+        <v>6.2972808791190165</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="4"/>
-        <v>6.7944923994879503</v>
+        <v>6.7155557972202651</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>7.2057846941326744</v>
+        <v>7.1113174856881205</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>7.5948852881101416</v>
+        <v>7.4854133588983487</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -42988,39 +43014,39 @@
       </c>
       <c r="D26" s="15">
         <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v>10.218845186350725</v>
+        <v>10.208845186350727</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="4"/>
-        <v>10.213990511167419</v>
+        <v>10.193959821867308</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="4"/>
-        <v>10.193338646698306</v>
+        <v>10.163782175651365</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="4"/>
-        <v>9.7612192784826295</v>
+        <v>9.7221782847044604</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="4"/>
-        <v>9.3410812108749059</v>
+        <v>9.2936858296324889</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="4"/>
-        <v>8.9433929987017908</v>
+        <v>8.8794424647792436</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="4"/>
-        <v>8.5683216423144675</v>
+        <v>8.4877247916779961</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>8.2150505551709134</v>
+        <v>8.1185203482101382</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>7.8817001785928458</v>
+        <v>7.7699677200005102</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -43087,39 +43113,39 @@
       </c>
       <c r="D29" s="15">
         <f t="shared" ref="D29:L30" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>9.6305511600000138</v>
+        <v>9.6205511600000158</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="5"/>
-        <v>8.9387212830002998</v>
+        <v>8.9187212830003038</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="5"/>
-        <v>8.4175743217503118</v>
+        <v>8.3881173217500162</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="5"/>
-        <v>8.0130482372500254</v>
+        <v>7.9742849970000176</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="5"/>
-        <v>7.6209962709503252</v>
+        <v>7.573947525749432</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="5"/>
-        <v>7.6517678934506232</v>
+        <v>7.58836167194913</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="5"/>
-        <v>7.6814070209012089</v>
+        <v>7.6016402944491306</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="5"/>
-        <v>7.7104176246517939</v>
+        <v>7.6149189169491294</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="5"/>
-        <v>7.7382927333514937</v>
+        <v>7.6276905394494294</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -43136,39 +43162,39 @@
       </c>
       <c r="D30" s="15">
         <f t="shared" si="5"/>
-        <v>9.6305511600000138</v>
+        <v>9.6205511600000158</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="5"/>
-        <v>8.9387212830002998</v>
+        <v>8.9187212830003038</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="5"/>
-        <v>8.4175743217503118</v>
+        <v>8.3881173217500162</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="5"/>
-        <v>8.0130482372500254</v>
+        <v>7.9742849970000176</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="5"/>
-        <v>7.6209962709503252</v>
+        <v>7.573947525749432</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="5"/>
-        <v>7.6517678934506232</v>
+        <v>7.58836167194913</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="5"/>
-        <v>7.6814070209012089</v>
+        <v>7.6016402944491306</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="5"/>
-        <v>7.7104176246517939</v>
+        <v>7.6149189169491294</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="5"/>
-        <v>7.7382927333514937</v>
+        <v>7.6276905394494294</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -43186,35 +43212,35 @@
       </c>
       <c r="E31" s="15">
         <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.925293922499973</v>
+        <v>0.92420792250057304</v>
       </c>
       <c r="F31" s="15">
         <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.89205216900057305</v>
+        <v>0.89066464949999991</v>
       </c>
       <c r="G31" s="15">
         <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.8671039325994</v>
+        <v>0.86367494250117305</v>
       </c>
       <c r="H31" s="15">
         <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84145675499939998</v>
+        <v>0.8381717076006</v>
       </c>
       <c r="I31" s="15">
         <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84372174509882703</v>
+        <v>0.84044275499999999</v>
       </c>
       <c r="J31" s="15">
         <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84497879249882701</v>
+        <v>0.84044275499999999</v>
       </c>
       <c r="K31" s="15">
         <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84724978260060002</v>
+        <v>0.84145675499939998</v>
       </c>
       <c r="L31" s="15">
         <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84961683000057309</v>
+        <v>0.84271374509882691</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -43228,39 +43254,39 @@
       </c>
       <c r="D32" s="15">
         <f t="shared" ref="D32:L34" si="6">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.45380507881612187</v>
+        <v>0.45377438951600518</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="6"/>
-        <v>0.39664205803086539</v>
+        <v>0.39603027628462861</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="6"/>
-        <v>0.35193280078489469</v>
+        <v>0.35106075855309571</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="6"/>
-        <v>0.33896586499167913</v>
+        <v>0.3371824874292001</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="6"/>
-        <v>0.3257685428262872</v>
+        <v>0.3239283427473571</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="6"/>
-        <v>0.35065038871150594</v>
+        <v>0.34872508189875112</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="6"/>
-        <v>0.37370770535527542</v>
+        <v>0.3712383115321447</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="6"/>
-        <v>0.3958994060225336</v>
+        <v>0.39290412678977132</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="6"/>
-        <v>0.41693578836138268</v>
+        <v>0.41349742052758576</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -43274,39 +43300,39 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" si="6"/>
-        <v>0.51285467518330519</v>
+        <v>0.51288536448342181</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="6"/>
-        <v>0.52865186446910761</v>
+        <v>0.52817764621594443</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="6"/>
-        <v>0.5401193682156783</v>
+        <v>0.53960389094690431</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="6"/>
-        <v>0.52813806760772097</v>
+        <v>0.52649245507197284</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="6"/>
-        <v>0.51568821217311267</v>
+        <v>0.51424336485324285</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="6"/>
-        <v>0.49307135638732108</v>
+        <v>0.49171767310124892</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>0.47127108714355159</v>
+        <v>0.46920444346785528</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0.45135037657806643</v>
+        <v>0.44855262820962866</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="6"/>
-        <v>0.43268104163919041</v>
+        <v>0.42921632457124115</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -43362,43 +43388,43 @@
       <c r="B35" s="1"/>
       <c r="C35" s="45">
         <f>IF(C22&lt;&gt;"",1.5-IF(C$26&lt;$O$51,$Q$51,IF(C$26&lt;=$O$58,VLOOKUP(C$26,$O$51:$Q$58,3),0)),"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="D35" s="45">
         <f t="shared" ref="D35:L35" si="7">IF(D22&lt;&gt;"",1.5-IF(D$26&lt;$O$51,$Q$51,IF(D$26&lt;=$O$58,VLOOKUP(D$26,$O$51:$Q$58,3),0)),"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="E35" s="45">
         <f t="shared" si="7"/>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="F35" s="45">
         <f t="shared" si="7"/>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G35" s="45">
         <f t="shared" si="7"/>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="I35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="J35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="K35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="L35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -43408,43 +43434,43 @@
       <c r="B36" s="1"/>
       <c r="C36" s="15">
         <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>10.275</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" ref="D36:L36" si="8">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>10.275</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="8"/>
-        <v>10.275</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="8"/>
-        <v>10.275</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="8"/>
-        <v>10.275</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -43454,43 +43480,43 @@
       <c r="B37" s="25"/>
       <c r="C37" s="15">
         <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>2.7750000000000004</v>
+        <v>2.7650000000000006</v>
       </c>
       <c r="D37" s="15">
         <f t="shared" ref="D37:L37" si="9">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>2.7750000000000004</v>
+        <v>2.7650000000000006</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7750000000000004</v>
+        <v>2.7650000000000006</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7750000000000004</v>
+        <v>2.7650000000000006</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7750000000000004</v>
+        <v>2.7650000000000006</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -43654,43 +43680,43 @@
       </c>
       <c r="C45" s="15">
         <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>12.742257133649304</v>
+        <v>12.732257133649304</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" ref="D45:L45" si="12">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>10.963452054833182</v>
+        <v>10.943482744133298</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="12"/>
-        <v>9.6418099968023157</v>
+        <v>9.6124524678486694</v>
       </c>
       <c r="F45" s="15">
         <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
-        <v>9.0648771960174219</v>
+        <v>9.0263917092955737</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="12"/>
-        <v>8.7009113310257433</v>
+        <v>8.654209221866374</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="12"/>
-        <v>8.3601427881994557</v>
+        <v>8.2972808791190165</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="12"/>
-        <v>8.7944923994879503</v>
+        <v>8.7155557972202651</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="12"/>
-        <v>9.2057846941326744</v>
+        <v>9.1113174856881205</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="12"/>
-        <v>9.5948852881101416</v>
+        <v>9.4854133588983487</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="12"/>
-        <v>9.9629494997487598</v>
+        <v>9.8389159383707625</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -43699,43 +43725,43 @@
       </c>
       <c r="C46" s="15">
         <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
-        <v>17.685845186350726</v>
+        <v>17.675845186350728</v>
       </c>
       <c r="D46" s="15">
         <f t="shared" ref="D46:L46" si="13">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>17.680990511167419</v>
+        <v>17.660959821867309</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="13"/>
-        <v>17.660338646698307</v>
+        <v>17.630782175651365</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="13"/>
-        <v>17.22821927848263</v>
+        <v>17.189178284704461</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="13"/>
-        <v>16.808081210874906</v>
+        <v>16.760685829632489</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="13"/>
-        <v>16.410392998701791</v>
+        <v>16.346442464779244</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="13"/>
-        <v>16.035321642314468</v>
+        <v>15.954724791677997</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="13"/>
-        <v>15.682050555170914</v>
+        <v>15.585520348210139</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="13"/>
-        <v>15.348700178592846</v>
+        <v>15.236967720000509</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="13"/>
-        <v>15.034019136953656</v>
+        <v>14.907751395429269</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -43744,43 +43770,43 @@
       </c>
       <c r="C47" s="15">
         <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="D47" s="15">
         <f t="shared" ref="D47:L47" si="14">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="14"/>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="14"/>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="G47" s="15">
         <f t="shared" si="14"/>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="K47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="L47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -43799,7 +43825,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -43837,7 +43863,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -43890,14 +43916,20 @@
       <c r="P50" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="Q50" s="40" t="s">
-        <v>137</v>
+      <c r="Q50" s="74" t="s">
+        <v>175</v>
       </c>
       <c r="R50" s="39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S50" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="T50" s="72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -43948,59 +43980,66 @@
         <v>5.981122</v>
       </c>
       <c r="P51" s="43">
-        <f t="shared" ref="P51:P58" si="17">R51-Q51</f>
-        <v>1.2</v>
-      </c>
-      <c r="Q51" s="44">
+        <f>R51-Q51</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="Q51" s="70">
+        <v>0.15</v>
+      </c>
+      <c r="R51" s="43">
+        <f>T51/1000000</f>
+        <v>1.35</v>
+      </c>
+      <c r="S51" s="44">
         <v>0.125</v>
       </c>
-      <c r="R51" s="43">
-        <v>1.325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T51" s="73">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="45">
+      <c r="C52" s="71">
         <f>IF(C22&lt;&gt;"",C35,"")</f>
-        <v>1.45</v>
-      </c>
-      <c r="D52" s="45">
-        <f t="shared" ref="D52:L52" si="18">IF(D22&lt;&gt;"",D35,"")</f>
-        <v>1.45</v>
-      </c>
-      <c r="E52" s="45">
-        <f t="shared" si="18"/>
-        <v>1.45</v>
-      </c>
-      <c r="F52" s="45">
-        <f t="shared" si="18"/>
-        <v>1.45</v>
-      </c>
-      <c r="G52" s="45">
-        <f t="shared" si="18"/>
-        <v>1.45</v>
+        <v>1.47</v>
+      </c>
+      <c r="D52" s="71">
+        <f t="shared" ref="D52:L52" si="17">IF(D22&lt;&gt;"",D35,"")</f>
+        <v>1.47</v>
+      </c>
+      <c r="E52" s="71">
+        <f t="shared" si="17"/>
+        <v>1.47</v>
+      </c>
+      <c r="F52" s="71">
+        <f t="shared" si="17"/>
+        <v>1.47</v>
+      </c>
+      <c r="G52" s="71">
+        <f t="shared" si="17"/>
+        <v>1.47</v>
       </c>
       <c r="H52" s="45">
-        <f t="shared" si="18"/>
-        <v>1.43</v>
+        <f t="shared" si="17"/>
+        <v>1.466</v>
       </c>
       <c r="I52" s="45">
-        <f t="shared" si="18"/>
-        <v>1.43</v>
+        <f t="shared" si="17"/>
+        <v>1.466</v>
       </c>
       <c r="J52" s="45">
-        <f t="shared" si="18"/>
-        <v>1.43</v>
+        <f t="shared" si="17"/>
+        <v>1.466</v>
       </c>
       <c r="K52" s="45">
-        <f t="shared" si="18"/>
-        <v>1.43</v>
+        <f t="shared" si="17"/>
+        <v>1.466</v>
       </c>
       <c r="L52" s="45">
-        <f t="shared" si="18"/>
-        <v>1.43</v>
+        <f t="shared" si="17"/>
+        <v>1.466</v>
       </c>
       <c r="N52" s="41">
         <v>1030</v>
@@ -44009,17 +44048,24 @@
         <v>6.305377</v>
       </c>
       <c r="P52" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="P52:P58" si="18">R52-Q52</f>
         <v>1.117</v>
       </c>
-      <c r="Q52" s="44">
+      <c r="Q52" s="70">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="R52" s="43">
+        <f>T52/1000000</f>
+        <v>1.218</v>
+      </c>
+      <c r="S52" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R52" s="43">
-        <v>1.1870000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T52" s="73">
+        <v>1218000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>145</v>
       </c>
@@ -44040,59 +44086,66 @@
         <v>6.6375080000000004</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0669999999999999</v>
       </c>
-      <c r="Q53" s="44">
+      <c r="Q53" s="70">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="R53" s="43">
+        <f>T53/1000000</f>
+        <v>1.159</v>
+      </c>
+      <c r="S53" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R53" s="43">
-        <v>1.137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T53" s="73">
+        <v>1159000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="15">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>9.0422571336493043</v>
+        <v>9.0322571336493027</v>
       </c>
       <c r="D54" s="15">
         <f t="shared" ref="D54:L54" si="19">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>7.6634520548331819</v>
+        <v>7.6434827441332986</v>
       </c>
       <c r="E54" s="15">
         <f t="shared" si="19"/>
-        <v>6.6418099968023157</v>
+        <v>6.6124524678486694</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="19"/>
-        <v>6.2648771960174221</v>
+        <v>6.2263917092955738</v>
       </c>
       <c r="G54" s="15">
         <f t="shared" si="19"/>
-        <v>5.9009113310257435</v>
+        <v>5.8542092218663742</v>
       </c>
       <c r="H54" s="15">
         <f t="shared" si="19"/>
-        <v>6.3601427881994557</v>
+        <v>6.2972808791190165</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="19"/>
-        <v>6.7944923994879503</v>
+        <v>6.7155557972202651</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="19"/>
-        <v>7.2057846941326744</v>
+        <v>7.1113174856881205</v>
       </c>
       <c r="K54" s="15">
         <f t="shared" si="19"/>
-        <v>7.5948852881101416</v>
+        <v>7.4854133588983487</v>
       </c>
       <c r="L54" s="15">
         <f t="shared" si="19"/>
-        <v>7.9629494997487598</v>
+        <v>7.8389159383707625</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
@@ -44101,59 +44154,66 @@
         <v>6.977665</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.0169999999999999</v>
       </c>
-      <c r="Q54" s="44">
+      <c r="Q54" s="70">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="R54" s="43">
+        <f>T54/1000000</f>
+        <v>1.101</v>
+      </c>
+      <c r="S54" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R54" s="43">
-        <v>1.087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T54" s="73">
+        <v>1101000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="15">
         <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
-        <v>10.218845186350725</v>
+        <v>10.208845186350727</v>
       </c>
       <c r="D55" s="15">
         <f t="shared" ref="D55:L55" si="20">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>10.213990511167419</v>
+        <v>10.193959821867308</v>
       </c>
       <c r="E55" s="15">
         <f t="shared" si="20"/>
-        <v>10.193338646698306</v>
+        <v>10.163782175651365</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="20"/>
-        <v>9.7612192784826295</v>
+        <v>9.7221782847044604</v>
       </c>
       <c r="G55" s="15">
         <f t="shared" si="20"/>
-        <v>9.3410812108749059</v>
+        <v>9.2936858296324889</v>
       </c>
       <c r="H55" s="15">
         <f t="shared" si="20"/>
-        <v>8.9433929987017908</v>
+        <v>8.8794424647792436</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="20"/>
-        <v>8.5683216423144675</v>
+        <v>8.4877247916779961</v>
       </c>
       <c r="J55" s="15">
         <f t="shared" si="20"/>
-        <v>8.2150505551709134</v>
+        <v>8.1185203482101382</v>
       </c>
       <c r="K55" s="15">
         <f t="shared" si="20"/>
-        <v>7.8817001785928458</v>
+        <v>7.7699677200005102</v>
       </c>
       <c r="L55" s="15">
         <f t="shared" si="20"/>
-        <v>7.5670191369536557</v>
+        <v>7.4407513954292686</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
@@ -44162,17 +44222,24 @@
         <v>7.3260519999999998</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="17"/>
-        <v>0.96699999999999986</v>
-      </c>
-      <c r="Q55" s="44">
+        <f t="shared" si="18"/>
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="Q55" s="70">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="R55" s="43">
+        <f>T55/1000000</f>
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="S55" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R55" s="43">
-        <v>1.0369999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T55" s="73">
+        <v>1043000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -44223,60 +44290,67 @@
         <v>7.6828779999999997</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="17"/>
-        <v>0.71700000000000008</v>
-      </c>
-      <c r="Q56" s="44">
+        <f t="shared" si="18"/>
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="Q56" s="70">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R56" s="43">
+        <f>T56/1000000</f>
+        <v>0.751</v>
+      </c>
+      <c r="S56" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R56" s="43">
-        <v>0.78700000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T56" s="73">
+        <v>751000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="15">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>19.261102320000028</v>
+        <v>19.241102320000032</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" ref="D57:L57" si="22">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>17.8774425660006</v>
+        <v>17.837442566000608</v>
       </c>
       <c r="E57" s="15">
         <f t="shared" si="22"/>
-        <v>16.835148643500624</v>
+        <v>16.776234643500032</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="22"/>
-        <v>16.026096474500051</v>
+        <v>15.948569994000035</v>
       </c>
       <c r="G57" s="15">
         <f t="shared" si="22"/>
-        <v>15.24199254190065</v>
+        <v>15.147895051498864</v>
       </c>
       <c r="H57" s="15">
         <f t="shared" si="22"/>
-        <v>15.303535786901246</v>
+        <v>15.17672334389826</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="22"/>
-        <v>15.362814041802418</v>
+        <v>15.203280588898261</v>
       </c>
       <c r="J57" s="15">
         <f t="shared" si="22"/>
-        <v>15.420835249303588</v>
+        <v>15.229837833898259</v>
       </c>
       <c r="K57" s="15">
         <f t="shared" si="22"/>
-        <v>15.476585466702987</v>
+        <v>15.255381078898859</v>
       </c>
       <c r="L57" s="15">
         <f t="shared" si="22"/>
-        <v>15.529968636702415</v>
+        <v>15.279667333800031</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
@@ -44285,60 +44359,67 @@
         <v>9.6009879999900001</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.63300000000000001</v>
       </c>
-      <c r="Q57" s="44">
+      <c r="Q57" s="70">
+        <v>0.03</v>
+      </c>
+      <c r="R57" s="43">
+        <f>T57/1000000</f>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="S57" s="44">
         <v>0.05</v>
       </c>
-      <c r="R57" s="43">
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T57" s="73">
+        <v>663000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="15">
         <f>IF(C22&lt;&gt;"",C29+C22-C32-C49-C57*$B$29,"")</f>
-        <v>8.1367059736492884</v>
+        <v>8.1467059736492864</v>
       </c>
       <c r="D58" s="15">
         <f t="shared" ref="D58:L58" si="23">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
-        <v>7.9380247981835925</v>
+        <v>7.9480554874837051</v>
       </c>
       <c r="E58" s="15">
         <f t="shared" si="23"/>
-        <v>8.1245049032191226</v>
+        <v>8.1345736849656589</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="23"/>
-        <v>8.2525932837153917</v>
+        <v>8.2627715661969017</v>
       </c>
       <c r="G58" s="15">
         <f t="shared" si="23"/>
-        <v>8.2530861013080212</v>
+        <v>8.2631549838213871</v>
       </c>
       <c r="H58" s="15">
         <f t="shared" si="23"/>
-        <v>8.6434598346734131</v>
+        <v>8.6616575110529439</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="23"/>
-        <v>8.6197104838379097</v>
+        <v>8.6379962956012477</v>
       </c>
       <c r="J58" s="15">
         <f t="shared" si="23"/>
-        <v>8.597281690894139</v>
+        <v>8.6154830659678545</v>
       </c>
       <c r="K58" s="15">
         <f t="shared" si="23"/>
-        <v>8.5762254852777673</v>
+        <v>8.5943242507099278</v>
       </c>
       <c r="L58" s="15">
         <f t="shared" si="23"/>
-        <v>8.556372626638904</v>
+        <v>8.5743594520218256</v>
       </c>
       <c r="N58" s="41">
         <v>1090</v>
@@ -44347,22 +44428,29 @@
         <v>10.857008</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="17"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q58" s="40"/>
+        <f t="shared" si="18"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q58" s="70">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="R58" s="43">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+        <f>T58/1000000</f>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="S58" s="40"/>
+      <c r="T58" s="73">
+        <v>341000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>131</v>
       </c>
@@ -44407,7 +44495,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -44452,7 +44540,7 @@
         <v>7.0670000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
     </row>
   </sheetData>
@@ -44581,10 +44669,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E878AF-96FE-424D-B802-94EDCA32030C}">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="G46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50:T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44604,6 +44692,7 @@
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="17" max="17" width="10.81640625" customWidth="1"/>
     <col min="18" max="18" width="21.6328125" customWidth="1"/>
+    <col min="20" max="20" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -44647,48 +44736,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -44906,39 +44995,39 @@
       </c>
       <c r="D24" s="15">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>18.761102320000028</v>
+        <v>18.741102320000032</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" ref="E24:L24" si="3">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>16.491893682999432</v>
+        <v>16.451893682999433</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="3"/>
-        <v>15.136878165046278</v>
+        <v>15.099334327777495</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="3"/>
-        <v>14.838480690719893</v>
+        <v>14.783776714372941</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="3"/>
-        <v>14.552221895882846</v>
+        <v>14.482109523151603</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="3"/>
-        <v>14.719200338282249</v>
+        <v>14.615358955652773</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="3"/>
-        <v>14.881642743182251</v>
+        <v>14.744072350651598</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="3"/>
-        <v>15.038535110582826</v>
+        <v>14.869500755552199</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="3"/>
-        <v>15.189634393082255</v>
+        <v>15.032393122952772</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -44951,11 +45040,11 @@
       </c>
       <c r="D25" s="15">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>9.0422571336493043</v>
+        <v>9.0322571336493027</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" ref="E25:L27" si="4">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>7.1583227281020116</v>
+        <v>7.1383410513710048</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="4"/>
@@ -44971,19 +45060,19 @@
       </c>
       <c r="I25" s="15">
         <f t="shared" si="4"/>
-        <v>6.5412633845777961</v>
+        <v>6.5225558115502142</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="4"/>
-        <v>6.9598271461039474</v>
+        <v>6.9225849906155759</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="4"/>
-        <v>7.3566034979989432</v>
+        <v>7.3019655190751305</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="4"/>
-        <v>7.7326946450337939</v>
+        <v>7.6823245760462395</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -44996,39 +45085,39 @@
       </c>
       <c r="D26" s="15">
         <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v>9.718845186350725</v>
+        <v>9.708845186350727</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="4"/>
-        <v>9.3335709548974197</v>
+        <v>9.3135526316284274</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="4"/>
-        <v>9.0368781650462786</v>
+        <v>8.9993343277774951</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="4"/>
-        <v>8.7384806907198929</v>
+        <v>8.6837767143729412</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="4"/>
-        <v>8.4522218958828468</v>
+        <v>8.3821095231516036</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="4"/>
-        <v>8.1779369537044531</v>
+        <v>8.0928031441025592</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="4"/>
-        <v>7.9218155970783037</v>
+        <v>7.8214873600360217</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="4"/>
-        <v>7.6819316125838828</v>
+        <v>7.5675352364770685</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="4"/>
-        <v>7.4569397480484607</v>
+        <v>7.3500685469065337</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -45095,39 +45184,39 @@
       </c>
       <c r="D29" s="15">
         <f t="shared" ref="D29:L30" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>9.3805511600000138</v>
+        <v>9.3705511600000158</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="5"/>
-        <v>8.2459468414997161</v>
+        <v>8.2259468414997166</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="5"/>
-        <v>7.5684390825231391</v>
+        <v>7.5496671638887474</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="5"/>
-        <v>7.4192403453599463</v>
+        <v>7.3918883571864704</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="5"/>
-        <v>7.2761109479414232</v>
+        <v>7.2410547615758016</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="5"/>
-        <v>7.3596001691411246</v>
+        <v>7.3076794778263867</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="5"/>
-        <v>7.4408213715911256</v>
+        <v>7.3720361753257988</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="5"/>
-        <v>7.519267555291413</v>
+        <v>7.4347503777760995</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="5"/>
-        <v>7.5948171965411273</v>
+        <v>7.5161965614763862</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -45144,39 +45233,39 @@
       </c>
       <c r="D30" s="15">
         <f t="shared" si="5"/>
-        <v>9.3805511600000138</v>
+        <v>9.3705511600000158</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="5"/>
-        <v>8.2459468414997161</v>
+        <v>8.2259468414997166</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="5"/>
-        <v>7.5684390825231391</v>
+        <v>7.5496671638887474</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="5"/>
-        <v>7.4192403453599463</v>
+        <v>7.3918883571864704</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="5"/>
-        <v>7.2761109479414232</v>
+        <v>7.2410547615758016</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="5"/>
-        <v>7.3596001691411246</v>
+        <v>7.3076794778263867</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="5"/>
-        <v>7.4408213715911256</v>
+        <v>7.3720361753257988</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="5"/>
-        <v>7.519267555291413</v>
+        <v>7.4347503777760995</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="5"/>
-        <v>7.5948171965411273</v>
+        <v>7.5161965614763862</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -45194,7 +45283,7 @@
       </c>
       <c r="E31" s="15">
         <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.88116204509999996</v>
+        <v>0.8800760451006</v>
       </c>
       <c r="F31" s="15">
         <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
@@ -45202,27 +45291,27 @@
       </c>
       <c r="G31" s="15">
         <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.82909363259882696</v>
+        <v>0.82682864249940002</v>
       </c>
       <c r="H31" s="15">
         <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.82002155760060003</v>
+        <v>0.81775056749882702</v>
       </c>
       <c r="I31" s="15">
         <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.82455759509999993</v>
+        <v>0.82228660500117301</v>
       </c>
       <c r="J31" s="15">
         <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.83010763259942699</v>
+        <v>0.82557159509940004</v>
       </c>
       <c r="K31" s="15">
         <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.83590071750057304</v>
+        <v>0.83010763259942699</v>
       </c>
       <c r="L31" s="15">
         <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.84044275499999999</v>
+        <v>0.83590071750057304</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -45236,39 +45325,39 @@
       </c>
       <c r="D32" s="15">
         <f t="shared" ref="D32:L34" si="6">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.45893440554729326</v>
+        <v>0.45891608227829866</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="6"/>
-        <v>0.38246925524886044</v>
+        <v>0.38185774124966848</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="6"/>
-        <v>0.33777423327421147</v>
+        <v>0.33861409419604732</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="6"/>
-        <v>0.34083483776178164</v>
+        <v>0.34116145127806524</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="6"/>
-        <v>0.34373661542220413</v>
+        <v>0.34444418844978414</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="6"/>
-        <v>0.36643623847384904</v>
+        <v>0.36697082093463695</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="6"/>
-        <v>0.38822364810500409</v>
+        <v>0.38761947154044546</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="6"/>
-        <v>0.40890885296514889</v>
+        <v>0.40764094302889081</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="6"/>
-        <v>0.42785013930326771</v>
+        <v>0.42718817773493323</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -45282,39 +45371,39 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" si="6"/>
-        <v>0.4932742314533069</v>
+        <v>0.49329255472230121</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="6"/>
-        <v>0.49869278985113941</v>
+        <v>0.49821830385093147</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="6"/>
-        <v>0.50039747432638848</v>
+        <v>0.49955761340455263</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="6"/>
-        <v>0.48825879483704526</v>
+        <v>0.48566719122133478</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="6"/>
-        <v>0.4762849421783959</v>
+        <v>0.47330637904904288</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="6"/>
-        <v>0.45812135662615089</v>
+        <v>0.45531578406653606</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>0.44188398449442284</v>
+        <v>0.43795212355895458</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0.42699186453542415</v>
+        <v>0.42246668957053618</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="6"/>
-        <v>0.41259261569673228</v>
+        <v>0.40871253976563982</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -45370,43 +45459,43 @@
       <c r="B35" s="1"/>
       <c r="C35" s="45">
         <f>IF(C22&lt;&gt;"",1.5-IF(C$26&lt;$O$51,$Q$51,IF(C$26&lt;=$O$58,VLOOKUP(C$26,$O$51:$Q$58,3),0)),"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="D35" s="45">
         <f t="shared" ref="D35:L35" si="7">IF(D22&lt;&gt;"",1.5-IF(D$26&lt;$O$51,$Q$51,IF(D$26&lt;=$O$58,VLOOKUP(D$26,$O$51:$Q$58,3),0)),"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="E35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="F35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="G35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="H35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="I35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="J35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="K35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="L35" s="45">
         <f t="shared" si="7"/>
-        <v>1.43</v>
+        <v>1.4239999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -45416,43 +45505,43 @@
       <c r="B36" s="1"/>
       <c r="C36" s="15">
         <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>10.275</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" ref="D36:L36" si="8">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>10.275</v>
+        <v>10.265000000000001</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.266999999999999</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.288</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="8"/>
-        <v>10.285</v>
+        <v>10.288</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -45462,43 +45551,43 @@
       <c r="B37" s="25"/>
       <c r="C37" s="15">
         <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>2.7750000000000004</v>
+        <v>2.7650000000000006</v>
       </c>
       <c r="D37" s="15">
         <f t="shared" ref="D37:L37" si="9">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>2.7750000000000004</v>
+        <v>2.7650000000000006</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7669999999999995</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7880000000000003</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="9"/>
-        <v>2.7850000000000001</v>
+        <v>2.7880000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -45641,43 +45730,43 @@
       </c>
       <c r="C45" s="15">
         <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>13.242257133649304</v>
+        <v>13.232257133649304</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" ref="D45:L45" si="11">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>11.358322728102012</v>
+        <v>11.338341051371005</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="11"/>
-        <v>9.5608534728531502</v>
+        <v>9.5234833101213354</v>
       </c>
       <c r="F45" s="15">
         <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
-        <v>8.5472257667257878</v>
+        <v>8.5283859058039511</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="11"/>
-        <v>8.5441651622382189</v>
+        <v>8.5258385487219339</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="11"/>
-        <v>8.5412633845777961</v>
+        <v>8.5225558115502142</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="11"/>
-        <v>8.9598271461039474</v>
+        <v>8.9225849906155759</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="11"/>
-        <v>9.3566034979989432</v>
+        <v>9.3019655190751305</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="11"/>
-        <v>9.7326946450337939</v>
+        <v>9.6823245760462395</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="11"/>
-        <v>10.089844505730527</v>
+        <v>10.043136398311306</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -45686,43 +45775,43 @@
       </c>
       <c r="C46" s="15">
         <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
-        <v>17.185845186350726</v>
+        <v>17.175845186350728</v>
       </c>
       <c r="D46" s="15">
         <f t="shared" ref="D46:L46" si="12">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>16.80057095489742</v>
+        <v>16.780552631628428</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="12"/>
-        <v>16.419878165046278</v>
+        <v>16.382334327777496</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="12"/>
-        <v>16.121480690719892</v>
+        <v>16.066776714372942</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="12"/>
-        <v>15.835221895882846</v>
+        <v>15.765109523151605</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="12"/>
-        <v>15.560936953704452</v>
+        <v>15.47580314410256</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="12"/>
-        <v>15.304815597078303</v>
+        <v>15.204487360036023</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="12"/>
-        <v>15.064931612583882</v>
+        <v>14.950535236477068</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="12"/>
-        <v>14.83993974804846</v>
+        <v>14.733068546906534</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="12"/>
-        <v>14.629347132351729</v>
+        <v>14.529356007140896</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -45731,43 +45820,43 @@
       </c>
       <c r="C47" s="15">
         <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="D47" s="15">
         <f t="shared" ref="D47:L47" si="13">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="13"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="13"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="G47" s="15">
         <f t="shared" si="13"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="H47" s="15">
         <f t="shared" si="13"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="13"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="13"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="K47" s="15">
         <f t="shared" si="13"/>
-        <v>1.43</v>
+        <v>1.4239999999999999</v>
       </c>
       <c r="L47" s="15">
         <f t="shared" si="13"/>
-        <v>1.43</v>
+        <v>1.4239999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -45786,7 +45875,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -45800,15 +45889,15 @@
       </c>
       <c r="E49" s="45">
         <f t="shared" si="14"/>
-        <v>3.4608534728531506</v>
+        <v>3.4234833101213358</v>
       </c>
       <c r="F49" s="45">
         <f t="shared" si="14"/>
-        <v>2.4472257667257882</v>
+        <v>2.4283859058039514</v>
       </c>
       <c r="G49" s="45">
         <f t="shared" si="14"/>
-        <v>2.4441651622382192</v>
+        <v>2.4258385487219343</v>
       </c>
       <c r="H49" s="45">
         <v>2</v>
@@ -45830,7 +45919,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -45844,35 +45933,35 @@
       </c>
       <c r="E50" s="45">
         <f t="shared" si="15"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="F50" s="45">
         <f t="shared" si="15"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="G50" s="45">
         <f t="shared" si="15"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="H50" s="45">
         <f t="shared" ref="H50:L50" si="16">G50</f>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="I50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="J50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="K50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="L50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="N50" s="39" t="s">
         <v>134</v>
@@ -45883,14 +45972,20 @@
       <c r="P50" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="Q50" s="40" t="s">
-        <v>137</v>
+      <c r="Q50" s="74" t="s">
+        <v>175</v>
       </c>
       <c r="R50" s="39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S50" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="T50" s="72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -45941,59 +46036,66 @@
         <v>5.981122</v>
       </c>
       <c r="P51" s="43">
-        <f t="shared" ref="P51:P58" si="18">R51-Q51</f>
-        <v>1.2</v>
-      </c>
-      <c r="Q51" s="44">
+        <f>R51-Q51</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="Q51" s="70">
+        <v>0.15</v>
+      </c>
+      <c r="R51" s="43">
+        <f>T51/1000000</f>
+        <v>1.35</v>
+      </c>
+      <c r="S51" s="44">
         <v>0.125</v>
       </c>
-      <c r="R51" s="43">
-        <v>1.325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T51" s="73">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>144</v>
       </c>
       <c r="C52" s="45">
         <f>IF(C22&lt;&gt;"",C35,"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="D52" s="45">
-        <f t="shared" ref="D52:L52" si="19">IF(D22&lt;&gt;"",D35,"")</f>
-        <v>1.45</v>
+        <f t="shared" ref="D52:L52" si="18">IF(D22&lt;&gt;"",D35,"")</f>
+        <v>1.47</v>
       </c>
       <c r="E52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="F52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="G52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="H52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="I52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="J52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="K52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.4239999999999999</v>
       </c>
       <c r="L52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.4239999999999999</v>
       </c>
       <c r="N52" s="41">
         <v>1030</v>
@@ -46002,17 +46104,24 @@
         <v>6.305377</v>
       </c>
       <c r="P52" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="P52:P58" si="19">R52-Q52</f>
         <v>1.117</v>
       </c>
-      <c r="Q52" s="44">
+      <c r="Q52" s="70">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="R52" s="43">
+        <f>T52/1000000</f>
+        <v>1.218</v>
+      </c>
+      <c r="S52" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R52" s="43">
-        <v>1.1870000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T52" s="73">
+        <v>1218000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>145</v>
       </c>
@@ -46033,27 +46142,34 @@
         <v>6.6375080000000004</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0669999999999999</v>
       </c>
-      <c r="Q53" s="44">
+      <c r="Q53" s="70">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="R53" s="43">
+        <f>T53/1000000</f>
+        <v>1.159</v>
+      </c>
+      <c r="S53" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R53" s="43">
-        <v>1.137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T53" s="73">
+        <v>1159000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="15">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>9.0422571336493043</v>
+        <v>9.0322571336493027</v>
       </c>
       <c r="D54" s="15">
         <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>7.1583227281020116</v>
+        <v>7.1383410513710048</v>
       </c>
       <c r="E54" s="15">
         <f t="shared" si="20"/>
@@ -46069,23 +46185,23 @@
       </c>
       <c r="H54" s="15">
         <f t="shared" si="20"/>
-        <v>6.5412633845777961</v>
+        <v>6.5225558115502142</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="20"/>
-        <v>6.9598271461039474</v>
+        <v>6.9225849906155759</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="20"/>
-        <v>7.3566034979989432</v>
+        <v>7.3019655190751305</v>
       </c>
       <c r="K54" s="15">
         <f t="shared" si="20"/>
-        <v>7.7326946450337939</v>
+        <v>7.6823245760462395</v>
       </c>
       <c r="L54" s="15">
         <f t="shared" si="20"/>
-        <v>8.089844505730527</v>
+        <v>8.0431363983113062</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
@@ -46094,59 +46210,66 @@
         <v>6.977665</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0169999999999999</v>
       </c>
-      <c r="Q54" s="44">
+      <c r="Q54" s="70">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="R54" s="43">
+        <f>T54/1000000</f>
+        <v>1.101</v>
+      </c>
+      <c r="S54" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R54" s="43">
-        <v>1.087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T54" s="73">
+        <v>1101000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="15">
         <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
-        <v>9.718845186350725</v>
+        <v>9.708845186350727</v>
       </c>
       <c r="D55" s="15">
         <f t="shared" ref="D55:L55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>9.3335709548974197</v>
+        <v>9.3135526316284274</v>
       </c>
       <c r="E55" s="15">
         <f t="shared" si="21"/>
-        <v>9.0368781650462786</v>
+        <v>8.9993343277774951</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="21"/>
-        <v>8.7384806907198929</v>
+        <v>8.6837767143729412</v>
       </c>
       <c r="G55" s="15">
         <f t="shared" si="21"/>
-        <v>8.4522218958828468</v>
+        <v>8.3821095231516036</v>
       </c>
       <c r="H55" s="15">
         <f t="shared" si="21"/>
-        <v>8.1779369537044531</v>
+        <v>8.0928031441025592</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="21"/>
-        <v>7.9218155970783037</v>
+        <v>7.8214873600360217</v>
       </c>
       <c r="J55" s="15">
         <f t="shared" si="21"/>
-        <v>7.6819316125838828</v>
+        <v>7.5675352364770685</v>
       </c>
       <c r="K55" s="15">
         <f t="shared" si="21"/>
-        <v>7.4569397480484607</v>
+        <v>7.3500685469065337</v>
       </c>
       <c r="L55" s="15">
         <f t="shared" si="21"/>
-        <v>7.2463471323517297</v>
+        <v>7.1463560071408958</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
@@ -46155,17 +46278,24 @@
         <v>7.3260519999999998</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="18"/>
-        <v>0.96699999999999986</v>
-      </c>
-      <c r="Q55" s="44">
+        <f t="shared" si="19"/>
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="Q55" s="70">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="R55" s="43">
+        <f>T55/1000000</f>
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="S55" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R55" s="43">
-        <v>1.0369999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T55" s="73">
+        <v>1043000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -46216,60 +46346,67 @@
         <v>7.6828779999999997</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="18"/>
-        <v>0.71700000000000008</v>
-      </c>
-      <c r="Q56" s="44">
+        <f t="shared" si="19"/>
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="Q56" s="70">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R56" s="43">
+        <f>T56/1000000</f>
+        <v>0.751</v>
+      </c>
+      <c r="S56" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R56" s="43">
-        <v>0.78700000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T56" s="73">
+        <v>751000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="15">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>18.761102320000028</v>
+        <v>18.741102320000032</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>16.491893682999432</v>
+        <v>16.451893682999433</v>
       </c>
       <c r="E57" s="15">
         <f t="shared" si="23"/>
-        <v>15.136878165046278</v>
+        <v>15.099334327777495</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="23"/>
-        <v>14.838480690719893</v>
+        <v>14.783776714372941</v>
       </c>
       <c r="G57" s="15">
         <f t="shared" si="23"/>
-        <v>14.552221895882846</v>
+        <v>14.482109523151603</v>
       </c>
       <c r="H57" s="15">
         <f t="shared" si="23"/>
-        <v>14.719200338282249</v>
+        <v>14.615358955652773</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="23"/>
-        <v>14.881642743182251</v>
+        <v>14.744072350651598</v>
       </c>
       <c r="J57" s="15">
         <f t="shared" si="23"/>
-        <v>15.038535110582826</v>
+        <v>14.869500755552199</v>
       </c>
       <c r="K57" s="15">
         <f t="shared" si="23"/>
-        <v>15.189634393082255</v>
+        <v>15.032393122952772</v>
       </c>
       <c r="L57" s="15">
         <f t="shared" si="23"/>
-        <v>15.336191638082257</v>
+        <v>15.189492405452203</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
@@ -46278,60 +46415,67 @@
         <v>9.6009879999900001</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.63300000000000001</v>
       </c>
-      <c r="Q57" s="44">
+      <c r="Q57" s="70">
+        <v>0.03</v>
+      </c>
+      <c r="R57" s="43">
+        <f>T57/1000000</f>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="S57" s="44">
         <v>0.05</v>
       </c>
-      <c r="R57" s="43">
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T57" s="73">
+        <v>663000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="15">
         <f>IF(C22&lt;&gt;"",C29+C22-C32-C49-C57*$B$29,"")</f>
-        <v>7.8867059736492884</v>
+        <v>7.8967059736492864</v>
       </c>
       <c r="D58" s="15">
         <f t="shared" ref="D58:L58" si="24">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
-        <v>7.4756699129530055</v>
+        <v>7.4856882362219999</v>
       </c>
       <c r="E58" s="15">
         <f t="shared" si="24"/>
-        <v>7.8341850308745657</v>
+        <v>7.8709386262399654</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="24"/>
-        <v>8.3641987371631927</v>
+        <v>8.390778806702281</v>
       </c>
       <c r="G58" s="15">
         <f t="shared" si="24"/>
-        <v>8.3581293974185193</v>
+        <v>8.3838335956106693</v>
       </c>
       <c r="H58" s="15">
         <f t="shared" si="24"/>
-        <v>8.5727741633780923</v>
+        <v>8.5889310952996318</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="24"/>
-        <v>8.5523425590761502</v>
+        <v>8.568672481565951</v>
       </c>
       <c r="J58" s="15">
         <f t="shared" si="24"/>
-        <v>8.5333301681947091</v>
+        <v>8.5496663260092536</v>
       </c>
       <c r="K58" s="15">
         <f t="shared" si="24"/>
-        <v>8.5155415057851389</v>
+        <v>8.5109128732708204</v>
       </c>
       <c r="L58" s="15">
         <f t="shared" si="24"/>
-        <v>8.4988712381967346</v>
+        <v>8.4942621810153494</v>
       </c>
       <c r="N58" s="41">
         <v>1090</v>
@@ -46340,22 +46484,29 @@
         <v>10.857008</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q58" s="40"/>
+        <f t="shared" si="19"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q58" s="70">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="R58" s="43">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+        <f>T58/1000000</f>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="S58" s="40"/>
+      <c r="T58" s="73">
+        <v>341000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>131</v>
       </c>
@@ -46400,7 +46551,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -46414,38 +46565,38 @@
       </c>
       <c r="E61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="F61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="G61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="H61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="I61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="J61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="K61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="L61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+        <v>6.9830000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
     </row>
   </sheetData>
@@ -46533,7 +46684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23895F07-ABFE-4054-9DA4-E9E994146561}">
   <dimension ref="G1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D3" workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
@@ -46555,10 +46706,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525616F-FCF2-4465-9405-C17989B2BC95}">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46576,8 +46727,9 @@
     <col min="14" max="14" width="12.26953125" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" style="2" customWidth="1"/>
     <col min="18" max="18" width="21.6328125" customWidth="1"/>
+    <col min="20" max="20" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -46623,14 +46775,14 @@
       <c r="B5" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
@@ -46639,12 +46791,12 @@
       <c r="B6" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
@@ -46653,12 +46805,12 @@
       <c r="B7" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
@@ -46667,12 +46819,12 @@
       <c r="B8" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -46706,16 +46858,16 @@
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -46726,7 +46878,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -46740,7 +46892,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -46754,7 +46906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>36</v>
       </c>
@@ -46794,8 +46946,9 @@
       <c r="M21" s="49" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -46831,7 +46984,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>127</v>
       </c>
@@ -46877,7 +47030,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>130</v>
       </c>
@@ -46888,42 +47041,42 @@
       </c>
       <c r="D24" s="15">
         <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v>20.161102320000026</v>
+        <v>20.14110232000003</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" ref="E24:L24" si="1">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v>19.251005839999458</v>
+        <v>19.211005839999459</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="1"/>
-        <v>18.471346086000029</v>
+        <v>18.395346086000032</v>
       </c>
       <c r="G24" s="15">
         <f t="shared" si="1"/>
-        <v>17.714356007500029</v>
+        <v>17.604829527000007</v>
       </c>
       <c r="H24" s="15">
         <f t="shared" si="1"/>
-        <v>16.981009124001204</v>
+        <v>16.839042162998837</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" si="1"/>
-        <v>16.271009916001205</v>
+        <v>16.097989993998262</v>
       </c>
       <c r="J24" s="15">
         <f t="shared" si="1"/>
-        <v>17.582619908400638</v>
+        <v>17.379543013998259</v>
       </c>
       <c r="K24" s="15">
         <f t="shared" si="1"/>
-        <v>18.852832544399469</v>
+        <v>18.621176208497687</v>
       </c>
       <c r="L24" s="15">
         <f t="shared" si="1"/>
-        <v>20.085216387900068</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>19.824782610497117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -46933,42 +47086,42 @@
       </c>
       <c r="D25" s="15">
         <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v>10.442257133649303</v>
+        <v>10.432257133649305</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" ref="E25:L25" si="2">IF(E22&lt;&gt;"",D54,"")</f>
-        <v>9.9028919646178117</v>
+        <v>9.8828742725086656</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="2"/>
-        <v>9.3906334218714242</v>
+        <v>9.3525876185647441</v>
       </c>
       <c r="G25" s="15">
         <f t="shared" si="2"/>
-        <v>8.8957190323188442</v>
+        <v>8.8409004511034617</v>
       </c>
       <c r="H25" s="15">
         <f t="shared" si="2"/>
-        <v>8.4185431968321076</v>
+        <v>8.3475025922356316</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" si="2"/>
-        <v>7.9588448561782004</v>
+        <v>7.8722917039284548</v>
       </c>
       <c r="J25" s="15">
         <f t="shared" si="2"/>
-        <v>9.5156542708912966</v>
+        <v>9.4141118988589128</v>
       </c>
       <c r="K25" s="15">
         <f t="shared" si="2"/>
-        <v>11.00449205836523</v>
+        <v>10.88852812624792</v>
       </c>
       <c r="L25" s="15">
         <f t="shared" si="2"/>
-        <v>12.432277863190858</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>12.301550132433068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -46978,42 +47131,42 @@
       </c>
       <c r="D26" s="15">
         <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v>9.718845186350725</v>
+        <v>9.708845186350727</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" ref="E26:L27" si="3">IF(E23&lt;&gt;"",D55,"")</f>
-        <v>9.3481138753816442</v>
+        <v>9.3281315674907948</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="3"/>
-        <v>9.0807126641286047</v>
+        <v>9.0427584674352897</v>
       </c>
       <c r="G26" s="15">
         <f t="shared" si="3"/>
-        <v>8.8186369751811853</v>
+        <v>8.7639290758965469</v>
       </c>
       <c r="H26" s="15">
         <f t="shared" si="3"/>
-        <v>8.5624659271690966</v>
+        <v>8.4915395707632033</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" si="3"/>
-        <v>8.3121650598230055</v>
+        <v>8.2256982900698059</v>
       </c>
       <c r="J26" s="15">
         <f t="shared" si="3"/>
-        <v>8.066965637509341</v>
+        <v>7.9654311151393475</v>
       </c>
       <c r="K26" s="15">
         <f t="shared" si="3"/>
-        <v>7.8483404860342372</v>
+        <v>7.7326480822497654</v>
       </c>
       <c r="L26" s="15">
         <f t="shared" si="3"/>
-        <v>7.6529385247092119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+        <v>7.5232324780640472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -47058,7 +47211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>121</v>
       </c>
@@ -47073,7 +47226,7 @@
       <c r="K28" s="51"/>
       <c r="L28" s="51"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -47086,42 +47239,42 @@
       </c>
       <c r="D29" s="15">
         <f>IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v>10.080551160000013</v>
+        <v>10.070551160000015</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" ref="D29:L30" si="4">IF(E22&lt;&gt;"",$B29*E$24,"")</f>
-        <v>9.6255029199997288</v>
+        <v>9.6055029199997293</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="4"/>
-        <v>9.2356730430000145</v>
+        <v>9.197673043000016</v>
       </c>
       <c r="G29" s="15">
         <f t="shared" si="4"/>
-        <v>8.8571780037500147</v>
+        <v>8.8024147635000034</v>
       </c>
       <c r="H29" s="15">
         <f t="shared" si="4"/>
-        <v>8.4905045620006021</v>
+        <v>8.4195210814994184</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" si="4"/>
-        <v>8.1355049580006025</v>
+        <v>8.0489949969991308</v>
       </c>
       <c r="J29" s="15">
         <f t="shared" si="4"/>
-        <v>8.7913099542003188</v>
+        <v>8.6897715069991293</v>
       </c>
       <c r="K29" s="15">
         <f t="shared" si="4"/>
-        <v>9.4264162721997344</v>
+        <v>9.3105881042488434</v>
       </c>
       <c r="L29" s="15">
         <f t="shared" si="4"/>
-        <v>10.042608193950034</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+        <v>9.9123913052485584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -47135,42 +47288,42 @@
       </c>
       <c r="D30" s="15">
         <f t="shared" si="4"/>
-        <v>10.080551160000013</v>
+        <v>10.070551160000015</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="4"/>
-        <v>9.6255029199997288</v>
+        <v>9.6055029199997293</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="4"/>
-        <v>9.2356730430000145</v>
+        <v>9.197673043000016</v>
       </c>
       <c r="G30" s="15">
         <f t="shared" si="4"/>
-        <v>8.8571780037500147</v>
+        <v>8.8024147635000034</v>
       </c>
       <c r="H30" s="15">
         <f t="shared" si="4"/>
-        <v>8.4905045620006021</v>
+        <v>8.4195210814994184</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" si="4"/>
-        <v>8.1355049580006025</v>
+        <v>8.0489949969991308</v>
       </c>
       <c r="J30" s="15">
         <f t="shared" si="4"/>
-        <v>8.7913099542003188</v>
+        <v>8.6897715069991293</v>
       </c>
       <c r="K30" s="15">
         <f t="shared" si="4"/>
-        <v>9.4264162721997344</v>
+        <v>9.3105881042488434</v>
       </c>
       <c r="L30" s="15">
         <f t="shared" si="4"/>
-        <v>10.042608193950034</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+        <v>9.9123913052485584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>125</v>
       </c>
@@ -47189,40 +47342,40 @@
       </c>
       <c r="F31" s="15">
         <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.94399007849999994</v>
+        <v>0.94151655900002706</v>
       </c>
       <c r="G31" s="15">
         <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.92034688349882698</v>
+        <v>0.916787364001173</v>
       </c>
       <c r="H31" s="15">
         <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.89699920799999999</v>
+        <v>0.89205216900057305</v>
       </c>
       <c r="I31" s="15">
         <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.87539000760057295</v>
+        <v>0.86944698000000009</v>
       </c>
       <c r="J31" s="15">
         <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.916787364001173</v>
+        <v>0.90936680550057303</v>
       </c>
       <c r="K31" s="15">
         <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.95461615649940001</v>
+        <v>0.94739359800057299</v>
       </c>
       <c r="L31" s="15">
         <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>0.99075068999940008</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+        <v>0.98351839050000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="54">
         <f>+D30-C30-C23+SUM(C50:C52)+C33+C34</f>
-        <v>8.5867059736492894</v>
+        <v>8.596705973649291</v>
       </c>
       <c r="C32" s="15">
         <f>IF(C$22&lt;&gt;"",C$31*C25/C$24,"")</f>
@@ -47230,39 +47383,39 @@
       </c>
       <c r="D32" s="15">
         <f t="shared" ref="D32:L32" si="5">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v>0.51436516903149088</v>
+        <v>0.51438286114063969</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="5"/>
-        <v>0.49725854274638909</v>
+        <v>0.49728665394392291</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="5"/>
-        <v>0.47991438955257931</v>
+        <v>0.47868716746128193</v>
       </c>
       <c r="G32" s="15">
         <f t="shared" si="5"/>
-        <v>0.46217583548673835</v>
+        <v>0.46039785886782819</v>
       </c>
       <c r="H32" s="15">
         <f t="shared" si="5"/>
-        <v>0.4446983406539069</v>
+        <v>0.44221088830717575</v>
       </c>
       <c r="I32" s="15">
         <f t="shared" si="5"/>
-        <v>0.42819058528690651</v>
+        <v>0.42517980506954395</v>
       </c>
       <c r="J32" s="15">
         <f t="shared" si="5"/>
-        <v>0.49616221252606713</v>
+        <v>0.49258377261099145</v>
       </c>
       <c r="K32" s="15">
         <f t="shared" si="5"/>
-        <v>0.55721419517437354</v>
+        <v>0.55397799381485491</v>
       </c>
       <c r="L32" s="15">
         <f t="shared" si="5"/>
-        <v>0.61325143993175557</v>
+        <v>0.61028668130259256</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -47276,39 +47429,39 @@
       </c>
       <c r="D33" s="15">
         <f t="shared" ref="D33:L33" si="6">IF(D$22&lt;&gt;"",D$31*D26/D$24,"")</f>
-        <v>0.47873131096908228</v>
+        <v>0.47871361885993341</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="6"/>
-        <v>0.46940121125303785</v>
+        <v>0.46937310005550414</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="6"/>
-        <v>0.46407568894742063</v>
+        <v>0.46282939153874519</v>
       </c>
       <c r="G33" s="15">
         <f t="shared" si="6"/>
-        <v>0.45817104801208858</v>
+        <v>0.45638950513334492</v>
       </c>
       <c r="H33" s="15">
         <f t="shared" si="6"/>
-        <v>0.45230086734609315</v>
+        <v>0.44984128069339718</v>
       </c>
       <c r="I33" s="15">
         <f t="shared" si="6"/>
-        <v>0.44719942231366644</v>
+        <v>0.44426717493045609</v>
       </c>
       <c r="J33" s="15">
         <f t="shared" si="6"/>
-        <v>0.42062515147510587</v>
+        <v>0.41678303288958168</v>
       </c>
       <c r="K33" s="15">
         <f t="shared" si="6"/>
-        <v>0.39740196132502636</v>
+        <v>0.39341560418571803</v>
       </c>
       <c r="L33" s="15">
         <f t="shared" si="6"/>
-        <v>0.37749925006764468</v>
+        <v>0.37323170919740739</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -47364,43 +47517,43 @@
       <c r="B35" s="1"/>
       <c r="C35" s="45">
         <f>IF(C22&lt;&gt;"",1.5-IF(C$26&lt;$O$51,$Q$51,IF(C$26&lt;=$O$58,VLOOKUP(C$26,$O$51:$Q$58,3),0)),"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="D35" s="45">
         <f t="shared" ref="D35:L35" si="8">IF(D22&lt;&gt;"",1.5-IF(D$26&lt;$O$51,$Q$51,IF(D$26&lt;=$O$58,VLOOKUP(D$26,$O$51:$Q$58,3),0)),"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="E35" s="45">
         <f t="shared" si="8"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="F35" s="45">
         <f t="shared" si="8"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="G35" s="45">
         <f t="shared" si="8"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="H35" s="45">
         <f t="shared" si="8"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="I35" s="45">
         <f t="shared" si="8"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="J35" s="45">
         <f t="shared" si="8"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="K35" s="45">
         <f t="shared" si="8"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="L35" s="45">
         <f t="shared" si="8"/>
-        <v>1.43</v>
+        <v>1.4239999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
@@ -47410,43 +47563,43 @@
       <c r="B36" s="1"/>
       <c r="C36" s="15">
         <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
-        <v>11.675000000000001</v>
+        <v>11.665000000000001</v>
       </c>
       <c r="D36" s="15">
         <f t="shared" ref="D36:L36" si="9">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
-        <v>11.675000000000001</v>
+        <v>11.665000000000001</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="9"/>
-        <v>11.685</v>
+        <v>11.667</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="9"/>
-        <v>11.685</v>
+        <v>11.667</v>
       </c>
       <c r="G36" s="15">
         <f t="shared" si="9"/>
-        <v>11.685</v>
+        <v>11.667</v>
       </c>
       <c r="H36" s="15">
         <f t="shared" si="9"/>
-        <v>11.685</v>
+        <v>11.667</v>
       </c>
       <c r="I36" s="15">
         <f t="shared" si="9"/>
-        <v>13.685</v>
+        <v>13.667</v>
       </c>
       <c r="J36" s="15">
         <f t="shared" si="9"/>
-        <v>13.685</v>
+        <v>13.667</v>
       </c>
       <c r="K36" s="15">
         <f t="shared" si="9"/>
-        <v>13.685</v>
+        <v>13.667</v>
       </c>
       <c r="L36" s="15">
         <f t="shared" si="9"/>
-        <v>13.685</v>
+        <v>13.688000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
@@ -47456,43 +47609,43 @@
       <c r="B37" s="25"/>
       <c r="C37" s="15">
         <f>IF(C21&lt;&gt;"",MAX(0,C36-C38),"")</f>
-        <v>4.1750000000000007</v>
+        <v>4.1650000000000009</v>
       </c>
       <c r="D37" s="15">
         <f t="shared" ref="D37:L37" si="10">IF(D21&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v>4.1750000000000007</v>
+        <v>4.1650000000000009</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1850000000000005</v>
+        <v>4.1669999999999998</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1850000000000005</v>
+        <v>4.1669999999999998</v>
       </c>
       <c r="G37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1850000000000005</v>
+        <v>4.1669999999999998</v>
       </c>
       <c r="H37" s="15">
         <f t="shared" si="10"/>
-        <v>4.1850000000000005</v>
+        <v>4.1669999999999998</v>
       </c>
       <c r="I37" s="15">
         <f t="shared" si="10"/>
-        <v>6.1850000000000005</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="J37" s="15">
         <f t="shared" si="10"/>
-        <v>6.1850000000000005</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="K37" s="15">
         <f t="shared" si="10"/>
-        <v>6.1850000000000005</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="L37" s="15">
         <f t="shared" si="10"/>
-        <v>6.1850000000000005</v>
+        <v>6.1880000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
@@ -47635,43 +47788,43 @@
       </c>
       <c r="C45" s="15">
         <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v>14.642257133649304</v>
+        <v>14.632257133649304</v>
       </c>
       <c r="D45" s="15">
         <f t="shared" ref="D45:L45" si="12">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v>14.102891964617813</v>
+        <v>14.082874272508667</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="12"/>
-        <v>13.590633421871424</v>
+        <v>13.552587618564743</v>
       </c>
       <c r="F45" s="15">
         <f t="shared" si="12"/>
-        <v>13.095719032318845</v>
+        <v>13.040900451103463</v>
       </c>
       <c r="G45" s="15">
         <f t="shared" si="12"/>
-        <v>12.618543196832107</v>
+        <v>12.547502592235633</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="12"/>
-        <v>12.158844856178201</v>
+        <v>12.072291703928455</v>
       </c>
       <c r="I45" s="15">
         <f t="shared" si="12"/>
-        <v>13.715654270891296</v>
+        <v>13.614111898858912</v>
       </c>
       <c r="J45" s="15">
         <f t="shared" si="12"/>
-        <v>15.204492058365229</v>
+        <v>15.088528126247921</v>
       </c>
       <c r="K45" s="15">
         <f t="shared" si="12"/>
-        <v>16.632277863190858</v>
+        <v>16.501550132433067</v>
       </c>
       <c r="L45" s="15">
         <f t="shared" si="12"/>
-        <v>18.004026423259102</v>
+        <v>17.879263451130473</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
@@ -47680,43 +47833,43 @@
       </c>
       <c r="C46" s="15">
         <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
-        <v>17.185845186350726</v>
+        <v>17.175845186350728</v>
       </c>
       <c r="D46" s="15">
         <f t="shared" ref="D46:L46" si="13">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v>16.815113875381645</v>
+        <v>16.795131567490795</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="13"/>
-        <v>16.463712664128604</v>
+        <v>16.425758467435291</v>
       </c>
       <c r="F46" s="15">
         <f t="shared" si="13"/>
-        <v>16.201636975181184</v>
+        <v>16.146929075896548</v>
       </c>
       <c r="G46" s="15">
         <f t="shared" si="13"/>
-        <v>15.945465927169096</v>
+        <v>15.874539570763204</v>
       </c>
       <c r="H46" s="15">
         <f t="shared" si="13"/>
-        <v>15.695165059823005</v>
+        <v>15.608698290069807</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="13"/>
-        <v>15.44996563750934</v>
+        <v>15.348431115139348</v>
       </c>
       <c r="J46" s="15">
         <f t="shared" si="13"/>
-        <v>15.231340486034236</v>
+        <v>15.115648082249766</v>
       </c>
       <c r="K46" s="15">
         <f t="shared" si="13"/>
-        <v>15.035938524709211</v>
+        <v>14.906232478064048</v>
       </c>
       <c r="L46" s="15">
         <f t="shared" si="13"/>
-        <v>14.860439274641568</v>
+        <v>14.738000768866641</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
@@ -47725,43 +47878,43 @@
       </c>
       <c r="C47" s="15">
         <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="D47" s="15">
         <f t="shared" ref="D47:L47" si="14">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="F47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="G47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="H47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="J47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="K47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.466</v>
       </c>
       <c r="L47" s="15">
         <f t="shared" si="14"/>
-        <v>1.43</v>
+        <v>1.4239999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
@@ -47780,7 +47933,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -47828,7 +47981,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -47842,31 +47995,31 @@
       </c>
       <c r="E50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="F50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="G50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="H50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="I50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="J50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="K50" s="45">
         <f t="shared" si="16"/>
-        <v>6.7829999999999995</v>
+        <v>6.7830000000000004</v>
       </c>
       <c r="L50" s="45">
         <f t="shared" si="16"/>
@@ -47881,14 +48034,20 @@
       <c r="P50" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="Q50" s="40" t="s">
-        <v>137</v>
+      <c r="Q50" s="74" t="s">
+        <v>175</v>
       </c>
       <c r="R50" s="39" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S50" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="T50" s="72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -47939,59 +48098,66 @@
         <v>5.981122</v>
       </c>
       <c r="P51" s="43">
-        <f t="shared" ref="P51:P58" si="18">R51-Q51</f>
-        <v>1.2</v>
-      </c>
-      <c r="Q51" s="44">
+        <f>R51-Q51</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="Q51" s="70">
+        <v>0.15</v>
+      </c>
+      <c r="R51" s="43">
+        <f>T51/1000000</f>
+        <v>1.35</v>
+      </c>
+      <c r="S51" s="44">
         <v>0.125</v>
       </c>
-      <c r="R51" s="43">
-        <v>1.325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T51" s="73">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>144</v>
       </c>
       <c r="C52" s="45">
         <f>C35</f>
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="D52" s="45">
-        <f t="shared" ref="D52:L52" si="19">D35</f>
-        <v>1.45</v>
+        <f t="shared" ref="D52:L52" si="18">D35</f>
+        <v>1.47</v>
       </c>
       <c r="E52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="F52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="G52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="H52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="I52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="J52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="K52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.466</v>
       </c>
       <c r="L52" s="45">
-        <f t="shared" si="19"/>
-        <v>1.43</v>
+        <f t="shared" si="18"/>
+        <v>1.4239999999999999</v>
       </c>
       <c r="N52" s="41">
         <v>1030</v>
@@ -48000,17 +48166,24 @@
         <v>6.305377</v>
       </c>
       <c r="P52" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="P52:P58" si="19">R52-Q52</f>
         <v>1.117</v>
       </c>
-      <c r="Q52" s="44">
+      <c r="Q52" s="70">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="R52" s="43">
+        <f>T52/1000000</f>
+        <v>1.218</v>
+      </c>
+      <c r="S52" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R52" s="43">
-        <v>1.1870000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T52" s="73">
+        <v>1218000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -48031,59 +48204,66 @@
         <v>6.6375080000000004</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0669999999999999</v>
       </c>
-      <c r="Q53" s="44">
+      <c r="Q53" s="70">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="R53" s="43">
+        <f>T53/1000000</f>
+        <v>1.159</v>
+      </c>
+      <c r="S53" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R53" s="43">
-        <v>1.137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T53" s="73">
+        <v>1159000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="15">
         <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v>10.442257133649303</v>
+        <v>10.432257133649305</v>
       </c>
       <c r="D54" s="15">
         <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v>9.9028919646178117</v>
+        <v>9.8828742725086656</v>
       </c>
       <c r="E54" s="15">
         <f t="shared" si="20"/>
-        <v>9.3906334218714242</v>
+        <v>9.3525876185647441</v>
       </c>
       <c r="F54" s="15">
         <f t="shared" si="20"/>
-        <v>8.8957190323188442</v>
+        <v>8.8409004511034617</v>
       </c>
       <c r="G54" s="15">
         <f t="shared" si="20"/>
-        <v>8.4185431968321076</v>
+        <v>8.3475025922356316</v>
       </c>
       <c r="H54" s="15">
         <f t="shared" si="20"/>
-        <v>7.9588448561782004</v>
+        <v>7.8722917039284548</v>
       </c>
       <c r="I54" s="15">
         <f t="shared" si="20"/>
-        <v>9.5156542708912966</v>
+        <v>9.4141118988589128</v>
       </c>
       <c r="J54" s="15">
         <f t="shared" si="20"/>
-        <v>11.00449205836523</v>
+        <v>10.88852812624792</v>
       </c>
       <c r="K54" s="15">
         <f t="shared" si="20"/>
-        <v>12.432277863190858</v>
+        <v>12.301550132433068</v>
       </c>
       <c r="L54" s="15">
         <f t="shared" si="20"/>
-        <v>13.804026423259103</v>
+        <v>13.679263451130474</v>
       </c>
       <c r="N54" s="41">
         <v>1040</v>
@@ -48092,59 +48272,66 @@
         <v>6.977665</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0169999999999999</v>
       </c>
-      <c r="Q54" s="44">
+      <c r="Q54" s="70">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="R54" s="43">
+        <f>T54/1000000</f>
+        <v>1.101</v>
+      </c>
+      <c r="S54" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R54" s="43">
-        <v>1.087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T54" s="73">
+        <v>1101000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="15">
         <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
-        <v>9.718845186350725</v>
+        <v>9.708845186350727</v>
       </c>
       <c r="D55" s="15">
         <f t="shared" ref="D55:K55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v>9.3481138753816442</v>
+        <v>9.3281315674907948</v>
       </c>
       <c r="E55" s="15">
         <f t="shared" si="21"/>
-        <v>9.0807126641286047</v>
+        <v>9.0427584674352897</v>
       </c>
       <c r="F55" s="15">
         <f t="shared" si="21"/>
-        <v>8.8186369751811853</v>
+        <v>8.7639290758965469</v>
       </c>
       <c r="G55" s="15">
         <f t="shared" si="21"/>
-        <v>8.5624659271690966</v>
+        <v>8.4915395707632033</v>
       </c>
       <c r="H55" s="15">
         <f t="shared" si="21"/>
-        <v>8.3121650598230055</v>
+        <v>8.2256982900698059</v>
       </c>
       <c r="I55" s="15">
         <f t="shared" si="21"/>
-        <v>8.066965637509341</v>
+        <v>7.9654311151393475</v>
       </c>
       <c r="J55" s="15">
         <f t="shared" si="21"/>
-        <v>7.8483404860342372</v>
+        <v>7.7326480822497654</v>
       </c>
       <c r="K55" s="15">
         <f t="shared" si="21"/>
-        <v>7.6529385247092119</v>
+        <v>7.5232324780640472</v>
       </c>
       <c r="L55" s="15">
         <f>IF(L$22&lt;&gt;"",L46-L50-L51,"")</f>
-        <v>7.7274392746415668</v>
+        <v>7.6050007688666401</v>
       </c>
       <c r="N55" s="41">
         <v>1045</v>
@@ -48153,17 +48340,24 @@
         <v>7.3260519999999998</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="18"/>
-        <v>0.96699999999999986</v>
-      </c>
-      <c r="Q55" s="44">
+        <f t="shared" si="19"/>
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="Q55" s="70">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="R55" s="43">
+        <f>T55/1000000</f>
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="S55" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R55" s="43">
-        <v>1.0369999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T55" s="73">
+        <v>1043000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -48214,60 +48408,67 @@
         <v>7.6828779999999997</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="18"/>
-        <v>0.71700000000000008</v>
-      </c>
-      <c r="Q56" s="44">
+        <f t="shared" si="19"/>
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="Q56" s="70">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R56" s="43">
+        <f>T56/1000000</f>
+        <v>0.751</v>
+      </c>
+      <c r="S56" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R56" s="43">
-        <v>0.78700000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T56" s="73">
+        <v>751000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="15">
         <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
-        <v>20.161102320000026</v>
+        <v>20.14110232000003</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
-        <v>19.251005839999458</v>
+        <v>19.211005839999459</v>
       </c>
       <c r="E57" s="15">
         <f t="shared" si="23"/>
-        <v>18.471346086000029</v>
+        <v>18.395346086000032</v>
       </c>
       <c r="F57" s="15">
         <f t="shared" si="23"/>
-        <v>17.714356007500029</v>
+        <v>17.604829527000007</v>
       </c>
       <c r="G57" s="15">
         <f t="shared" si="23"/>
-        <v>16.981009124001204</v>
+        <v>16.839042162998837</v>
       </c>
       <c r="H57" s="15">
         <f t="shared" si="23"/>
-        <v>16.271009916001205</v>
+        <v>16.097989993998262</v>
       </c>
       <c r="I57" s="15">
         <f t="shared" si="23"/>
-        <v>17.582619908400638</v>
+        <v>17.379543013998259</v>
       </c>
       <c r="J57" s="15">
         <f t="shared" si="23"/>
-        <v>18.852832544399469</v>
+        <v>18.621176208497687</v>
       </c>
       <c r="K57" s="15">
         <f t="shared" si="23"/>
-        <v>20.085216387900068</v>
+        <v>19.824782610497117</v>
       </c>
       <c r="L57" s="15">
         <f t="shared" si="23"/>
-        <v>21.531465697900671</v>
+        <v>21.284264219997112</v>
       </c>
       <c r="N57" s="41">
         <v>1075</v>
@@ -48276,60 +48477,67 @@
         <v>9.6009879999900001</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.63300000000000001</v>
       </c>
-      <c r="Q57" s="44">
+      <c r="Q57" s="70">
+        <v>0.03</v>
+      </c>
+      <c r="R57" s="43">
+        <f>T57/1000000</f>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="S57" s="44">
         <v>0.05</v>
       </c>
-      <c r="R57" s="43">
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="T57" s="73">
+        <v>663000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="15">
         <f>IF(C22&lt;&gt;"",C29+C22-C32-C49-C57*$B$29,"")</f>
-        <v>8.5867059736492877</v>
+        <v>8.5967059736492857</v>
       </c>
       <c r="D58" s="15">
         <f t="shared" ref="D58:L58" si="24">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
-        <v>8.140683070968791</v>
+        <v>8.1506653788596459</v>
       </c>
       <c r="E58" s="15">
         <f t="shared" si="24"/>
-        <v>8.0925713342533268</v>
+        <v>8.1105432230557888</v>
       </c>
       <c r="F58" s="15">
         <f t="shared" si="24"/>
-        <v>8.0985806496974213</v>
+        <v>8.1165711120387307</v>
       </c>
       <c r="G58" s="15">
         <f t="shared" si="24"/>
-        <v>8.1044976062626723</v>
+        <v>8.1224958231327555</v>
       </c>
       <c r="H58" s="15">
         <f t="shared" si="24"/>
-        <v>8.1103012633460914</v>
+        <v>8.1283151961931104</v>
       </c>
       <c r="I58" s="15">
         <f t="shared" si="24"/>
-        <v>9.1160044185133771</v>
+        <v>9.1340436849304609</v>
       </c>
       <c r="J58" s="15">
         <f t="shared" si="24"/>
-        <v>9.0687314694745211</v>
+        <v>9.0865996301392933</v>
       </c>
       <c r="K58" s="15">
         <f t="shared" si="24"/>
-        <v>9.0265938830753285</v>
+        <v>9.0442188051854302</v>
       </c>
       <c r="L58" s="15">
         <f t="shared" si="24"/>
-        <v>8.8636239050679464</v>
+        <v>8.8599725139474117</v>
       </c>
       <c r="N58" s="41">
         <v>1090</v>
@@ -48338,15 +48546,22 @@
         <v>10.857008</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="18"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q58" s="40"/>
+        <f t="shared" si="19"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q58" s="70">
+        <v>4.1000000000000002E-2</v>
+      </c>
       <c r="R58" s="43">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+        <f>T58/1000000</f>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="S58" s="40"/>
+      <c r="T58" s="73">
+        <v>341000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>131</v>
       </c>
@@ -48390,8 +48605,16 @@
         <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N60" s="55">
+        <f>31500000/SUM(70000,50000,109100)</f>
+        <v>137.49454386730685</v>
+      </c>
+      <c r="O60">
+        <f>15000000/109100</f>
+        <v>137.4885426214482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>132</v>
       </c>
@@ -48405,41 +48628,44 @@
       </c>
       <c r="E61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="F61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="G61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="H61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="I61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="J61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="K61" s="15">
         <f t="shared" si="26"/>
-        <v>6.9829999999999997</v>
+        <v>6.9830000000000005</v>
       </c>
       <c r="L61" s="15">
         <f t="shared" si="26"/>
         <v>6.7330000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="D63" s="19"/>
     </row>
   </sheetData>
+  <sortState ref="T51:T58">
+    <sortCondition descending="1" ref="T51:T58"/>
+  </sortState>
   <mergeCells count="5">
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="C6:H6"/>
@@ -48460,7 +48686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357583FB-2133-4215-BF55-5657B6D72C84}">
   <dimension ref="G1:P1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>

--- a/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
+++ b/InteractiveWaterBudget/InteractiveWaterBudget-CombinedPowellMead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverFutures\InteractiveWaterBudget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5731E1FB-EF9B-4572-AC8F-A80EE9FED9DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D78CF94-C671-49A9-B3A7-4E011477BAB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="1" activeTab="2" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" firstSheet="1" activeTab="1" xr2:uid="{5373AB19-D84C-490D-97DC-C516D358024A}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe-Directions" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="188">
   <si>
     <t xml:space="preserve">    To Upper Basin</t>
   </si>
@@ -567,12 +567,45 @@
   <si>
     <t>Total Cutback (af/year)</t>
   </si>
+  <si>
+    <t xml:space="preserve">    Net transactions (should be zero)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Price ($/acre-foot)</t>
+  </si>
+  <si>
+    <t>U.S. Treaty Comittment to Mexico</t>
+  </si>
+  <si>
+    <t>Available water (Account Balance + Available Inflow - Evaporation + Sales - Purchases + Grand Canyon Intervene)</t>
+  </si>
+  <si>
+    <t>Split of Lake Powell Natural Inflow</t>
+  </si>
+  <si>
+    <t>Split of Grand Canyon Tributary Flow</t>
+  </si>
+  <si>
+    <t>Remain</t>
+  </si>
+  <si>
+    <t>Mohave &amp; Havasu Evap &amp; ET</t>
+  </si>
+  <si>
+    <t>Colorado River Delta</t>
+  </si>
+  <si>
+    <t>Sales (+) and Purchases (-) [in maf]</t>
+  </si>
+  <si>
+    <t>Total ($ Mill)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -581,6 +614,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="0."/>
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -636,7 +670,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,8 +710,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -806,6 +846,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -816,7 +893,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -943,46 +1020,7 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -997,6 +1035,83 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -26049,20 +26164,20 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:12" ht="187.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="62" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
@@ -26078,254 +26193,254 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>2</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="61"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29">
         <v>3</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="61"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
     </row>
     <row r="10" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="29">
         <v>5</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="61"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="29">
         <v>6</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="61"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
     </row>
     <row r="13" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="29">
         <v>7</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="61"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="29">
         <v>8</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="29">
         <v>9</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="63" t="s">
         <v>162</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="61"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29">
         <v>10</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="29">
         <v>11</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29">
         <v>12</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
     </row>
     <row r="19" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29">
         <v>13</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="27"/>
@@ -26415,28 +26530,23 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="56" t="s">
+      <c r="A32" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="A32:L32"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="B10:L10"/>
@@ -26448,6 +26558,11 @@
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B14:L14"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38767,48 +38882,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="52"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -40635,10 +40750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3356767-5983-45FB-80E4-1C5DE08E38A0}">
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:M58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40650,14 +40765,16 @@
     <col min="5" max="5" width="7.26953125" customWidth="1"/>
     <col min="6" max="6" width="7.6328125" customWidth="1"/>
     <col min="7" max="7" width="7.08984375" customWidth="1"/>
-    <col min="8" max="8" width="7.36328125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7265625" hidden="1" customWidth="1"/>
-    <col min="10" max="12" width="8.7265625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.36328125" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" customWidth="1"/>
     <col min="14" max="14" width="12.26953125" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="17" max="17" width="10.81640625" customWidth="1"/>
     <col min="18" max="18" width="21.6328125" customWidth="1"/>
+    <col min="21" max="21" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -40701,445 +40818,377 @@
         <v>53</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="2"/>
-      <c r="C9"/>
+      <c r="A9" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="56"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="2"/>
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="B15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="D18" s="21"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B21" s="12">
         <v>5.73</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C21" s="12">
         <v>6</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B22" s="12">
         <v>11</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C22" s="12">
         <v>10.1</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B24" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C24" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D24" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E24" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F24" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G24" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H24" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I24" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J24" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="14" t="s">
+      <c r="K24" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="14" t="s">
+      <c r="L24" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="14" t="s">
+      <c r="M24" s="84" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12">
-        <f t="shared" ref="H22:L22" si="0">G22</f>
+      <c r="B25" s="1"/>
+      <c r="C25" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="D25" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="E25" s="47">
+        <v>12.4</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="12">
+        <f>IF(C$25&lt;&gt;"",0.8,"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" ref="D26:L26" si="0">IF(D$25&lt;&gt;"",0.8,"")</f>
+        <v>0.8</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="15">
+        <f>SUM(B28:B33)-SUM(B22:C22)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="12" t="str">
-        <f>IF(C$22&lt;&gt;"",0.8,"")</f>
-        <v/>
-      </c>
-      <c r="D23" s="12" t="str">
-        <f t="shared" ref="D23:L23" si="1">IF(D$22&lt;&gt;"",0.8,"")</f>
-        <v/>
-      </c>
-      <c r="E23" s="12" t="str">
+      <c r="C27" s="15">
+        <f>IF(C$25&lt;&gt;"",SUM(B22:C22),"")</f>
+        <v>21.1</v>
+      </c>
+      <c r="D27" s="15">
+        <f>IF(D$25&lt;&gt;"",C89,"")</f>
+        <v>20.156657875555585</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" ref="E27:L27" si="1">IF(E$25&lt;&gt;"",D89,"")</f>
+        <v>19.242116951110571</v>
+      </c>
+      <c r="F27" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F23" s="12" t="str">
+      <c r="G27" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G23" s="12" t="str">
+      <c r="H27" s="15" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H23" s="12">
+      <c r="I27" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I23" s="12">
+        <v/>
+      </c>
+      <c r="J27" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="J23" s="12">
+        <v/>
+      </c>
+      <c r="K27" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="K23" s="12">
+        <v/>
+      </c>
+      <c r="L27" s="15" t="str">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="L23" s="12">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",SUM(C25:C27),"")</f>
         <v/>
       </c>
-      <c r="D24" s="15" t="str">
-        <f>IF(D$22&lt;&gt;"",C57,"")</f>
-        <v/>
-      </c>
-      <c r="E24" s="15" t="str">
-        <f t="shared" ref="E24:L24" si="2">IF(E$22&lt;&gt;"",D57,"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="15" t="str">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="str">
+        <f>IF(A6="","","    "&amp;A6&amp;" Balance")</f>
+        <v xml:space="preserve">    Upper Basin Balance</v>
+      </c>
+      <c r="B28" s="81">
+        <f>B22</f>
+        <v>11</v>
+      </c>
+      <c r="C28" s="15">
+        <f>IF(OR(C$25="",$A28=""),"",B28)</f>
+        <v>11</v>
+      </c>
+      <c r="D28" s="15">
+        <f>IF(OR(D$25="",$A28=""),"",C83)</f>
+        <v>10.432257133649305</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" ref="E28:L28" si="2">IF(OR(E$25="",$A28=""),"",D83)</f>
+        <v>9.8832712386735295</v>
+      </c>
+      <c r="F28" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G24" s="15" t="str">
+      <c r="G28" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H24" s="15" t="str">
+      <c r="H28" s="15" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I24" s="15" t="e">
+      <c r="I28" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J24" s="15" t="e">
+        <v/>
+      </c>
+      <c r="J28" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K24" s="15" t="e">
+        <v/>
+      </c>
+      <c r="K28" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L24" s="15" t="e">
+        <v/>
+      </c>
+      <c r="L28" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",$B$19,"")</f>
         <v/>
       </c>
-      <c r="D25" s="15" t="str">
-        <f>IF(D22&lt;&gt;"",C54,"")</f>
-        <v/>
-      </c>
-      <c r="E25" s="15" t="str">
-        <f t="shared" ref="E25:L25" si="3">IF(E22&lt;&gt;"",D54,"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G25" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H25" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I25" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J25" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K25" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L25" s="15" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",$C$19,"")</f>
-        <v/>
-      </c>
-      <c r="D26" s="15" t="str">
-        <f>IF(D23&lt;&gt;"",C55,"")</f>
-        <v/>
-      </c>
-      <c r="E26" s="15" t="str">
-        <f t="shared" ref="E26:L27" si="4">IF(E23&lt;&gt;"",D55,"")</f>
-        <v/>
-      </c>
-      <c r="F26" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G26" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H26" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I26" s="15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J26" s="15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" s="15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L26" s="15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="15" t="str">
-        <f>IF(C22&lt;&gt;"",0,"")</f>
-        <v/>
-      </c>
-      <c r="D27" s="15" t="str">
-        <f>IF(D24&lt;&gt;"",C56,"")</f>
-        <v/>
-      </c>
-      <c r="E27" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F27" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G27" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="H27" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I27" s="15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J27" s="15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" s="15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L27" s="15" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="C29" s="15" t="str">
-        <f>C25</f>
-        <v/>
-      </c>
-      <c r="D29" s="15" t="str">
-        <f t="shared" ref="D29:L29" si="5">IF(D22&lt;&gt;"",$B29*D$24,"")</f>
-        <v/>
-      </c>
-      <c r="E29" s="15" t="str">
+      <c r="A29" t="str">
+        <f t="shared" ref="A29:A33" si="3">IF(A7="","","    "&amp;A7&amp;" Balance")</f>
+        <v xml:space="preserve">    Lower Basin Balance</v>
+      </c>
+      <c r="B29" s="81">
+        <f>C22</f>
+        <v>10.1</v>
+      </c>
+      <c r="C29" s="15">
+        <f t="shared" ref="C29:L33" si="4">IF(OR(C$25="",$A29=""),"",B29)</f>
+        <v>10.1</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:L33" si="5">IF(OR(D$25="",$A29=""),"",C84)</f>
+        <v>9.7088451863507252</v>
+      </c>
+      <c r="E29" s="15">
         <f t="shared" si="5"/>
-        <v/>
+        <v>9.3285010065287182</v>
       </c>
       <c r="F29" s="15" t="str">
         <f t="shared" si="5"/>
@@ -41149,1447 +41198,2854 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H29" s="15" t="e">
+      <c r="H29" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I29" s="15" t="e">
+        <v/>
+      </c>
+      <c r="I29" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J29" s="15" t="e">
+        <v/>
+      </c>
+      <c r="J29" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" s="15" t="e">
+        <v/>
+      </c>
+      <c r="K29" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L29" s="15" t="e">
+        <v/>
+      </c>
+      <c r="L29" s="15" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="37">
-        <f>1-B29</f>
+      <c r="A30" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    Mexico Balance</v>
+      </c>
+      <c r="B30" s="82">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G30" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H30" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I30" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J30" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K30" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L30" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    Mohave &amp; Havasu Evap &amp; ET Balance</v>
+      </c>
+      <c r="B31" s="82">
+        <v>0</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G31" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H31" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I31" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J31" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K31" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L31" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    Colorado River Delta Balance</v>
+      </c>
+      <c r="B32" s="82">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" si="5"/>
+        <v>1.5555555555555553E-2</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="5"/>
+        <v>3.0344705908321515E-2</v>
+      </c>
+      <c r="F32" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G32" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H32" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I32" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J32" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K32" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L32" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="B33" s="82">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="D33" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E33" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F33" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G33" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="H33" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I33" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J33" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="K33" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="L33" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="37">
         <v>0.5</v>
       </c>
-      <c r="C30" s="15" t="str">
-        <f>C26</f>
-        <v/>
-      </c>
-      <c r="D30" s="15" t="str">
-        <f t="shared" ref="D30:L30" si="6">IF(D23&lt;&gt;"",$B30*D$24,"")</f>
-        <v/>
-      </c>
-      <c r="E30" s="15" t="str">
+      <c r="C35" s="15">
+        <f>IF(C$25&lt;&gt;"",B22,"")</f>
+        <v>11</v>
+      </c>
+      <c r="D35" s="15">
+        <f t="shared" ref="D35:L35" si="6">IF(D25&lt;&gt;"",$B35*D$27,"")</f>
+        <v>10.078328937777792</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="6"/>
+        <v>9.6210584755552855</v>
+      </c>
+      <c r="F35" s="15" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F30" s="15" t="str">
+      <c r="G35" s="15" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G30" s="15" t="str">
+      <c r="H35" s="15" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H30" s="15" t="e">
+      <c r="I35" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I30" s="15" t="e">
+        <v/>
+      </c>
+      <c r="J35" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J30" s="15" t="e">
+        <v/>
+      </c>
+      <c r="K35" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" s="15" t="e">
+        <v/>
+      </c>
+      <c r="L35" s="15" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L30" s="15" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",VLOOKUP(C29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(C30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
         <v/>
       </c>
-      <c r="D31" s="15" t="str">
-        <f>IF(D$22&lt;&gt;"",VLOOKUP(D29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(D30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v/>
-      </c>
-      <c r="E31" s="15" t="str">
-        <f>IF(E$22&lt;&gt;"",VLOOKUP(E29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(E30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v/>
-      </c>
-      <c r="F31" s="15" t="str">
-        <f>IF(F$22&lt;&gt;"",VLOOKUP(F29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(F30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v/>
-      </c>
-      <c r="G31" s="15" t="str">
-        <f>IF(G$22&lt;&gt;"",VLOOKUP(G29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(G30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v/>
-      </c>
-      <c r="H31" s="15" t="e">
-        <f>IF(H$22&lt;&gt;"",VLOOKUP(H29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(H30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I31" s="15" t="e">
-        <f>IF(I$22&lt;&gt;"",VLOOKUP(I29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(I30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J31" s="15" t="e">
-        <f>IF(J$22&lt;&gt;"",VLOOKUP(J29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(J30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" s="15" t="e">
-        <f>IF(K$22&lt;&gt;"",VLOOKUP(K29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(K30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" s="15" t="e">
-        <f>IF(L$22&lt;&gt;"",VLOOKUP(L29*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$18/1000000 + VLOOKUP(L30*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$18/1000000,"")</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C$31*C25/C$24,"")</f>
-        <v/>
-      </c>
-      <c r="D32" s="15" t="str">
-        <f t="shared" ref="D32:L32" si="7">IF(D$22&lt;&gt;"",D$31*D25/D$24,"")</f>
-        <v/>
-      </c>
-      <c r="E32" s="15" t="str">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="37">
+        <f>1-B35</f>
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="15">
+        <f>IF(C$25&lt;&gt;"",C22,"")</f>
+        <v>10.1</v>
+      </c>
+      <c r="D36" s="15">
+        <f t="shared" ref="D36:L36" si="7">IF(D26&lt;&gt;"",$B36*D$27,"")</f>
+        <v>10.078328937777792</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="7"/>
+        <v>9.6210584755552855</v>
+      </c>
+      <c r="F36" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F32" s="15" t="str">
+      <c r="G36" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G32" s="15" t="str">
+      <c r="H36" s="15" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H32" s="15" t="e">
+      <c r="I36" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I32" s="15" t="e">
+        <v/>
+      </c>
+      <c r="J36" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J32" s="15" t="e">
+        <v/>
+      </c>
+      <c r="K36" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" s="15" t="e">
+        <v/>
+      </c>
+      <c r="L36" s="15" t="str">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L32" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C$31*C26/C$24,"")</f>
         <v/>
       </c>
-      <c r="D33" s="15" t="str">
-        <f t="shared" ref="D33:L33" si="8">IF(D$22&lt;&gt;"",D$31*D26/D$24,"")</f>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="15">
+        <f>IF(C$25&lt;&gt;"",VLOOKUP(C35*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$21/1000000 + VLOOKUP(C36*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$21/1000000,"")</f>
+        <v>1.0218976799999733</v>
+      </c>
+      <c r="D37" s="15">
+        <f>IF(D$25&lt;&gt;"",VLOOKUP(D35*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$21/1000000 + VLOOKUP(D36*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$21/1000000,"")</f>
+        <v>0.99309648000057305</v>
+      </c>
+      <c r="E37" s="15">
+        <f>IF(E$25&lt;&gt;"",VLOOKUP(E35*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$21/1000000 + VLOOKUP(E36*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$21/1000000,"")</f>
+        <v>0.96665975399942705</v>
+      </c>
+      <c r="F37" s="15" t="str">
+        <f>IF(F$25&lt;&gt;"",VLOOKUP(F35*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$21/1000000 + VLOOKUP(F36*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$21/1000000,"")</f>
         <v/>
       </c>
-      <c r="E33" s="15" t="str">
+      <c r="G37" s="15" t="str">
+        <f>IF(G$25&lt;&gt;"",VLOOKUP(G35*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$21/1000000 + VLOOKUP(G36*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$21/1000000,"")</f>
+        <v/>
+      </c>
+      <c r="H37" s="15" t="str">
+        <f>IF(H$25&lt;&gt;"",VLOOKUP(H35*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$21/1000000 + VLOOKUP(H36*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$21/1000000,"")</f>
+        <v/>
+      </c>
+      <c r="I37" s="15" t="str">
+        <f>IF(I$25&lt;&gt;"",VLOOKUP(I35*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$21/1000000 + VLOOKUP(I36*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$21/1000000,"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="15" t="str">
+        <f>IF(J$25&lt;&gt;"",VLOOKUP(J35*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$21/1000000 + VLOOKUP(J36*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$21/1000000,"")</f>
+        <v/>
+      </c>
+      <c r="K37" s="15" t="str">
+        <f>IF(K$25&lt;&gt;"",VLOOKUP(K35*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$21/1000000 + VLOOKUP(K36*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$21/1000000,"")</f>
+        <v/>
+      </c>
+      <c r="L37" s="15" t="str">
+        <f>IF(L$25&lt;&gt;"",VLOOKUP(L35*1000000,'Powell-Elevation-Area'!$B$5:$D$689,3)*$B$21/1000000 + VLOOKUP(L36*1000000,'Mead-Elevation-Area'!$B$5:$D$676,3)*$C$21/1000000,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="str">
+        <f>IF(A6="","","    "&amp;A6&amp;" Share")</f>
+        <v xml:space="preserve">    Upper Basin Share</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="15">
+        <f>IF(OR(C$25="",$A38=""),"",C$37*C28/C$27)</f>
+        <v>0.5327428663506969</v>
+      </c>
+      <c r="D38" s="15">
+        <f t="shared" ref="D38:L38" si="8">IF(OR(D$25="",$A38=""),"",D$37*D28/D$27)</f>
+        <v>0.51398589497577751</v>
+      </c>
+      <c r="E38" s="15">
+        <f t="shared" si="8"/>
+        <v>0.49650257134178605</v>
+      </c>
+      <c r="F38" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F33" s="15" t="str">
+      <c r="G38" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G33" s="15" t="str">
+      <c r="H38" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H33" s="15" t="e">
+      <c r="I38" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I33" s="15" t="e">
+        <v/>
+      </c>
+      <c r="J38" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J33" s="15" t="e">
+        <v/>
+      </c>
+      <c r="K38" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" s="15" t="e">
+        <v/>
+      </c>
+      <c r="L38" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L33" s="15" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C$31*C27/C$24,"")</f>
         <v/>
       </c>
-      <c r="D34" s="15" t="str">
-        <f t="shared" ref="D34:L34" si="9">IF(D$22&lt;&gt;"",D$31*D27/D$24,"")</f>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" t="str">
+        <f t="shared" ref="A39:A43" si="9">IF(A7="","","    "&amp;A7&amp;" Share")</f>
+        <v xml:space="preserve">    Lower Basin Share</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="15">
+        <f t="shared" ref="C39:L43" si="10">IF(OR(C$25="",$A39=""),"",C$37*C29/C$27)</f>
+        <v>0.48915481364927621</v>
+      </c>
+      <c r="D39" s="15">
+        <f t="shared" si="10"/>
+        <v>0.47834417982200594</v>
+      </c>
+      <c r="E39" s="15">
+        <f t="shared" si="10"/>
+        <v>0.46863276587839309</v>
+      </c>
+      <c r="F39" s="15" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E34" s="15" t="str">
+      <c r="G39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L39" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    Mexico Share</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G40" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H40" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I40" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J40" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K40" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L40" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    Mohave &amp; Havasu Evap &amp; ET Share</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G41" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H41" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I41" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J41" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K41" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L41" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    Colorado River Delta Share</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="15">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="15">
+        <f t="shared" si="10"/>
+        <v>7.6640520278959073E-4</v>
+      </c>
+      <c r="E42" s="15">
+        <f t="shared" si="10"/>
+        <v>1.5244167792478813E-3</v>
+      </c>
+      <c r="F42" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="G42" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="H42" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="I42" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J42" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K42" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L42" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F34" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G34" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="H34" s="15" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I34" s="15" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J34" s="15" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" s="15" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L34" s="15" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="26" t="str">
-        <f>IF(C22&lt;&gt;"",1.5,"")</f>
-        <v/>
-      </c>
-      <c r="D35" s="26" t="str">
-        <f t="shared" ref="D35:L35" si="10">IF(D22&lt;&gt;"",1.5,"")</f>
-        <v/>
-      </c>
-      <c r="E35" s="26" t="str">
+      <c r="B43" s="1"/>
+      <c r="C43" s="15" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F35" s="26" t="str">
+      <c r="D43" s="15" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G35" s="26" t="str">
+      <c r="E43" s="15" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H35" s="26">
+      <c r="F43" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
-      <c r="I35" s="26">
+        <v/>
+      </c>
+      <c r="G43" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
-      <c r="J35" s="26">
+        <v/>
+      </c>
+      <c r="H43" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
-      <c r="K35" s="26">
+        <v/>
+      </c>
+      <c r="I43" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
-      <c r="L35" s="26">
+        <v/>
+      </c>
+      <c r="J43" s="15" t="str">
         <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C22-C35/2,"")</f>
         <v/>
       </c>
-      <c r="D36" s="15" t="str">
-        <f t="shared" ref="D36:L36" si="11">IF(D$22&lt;&gt;"",D22-D35/2,"")</f>
+      <c r="K43" s="15" t="str">
+        <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="E36" s="15" t="str">
+      <c r="L43" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="58">
+        <f>IF(C$25&lt;&gt;"",1.5-$B$50/9/2-IF(C$29&lt;$O$78,$Q$78,IF(C$29&lt;=$O$85,VLOOKUP(C$29,$O$78:$Q$85,3),0)),"")</f>
+        <v>1.47</v>
+      </c>
+      <c r="D44" s="58">
+        <f t="shared" ref="D44:L44" si="11">IF(D$25&lt;&gt;"",1.5-$B$50/9-IF(D$29&lt;$O$78,$Q$78,IF(D$29&lt;=$O$85,VLOOKUP(D$29,$O$78:$Q$85,3),0)),"")</f>
+        <v>1.47</v>
+      </c>
+      <c r="E44" s="58">
+        <f t="shared" si="11"/>
+        <v>1.466</v>
+      </c>
+      <c r="F44" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="F36" s="15" t="str">
+      <c r="G44" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="G36" s="15" t="str">
+      <c r="H44" s="58" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="H36" s="15">
+      <c r="I44" s="58" t="str">
         <f t="shared" si="11"/>
-        <v>-0.75</v>
-      </c>
-      <c r="I36" s="15">
+        <v/>
+      </c>
+      <c r="J44" s="58" t="str">
         <f t="shared" si="11"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J36" s="15">
+        <v/>
+      </c>
+      <c r="K44" s="58" t="str">
         <f t="shared" si="11"/>
-        <v>-0.75</v>
-      </c>
-      <c r="K36" s="15">
+        <v/>
+      </c>
+      <c r="L44" s="58" t="str">
         <f t="shared" si="11"/>
-        <v>-0.75</v>
-      </c>
-      <c r="L36" s="15">
-        <f t="shared" si="11"/>
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="15" t="str">
-        <f>IF(C22&lt;&gt;"",MAX(0,C36-C38),"")</f>
         <v/>
       </c>
-      <c r="D37" s="15" t="str">
-        <f t="shared" ref="D37:L37" si="12">IF(D22&lt;&gt;"",MAX(0,D36-D38),"")</f>
-        <v/>
-      </c>
-      <c r="E37" s="15" t="str">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" t="str">
+        <f>IF(A6="","","    To "&amp;A6)</f>
+        <v xml:space="preserve">    To Upper Basin</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="15">
+        <f>IF(OR(C$25="",$A4=""),"",MAX(0,C$25-SUM(C47:C48)))</f>
+        <v>4.1650000000000009</v>
+      </c>
+      <c r="D46" s="15">
+        <f t="shared" ref="D46:L46" si="12">IF(OR(D$25="",$A4=""),"",MAX(0,D$25-SUM(D47:D48)))</f>
+        <v>4.1650000000000009</v>
+      </c>
+      <c r="E46" s="15">
+        <f t="shared" si="12"/>
+        <v>4.1650000000000009</v>
+      </c>
+      <c r="F46" s="15" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="F37" s="15" t="str">
+      <c r="G46" s="15" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="G37" s="15" t="str">
+      <c r="H46" s="15" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="H37" s="15">
+      <c r="I46" s="15" t="str">
         <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J46" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K46" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L46" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" t="str">
+        <f t="shared" ref="A47:A51" si="13">IF(A7="","","    To "&amp;A7)</f>
+        <v xml:space="preserve">    To Lower Basin</v>
+      </c>
+      <c r="B47" s="46">
+        <f>7.5-$B$50</f>
+        <v>7.5</v>
+      </c>
+      <c r="C47" s="15">
+        <f>IF(OR(C$25="",$A47=""),"",IF(C$25&lt;$B48,0,IF(C$25&gt;$B47,$B47,C$25)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" ref="D47:L47" si="14">IF(OR(D$25="",$A47=""),"",IF(D$25&lt;$B48,0,IF(D$25&gt;$B47,$B47,D$25)))</f>
+        <v>7.5</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="14"/>
+        <v>7.5</v>
+      </c>
+      <c r="F47" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="G47" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="H47" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="I47" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J47" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K47" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L47" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    To Mexico</v>
+      </c>
+      <c r="B48" s="46">
+        <f>C44/2</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="C48" s="15">
+        <f>IF(OR(C$25="",$A48=""),"",IF(C$25&gt;$B48,$B48,C$25))</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D48" s="15">
+        <f t="shared" ref="D48:L48" si="15">IF(OR(D$25="",$A48=""),"",IF(D$25&gt;$B48,$B48,D$25))</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="15"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F48" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="G48" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H48" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I48" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J48" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K48" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L48" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    To Mohave &amp; Havasu Evap &amp; ET</v>
+      </c>
+      <c r="B49" s="46">
         <v>0</v>
       </c>
-      <c r="I37" s="15">
-        <f t="shared" si="12"/>
+      <c r="C49" s="15">
+        <f t="shared" ref="C49:L51" si="16">IF(OR(C$25="",$A49=""),"",IF(C$25&gt;$B49,$B49,C$25))</f>
         <v>0</v>
       </c>
-      <c r="J37" s="15">
-        <f t="shared" si="12"/>
+      <c r="D49" s="15">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="K37" s="15">
-        <f t="shared" si="12"/>
+      <c r="E49" s="15">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L37" s="15">
-        <f t="shared" si="12"/>
+      <c r="F49" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="G49" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="H49" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I49" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J49" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K49" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L49" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">    To Colorado River Delta</v>
+      </c>
+      <c r="B50" s="46">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="46">
-        <v>7.5</v>
-      </c>
-      <c r="C38" s="15" t="str">
-        <f>IF(C22&lt;&gt;"",IF(C36&gt;$B38,$B38,C36),"")</f>
+      <c r="C50" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="85">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="85">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="85" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="D38" s="15" t="str">
-        <f t="shared" ref="D38:L38" si="13">IF(D22&lt;&gt;"",IF(D36&gt;$B38,$B38,D36),"")</f>
+      <c r="G50" s="85" t="str">
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="E38" s="15" t="str">
+      <c r="H50" s="85" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="I50" s="85" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J50" s="85" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K50" s="85" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L50" s="85" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="F38" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="G38" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="H38" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.75</v>
-      </c>
-      <c r="I38" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.75</v>
-      </c>
-      <c r="J38" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.75</v>
-      </c>
-      <c r="K38" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.75</v>
-      </c>
-      <c r="L38" s="15">
-        <f t="shared" si="13"/>
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="34">
-        <f>SUM(C41:L41)</f>
+      <c r="B51" s="46">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="35"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="34">
-        <f>SUM(C43:L43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C25+C37-C32-C40,"")</f>
-        <v/>
-      </c>
-      <c r="D45" s="15" t="str">
-        <f t="shared" ref="D45:L45" si="14">IF(D$22&lt;&gt;"",D25+D37-D32-D40,"")</f>
-        <v/>
-      </c>
-      <c r="E45" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="F45" s="15" t="str">
-        <f>IF(F$22&lt;&gt;"",F25+F37-F32-F40,"")</f>
-        <v/>
-      </c>
-      <c r="G45" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="H45" s="15" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I45" s="15" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J45" s="15" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K45" s="15" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L45" s="15" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C26+C38-C33+C40+C42+C23-C35/2,"")</f>
-        <v/>
-      </c>
-      <c r="D46" s="15" t="str">
-        <f t="shared" ref="D46:L46" si="15">IF(D$22&lt;&gt;"",D26+D38-D33+D40+D42+D23-D35/2,"")</f>
-        <v/>
-      </c>
-      <c r="E46" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F46" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="G46" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="H46" s="15" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I46" s="15" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J46" s="15" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K46" s="15" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L46" s="15" t="e">
-        <f t="shared" si="15"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C27+C35-C34-C42,"")</f>
-        <v/>
-      </c>
-      <c r="D47" s="15" t="str">
-        <f t="shared" ref="D47:L47" si="16">IF(D$22&lt;&gt;"",D27+D35-D34-D42,"")</f>
-        <v/>
-      </c>
-      <c r="E47" s="15" t="str">
+      <c r="C51" s="15" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="F47" s="15" t="str">
+      <c r="D51" s="15" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="G47" s="15" t="str">
+      <c r="E51" s="15" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="H47" s="15" t="e">
+      <c r="F51" s="15" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I47" s="15" t="e">
+        <v/>
+      </c>
+      <c r="G51" s="15" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J47" s="15" t="e">
+        <v/>
+      </c>
+      <c r="H51" s="15" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K47" s="15" t="e">
+        <v/>
+      </c>
+      <c r="I51" s="15" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L47" s="15" t="e">
+        <v/>
+      </c>
+      <c r="J51" s="15" t="str">
         <f t="shared" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="26">
-        <v>2</v>
-      </c>
-      <c r="I49" s="26">
-        <v>2</v>
-      </c>
-      <c r="J49" s="26">
-        <v>2</v>
-      </c>
-      <c r="K49" s="26">
-        <v>2</v>
-      </c>
-      <c r="L49" s="26">
-        <v>2</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45">
-        <f t="shared" ref="H50:L50" si="17">G50</f>
+        <v/>
+      </c>
+      <c r="K51" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L51" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" t="str">
+        <f>IF(A6="","","    To "&amp;A6)</f>
+        <v xml:space="preserve">    To Upper Basin</v>
+      </c>
+      <c r="B53" s="25">
         <v>0</v>
       </c>
-      <c r="I50" s="45">
+      <c r="C53" s="15">
+        <f>IF(OR($A53="",C$25=""),"",IF(C$26&gt;$B53,$B53,C$26))</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" ref="D53:L53" si="17">IF(OR($A53="",D$25=""),"",IF(D$26&gt;$B53,$B53,D$26))</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="15">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="J50" s="45">
+      <c r="F53" s="15" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="45">
+        <v/>
+      </c>
+      <c r="G53" s="15" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="45">
+        <v/>
+      </c>
+      <c r="H53" s="15" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="O50" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="P50" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q50" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="R50" s="39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>143</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12">
-        <f t="shared" ref="H51:L51" si="18">IF(H$22&lt;&gt;"",0.6,"")</f>
-        <v>0.6</v>
-      </c>
-      <c r="I51" s="12">
+        <v/>
+      </c>
+      <c r="I53" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="J53" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="K53" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="L53" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="str">
+        <f t="shared" ref="A54:A58" si="18">IF(A7="","","    To "&amp;A7)</f>
+        <v xml:space="preserve">    To Lower Basin</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="15">
+        <f>IF(OR(C$25="",$A54=""),"",C$26-SUM(C55:C56))</f>
+        <v>-0.53499999999999992</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" ref="D54:L54" si="19">IF(OR(D$25="",$A54=""),"",D$26-SUM(D55:D56))</f>
+        <v>-0.53499999999999992</v>
+      </c>
+      <c r="E54" s="15">
+        <f t="shared" si="19"/>
+        <v>-0.53299999999999992</v>
+      </c>
+      <c r="F54" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="G54" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="H54" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="I54" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="J54" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K54" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L54" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="str">
         <f t="shared" si="18"/>
-        <v>0.6</v>
-      </c>
-      <c r="J51" s="12">
-        <f t="shared" si="18"/>
-        <v>0.6</v>
-      </c>
-      <c r="K51" s="12">
-        <f t="shared" si="18"/>
-        <v>0.6</v>
-      </c>
-      <c r="L51" s="12">
-        <f t="shared" si="18"/>
-        <v>0.6</v>
-      </c>
-      <c r="N51" s="41">
-        <v>1025</v>
-      </c>
-      <c r="O51" s="42">
-        <v>5.981122</v>
-      </c>
-      <c r="P51" s="43">
-        <f t="shared" ref="P51:P58" si="19">R51-Q51</f>
-        <v>1.2</v>
-      </c>
-      <c r="Q51" s="44">
-        <v>0.125</v>
-      </c>
-      <c r="R51" s="43">
-        <v>1.325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="I52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="J52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="K52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="L52" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="N52" s="41">
-        <v>1030</v>
-      </c>
-      <c r="O52" s="42">
-        <v>6.305377</v>
-      </c>
-      <c r="P52" s="43">
-        <f t="shared" si="19"/>
-        <v>1.117</v>
-      </c>
-      <c r="Q52" s="44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R52" s="43">
-        <v>1.1870000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="N53" s="41">
-        <v>1035</v>
-      </c>
-      <c r="O53" s="42">
-        <v>6.6375080000000004</v>
-      </c>
-      <c r="P53" s="43">
-        <f t="shared" si="19"/>
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="Q53" s="44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R53" s="43">
-        <v>1.137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C45-C49,"")</f>
-        <v/>
-      </c>
-      <c r="D54" s="15" t="str">
-        <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
-        <v/>
-      </c>
-      <c r="E54" s="15" t="str">
+        <v xml:space="preserve">    To Mexico</v>
+      </c>
+      <c r="B55" s="46">
+        <f>C44/2</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="C55" s="15">
+        <f>IF(OR(C$25="",$A55=""),"",C44/2)</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" ref="D55:L55" si="20">IF(OR(D$25="",$A55=""),"",D44/2)</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E55" s="15">
+        <f t="shared" si="20"/>
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="F55" s="15" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="F54" s="15" t="str">
+      <c r="G55" s="15" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="G54" s="15" t="str">
+      <c r="H55" s="15" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="H54" s="15" t="e">
+      <c r="I55" s="15" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I54" s="15" t="e">
+        <v/>
+      </c>
+      <c r="J55" s="15" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J54" s="15" t="e">
+        <v/>
+      </c>
+      <c r="K55" s="15" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K54" s="15" t="e">
+        <v/>
+      </c>
+      <c r="L55" s="15" t="str">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L54" s="15" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N54" s="41">
-        <v>1040</v>
-      </c>
-      <c r="O54" s="42">
-        <v>6.977665</v>
-      </c>
-      <c r="P54" s="43">
-        <f t="shared" si="19"/>
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="Q54" s="44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R54" s="43">
-        <v>1.087</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C46-C50-C51,"")</f>
         <v/>
       </c>
-      <c r="D55" s="15" t="str">
-        <f t="shared" ref="D55:L55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
-        <v/>
-      </c>
-      <c r="E55" s="15" t="str">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    To Mohave &amp; Havasu Evap &amp; ET</v>
+      </c>
+      <c r="B56" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="C56" s="15">
+        <f>IF(OR($A56="",C$25=""),"",IF(C$26&gt;$B56,$B56,C$26))</f>
+        <v>0.6</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" ref="D56:L56" si="21">IF(OR($A56="",D$25=""),"",IF(D$26&gt;$B56,$B56,D$26))</f>
+        <v>0.6</v>
+      </c>
+      <c r="E56" s="15">
+        <f t="shared" si="21"/>
+        <v>0.6</v>
+      </c>
+      <c r="F56" s="15" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="F55" s="15" t="str">
+      <c r="G56" s="15" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="G55" s="15" t="str">
+      <c r="H56" s="15" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="H55" s="15" t="e">
+      <c r="I56" s="15" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I55" s="15" t="e">
+        <v/>
+      </c>
+      <c r="J56" s="15" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J55" s="15" t="e">
+        <v/>
+      </c>
+      <c r="K56" s="15" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K55" s="15" t="e">
+        <v/>
+      </c>
+      <c r="L56" s="15" t="str">
         <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L55" s="15" t="e">
-        <f t="shared" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N55" s="41">
-        <v>1045</v>
-      </c>
-      <c r="O55" s="42">
-        <v>7.3260519999999998</v>
-      </c>
-      <c r="P55" s="43">
-        <f t="shared" si="19"/>
-        <v>0.96699999999999986</v>
-      </c>
-      <c r="Q55" s="44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R55" s="43">
-        <v>1.0369999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",C47-C52,"")</f>
         <v/>
       </c>
-      <c r="D56" s="15" t="str">
-        <f t="shared" ref="D56:L56" si="22">IF(D$22&lt;&gt;"",D47-D52,"")</f>
-        <v/>
-      </c>
-      <c r="E56" s="15" t="str">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    To Colorado River Delta</v>
+      </c>
+      <c r="B57" s="87">
+        <f>0.21/9*(2/3)</f>
+        <v>1.5555555555555553E-2</v>
+      </c>
+      <c r="C57" s="15">
+        <f t="shared" ref="C57:L58" si="22">IF(OR($A57="",C$25=""),"",IF(C$26&gt;$B57,$B57,C$26))</f>
+        <v>1.5555555555555553E-2</v>
+      </c>
+      <c r="D57" s="15">
+        <f t="shared" si="22"/>
+        <v>1.5555555555555553E-2</v>
+      </c>
+      <c r="E57" s="15">
+        <f t="shared" si="22"/>
+        <v>1.5555555555555553E-2</v>
+      </c>
+      <c r="F57" s="15" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="F56" s="15" t="str">
+      <c r="G57" s="15" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="G56" s="15" t="str">
+      <c r="H57" s="15" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="H56" s="15" t="e">
+      <c r="I57" s="15" t="str">
         <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I56" s="15" t="e">
+        <v/>
+      </c>
+      <c r="J57" s="15" t="str">
         <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J56" s="15" t="e">
+        <v/>
+      </c>
+      <c r="K57" s="15" t="str">
         <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K56" s="15" t="e">
+        <v/>
+      </c>
+      <c r="L57" s="15" t="str">
         <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L56" s="15" t="e">
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="B58" s="46">
+        <v>0</v>
+      </c>
+      <c r="C58" s="15" t="str">
         <f t="shared" si="22"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N56" s="41">
-        <v>1050</v>
-      </c>
-      <c r="O56" s="42">
-        <v>7.6828779999999997</v>
-      </c>
-      <c r="P56" s="43">
-        <f t="shared" si="19"/>
-        <v>0.71700000000000008</v>
-      </c>
-      <c r="Q56" s="44">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="R56" s="43">
-        <v>0.78700000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="15" t="str">
-        <f>IF(C$22&lt;&gt;"",SUM(C54:C56),"")</f>
         <v/>
       </c>
-      <c r="D57" s="15" t="str">
-        <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+      <c r="D58" s="15" t="str">
+        <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="E57" s="15" t="str">
+      <c r="E58" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="F58" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="G58" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="H58" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I58" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J58" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="K58" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="L58" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59"/>
+      <c r="M59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" t="str">
+        <f>IF(A6="","","    "&amp;A6)</f>
+        <v xml:space="preserve">    Upper Basin</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="80">
+        <f>SUMPRODUCT(C60:L60,C$67:L$67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" t="str">
+        <f t="shared" ref="A61:A65" si="23">IF(A7="","","    "&amp;A7)</f>
+        <v xml:space="preserve">    Lower Basin</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="88">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F61" s="88"/>
+      <c r="G61" s="88"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="88"/>
+      <c r="L61" s="88"/>
+      <c r="M61" s="80">
+        <f t="shared" ref="M61:M65" si="24">SUMPRODUCT(C61:L61,C$67:L$67)</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">    Mexico</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">    Mohave &amp; Havasu Evap &amp; ET</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">    Colorado River Delta</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="80">
+        <f t="shared" si="24"/>
+        <v>-5.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A65" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="F57" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="G57" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="H57" s="15" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I57" s="15" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J57" s="15" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K57" s="15" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L57" s="15" t="e">
-        <f t="shared" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N57" s="41">
-        <v>1075</v>
-      </c>
-      <c r="O57" s="42">
-        <v>9.6009879999900001</v>
-      </c>
-      <c r="P57" s="43">
-        <f t="shared" si="19"/>
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="Q57" s="44">
-        <v>0.05</v>
-      </c>
-      <c r="R57" s="43">
-        <v>0.68300000000000005</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="15" t="str">
-        <f>IF(C22&lt;&gt;"",C29+C22-C32-C49-C57*$B$29,"")</f>
-        <v/>
-      </c>
-      <c r="D58" s="15" t="str">
-        <f t="shared" ref="D58:L58" si="24">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
-        <v/>
-      </c>
-      <c r="E58" s="15" t="str">
+      <c r="B65" s="1"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="80">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="F58" s="15" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="G58" s="15" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="H58" s="15" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I58" s="15" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J58" s="15" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K58" s="15" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L58" s="15" t="e">
-        <f t="shared" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N58" s="41">
-        <v>1090</v>
-      </c>
-      <c r="O58" s="42">
-        <v>10.857008</v>
-      </c>
-      <c r="P58" s="43">
-        <f t="shared" si="19"/>
-        <v>0.3</v>
-      </c>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="43">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="12" t="str">
-        <f>IF(C$22&lt;&gt;"",0.2,"")</f>
-        <v/>
-      </c>
-      <c r="D60" s="12" t="str">
-        <f t="shared" ref="D60:L60" si="25">IF(D$22&lt;&gt;"",0.2,"")</f>
-        <v/>
-      </c>
-      <c r="E60" s="12" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="79">
+        <f>IF(C$25&lt;&gt;"",SUM(C60:C65),"")</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="79">
+        <f t="shared" ref="D66:L66" si="25">IF(D$25&lt;&gt;"",SUM(D60:D65),"")</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="79">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="79" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="F60" s="12" t="str">
+      <c r="G66" s="79" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="G60" s="12" t="str">
+      <c r="H66" s="79" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="H60" s="12">
+      <c r="I66" s="79" t="str">
         <f t="shared" si="25"/>
-        <v>0.2</v>
-      </c>
-      <c r="I60" s="12">
+        <v/>
+      </c>
+      <c r="J66" s="79" t="str">
         <f t="shared" si="25"/>
-        <v>0.2</v>
-      </c>
-      <c r="J60" s="12">
+        <v/>
+      </c>
+      <c r="K66" s="79" t="str">
         <f t="shared" si="25"/>
-        <v>0.2</v>
-      </c>
-      <c r="K60" s="12">
+        <v/>
+      </c>
+      <c r="L66" s="79" t="str">
         <f t="shared" si="25"/>
-        <v>0.2</v>
-      </c>
-      <c r="L60" s="12">
-        <f t="shared" si="25"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C61" s="15" t="str">
-        <f t="shared" ref="C61:L61" si="26">IF(C$22&lt;&gt;"",C50+C60,"")</f>
         <v/>
       </c>
-      <c r="D61" s="15" t="str">
+      <c r="M66" s="35"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32">
+        <v>350</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A69" t="str">
+        <f>IF(A6="","","    "&amp;A6)</f>
+        <v xml:space="preserve">    Upper Basin</v>
+      </c>
+      <c r="C69" s="15">
+        <f>IF(OR(C$25="",$A69=""),"",C28+C46+C53-C38-C60)</f>
+        <v>14.632257133649304</v>
+      </c>
+      <c r="D69" s="15">
+        <f t="shared" ref="D69:L69" si="26">IF(OR(D$25="",$A69=""),"",D28+D46+D53-D38-D60)</f>
+        <v>14.083271238673529</v>
+      </c>
+      <c r="E69" s="15">
+        <f t="shared" si="26"/>
+        <v>13.551768667331745</v>
+      </c>
+      <c r="F69" s="15" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="E61" s="15" t="str">
+      <c r="G69" s="15" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="F61" s="15" t="str">
+      <c r="H69" s="15" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="G61" s="15" t="str">
+      <c r="I69" s="15" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="H61" s="15">
+      <c r="J69" s="15" t="str">
         <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K69" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="L69" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A70" t="str">
+        <f t="shared" ref="A70:A74" si="27">IF(A7="","","    "&amp;A7)</f>
+        <v xml:space="preserve">    Lower Basin</v>
+      </c>
+      <c r="C70" s="15">
+        <f t="shared" ref="C70:L74" si="28">IF(OR(C$25="",$A70=""),"",C29+C47+C54-C39-C61)</f>
+        <v>16.575845186350726</v>
+      </c>
+      <c r="D70" s="15">
+        <f t="shared" si="28"/>
+        <v>16.195501006528719</v>
+      </c>
+      <c r="E70" s="15">
+        <f t="shared" si="28"/>
+        <v>15.811868240650323</v>
+      </c>
+      <c r="F70" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="G70" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H70" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I70" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J70" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K70" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L70" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A71" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    Mexico</v>
+      </c>
+      <c r="C71" s="15">
+        <f t="shared" si="28"/>
+        <v>1.47</v>
+      </c>
+      <c r="D71" s="15">
+        <f t="shared" si="28"/>
+        <v>1.47</v>
+      </c>
+      <c r="E71" s="15">
+        <f t="shared" si="28"/>
+        <v>1.468</v>
+      </c>
+      <c r="F71" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="G71" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H71" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I71" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J71" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K71" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L71" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A72" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    Mohave &amp; Havasu Evap &amp; ET</v>
+      </c>
+      <c r="C72" s="15">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+      <c r="D72" s="15">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+      <c r="E72" s="15">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+      <c r="F72" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="G72" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H72" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I72" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J72" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K72" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L72" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    Colorado River Delta</v>
+      </c>
+      <c r="C73" s="86">
+        <f t="shared" si="28"/>
+        <v>1.5555555555555553E-2</v>
+      </c>
+      <c r="D73" s="15">
+        <f t="shared" si="28"/>
+        <v>3.0344705908321515E-2</v>
+      </c>
+      <c r="E73" s="15">
+        <f t="shared" si="28"/>
+        <v>5.9375844684629184E-2</v>
+      </c>
+      <c r="F73" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="G73" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H73" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I73" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J73" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K73" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L73" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A74" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="C74" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="D74" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="E74" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="F74" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="G74" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H74" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I74" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J74" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K74" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L74" s="15" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A76" t="str">
+        <f>IF(A6="","","    "&amp;A6&amp;" - Consumptive Use and Headwaters Losses")</f>
+        <v xml:space="preserve">    Upper Basin - Consumptive Use and Headwaters Losses</v>
+      </c>
+      <c r="C76" s="45">
+        <f>IF(C69&gt;6.1+4.2,4.2,MAX(C69-6.1,0))</f>
+        <v>4.2</v>
+      </c>
+      <c r="D76" s="45">
+        <f t="shared" ref="D76:L76" si="29">IF(D69&gt;6.1+4.2,4.2,MAX(D69-6.1,0))</f>
+        <v>4.2</v>
+      </c>
+      <c r="E76" s="45">
+        <f t="shared" si="29"/>
+        <v>4.2</v>
+      </c>
+      <c r="F76" s="45">
+        <f t="shared" si="29"/>
+        <v>4.2</v>
+      </c>
+      <c r="G76" s="45">
+        <f t="shared" si="29"/>
+        <v>4.2</v>
+      </c>
+      <c r="H76" s="45">
+        <f t="shared" si="29"/>
+        <v>4.2</v>
+      </c>
+      <c r="I76" s="45">
+        <f t="shared" si="29"/>
+        <v>4.2</v>
+      </c>
+      <c r="J76" s="45">
+        <f t="shared" si="29"/>
+        <v>4.2</v>
+      </c>
+      <c r="K76" s="45">
+        <f t="shared" si="29"/>
+        <v>4.2</v>
+      </c>
+      <c r="L76" s="45">
+        <f t="shared" si="29"/>
+        <v>4.2</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A77" t="str">
+        <f>IF(A7="","","    "&amp;A7&amp;" - Release from Mead")</f>
+        <v xml:space="preserve">    Lower Basin - Release from Mead</v>
+      </c>
+      <c r="C77" s="45">
+        <f>7.5-IF(C$29&lt;$O$78,$P$78,IF(C$29&lt;=$O$85,VLOOKUP(C$29,$O$78:$P$85,2),0))</f>
+        <v>6.867</v>
+      </c>
+      <c r="D77" s="45">
+        <f t="shared" ref="D77:L77" si="30">7.5-IF(D$29&lt;$O$78,$P$78,IF(D$29&lt;=$O$85,VLOOKUP(D$29,$O$78:$P$85,2),0))</f>
+        <v>6.867</v>
+      </c>
+      <c r="E77" s="45">
+        <f t="shared" si="30"/>
+        <v>6.7830000000000004</v>
+      </c>
+      <c r="F77" s="45">
+        <f t="shared" si="30"/>
+        <v>7.5</v>
+      </c>
+      <c r="G77" s="45">
+        <f t="shared" si="30"/>
+        <v>7.5</v>
+      </c>
+      <c r="H77" s="45">
+        <f t="shared" si="30"/>
+        <v>7.5</v>
+      </c>
+      <c r="I77" s="45">
+        <f t="shared" si="30"/>
+        <v>7.5</v>
+      </c>
+      <c r="J77" s="45">
+        <f t="shared" si="30"/>
+        <v>7.5</v>
+      </c>
+      <c r="K77" s="45">
+        <f t="shared" si="30"/>
+        <v>7.5</v>
+      </c>
+      <c r="L77" s="45">
+        <f t="shared" si="30"/>
+        <v>7.5</v>
+      </c>
+      <c r="N77" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="O77" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="P77" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q77" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="R77" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="S77" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="T77" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="U77" s="59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A78" t="str">
+        <f t="shared" ref="A78:A81" si="31">IF(A8="","","    "&amp;A8&amp;" - Release from Mead")</f>
+        <v xml:space="preserve">    Mexico - Release from Mead</v>
+      </c>
+      <c r="C78" s="58">
+        <f>C44</f>
+        <v>1.47</v>
+      </c>
+      <c r="D78" s="58">
+        <f t="shared" ref="D78:L78" si="32">D44</f>
+        <v>1.47</v>
+      </c>
+      <c r="E78" s="58">
+        <f t="shared" si="32"/>
+        <v>1.466</v>
+      </c>
+      <c r="F78" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G78" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H78" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I78" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J78" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K78" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L78" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="N78" s="41">
+        <v>1025</v>
+      </c>
+      <c r="O78" s="42">
+        <v>5.981122</v>
+      </c>
+      <c r="P78" s="43">
+        <f>S78-Q78</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="Q78" s="57">
+        <v>0.15</v>
+      </c>
+      <c r="R78" s="43">
+        <v>1.325</v>
+      </c>
+      <c r="S78" s="43">
+        <f t="shared" ref="S78:S85" si="33">U78/1000000</f>
+        <v>1.35</v>
+      </c>
+      <c r="T78" s="44">
+        <v>0.125</v>
+      </c>
+      <c r="U78" s="60">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A79" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">    Mohave &amp; Havasu Evap &amp; ET - Release from Mead</v>
+      </c>
+      <c r="C79" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="D79" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="E79" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="F79" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="G79" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="H79" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="I79" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="J79" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="K79" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="L79" s="45">
+        <v>0.6</v>
+      </c>
+      <c r="N79" s="41">
+        <v>1030</v>
+      </c>
+      <c r="O79" s="42">
+        <v>6.305377</v>
+      </c>
+      <c r="P79" s="43">
+        <f t="shared" ref="P79:P85" si="34">S79-Q79</f>
+        <v>1.117</v>
+      </c>
+      <c r="Q79" s="57">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="R79" s="43">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="S79" s="43">
+        <f t="shared" si="33"/>
+        <v>1.218</v>
+      </c>
+      <c r="T79" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U79" s="60">
+        <v>1218000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A80" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">    Colorado River Delta - Release from Mead</v>
+      </c>
+      <c r="C80" s="45">
+        <v>0</v>
+      </c>
+      <c r="D80" s="45">
+        <v>0</v>
+      </c>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="N80" s="41">
+        <v>1035</v>
+      </c>
+      <c r="O80" s="42">
+        <v>6.6375080000000004</v>
+      </c>
+      <c r="P80" s="43">
+        <f t="shared" si="34"/>
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="Q80" s="57">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="R80" s="43">
+        <v>1.137</v>
+      </c>
+      <c r="S80" s="43">
+        <f t="shared" si="33"/>
+        <v>1.159</v>
+      </c>
+      <c r="T80" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U80" s="60">
+        <v>1159000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A81" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="26"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="26"/>
+      <c r="N81" s="41">
+        <v>1040</v>
+      </c>
+      <c r="O81" s="42">
+        <v>6.977665</v>
+      </c>
+      <c r="P81" s="43">
+        <f t="shared" si="34"/>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="Q81" s="57">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="R81" s="43">
+        <v>1.087</v>
+      </c>
+      <c r="S81" s="43">
+        <f t="shared" si="33"/>
+        <v>1.101</v>
+      </c>
+      <c r="T81" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U81" s="60">
+        <v>1101000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="N82" s="41">
+        <v>1045</v>
+      </c>
+      <c r="O82" s="42">
+        <v>7.3260519999999998</v>
+      </c>
+      <c r="P82" s="43">
+        <f t="shared" si="34"/>
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="Q82" s="57">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="R82" s="43">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="S82" s="43">
+        <f t="shared" si="33"/>
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="T82" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U82" s="60">
+        <v>1043000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A83" t="str">
+        <f>IF(A6="","","    "&amp;A6)</f>
+        <v xml:space="preserve">    Upper Basin</v>
+      </c>
+      <c r="C83" s="15">
+        <f>IF(OR(C$25="",$A83=""),"",C69-C76)</f>
+        <v>10.432257133649305</v>
+      </c>
+      <c r="D83" s="15">
+        <f t="shared" ref="D83:L83" si="35">IF(OR(D$25="",$A83=""),"",D69-D76)</f>
+        <v>9.8832712386735295</v>
+      </c>
+      <c r="E83" s="15">
+        <f t="shared" si="35"/>
+        <v>9.3517686673317435</v>
+      </c>
+      <c r="F83" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G83" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H83" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I83" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J83" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K83" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L83" s="15" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N83" s="41">
+        <v>1050</v>
+      </c>
+      <c r="O83" s="42">
+        <v>7.6828779999999997</v>
+      </c>
+      <c r="P83" s="43">
+        <f t="shared" si="34"/>
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="Q83" s="57">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="R83" s="43">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="S83" s="43">
+        <f t="shared" si="33"/>
+        <v>0.751</v>
+      </c>
+      <c r="T83" s="44">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U83" s="60">
+        <v>751000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A84" t="str">
+        <f t="shared" ref="A84:A88" si="36">IF(A7="","","    "&amp;A7)</f>
+        <v xml:space="preserve">    Lower Basin</v>
+      </c>
+      <c r="C84" s="15">
+        <f t="shared" ref="C84:L88" si="37">IF(OR(C$25="",$A84=""),"",C70-C77)</f>
+        <v>9.7088451863507252</v>
+      </c>
+      <c r="D84" s="15">
+        <f t="shared" si="37"/>
+        <v>9.3285010065287182</v>
+      </c>
+      <c r="E84" s="15">
+        <f t="shared" si="37"/>
+        <v>9.028868240650322</v>
+      </c>
+      <c r="F84" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G84" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="H84" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I84" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J84" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="K84" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="L84" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="N84" s="41">
+        <v>1075</v>
+      </c>
+      <c r="O84" s="42">
+        <v>9.6009879999900001</v>
+      </c>
+      <c r="P84" s="43">
+        <f t="shared" si="34"/>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="Q84" s="57">
+        <v>0.03</v>
+      </c>
+      <c r="R84" s="43">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="S84" s="43">
+        <f t="shared" si="33"/>
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="T84" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="U84" s="60">
+        <v>663000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A85" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">    Mexico</v>
+      </c>
+      <c r="C85" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="D85" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="15">
+        <f t="shared" si="37"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="F85" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G85" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="H85" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I85" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J85" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="K85" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="L85" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="N85" s="41">
+        <v>1090</v>
+      </c>
+      <c r="O85" s="42">
+        <v>10.857008</v>
+      </c>
+      <c r="P85" s="43">
+        <f t="shared" si="34"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Q85" s="57">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="R85" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="S85" s="43">
+        <f t="shared" si="33"/>
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="T85" s="40"/>
+      <c r="U85" s="60">
+        <v>341000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A86" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">    Mohave &amp; Havasu Evap &amp; ET</v>
+      </c>
+      <c r="C86" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="D86" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="15">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G86" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="H86" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I86" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J86" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="K86" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="L86" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A87" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">    Colorado River Delta</v>
+      </c>
+      <c r="C87" s="86">
+        <f>IF(OR(C$25="",$A87=""),"",C73-C80)</f>
+        <v>1.5555555555555553E-2</v>
+      </c>
+      <c r="D87" s="86">
+        <f t="shared" si="37"/>
+        <v>3.0344705908321515E-2</v>
+      </c>
+      <c r="E87" s="86">
+        <f t="shared" si="37"/>
+        <v>5.9375844684629184E-2</v>
+      </c>
+      <c r="F87" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G87" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="H87" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I87" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J87" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="K87" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="L87" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A88" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="C88" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="D88" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="E88" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="F88" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G88" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="H88" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I88" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J88" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="K88" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="L88" s="15" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="15">
+        <f>IF(C$25&lt;&gt;"",SUM(C83:C88),"")</f>
+        <v>20.156657875555585</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" ref="D89:L89" si="38">IF(D$25&lt;&gt;"",SUM(D83:D88),"")</f>
+        <v>19.242116951110571</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="38"/>
+        <v>18.442012752666695</v>
+      </c>
+      <c r="F89" s="15" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="G89" s="15" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="H89" s="15" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="I89" s="15" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="J89" s="15" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="K89" s="15" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="L89" s="15" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="15">
+        <f>IF(C25&lt;&gt;"",C35+C25-C38-C76-C89*$B$35,"")</f>
+        <v>8.5889281958715085</v>
+      </c>
+      <c r="D90" s="15">
+        <f t="shared" ref="D90:L90" si="39">IF(D25&lt;&gt;"",D35+D25-D38-D76-D89*$B$35,"")</f>
+        <v>8.1432845672467291</v>
+      </c>
+      <c r="E90" s="15">
+        <f t="shared" si="39"/>
+        <v>8.103549527880153</v>
+      </c>
+      <c r="F90" s="15" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="G90" s="15" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="H90" s="15" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I90" s="15" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J90" s="15" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K90" s="15" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L90" s="15" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="12">
+        <f>IF(C$25&lt;&gt;"",0.2,"")</f>
         <v>0.2</v>
       </c>
-      <c r="I61" s="15">
-        <f t="shared" si="26"/>
+      <c r="D92" s="12">
+        <f t="shared" ref="D92:L92" si="40">IF(D$25&lt;&gt;"",0.2,"")</f>
         <v>0.2</v>
       </c>
-      <c r="J61" s="15">
-        <f t="shared" si="26"/>
+      <c r="E92" s="12">
+        <f t="shared" si="40"/>
         <v>0.2</v>
       </c>
-      <c r="K61" s="15">
-        <f t="shared" si="26"/>
-        <v>0.2</v>
-      </c>
-      <c r="L61" s="15">
-        <f t="shared" si="26"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="D63" s="19"/>
+      <c r="F92" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="G92" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="H92" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="I92" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="J92" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="K92" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="L92" s="12" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="15">
+        <f t="shared" ref="C93:L93" si="41">IF(C$25&lt;&gt;"",C77+C92,"")</f>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="D93" s="15">
+        <f t="shared" si="41"/>
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="E93" s="15">
+        <f t="shared" si="41"/>
+        <v>6.9830000000000005</v>
+      </c>
+      <c r="F93" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G93" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H93" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I93" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J93" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K93" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L93" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D95" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
+  <mergeCells count="7">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C11:G11"/>
   </mergeCells>
-  <conditionalFormatting sqref="C49:L49">
-    <cfRule type="cellIs" dxfId="94" priority="44" operator="greaterThan">
-      <formula>$C$45</formula>
+  <conditionalFormatting sqref="C76:L76">
+    <cfRule type="cellIs" dxfId="94" priority="43" operator="greaterThan">
+      <formula>$C$69</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="44" operator="greaterThan">
+      <formula>$C$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:F49">
-    <cfRule type="cellIs" dxfId="93" priority="43" operator="greaterThan">
-      <formula>$C$45</formula>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="cellIs" dxfId="92" priority="42" operator="greaterThan">
+      <formula>$E$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="92" priority="42" operator="greaterThan">
-      <formula>$E$45</formula>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="cellIs" dxfId="91" priority="41" operator="greaterThan">
+      <formula>$D$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:F49">
-    <cfRule type="cellIs" dxfId="91" priority="41" operator="greaterThan">
-      <formula>$D$45</formula>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="cellIs" dxfId="90" priority="40" operator="greaterThan">
+      <formula>$F$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
-    <cfRule type="cellIs" dxfId="90" priority="40" operator="greaterThan">
-      <formula>$F$45</formula>
+  <conditionalFormatting sqref="G76">
+    <cfRule type="cellIs" dxfId="89" priority="39" operator="greaterThan">
+      <formula>$G$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="89" priority="39" operator="greaterThan">
-      <formula>$G$45</formula>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="88" priority="38" operator="greaterThan">
+      <formula>$H$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="88" priority="38" operator="greaterThan">
-      <formula>$H$45</formula>
+  <conditionalFormatting sqref="I76">
+    <cfRule type="cellIs" dxfId="87" priority="37" operator="greaterThan">
+      <formula>$I$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="87" priority="37" operator="greaterThan">
-      <formula>$I$45</formula>
+  <conditionalFormatting sqref="J76">
+    <cfRule type="cellIs" dxfId="86" priority="36" operator="greaterThan">
+      <formula>$J$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="86" priority="36" operator="greaterThan">
-      <formula>$J$45</formula>
+  <conditionalFormatting sqref="K76">
+    <cfRule type="cellIs" dxfId="85" priority="35" operator="greaterThan">
+      <formula>$K$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="85" priority="35" operator="greaterThan">
-      <formula>$K$45</formula>
+  <conditionalFormatting sqref="L76">
+    <cfRule type="cellIs" dxfId="84" priority="34" operator="greaterThan">
+      <formula>$L$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="84" priority="34" operator="greaterThan">
-      <formula>$L$45</formula>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="77" priority="17" operator="greaterThan">
+      <formula>$H$74</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:L50">
-    <cfRule type="cellIs" dxfId="83" priority="32" operator="greaterThan">
-      <formula>$D$46</formula>
+  <conditionalFormatting sqref="I81">
+    <cfRule type="cellIs" dxfId="76" priority="16" operator="greaterThan">
+      <formula>$I$74</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="82" priority="27" operator="greaterThan">
-      <formula>$H$46</formula>
+  <conditionalFormatting sqref="J81">
+    <cfRule type="cellIs" dxfId="75" priority="15" operator="greaterThan">
+      <formula>$J$74</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="81" priority="26" operator="greaterThan">
-      <formula>$I$46</formula>
+  <conditionalFormatting sqref="K81">
+    <cfRule type="cellIs" dxfId="74" priority="14" operator="greaterThan">
+      <formula>$K$74</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="80" priority="25" operator="greaterThan">
-      <formula>$J$46</formula>
+  <conditionalFormatting sqref="L81">
+    <cfRule type="cellIs" dxfId="73" priority="13" operator="greaterThan">
+      <formula>$L$74</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" dxfId="79" priority="24" operator="greaterThan">
-      <formula>$K$46</formula>
+  <conditionalFormatting sqref="C77:L77">
+    <cfRule type="cellIs" dxfId="72" priority="12" operator="greaterThan">
+      <formula>$C$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="78" priority="23" operator="greaterThan">
-      <formula>$L$46</formula>
+  <conditionalFormatting sqref="C77:L77">
+    <cfRule type="cellIs" dxfId="71" priority="11" operator="greaterThan">
+      <formula>$C$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="77" priority="17" operator="greaterThan">
-      <formula>$H$47</formula>
+  <conditionalFormatting sqref="C81:G81">
+    <cfRule type="cellIs" dxfId="66" priority="6" operator="greaterThan">
+      <formula>$C$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="76" priority="16" operator="greaterThan">
-      <formula>$I$47</formula>
+  <conditionalFormatting sqref="C81:F81">
+    <cfRule type="cellIs" dxfId="65" priority="5" operator="greaterThan">
+      <formula>$C$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="75" priority="15" operator="greaterThan">
-      <formula>$J$47</formula>
+  <conditionalFormatting sqref="E81:F81">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="greaterThan">
+      <formula>$E$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K52">
-    <cfRule type="cellIs" dxfId="74" priority="14" operator="greaterThan">
-      <formula>$K$47</formula>
+  <conditionalFormatting sqref="D81:F81">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
+      <formula>$D$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L52">
-    <cfRule type="cellIs" dxfId="73" priority="13" operator="greaterThan">
-      <formula>$L$47</formula>
+  <conditionalFormatting sqref="F81">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="greaterThan">
+      <formula>$F$69</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:G50">
-    <cfRule type="cellIs" dxfId="72" priority="12" operator="greaterThan">
-      <formula>$C$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:F50">
-    <cfRule type="cellIs" dxfId="71" priority="11" operator="greaterThan">
-      <formula>$C$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
-    <cfRule type="cellIs" dxfId="70" priority="10" operator="greaterThan">
-      <formula>$E$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:F50">
-    <cfRule type="cellIs" dxfId="69" priority="9" operator="greaterThan">
-      <formula>$D$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="cellIs" dxfId="68" priority="8" operator="greaterThan">
-      <formula>$F$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="67" priority="7" operator="greaterThan">
-      <formula>$G$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:G52">
-    <cfRule type="cellIs" dxfId="66" priority="6" operator="greaterThan">
-      <formula>$C$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52:F52">
-    <cfRule type="cellIs" dxfId="65" priority="5" operator="greaterThan">
-      <formula>$C$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52:F52">
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="greaterThan">
-      <formula>$E$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:F52">
-    <cfRule type="cellIs" dxfId="63" priority="3" operator="greaterThan">
-      <formula>$D$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="greaterThan">
-      <formula>$F$45</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
+  <conditionalFormatting sqref="G81">
     <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
-      <formula>$G$45</formula>
+      <formula>$G$69</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42600,8 +44056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710BD1F0-C024-4B0C-A52B-7568661161E6}">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:G52"/>
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42665,48 +44121,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -43916,16 +45372,16 @@
       <c r="P50" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="Q50" s="74" t="s">
+      <c r="Q50" s="61" t="s">
         <v>175</v>
       </c>
       <c r="R50" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="S50" s="72" t="s">
+      <c r="S50" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="T50" s="72" t="s">
+      <c r="T50" s="59" t="s">
         <v>176</v>
       </c>
     </row>
@@ -43983,17 +45439,17 @@
         <f>R51-Q51</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="Q51" s="70">
+      <c r="Q51" s="57">
         <v>0.15</v>
       </c>
       <c r="R51" s="43">
-        <f>T51/1000000</f>
+        <f t="shared" ref="R51:R58" si="17">T51/1000000</f>
         <v>1.35</v>
       </c>
       <c r="S51" s="44">
         <v>0.125</v>
       </c>
-      <c r="T51" s="73">
+      <c r="T51" s="60">
         <v>1350000</v>
       </c>
     </row>
@@ -44001,44 +45457,44 @@
       <c r="A52" t="s">
         <v>144</v>
       </c>
-      <c r="C52" s="71">
+      <c r="C52" s="58">
         <f>IF(C22&lt;&gt;"",C35,"")</f>
         <v>1.47</v>
       </c>
-      <c r="D52" s="71">
-        <f t="shared" ref="D52:L52" si="17">IF(D22&lt;&gt;"",D35,"")</f>
+      <c r="D52" s="58">
+        <f t="shared" ref="D52:L52" si="18">IF(D22&lt;&gt;"",D35,"")</f>
         <v>1.47</v>
       </c>
-      <c r="E52" s="71">
-        <f t="shared" si="17"/>
+      <c r="E52" s="58">
+        <f t="shared" si="18"/>
         <v>1.47</v>
       </c>
-      <c r="F52" s="71">
-        <f t="shared" si="17"/>
+      <c r="F52" s="58">
+        <f t="shared" si="18"/>
         <v>1.47</v>
       </c>
-      <c r="G52" s="71">
-        <f t="shared" si="17"/>
+      <c r="G52" s="58">
+        <f t="shared" si="18"/>
         <v>1.47</v>
       </c>
       <c r="H52" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.466</v>
       </c>
       <c r="I52" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.466</v>
       </c>
       <c r="J52" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.466</v>
       </c>
       <c r="K52" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.466</v>
       </c>
       <c r="L52" s="45">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.466</v>
       </c>
       <c r="N52" s="41">
@@ -44048,20 +45504,20 @@
         <v>6.305377</v>
       </c>
       <c r="P52" s="43">
-        <f t="shared" ref="P52:P58" si="18">R52-Q52</f>
+        <f t="shared" ref="P52:P58" si="19">R52-Q52</f>
         <v>1.117</v>
       </c>
-      <c r="Q52" s="70">
+      <c r="Q52" s="57">
         <v>0.10100000000000001</v>
       </c>
       <c r="R52" s="43">
-        <f>T52/1000000</f>
+        <f t="shared" si="17"/>
         <v>1.218</v>
       </c>
       <c r="S52" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T52" s="73">
+      <c r="T52" s="60">
         <v>1218000</v>
       </c>
     </row>
@@ -44086,20 +45542,20 @@
         <v>6.6375080000000004</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0669999999999999</v>
       </c>
-      <c r="Q53" s="70">
+      <c r="Q53" s="57">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="R53" s="43">
-        <f>T53/1000000</f>
+        <f t="shared" si="17"/>
         <v>1.159</v>
       </c>
       <c r="S53" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T53" s="73">
+      <c r="T53" s="60">
         <v>1159000</v>
       </c>
     </row>
@@ -44112,39 +45568,39 @@
         <v>9.0322571336493027</v>
       </c>
       <c r="D54" s="15">
-        <f t="shared" ref="D54:L54" si="19">IF(D$22&lt;&gt;"",D45-D49,"")</f>
+        <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
         <v>7.6434827441332986</v>
       </c>
       <c r="E54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.6124524678486694</v>
       </c>
       <c r="F54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.2263917092955738</v>
       </c>
       <c r="G54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.8542092218663742</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.2972808791190165</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.7155557972202651</v>
       </c>
       <c r="J54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.1113174856881205</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.4854133588983487</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.8389159383707625</v>
       </c>
       <c r="N54" s="41">
@@ -44154,20 +45610,20 @@
         <v>6.977665</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0169999999999999</v>
       </c>
-      <c r="Q54" s="70">
+      <c r="Q54" s="57">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="R54" s="43">
-        <f>T54/1000000</f>
+        <f t="shared" si="17"/>
         <v>1.101</v>
       </c>
       <c r="S54" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T54" s="73">
+      <c r="T54" s="60">
         <v>1101000</v>
       </c>
     </row>
@@ -44180,39 +45636,39 @@
         <v>10.208845186350727</v>
       </c>
       <c r="D55" s="15">
-        <f t="shared" ref="D55:L55" si="20">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <f t="shared" ref="D55:L55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
         <v>10.193959821867308</v>
       </c>
       <c r="E55" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10.163782175651365</v>
       </c>
       <c r="F55" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.7221782847044604</v>
       </c>
       <c r="G55" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.2936858296324889</v>
       </c>
       <c r="H55" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.8794424647792436</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.4877247916779961</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.1185203482101382</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.7699677200005102</v>
       </c>
       <c r="L55" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.4407513954292686</v>
       </c>
       <c r="N55" s="41">
@@ -44222,20 +45678,20 @@
         <v>7.3260519999999998</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.96699999999999997</v>
       </c>
-      <c r="Q55" s="70">
+      <c r="Q55" s="57">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="R55" s="43">
-        <f>T55/1000000</f>
+        <f t="shared" si="17"/>
         <v>1.0429999999999999</v>
       </c>
       <c r="S55" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T55" s="73">
+      <c r="T55" s="60">
         <v>1043000</v>
       </c>
     </row>
@@ -44248,39 +45704,39 @@
         <v>0</v>
       </c>
       <c r="D56" s="15">
-        <f t="shared" ref="D56:L56" si="21">IF(D$22&lt;&gt;"",D47-D52,"")</f>
+        <f t="shared" ref="D56:L56" si="22">IF(D$22&lt;&gt;"",D47-D52,"")</f>
         <v>0</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L56" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N56" s="41">
@@ -44290,20 +45746,20 @@
         <v>7.6828779999999997</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.71699999999999997</v>
       </c>
-      <c r="Q56" s="70">
+      <c r="Q56" s="57">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="R56" s="43">
-        <f>T56/1000000</f>
+        <f t="shared" si="17"/>
         <v>0.751</v>
       </c>
       <c r="S56" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T56" s="73">
+      <c r="T56" s="60">
         <v>751000</v>
       </c>
     </row>
@@ -44317,39 +45773,39 @@
         <v>19.241102320000032</v>
       </c>
       <c r="D57" s="15">
-        <f t="shared" ref="D57:L57" si="22">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+        <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
         <v>17.837442566000608</v>
       </c>
       <c r="E57" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16.776234643500032</v>
       </c>
       <c r="F57" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15.948569994000035</v>
       </c>
       <c r="G57" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15.147895051498864</v>
       </c>
       <c r="H57" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15.17672334389826</v>
       </c>
       <c r="I57" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15.203280588898261</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15.229837833898259</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15.255381078898859</v>
       </c>
       <c r="L57" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15.279667333800031</v>
       </c>
       <c r="N57" s="41">
@@ -44359,20 +45815,20 @@
         <v>9.6009879999900001</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.63300000000000001</v>
       </c>
-      <c r="Q57" s="70">
+      <c r="Q57" s="57">
         <v>0.03</v>
       </c>
       <c r="R57" s="43">
-        <f>T57/1000000</f>
+        <f t="shared" si="17"/>
         <v>0.66300000000000003</v>
       </c>
       <c r="S57" s="44">
         <v>0.05</v>
       </c>
-      <c r="T57" s="73">
+      <c r="T57" s="60">
         <v>663000</v>
       </c>
     </row>
@@ -44386,39 +45842,39 @@
         <v>8.1467059736492864</v>
       </c>
       <c r="D58" s="15">
-        <f t="shared" ref="D58:L58" si="23">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
+        <f t="shared" ref="D58:L58" si="24">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
         <v>7.9480554874837051</v>
       </c>
       <c r="E58" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.1345736849656589</v>
       </c>
       <c r="F58" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.2627715661969017</v>
       </c>
       <c r="G58" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.2631549838213871</v>
       </c>
       <c r="H58" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.6616575110529439</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.6379962956012477</v>
       </c>
       <c r="J58" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.6154830659678545</v>
       </c>
       <c r="K58" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.5943242507099278</v>
       </c>
       <c r="L58" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.5743594520218256</v>
       </c>
       <c r="N58" s="41">
@@ -44428,18 +45884,18 @@
         <v>10.857008</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q58" s="70">
+      <c r="Q58" s="57">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="R58" s="43">
-        <f>T58/1000000</f>
+        <f t="shared" si="17"/>
         <v>0.34100000000000003</v>
       </c>
       <c r="S58" s="40"/>
-      <c r="T58" s="73">
+      <c r="T58" s="60">
         <v>341000</v>
       </c>
     </row>
@@ -44459,39 +45915,39 @@
         <v>0.2</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" ref="D60:L60" si="24">IF(D$22&lt;&gt;"",0.2,"")</f>
+        <f t="shared" ref="D60:L60" si="25">IF(D$22&lt;&gt;"",0.2,"")</f>
         <v>0.2</v>
       </c>
       <c r="E60" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="L60" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
     </row>
@@ -44500,43 +45956,43 @@
         <v>132</v>
       </c>
       <c r="C61" s="15">
-        <f t="shared" ref="C61:L61" si="25">IF(C$22&lt;&gt;"",C50+C60,"")</f>
+        <f t="shared" ref="C61:L61" si="26">IF(C$22&lt;&gt;"",C50+C60,"")</f>
         <v>7.0670000000000002</v>
       </c>
       <c r="D61" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="E61" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="F61" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="G61" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="I61" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="J61" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="K61" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.0670000000000002</v>
       </c>
     </row>
@@ -44671,8 +46127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E878AF-96FE-424D-B802-94EDCA32030C}">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="G46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50:T58"/>
+    <sheetView topLeftCell="A46" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44736,48 +46192,48 @@
         <v>53</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="50"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="50"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="50"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -45972,16 +47428,16 @@
       <c r="P50" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="Q50" s="74" t="s">
+      <c r="Q50" s="61" t="s">
         <v>175</v>
       </c>
       <c r="R50" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="S50" s="72" t="s">
+      <c r="S50" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="T50" s="72" t="s">
+      <c r="T50" s="59" t="s">
         <v>176</v>
       </c>
     </row>
@@ -46039,17 +47495,17 @@
         <f>R51-Q51</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="Q51" s="70">
+      <c r="Q51" s="57">
         <v>0.15</v>
       </c>
       <c r="R51" s="43">
-        <f>T51/1000000</f>
+        <f t="shared" ref="R51:R58" si="18">T51/1000000</f>
         <v>1.35</v>
       </c>
       <c r="S51" s="44">
         <v>0.125</v>
       </c>
-      <c r="T51" s="73">
+      <c r="T51" s="60">
         <v>1350000</v>
       </c>
     </row>
@@ -46062,39 +47518,39 @@
         <v>1.47</v>
       </c>
       <c r="D52" s="45">
-        <f t="shared" ref="D52:L52" si="18">IF(D22&lt;&gt;"",D35,"")</f>
+        <f t="shared" ref="D52:L52" si="19">IF(D22&lt;&gt;"",D35,"")</f>
         <v>1.47</v>
       </c>
       <c r="E52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="F52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="G52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="H52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="I52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="J52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="K52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4239999999999999</v>
       </c>
       <c r="L52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4239999999999999</v>
       </c>
       <c r="N52" s="41">
@@ -46104,20 +47560,20 @@
         <v>6.305377</v>
       </c>
       <c r="P52" s="43">
-        <f t="shared" ref="P52:P58" si="19">R52-Q52</f>
+        <f t="shared" ref="P52:P58" si="20">R52-Q52</f>
         <v>1.117</v>
       </c>
-      <c r="Q52" s="70">
+      <c r="Q52" s="57">
         <v>0.10100000000000001</v>
       </c>
       <c r="R52" s="43">
-        <f>T52/1000000</f>
+        <f t="shared" si="18"/>
         <v>1.218</v>
       </c>
       <c r="S52" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T52" s="73">
+      <c r="T52" s="60">
         <v>1218000</v>
       </c>
     </row>
@@ -46142,20 +47598,20 @@
         <v>6.6375080000000004</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0669999999999999</v>
       </c>
-      <c r="Q53" s="70">
+      <c r="Q53" s="57">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="R53" s="43">
-        <f>T53/1000000</f>
+        <f t="shared" si="18"/>
         <v>1.159</v>
       </c>
       <c r="S53" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T53" s="73">
+      <c r="T53" s="60">
         <v>1159000</v>
       </c>
     </row>
@@ -46168,39 +47624,39 @@
         <v>9.0322571336493027</v>
       </c>
       <c r="D54" s="15">
-        <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
+        <f t="shared" ref="D54:L54" si="21">IF(D$22&lt;&gt;"",D45-D49,"")</f>
         <v>7.1383410513710048</v>
       </c>
       <c r="E54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.1</v>
       </c>
       <c r="F54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.1</v>
       </c>
       <c r="G54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.1</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.5225558115502142</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.9225849906155759</v>
       </c>
       <c r="J54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.3019655190751305</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.6823245760462395</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.0431363983113062</v>
       </c>
       <c r="N54" s="41">
@@ -46210,20 +47666,20 @@
         <v>6.977665</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0169999999999999</v>
       </c>
-      <c r="Q54" s="70">
+      <c r="Q54" s="57">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="R54" s="43">
-        <f>T54/1000000</f>
+        <f t="shared" si="18"/>
         <v>1.101</v>
       </c>
       <c r="S54" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T54" s="73">
+      <c r="T54" s="60">
         <v>1101000</v>
       </c>
     </row>
@@ -46236,39 +47692,39 @@
         <v>9.708845186350727</v>
       </c>
       <c r="D55" s="15">
-        <f t="shared" ref="D55:L55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <f t="shared" ref="D55:L55" si="22">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
         <v>9.3135526316284274</v>
       </c>
       <c r="E55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.9993343277774951</v>
       </c>
       <c r="F55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.6837767143729412</v>
       </c>
       <c r="G55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.3821095231516036</v>
       </c>
       <c r="H55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.0928031441025592</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.8214873600360217</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.5675352364770685</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.3500685469065337</v>
       </c>
       <c r="L55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.1463560071408958</v>
       </c>
       <c r="N55" s="41">
@@ -46278,20 +47734,20 @@
         <v>7.3260519999999998</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.96699999999999997</v>
       </c>
-      <c r="Q55" s="70">
+      <c r="Q55" s="57">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="R55" s="43">
-        <f>T55/1000000</f>
+        <f t="shared" si="18"/>
         <v>1.0429999999999999</v>
       </c>
       <c r="S55" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T55" s="73">
+      <c r="T55" s="60">
         <v>1043000</v>
       </c>
     </row>
@@ -46304,39 +47760,39 @@
         <v>0</v>
       </c>
       <c r="D56" s="15">
-        <f t="shared" ref="D56:L56" si="22">IF(D$22&lt;&gt;"",D47-D52,"")</f>
+        <f t="shared" ref="D56:L56" si="23">IF(D$22&lt;&gt;"",D47-D52,"")</f>
         <v>0</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N56" s="41">
@@ -46346,20 +47802,20 @@
         <v>7.6828779999999997</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.71699999999999997</v>
       </c>
-      <c r="Q56" s="70">
+      <c r="Q56" s="57">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="R56" s="43">
-        <f>T56/1000000</f>
+        <f t="shared" si="18"/>
         <v>0.751</v>
       </c>
       <c r="S56" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T56" s="73">
+      <c r="T56" s="60">
         <v>751000</v>
       </c>
     </row>
@@ -46373,39 +47829,39 @@
         <v>18.741102320000032</v>
       </c>
       <c r="D57" s="15">
-        <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+        <f t="shared" ref="D57:L57" si="24">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
         <v>16.451893682999433</v>
       </c>
       <c r="E57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.099334327777495</v>
       </c>
       <c r="F57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14.783776714372941</v>
       </c>
       <c r="G57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14.482109523151603</v>
       </c>
       <c r="H57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14.615358955652773</v>
       </c>
       <c r="I57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14.744072350651598</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14.869500755552199</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.032393122952772</v>
       </c>
       <c r="L57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>15.189492405452203</v>
       </c>
       <c r="N57" s="41">
@@ -46415,20 +47871,20 @@
         <v>9.6009879999900001</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.63300000000000001</v>
       </c>
-      <c r="Q57" s="70">
+      <c r="Q57" s="57">
         <v>0.03</v>
       </c>
       <c r="R57" s="43">
-        <f>T57/1000000</f>
+        <f t="shared" si="18"/>
         <v>0.66300000000000003</v>
       </c>
       <c r="S57" s="44">
         <v>0.05</v>
       </c>
-      <c r="T57" s="73">
+      <c r="T57" s="60">
         <v>663000</v>
       </c>
     </row>
@@ -46442,39 +47898,39 @@
         <v>7.8967059736492864</v>
       </c>
       <c r="D58" s="15">
-        <f t="shared" ref="D58:L58" si="24">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
+        <f t="shared" ref="D58:L58" si="25">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
         <v>7.4856882362219999</v>
       </c>
       <c r="E58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7.8709386262399654</v>
       </c>
       <c r="F58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.390778806702281</v>
       </c>
       <c r="G58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.3838335956106693</v>
       </c>
       <c r="H58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.5889310952996318</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.568672481565951</v>
       </c>
       <c r="J58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.5496663260092536</v>
       </c>
       <c r="K58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.5109128732708204</v>
       </c>
       <c r="L58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.4942621810153494</v>
       </c>
       <c r="N58" s="41">
@@ -46484,18 +47940,18 @@
         <v>10.857008</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q58" s="70">
+      <c r="Q58" s="57">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="R58" s="43">
-        <f>T58/1000000</f>
+        <f t="shared" si="18"/>
         <v>0.34100000000000003</v>
       </c>
       <c r="S58" s="40"/>
-      <c r="T58" s="73">
+      <c r="T58" s="60">
         <v>341000</v>
       </c>
     </row>
@@ -46515,39 +47971,39 @@
         <v>0.2</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" ref="D60:L60" si="25">IF(D$22&lt;&gt;"",0.2,"")</f>
+        <f t="shared" ref="D60:L60" si="26">IF(D$22&lt;&gt;"",0.2,"")</f>
         <v>0.2</v>
       </c>
       <c r="E60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="L60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
     </row>
@@ -46556,43 +48012,43 @@
         <v>132</v>
       </c>
       <c r="C61" s="15">
-        <f t="shared" ref="C61:L61" si="26">IF(C$22&lt;&gt;"",C50+C60,"")</f>
+        <f t="shared" ref="C61:L61" si="27">IF(C$22&lt;&gt;"",C50+C60,"")</f>
         <v>7.0670000000000002</v>
       </c>
       <c r="D61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="E61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="F61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="G61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="I61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="J61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="K61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
     </row>
@@ -46708,8 +48164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2525616F-FCF2-4465-9405-C17989B2BC95}">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:L35"/>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46775,14 +48231,14 @@
       <c r="B5" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
@@ -46791,12 +48247,12 @@
       <c r="B6" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
@@ -46805,12 +48261,12 @@
       <c r="B7" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
@@ -46819,12 +48275,12 @@
       <c r="B8" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
@@ -46858,14 +48314,14 @@
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="74" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -47515,43 +48971,43 @@
         <v>124</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="45">
+      <c r="C35" s="58">
         <f>IF(C22&lt;&gt;"",1.5-IF(C$26&lt;$O$51,$Q$51,IF(C$26&lt;=$O$58,VLOOKUP(C$26,$O$51:$Q$58,3),0)),"")</f>
         <v>1.47</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D35" s="58">
         <f t="shared" ref="D35:L35" si="8">IF(D22&lt;&gt;"",1.5-IF(D$26&lt;$O$51,$Q$51,IF(D$26&lt;=$O$58,VLOOKUP(D$26,$O$51:$Q$58,3),0)),"")</f>
         <v>1.47</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="58">
         <f t="shared" si="8"/>
         <v>1.466</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="58">
         <f t="shared" si="8"/>
         <v>1.466</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="58">
         <f t="shared" si="8"/>
         <v>1.466</v>
       </c>
-      <c r="H35" s="45">
+      <c r="H35" s="58">
         <f t="shared" si="8"/>
         <v>1.466</v>
       </c>
-      <c r="I35" s="45">
+      <c r="I35" s="58">
         <f t="shared" si="8"/>
         <v>1.466</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="58">
         <f t="shared" si="8"/>
         <v>1.466</v>
       </c>
-      <c r="K35" s="45">
+      <c r="K35" s="58">
         <f t="shared" si="8"/>
         <v>1.466</v>
       </c>
-      <c r="L35" s="45">
+      <c r="L35" s="58">
         <f t="shared" si="8"/>
         <v>1.4239999999999999</v>
       </c>
@@ -47607,7 +49063,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="25"/>
-      <c r="C37" s="15">
+      <c r="C37" s="86">
         <f>IF(C21&lt;&gt;"",MAX(0,C36-C38),"")</f>
         <v>4.1650000000000009</v>
       </c>
@@ -47655,7 +49111,7 @@
       <c r="B38" s="46">
         <v>7.5</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="86">
         <f>IF(C22&lt;&gt;"",IF(C36&gt;$B38,$B38,C36),"")</f>
         <v>7.5</v>
       </c>
@@ -48034,16 +49490,16 @@
       <c r="P50" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="Q50" s="74" t="s">
+      <c r="Q50" s="61" t="s">
         <v>175</v>
       </c>
       <c r="R50" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="S50" s="72" t="s">
+      <c r="S50" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="T50" s="72" t="s">
+      <c r="T50" s="59" t="s">
         <v>176</v>
       </c>
     </row>
@@ -48101,17 +49557,17 @@
         <f>R51-Q51</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="Q51" s="70">
+      <c r="Q51" s="57">
         <v>0.15</v>
       </c>
       <c r="R51" s="43">
-        <f>T51/1000000</f>
+        <f t="shared" ref="R51:R58" si="18">T51/1000000</f>
         <v>1.35</v>
       </c>
       <c r="S51" s="44">
         <v>0.125</v>
       </c>
-      <c r="T51" s="73">
+      <c r="T51" s="60">
         <v>1350000</v>
       </c>
     </row>
@@ -48124,39 +49580,39 @@
         <v>1.47</v>
       </c>
       <c r="D52" s="45">
-        <f t="shared" ref="D52:L52" si="18">D35</f>
+        <f t="shared" ref="D52:L52" si="19">D35</f>
         <v>1.47</v>
       </c>
       <c r="E52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="F52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="G52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="H52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="I52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="J52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="K52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.466</v>
       </c>
       <c r="L52" s="45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.4239999999999999</v>
       </c>
       <c r="N52" s="41">
@@ -48166,20 +49622,20 @@
         <v>6.305377</v>
       </c>
       <c r="P52" s="43">
-        <f t="shared" ref="P52:P58" si="19">R52-Q52</f>
+        <f t="shared" ref="P52:P58" si="20">R52-Q52</f>
         <v>1.117</v>
       </c>
-      <c r="Q52" s="70">
+      <c r="Q52" s="57">
         <v>0.10100000000000001</v>
       </c>
       <c r="R52" s="43">
-        <f>T52/1000000</f>
+        <f t="shared" si="18"/>
         <v>1.218</v>
       </c>
       <c r="S52" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T52" s="73">
+      <c r="T52" s="60">
         <v>1218000</v>
       </c>
     </row>
@@ -48204,20 +49660,20 @@
         <v>6.6375080000000004</v>
       </c>
       <c r="P53" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0669999999999999</v>
       </c>
-      <c r="Q53" s="70">
+      <c r="Q53" s="57">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="R53" s="43">
-        <f>T53/1000000</f>
+        <f t="shared" si="18"/>
         <v>1.159</v>
       </c>
       <c r="S53" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T53" s="73">
+      <c r="T53" s="60">
         <v>1159000</v>
       </c>
     </row>
@@ -48230,39 +49686,39 @@
         <v>10.432257133649305</v>
       </c>
       <c r="D54" s="15">
-        <f t="shared" ref="D54:L54" si="20">IF(D$22&lt;&gt;"",D45-D49,"")</f>
+        <f t="shared" ref="D54:L54" si="21">IF(D$22&lt;&gt;"",D45-D49,"")</f>
         <v>9.8828742725086656</v>
       </c>
-      <c r="E54" s="15">
-        <f t="shared" si="20"/>
+      <c r="E54" s="86">
+        <f t="shared" si="21"/>
         <v>9.3525876185647441</v>
       </c>
       <c r="F54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.8409004511034617</v>
       </c>
       <c r="G54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8.3475025922356316</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.8722917039284548</v>
       </c>
       <c r="I54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.4141118988589128</v>
       </c>
       <c r="J54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>10.88852812624792</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>12.301550132433068</v>
       </c>
       <c r="L54" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>13.679263451130474</v>
       </c>
       <c r="N54" s="41">
@@ -48272,20 +49728,20 @@
         <v>6.977665</v>
       </c>
       <c r="P54" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0169999999999999</v>
       </c>
-      <c r="Q54" s="70">
+      <c r="Q54" s="57">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="R54" s="43">
-        <f>T54/1000000</f>
+        <f t="shared" si="18"/>
         <v>1.101</v>
       </c>
       <c r="S54" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T54" s="73">
+      <c r="T54" s="60">
         <v>1101000</v>
       </c>
     </row>
@@ -48298,35 +49754,35 @@
         <v>9.708845186350727</v>
       </c>
       <c r="D55" s="15">
-        <f t="shared" ref="D55:K55" si="21">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
+        <f t="shared" ref="D55:K55" si="22">IF(D$22&lt;&gt;"",D46-D50-D51,"")</f>
         <v>9.3281315674907948</v>
       </c>
-      <c r="E55" s="15">
-        <f t="shared" si="21"/>
+      <c r="E55" s="86">
+        <f t="shared" si="22"/>
         <v>9.0427584674352897</v>
       </c>
       <c r="F55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.7639290758965469</v>
       </c>
       <c r="G55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.4915395707632033</v>
       </c>
       <c r="H55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8.2256982900698059</v>
       </c>
       <c r="I55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.9654311151393475</v>
       </c>
       <c r="J55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.7326480822497654</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7.5232324780640472</v>
       </c>
       <c r="L55" s="15">
@@ -48340,20 +49796,20 @@
         <v>7.3260519999999998</v>
       </c>
       <c r="P55" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.96699999999999997</v>
       </c>
-      <c r="Q55" s="70">
+      <c r="Q55" s="57">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="R55" s="43">
-        <f>T55/1000000</f>
+        <f t="shared" si="18"/>
         <v>1.0429999999999999</v>
       </c>
       <c r="S55" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T55" s="73">
+      <c r="T55" s="60">
         <v>1043000</v>
       </c>
     </row>
@@ -48366,39 +49822,39 @@
         <v>0</v>
       </c>
       <c r="D56" s="15">
-        <f t="shared" ref="D56:L56" si="22">IF(D$22&lt;&gt;"",D47-D52,"")</f>
+        <f t="shared" ref="D56:L56" si="23">IF(D$22&lt;&gt;"",D47-D52,"")</f>
         <v>0</v>
       </c>
       <c r="E56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L56" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N56" s="41">
@@ -48408,20 +49864,20 @@
         <v>7.6828779999999997</v>
       </c>
       <c r="P56" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.71699999999999997</v>
       </c>
-      <c r="Q56" s="70">
+      <c r="Q56" s="57">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="R56" s="43">
-        <f>T56/1000000</f>
+        <f t="shared" si="18"/>
         <v>0.751</v>
       </c>
       <c r="S56" s="44">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T56" s="73">
+      <c r="T56" s="60">
         <v>751000</v>
       </c>
     </row>
@@ -48435,39 +49891,39 @@
         <v>20.14110232000003</v>
       </c>
       <c r="D57" s="15">
-        <f t="shared" ref="D57:L57" si="23">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
+        <f t="shared" ref="D57:L57" si="24">IF(D$22&lt;&gt;"",SUM(D54:D56),"")</f>
         <v>19.211005839999459</v>
       </c>
       <c r="E57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18.395346086000032</v>
       </c>
       <c r="F57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17.604829527000007</v>
       </c>
       <c r="G57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16.839042162998837</v>
       </c>
       <c r="H57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16.097989993998262</v>
       </c>
       <c r="I57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>17.379543013998259</v>
       </c>
       <c r="J57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>18.621176208497687</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>19.824782610497117</v>
       </c>
       <c r="L57" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>21.284264219997112</v>
       </c>
       <c r="N57" s="41">
@@ -48477,20 +49933,20 @@
         <v>9.6009879999900001</v>
       </c>
       <c r="P57" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.63300000000000001</v>
       </c>
-      <c r="Q57" s="70">
+      <c r="Q57" s="57">
         <v>0.03</v>
       </c>
       <c r="R57" s="43">
-        <f>T57/1000000</f>
+        <f t="shared" si="18"/>
         <v>0.66300000000000003</v>
       </c>
       <c r="S57" s="44">
         <v>0.05</v>
       </c>
-      <c r="T57" s="73">
+      <c r="T57" s="60">
         <v>663000</v>
       </c>
     </row>
@@ -48504,39 +49960,39 @@
         <v>8.5967059736492857</v>
       </c>
       <c r="D58" s="15">
-        <f t="shared" ref="D58:L58" si="24">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
+        <f t="shared" ref="D58:L58" si="25">IF(D22&lt;&gt;"",D29+D22-D32-D49-D57*$B$29,"")</f>
         <v>8.1506653788596459</v>
       </c>
       <c r="E58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.1105432230557888</v>
       </c>
       <c r="F58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.1165711120387307</v>
       </c>
       <c r="G58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.1224958231327555</v>
       </c>
       <c r="H58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.1283151961931104</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.1340436849304609</v>
       </c>
       <c r="J58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.0865996301392933</v>
       </c>
       <c r="K58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>9.0442188051854302</v>
       </c>
       <c r="L58" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8.8599725139474117</v>
       </c>
       <c r="N58" s="41">
@@ -48546,18 +50002,18 @@
         <v>10.857008</v>
       </c>
       <c r="P58" s="43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q58" s="70">
+      <c r="Q58" s="57">
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="R58" s="43">
-        <f>T58/1000000</f>
+        <f t="shared" si="18"/>
         <v>0.34100000000000003</v>
       </c>
       <c r="S58" s="40"/>
-      <c r="T58" s="73">
+      <c r="T58" s="60">
         <v>341000</v>
       </c>
     </row>
@@ -48570,39 +50026,39 @@
         <v>0.2</v>
       </c>
       <c r="D60" s="12">
-        <f t="shared" ref="D60:L60" si="25">IF(D$22&lt;&gt;"",0.2,"")</f>
+        <f t="shared" ref="D60:L60" si="26">IF(D$22&lt;&gt;"",0.2,"")</f>
         <v>0.2</v>
       </c>
       <c r="E60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="F60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="G60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="H60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="I60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="K60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="L60" s="12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
       <c r="N60" s="55">
@@ -48619,43 +50075,43 @@
         <v>132</v>
       </c>
       <c r="C61" s="15">
-        <f t="shared" ref="C61:L61" si="26">IF(C$22&lt;&gt;"",C50+C60,"")</f>
+        <f t="shared" ref="C61:L61" si="27">IF(C$22&lt;&gt;"",C50+C60,"")</f>
         <v>7.0670000000000002</v>
       </c>
       <c r="D61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>7.0670000000000002</v>
       </c>
       <c r="E61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="F61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="G61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="I61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="J61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="K61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.9830000000000005</v>
       </c>
       <c r="L61" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>6.7330000000000005</v>
       </c>
     </row>
@@ -48686,7 +50142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357583FB-2133-4215-BF55-5657B6D72C84}">
   <dimension ref="G1:P1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
